--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,6 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -74,6 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="445">
   <si>
     <t>id|</t>
   </si>
@@ -1755,12 +1757,314 @@
   <si>
     <t>免费福卡</t>
   </si>
+  <si>
+    <t>白银宝箱（免费小额，V1-V3）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱（免费小额，V1-V3）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱（免费小额，V1-V3）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱（V4-V7）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱（V4-V7）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱（V4-V7）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱（V8-V10）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱（V8-V10）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱（V8-V10）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>125万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>130万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>135万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>190万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>195万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>140万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>220万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>510万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>530万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1040万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2080万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2150万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5180万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5250万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5280万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000,650000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>680000,680000</t>
+  </si>
+  <si>
+    <t>700000,700000</t>
+  </si>
+  <si>
+    <t>800000,800000</t>
+  </si>
+  <si>
+    <t>1250000,1250000</t>
+  </si>
+  <si>
+    <t>1300000,1300000</t>
+  </si>
+  <si>
+    <t>1350000,1350000</t>
+  </si>
+  <si>
+    <t>1400000,1400000</t>
+  </si>
+  <si>
+    <t>1900000,1900000</t>
+  </si>
+  <si>
+    <t>1950000,1950000</t>
+  </si>
+  <si>
+    <t>2000000,2000000</t>
+  </si>
+  <si>
+    <t>2200000,2200000</t>
+  </si>
+  <si>
+    <t>5000000,5000000</t>
+  </si>
+  <si>
+    <t>5100000,5100000</t>
+  </si>
+  <si>
+    <t>5200000,5200000</t>
+  </si>
+  <si>
+    <t>5300000,5300000</t>
+  </si>
+  <si>
+    <t>10200000,10200000</t>
+  </si>
+  <si>
+    <t>10300000,10300000</t>
+  </si>
+  <si>
+    <t>10400000,10400000</t>
+  </si>
+  <si>
+    <t>10600000,10600000</t>
+  </si>
+  <si>
+    <t>20500000,20500000</t>
+  </si>
+  <si>
+    <t>20800000,20800000</t>
+  </si>
+  <si>
+    <t>21000000,21000000</t>
+  </si>
+  <si>
+    <t>21500000,21500000</t>
+  </si>
+  <si>
+    <t>51800000,51800000</t>
+  </si>
+  <si>
+    <t>52500000,52500000</t>
+  </si>
+  <si>
+    <t>52800000,52800000</t>
+  </si>
+  <si>
+    <t>53800000,53800000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,21 +2137,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,12 +2149,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1912,7 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1936,9 +2221,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1947,12 +2229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1967,10 +2243,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1981,33 +2253,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2288,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2372,8 +2638,8 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2398,8 +2664,8 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2424,8 +2690,8 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2474,8 +2740,8 @@
       <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2500,8 +2766,8 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2532,8 +2798,8 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2564,8 +2830,8 @@
       <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2596,8 +2862,8 @@
       <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2628,8 +2894,8 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2654,8 +2920,8 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2680,518 +2946,765 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>1583164800</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>1583769599</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>8</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="16">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="13">
         <v>13</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="18">
         <v>0</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>1583796600</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>1584374399</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>9</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="16">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="13">
         <v>14</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="18">
         <v>0</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>1586215800</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>1586793599</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>10</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="16">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="13">
         <v>15</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="18">
         <v>0</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:17" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="13">
         <v>1590449400</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="13">
         <v>1591027199</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="13">
         <v>11</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="29">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="13">
         <v>16</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="18">
         <v>1</v>
       </c>
-      <c r="O17" s="33"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>1588030200</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>1588607999</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>12</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="14">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="13">
         <v>17</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+    <row r="19" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="13">
         <v>13</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="13">
         <v>18</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="18">
         <v>1</v>
       </c>
-      <c r="O19" s="33"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="28">
         <v>14</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <v>1</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="17">
         <v>0</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>19</v>
       </c>
-      <c r="L20" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="28">
         <v>15</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <v>1</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="17">
         <v>0</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>20</v>
       </c>
-      <c r="L21" s="26">
-        <v>1</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="28">
         <v>16</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <v>1</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="17">
         <v>0</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>21</v>
       </c>
-      <c r="L22" s="26">
-        <v>1</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="28">
         <v>17</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <v>1</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="17">
         <v>0</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>22</v>
       </c>
-      <c r="L23" s="26">
-        <v>1</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="28">
         <v>18</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <v>1</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="17">
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>23</v>
       </c>
-      <c r="L24" s="26">
-        <v>1</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="28">
         <v>19</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17">
         <v>1</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="17">
         <v>0</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>24</v>
       </c>
-      <c r="L25" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="28">
         <v>20</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17">
         <v>1</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="17">
         <v>0</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>25</v>
       </c>
-      <c r="L26" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="28">
         <v>21</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17">
         <v>1</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="17">
         <v>0</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>26</v>
       </c>
-      <c r="L27" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>1592263800</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>1592841599</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="28">
         <v>22</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
         <v>1</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="17">
         <v>0</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>27</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E29" s="29">
+        <v>23</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="9"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J29" s="25">
+        <v>0</v>
+      </c>
+      <c r="K29" s="23">
+        <v>28</v>
+      </c>
+      <c r="L29" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D30" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E30" s="29">
+        <v>24</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25">
+        <v>1</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0</v>
+      </c>
+      <c r="K30" s="23">
+        <v>29</v>
+      </c>
+      <c r="L30" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E31" s="29">
+        <v>25</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25">
+        <v>1</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0</v>
+      </c>
+      <c r="K31" s="23">
+        <v>30</v>
+      </c>
+      <c r="L31" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E32" s="29">
+        <v>26</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25">
+        <v>1</v>
+      </c>
+      <c r="J32" s="25">
+        <v>0</v>
+      </c>
+      <c r="K32" s="23">
+        <v>31</v>
+      </c>
+      <c r="L32" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E33" s="29">
+        <v>27</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25">
+        <v>1</v>
+      </c>
+      <c r="J33" s="25">
+        <v>0</v>
+      </c>
+      <c r="K33" s="23">
+        <v>32</v>
+      </c>
+      <c r="L33" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E34" s="29">
+        <v>28</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25">
+        <v>1</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0</v>
+      </c>
+      <c r="K34" s="23">
+        <v>33</v>
+      </c>
+      <c r="L34" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E35" s="29">
+        <v>29</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25">
+        <v>1</v>
+      </c>
+      <c r="J35" s="25">
+        <v>0</v>
+      </c>
+      <c r="K35" s="23">
+        <v>34</v>
+      </c>
+      <c r="L35" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>35</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E36" s="29">
+        <v>30</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25">
+        <v>1</v>
+      </c>
+      <c r="J36" s="25">
+        <v>0</v>
+      </c>
+      <c r="K36" s="23">
+        <v>35</v>
+      </c>
+      <c r="L36" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>36</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1597707000</v>
+      </c>
+      <c r="D37" s="23">
+        <v>1598284799</v>
+      </c>
+      <c r="E37" s="29">
+        <v>31</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
+      <c r="J37" s="25">
+        <v>0</v>
+      </c>
+      <c r="K37" s="23">
+        <v>36</v>
+      </c>
+      <c r="L37" s="26">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3206,7 +3719,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3327,52 +3840,52 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>9</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+    <row r="11" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="17">
         <v>10</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="17">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3382,187 +3895,285 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>14</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+    <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+    <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+    <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="17">
         <v>18</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+    <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="17">
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+    <row r="22" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="17">
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+    <row r="23" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="17">
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25">
+        <v>26</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25">
+        <v>27</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25">
+        <v>28</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25">
+        <v>29</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25">
+        <v>30</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25">
+        <v>31</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
@@ -3607,7 +4218,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C2">
@@ -3622,13 +4233,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3682,7 +4293,7 @@
       <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="1">
@@ -3702,7 +4313,7 @@
       <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1">
@@ -3722,7 +4333,7 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="1">
@@ -3742,7 +4353,7 @@
       <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1">
@@ -3762,7 +4373,7 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="1">
@@ -3782,7 +4393,7 @@
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="1">
@@ -3802,7 +4413,7 @@
       <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="1">
@@ -3822,7 +4433,7 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="1">
@@ -3842,7 +4453,7 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="1">
@@ -3862,7 +4473,7 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="1">
@@ -3879,10 +4490,10 @@
       <c r="C12" s="1">
         <v>2004</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="1">
@@ -3899,10 +4510,10 @@
       <c r="C13" s="1">
         <v>2005</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="1">
@@ -3919,10 +4530,10 @@
       <c r="C14" s="1">
         <v>2006</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -3937,10 +4548,10 @@
       <c r="C15" s="1">
         <v>2007</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
@@ -3955,7 +4566,7 @@
       <c r="C16" s="1">
         <v>2008</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="1">
@@ -3972,7 +4583,7 @@
       <c r="C17" s="1">
         <v>2009</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="1">
@@ -3989,7 +4600,7 @@
       <c r="C18" s="1">
         <v>2010</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="1">
@@ -4006,13 +4617,13 @@
       <c r="C19" s="1">
         <v>3001</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="1">
@@ -4029,13 +4640,13 @@
       <c r="C20" s="1">
         <v>3002</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="1">
@@ -4052,13 +4663,13 @@
       <c r="C21" s="1">
         <v>3003</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="1">
@@ -4075,13 +4686,13 @@
       <c r="C22" s="1">
         <v>3004</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>64</v>
       </c>
       <c r="G22" s="1">
@@ -4098,13 +4709,13 @@
       <c r="C23" s="1">
         <v>3005</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="1">
@@ -4121,13 +4732,13 @@
       <c r="C24" s="1">
         <v>3006</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="1">
@@ -4144,13 +4755,13 @@
       <c r="C25" s="1">
         <v>3007</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G25" s="1">
@@ -4167,7 +4778,7 @@
       <c r="C26" s="1">
         <v>3008</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="1">
@@ -4184,7 +4795,7 @@
       <c r="C27" s="1">
         <v>3009</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="1">
@@ -4201,7 +4812,7 @@
       <c r="C28" s="1">
         <v>3010</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G28" s="1">
@@ -4218,7 +4829,7 @@
       <c r="C29" s="1">
         <v>3011</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="1">
@@ -4235,7 +4846,7 @@
       <c r="C30" s="1">
         <v>3012</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="1">
@@ -4252,7 +4863,7 @@
       <c r="C31" s="1">
         <v>3013</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="1">
@@ -4269,7 +4880,7 @@
       <c r="C32" s="1">
         <v>3014</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G32" s="1">
@@ -4286,7 +4897,7 @@
       <c r="C33" s="1">
         <v>3015</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G33" s="1">
@@ -4303,7 +4914,7 @@
       <c r="C34" s="1">
         <v>3016</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="1">
@@ -4323,7 +4934,7 @@
       <c r="E35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G35" s="1">
@@ -4343,7 +4954,7 @@
       <c r="E36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1">
@@ -4363,7 +4974,7 @@
       <c r="E37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1">
@@ -4383,7 +4994,7 @@
       <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="1">
@@ -4403,7 +5014,7 @@
       <c r="E39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G39" s="1">
@@ -4423,7 +5034,7 @@
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="1">
@@ -4443,7 +5054,7 @@
       <c r="E41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G41" s="1">
@@ -4463,7 +5074,7 @@
       <c r="E42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="1">
@@ -4483,7 +5094,7 @@
       <c r="E43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G43" s="1">
@@ -4503,7 +5114,7 @@
       <c r="E44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="1">
@@ -4523,7 +5134,7 @@
       <c r="E45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="1">
@@ -4543,7 +5154,7 @@
       <c r="E46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G46" s="1">
@@ -4563,7 +5174,7 @@
       <c r="E47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="1">
@@ -4583,7 +5194,7 @@
       <c r="E48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="1">
@@ -4603,7 +5214,7 @@
       <c r="E49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G49" s="1">
@@ -4623,7 +5234,7 @@
       <c r="E50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G50" s="1">
@@ -4643,7 +5254,7 @@
       <c r="E51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G51" s="1">
@@ -4663,7 +5274,7 @@
       <c r="E52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G52" s="1">
@@ -4683,7 +5294,7 @@
       <c r="E53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G53" s="1">
@@ -4700,10 +5311,10 @@
       <c r="C54" s="1">
         <v>7005</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G54" s="1">
@@ -4720,10 +5331,10 @@
       <c r="C55" s="1">
         <v>7006</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="1">
@@ -4740,10 +5351,10 @@
       <c r="C56" s="1">
         <v>7007</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G56" s="1">
@@ -4760,7 +5371,7 @@
       <c r="C57" s="1">
         <v>7008</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G57" s="1">
@@ -4777,7 +5388,7 @@
       <c r="C58" s="1">
         <v>7009</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G58" s="1">
@@ -4794,7 +5405,7 @@
       <c r="C59" s="1">
         <v>7010</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G59" s="1">
@@ -4814,7 +5425,7 @@
       <c r="E60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G60" s="1">
@@ -4834,7 +5445,7 @@
       <c r="E61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G61" s="1">
@@ -4854,7 +5465,7 @@
       <c r="E62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="1">
@@ -4874,7 +5485,7 @@
       <c r="E63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G63" s="1">
@@ -4891,10 +5502,10 @@
       <c r="C64" s="1">
         <v>7005</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G64" s="1">
@@ -4911,10 +5522,10 @@
       <c r="C65" s="1">
         <v>7006</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G65" s="1">
@@ -4931,10 +5542,10 @@
       <c r="C66" s="1">
         <v>7007</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G66" s="1">
@@ -4951,7 +5562,7 @@
       <c r="C67" s="1">
         <v>7008</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G67" s="1">
@@ -4968,7 +5579,7 @@
       <c r="C68" s="1">
         <v>7009</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G68" s="1">
@@ -4985,7 +5596,7 @@
       <c r="C69" s="1">
         <v>7010</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G69" s="1">
@@ -5005,7 +5616,7 @@
       <c r="E70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G70" s="1">
@@ -5025,7 +5636,7 @@
       <c r="E71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G71" s="1">
@@ -5045,7 +5656,7 @@
       <c r="E72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G72" s="1">
@@ -5065,7 +5676,7 @@
       <c r="E73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G73" s="1">
@@ -5082,10 +5693,10 @@
       <c r="C74" s="1">
         <v>7005</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="1">
@@ -5102,10 +5713,10 @@
       <c r="C75" s="1">
         <v>7006</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G75" s="1">
@@ -5122,10 +5733,10 @@
       <c r="C76" s="1">
         <v>7007</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G76" s="1">
@@ -5142,7 +5753,7 @@
       <c r="C77" s="1">
         <v>7008</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G77" s="1">
@@ -5159,7 +5770,7 @@
       <c r="C78" s="1">
         <v>7009</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G78" s="1">
@@ -5176,7 +5787,7 @@
       <c r="C79" s="1">
         <v>7010</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G79" s="1">
@@ -5196,7 +5807,7 @@
       <c r="E80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G80" s="1">
@@ -5216,7 +5827,7 @@
       <c r="E81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G81" s="1">
@@ -5236,7 +5847,7 @@
       <c r="E82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G82" s="1">
@@ -5256,7 +5867,7 @@
       <c r="E83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G83" s="1">
@@ -5273,10 +5884,10 @@
       <c r="C84" s="1">
         <v>7005</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G84" s="1">
@@ -5293,10 +5904,10 @@
       <c r="C85" s="1">
         <v>7006</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G85" s="1">
@@ -5313,10 +5924,10 @@
       <c r="C86" s="1">
         <v>7007</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G86" s="1">
@@ -5333,7 +5944,7 @@
       <c r="C87" s="1">
         <v>7008</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G87" s="1">
@@ -5350,7 +5961,7 @@
       <c r="C88" s="1">
         <v>7009</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G88" s="1">
@@ -5367,389 +5978,389 @@
       <c r="C89" s="1">
         <v>7010</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G89" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16">
+    <row r="90" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13">
         <v>89</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="13">
         <v>11</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="13">
         <v>8001</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18" t="s">
+      <c r="D90" s="14"/>
+      <c r="E90" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="13">
         <v>2500</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16">
+    <row r="91" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13">
         <v>90</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="13">
         <v>11</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="13">
         <v>8002</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="F91" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="13">
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16">
+    <row r="92" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13">
         <v>91</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="13">
         <v>11</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="13">
         <v>8003</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="16" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F92" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="13">
         <v>1300</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16">
+    <row r="93" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13">
         <v>92</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="13">
         <v>11</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="13">
         <v>8004</v>
       </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17" t="s">
+      <c r="D93" s="14"/>
+      <c r="E93" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16">
+    <row r="94" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13">
         <v>93</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="13">
         <v>11</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="13">
         <v>8005</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="16" t="s">
+      <c r="D94" s="15"/>
+      <c r="E94" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F94" s="19" t="s">
+      <c r="F94" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="13">
         <v>700.00000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
+    <row r="95" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
         <v>94</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="13">
         <v>11</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="13">
         <v>8006</v>
       </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18" t="s">
+      <c r="D95" s="15"/>
+      <c r="E95" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="13">
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16">
+    <row r="96" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="13">
         <v>95</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="13">
         <v>11</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="13">
         <v>8007</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="16" t="s">
+      <c r="D96" s="15"/>
+      <c r="E96" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16">
+    <row r="97" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="13">
         <v>96</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="13">
         <v>11</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="13">
         <v>8008</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="13">
         <v>350.00000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16">
+    <row r="98" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="13">
         <v>97</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="13">
         <v>11</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="13">
         <v>8009</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="16" t="s">
+      <c r="D98" s="15"/>
+      <c r="E98" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="13">
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16">
+    <row r="99" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="13">
         <v>98</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="13">
         <v>11</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="13">
         <v>8010</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="16" t="s">
+      <c r="D99" s="15"/>
+      <c r="E99" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16">
+    <row r="100" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="13">
         <v>99</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="13">
         <v>11</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="13">
         <v>8011</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18" t="s">
+      <c r="D100" s="15"/>
+      <c r="E100" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16">
+    <row r="101" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="13">
         <v>100</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="13">
         <v>11</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="13">
         <v>8012</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="16">
+    <row r="102" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
         <v>101</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="13">
         <v>11</v>
       </c>
-      <c r="C102" s="16">
+      <c r="C102" s="13">
         <v>8013</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="13">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="16">
+    <row r="103" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
         <v>102</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="13">
         <v>11</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="13">
         <v>8014</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16">
+    <row r="104" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="13">
         <v>103</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="13">
         <v>11</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="13">
         <v>8015</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="16">
+    <row r="105" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="13">
         <v>104</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="13">
         <v>11</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="13">
         <v>8016</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="16">
+    <row r="106" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="13">
         <v>105</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="13">
         <v>11</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="13">
         <v>8017</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="16">
+    <row r="107" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="13">
         <v>106</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="13">
         <v>11</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="13">
         <v>8018</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G107" s="16">
+      <c r="G107" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="16">
+    <row r="108" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
         <v>107</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="13">
         <v>11</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="13">
         <v>8019</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G108" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5766,7 +6377,7 @@
       <c r="E109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="13" t="s">
+      <c r="F109" s="12" t="s">
         <v>118</v>
       </c>
       <c r="G109" s="1">
@@ -5786,7 +6397,7 @@
       <c r="E110" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G110" s="1">
@@ -5806,7 +6417,7 @@
       <c r="E111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F111" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G111" s="1">
@@ -5826,7 +6437,7 @@
       <c r="E112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="12" t="s">
         <v>120</v>
       </c>
       <c r="G112" s="1">
@@ -5846,7 +6457,7 @@
       <c r="E113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G113" s="1">
@@ -5866,7 +6477,7 @@
       <c r="E114" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G114" s="1">
@@ -5886,7 +6497,7 @@
       <c r="E115" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F115" s="12" t="s">
         <v>123</v>
       </c>
       <c r="G115" s="1">
@@ -5906,7 +6517,7 @@
       <c r="E116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G116" s="1">
@@ -5926,7 +6537,7 @@
       <c r="E117" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="12" t="s">
         <v>125</v>
       </c>
       <c r="G117" s="1">
@@ -5946,7 +6557,7 @@
       <c r="E118" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="12" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="1">
@@ -5966,7 +6577,7 @@
       <c r="E119" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="12" t="s">
         <v>127</v>
       </c>
       <c r="G119" s="1">
@@ -5986,925 +6597,919 @@
       <c r="E120" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="12" t="s">
         <v>128</v>
       </c>
       <c r="G120" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16">
+    <row r="121" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="13">
         <v>120</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="13">
         <v>13</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="13">
         <v>10001</v>
       </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18" t="s">
+      <c r="D121" s="15"/>
+      <c r="E121" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F121" s="27" t="s">
+      <c r="F121" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G121" s="16">
+      <c r="G121" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16">
+    <row r="122" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="13">
         <v>121</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="13">
         <v>13</v>
       </c>
-      <c r="C122" s="16">
+      <c r="C122" s="13">
         <v>10002</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="17" t="s">
+      <c r="D122" s="15"/>
+      <c r="E122" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F122" s="27" t="s">
+      <c r="F122" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G122" s="16">
+      <c r="G122" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="16">
+    <row r="123" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="13">
         <v>122</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="13">
         <v>13</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="13">
         <v>10003</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="16" t="s">
+      <c r="D123" s="15"/>
+      <c r="E123" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F123" s="27" t="s">
+      <c r="F123" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G123" s="16">
+      <c r="G123" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="16">
+    <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="13">
         <v>123</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="13">
         <v>13</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="13">
         <v>10004</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18" t="s">
+      <c r="D124" s="15"/>
+      <c r="E124" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F124" s="27" t="s">
+      <c r="F124" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G124" s="16">
+      <c r="G124" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="16">
+    <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="13">
         <v>124</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="13">
         <v>13</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="13">
         <v>10005</v>
       </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="28" t="s">
+      <c r="D125" s="15"/>
+      <c r="E125" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F125" s="27" t="s">
+      <c r="F125" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G125" s="16">
+      <c r="G125" s="13">
         <v>2290</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="16">
+    <row r="126" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="13">
         <v>125</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="13">
         <v>13</v>
       </c>
-      <c r="C126" s="16">
+      <c r="C126" s="13">
         <v>10006</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="16" t="s">
+      <c r="D126" s="15"/>
+      <c r="E126" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F126" s="27" t="s">
+      <c r="F126" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G126" s="16">
+      <c r="G126" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="16">
+    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="13">
         <v>126</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="13">
         <v>13</v>
       </c>
-      <c r="C127" s="16">
+      <c r="C127" s="13">
         <v>10007</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="16" t="s">
+      <c r="D127" s="15"/>
+      <c r="E127" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F127" s="27" t="s">
+      <c r="F127" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G127" s="16">
+      <c r="G127" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="16">
+    <row r="128" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="13">
         <v>127</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="13">
         <v>13</v>
       </c>
-      <c r="C128" s="16">
+      <c r="C128" s="13">
         <v>10008</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="16">
+      <c r="F128" s="16"/>
+      <c r="G128" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="16">
+    <row r="129" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="13">
         <v>128</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="13">
         <v>13</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C129" s="13">
         <v>10009</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="16">
+      <c r="F129" s="16"/>
+      <c r="G129" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="16">
+    <row r="130" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="13">
         <v>129</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="13">
         <v>13</v>
       </c>
-      <c r="C130" s="16">
+      <c r="C130" s="13">
         <v>10010</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="16">
+      <c r="F130" s="16"/>
+      <c r="G130" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16">
+    <row r="131" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="13">
         <v>130</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="13">
         <v>14</v>
       </c>
-      <c r="C131" s="16">
+      <c r="C131" s="13">
         <v>11001</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F131" s="27" t="s">
+      <c r="F131" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G131" s="16">
+      <c r="G131" s="13">
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16">
+    <row r="132" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="13">
         <v>131</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="13">
         <v>14</v>
       </c>
-      <c r="C132" s="16">
+      <c r="C132" s="13">
         <v>11002</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F132" s="27" t="s">
+      <c r="F132" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G132" s="16">
+      <c r="G132" s="13">
         <v>2095</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="16">
+    <row r="133" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="13">
         <v>132</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="13">
         <v>14</v>
       </c>
-      <c r="C133" s="16">
+      <c r="C133" s="13">
         <v>11003</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F133" s="27" t="s">
+      <c r="F133" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="G133" s="16">
+      <c r="G133" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="16">
+    <row r="134" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="13">
         <v>133</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="13">
         <v>14</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="13">
         <v>11004</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F134" s="27" t="s">
+      <c r="F134" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="G134" s="16">
+      <c r="G134" s="13">
         <v>190</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="16">
+    <row r="135" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="13">
         <v>134</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="13">
         <v>14</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="13">
         <v>11005</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F135" s="27" t="s">
+      <c r="F135" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G135" s="16">
+      <c r="G135" s="13">
         <v>2000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="16">
+    <row r="136" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="13">
         <v>135</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="13">
         <v>14</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C136" s="13">
         <v>11006</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F136" s="27" t="s">
+      <c r="F136" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G136" s="16">
+      <c r="G136" s="13">
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="16">
+    <row r="137" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="13">
         <v>136</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="13">
         <v>14</v>
       </c>
-      <c r="C137" s="16">
+      <c r="C137" s="13">
         <v>11007</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F137" s="27" t="s">
+      <c r="F137" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G137" s="16">
+      <c r="G137" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="16">
+    <row r="138" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="13">
         <v>137</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="13">
         <v>14</v>
       </c>
-      <c r="C138" s="16">
+      <c r="C138" s="13">
         <v>11008</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F138" s="27" t="s">
+      <c r="F138" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G138" s="16">
+      <c r="G138" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="16">
+    <row r="139" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="13">
         <v>138</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="13">
         <v>14</v>
       </c>
-      <c r="C139" s="16">
+      <c r="C139" s="13">
         <v>11009</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F139" s="27"/>
-      <c r="G139" s="16">
+      <c r="F139" s="21"/>
+      <c r="G139" s="13">
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="16">
+    <row r="140" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="13">
         <v>139</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="13">
         <v>14</v>
       </c>
-      <c r="C140" s="16">
+      <c r="C140" s="13">
         <v>11010</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F140" s="27"/>
-      <c r="G140" s="16">
+      <c r="F140" s="21"/>
+      <c r="G140" s="13">
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="16">
+    <row r="141" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="13">
         <v>140</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="13">
         <v>14</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C141" s="13">
         <v>11011</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F141" s="27" t="s">
+      <c r="F141" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G141" s="16">
+      <c r="G141" s="13">
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="16">
+    <row r="142" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="13">
         <v>141</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="13">
         <v>14</v>
       </c>
-      <c r="C142" s="16">
+      <c r="C142" s="13">
         <v>11012</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F142" s="27" t="s">
+      <c r="F142" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G142" s="16">
+      <c r="G142" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="16">
+    <row r="143" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="13">
         <v>142</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="13">
         <v>14</v>
       </c>
-      <c r="C143" s="16">
+      <c r="C143" s="13">
         <v>11013</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F143" s="27"/>
-      <c r="G143" s="16">
+      <c r="F143" s="21"/>
+      <c r="G143" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="16">
+    <row r="144" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="13">
         <v>143</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="13">
         <v>14</v>
       </c>
-      <c r="C144" s="16">
+      <c r="C144" s="13">
         <v>11014</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F144" s="27"/>
-      <c r="G144" s="16">
+      <c r="F144" s="21"/>
+      <c r="G144" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="16">
+    <row r="145" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="13">
         <v>144</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="13">
         <v>14</v>
       </c>
-      <c r="C145" s="16">
+      <c r="C145" s="13">
         <v>11015</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F145" s="27"/>
-      <c r="G145" s="16">
+      <c r="F145" s="21"/>
+      <c r="G145" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="16">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="13">
         <v>145</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="13">
         <v>15</v>
       </c>
-      <c r="C146" s="16">
+      <c r="C146" s="13">
         <v>11101</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F146" s="27" t="s">
+      <c r="F146" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G146" s="16">
+      <c r="G146" s="13">
         <v>4300</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="16">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="13">
         <v>146</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="13">
         <v>15</v>
       </c>
-      <c r="C147" s="16">
+      <c r="C147" s="13">
         <v>11102</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F147" s="27" t="s">
+      <c r="F147" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="G147" s="16">
+      <c r="G147" s="13">
         <v>4300</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="16">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="13">
         <v>147</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="13">
         <v>15</v>
       </c>
-      <c r="C148" s="16">
+      <c r="C148" s="13">
         <v>11103</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E148" s="18" t="s">
+      <c r="E148" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F148" s="27" t="s">
+      <c r="F148" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G148" s="16">
+      <c r="G148" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="16">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="13">
         <v>148</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="13">
         <v>15</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="13">
         <v>11104</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F149" s="27" t="s">
+      <c r="F149" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="G149" s="16">
+      <c r="G149" s="13">
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="16">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="13">
         <v>149</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="13">
         <v>15</v>
       </c>
-      <c r="C150" s="16">
+      <c r="C150" s="13">
         <v>11105</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F150" s="27" t="s">
+      <c r="F150" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="G150" s="16">
+      <c r="G150" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="16">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="13">
         <v>150</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="13">
         <v>15</v>
       </c>
-      <c r="C151" s="16">
+      <c r="C151" s="13">
         <v>11106</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F151" s="27" t="s">
+      <c r="F151" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="G151" s="16">
+      <c r="G151" s="13">
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="16">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="13">
         <v>151</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="13">
         <v>15</v>
       </c>
-      <c r="C152" s="16">
+      <c r="C152" s="13">
         <v>11107</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F152" s="27" t="s">
+      <c r="F152" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G152" s="16">
+      <c r="G152" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="16">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="13">
         <v>152</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="13">
         <v>15</v>
       </c>
-      <c r="C153" s="16">
+      <c r="C153" s="13">
         <v>11108</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F153" s="27" t="s">
+      <c r="F153" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G153" s="16">
+      <c r="G153" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="16">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="13">
         <v>153</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="13">
         <v>15</v>
       </c>
-      <c r="C154" s="16">
+      <c r="C154" s="13">
         <v>11109</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E154" s="16"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="16">
+      <c r="E154" s="13"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="29">
+    <row r="155" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="13">
         <v>154</v>
       </c>
-      <c r="B155" s="29">
+      <c r="B155" s="13">
         <v>16</v>
       </c>
-      <c r="C155" s="29">
+      <c r="C155" s="13">
         <v>11110</v>
       </c>
-      <c r="D155" s="30" t="s">
+      <c r="D155" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E155" s="30" t="s">
+      <c r="E155" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F155" s="34" t="s">
+      <c r="F155" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G155" s="29">
+      <c r="G155" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="29">
+    <row r="156" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="13">
         <v>155</v>
       </c>
-      <c r="B156" s="29">
+      <c r="B156" s="13">
         <v>16</v>
       </c>
-      <c r="C156" s="29">
+      <c r="C156" s="13">
         <v>11111</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="E156" s="30" t="s">
+      <c r="E156" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F156" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="G156" s="29">
+      <c r="G156" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="29">
+    <row r="157" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="13">
         <v>156</v>
       </c>
-      <c r="B157" s="29">
+      <c r="B157" s="13">
         <v>16</v>
       </c>
-      <c r="C157" s="29">
+      <c r="C157" s="13">
         <v>11112</v>
       </c>
-      <c r="D157" s="30" t="s">
+      <c r="D157" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E157" s="30" t="s">
+      <c r="E157" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F157" s="34" t="s">
+      <c r="F157" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="G157" s="29">
+      <c r="G157" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="29">
+    <row r="158" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="13">
         <v>157</v>
       </c>
-      <c r="B158" s="29">
+      <c r="B158" s="13">
         <v>16</v>
       </c>
-      <c r="C158" s="29">
+      <c r="C158" s="13">
         <v>11113</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D158" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E158" s="30" t="s">
+      <c r="E158" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F158" s="34" t="s">
+      <c r="F158" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G158" s="29">
+      <c r="G158" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="29">
+    <row r="159" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="13">
         <v>158</v>
       </c>
-      <c r="B159" s="29">
+      <c r="B159" s="13">
         <v>16</v>
       </c>
-      <c r="C159" s="29">
+      <c r="C159" s="13">
         <v>11114</v>
       </c>
-      <c r="D159" s="30" t="s">
+      <c r="D159" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E159" s="30" t="s">
+      <c r="E159" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="F159" s="34" t="s">
+      <c r="F159" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="G159" s="29">
+      <c r="G159" s="13">
         <v>20</v>
       </c>
-      <c r="H159" s="16"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="29">
+    </row>
+    <row r="160" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="13">
         <v>159</v>
       </c>
-      <c r="B160" s="29">
+      <c r="B160" s="13">
         <v>16</v>
       </c>
-      <c r="C160" s="29">
+      <c r="C160" s="13">
         <v>11115</v>
       </c>
-      <c r="D160" s="30" t="s">
+      <c r="D160" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E160" s="30" t="s">
+      <c r="E160" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F160" s="34" t="s">
+      <c r="F160" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G160" s="29">
+      <c r="G160" s="13">
         <v>55</v>
       </c>
-      <c r="H160" s="16"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="14">
+    </row>
+    <row r="161" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="13">
         <v>160</v>
       </c>
-      <c r="B161" s="14">
+      <c r="B161" s="13">
         <v>17</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="13">
         <v>11301</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E161" s="14"/>
       <c r="F161" s="21"/>
       <c r="G161" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="H161" s="16"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="14">
+    </row>
+    <row r="162" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="13">
         <v>161</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>17</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="13">
         <v>11302</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E162" s="14"/>
       <c r="F162" s="21"/>
       <c r="G162" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H162" s="16"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="14">
+    </row>
+    <row r="163" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="13">
         <v>162</v>
       </c>
-      <c r="B163" s="14">
+      <c r="B163" s="13">
         <v>17</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="13">
         <v>11303</v>
       </c>
       <c r="D163" s="15" t="s">
@@ -6919,76 +7524,69 @@
       <c r="G163" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="H163" s="16"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="14">
+    </row>
+    <row r="164" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="13">
         <v>163</v>
       </c>
-      <c r="B164" s="14">
+      <c r="B164" s="13">
         <v>17</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="13">
         <v>11304</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E164" s="14"/>
       <c r="F164" s="21"/>
       <c r="G164" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="H164" s="16"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="14">
+    </row>
+    <row r="165" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="13">
         <v>164</v>
       </c>
-      <c r="B165" s="14">
+      <c r="B165" s="13">
         <v>17</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="13">
         <v>11305</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E165" s="14"/>
       <c r="F165" s="21"/>
       <c r="G165" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="H165" s="16"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="14">
+    </row>
+    <row r="166" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="13">
         <v>165</v>
       </c>
-      <c r="B166" s="14">
+      <c r="B166" s="13">
         <v>17</v>
       </c>
-      <c r="C166" s="14">
+      <c r="C166" s="13">
         <v>11306</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E166" s="14"/>
       <c r="F166" s="21"/>
       <c r="G166" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H166" s="16"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="14">
+    </row>
+    <row r="167" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="13">
         <v>166</v>
       </c>
-      <c r="B167" s="14">
+      <c r="B167" s="13">
         <v>17</v>
       </c>
-      <c r="C167" s="14">
+      <c r="C167" s="13">
         <v>11307</v>
       </c>
       <c r="D167" s="15" t="s">
@@ -7003,36 +7601,33 @@
       <c r="G167" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="H167" s="16"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="14">
+    </row>
+    <row r="168" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="13">
         <v>167</v>
       </c>
-      <c r="B168" s="14">
+      <c r="B168" s="13">
         <v>17</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="13">
         <v>11308</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E168" s="14"/>
       <c r="F168" s="21"/>
       <c r="G168" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="H168" s="16"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="14">
+    </row>
+    <row r="169" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="13">
         <v>168</v>
       </c>
-      <c r="B169" s="14">
+      <c r="B169" s="13">
         <v>17</v>
       </c>
-      <c r="C169" s="14">
+      <c r="C169" s="13">
         <v>11309</v>
       </c>
       <c r="D169" s="15" t="s">
@@ -7047,16 +7642,15 @@
       <c r="G169" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="H169" s="16"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="14">
+    </row>
+    <row r="170" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="13">
         <v>169</v>
       </c>
-      <c r="B170" s="14">
+      <c r="B170" s="13">
         <v>17</v>
       </c>
-      <c r="C170" s="14">
+      <c r="C170" s="13">
         <v>11310</v>
       </c>
       <c r="D170" s="15" t="s">
@@ -7071,16 +7665,15 @@
       <c r="G170" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H170" s="16"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="14">
+    </row>
+    <row r="171" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="13">
         <v>170</v>
       </c>
-      <c r="B171" s="14">
+      <c r="B171" s="13">
         <v>17</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="13">
         <v>11311</v>
       </c>
       <c r="D171" s="15" t="s">
@@ -7095,16 +7688,15 @@
       <c r="G171" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="H171" s="16"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="14">
+    </row>
+    <row r="172" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="13">
         <v>171</v>
       </c>
-      <c r="B172" s="14">
+      <c r="B172" s="13">
         <v>17</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="13">
         <v>11312</v>
       </c>
       <c r="D172" s="15" t="s">
@@ -7119,16 +7711,15 @@
       <c r="G172" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="H172" s="16"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="14">
+    </row>
+    <row r="173" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="13">
         <v>172</v>
       </c>
-      <c r="B173" s="14">
+      <c r="B173" s="13">
         <v>17</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="13">
         <v>11313</v>
       </c>
       <c r="D173" s="15" t="s">
@@ -7143,16 +7734,15 @@
       <c r="G173" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H173" s="16"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="14">
+    </row>
+    <row r="174" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="13">
         <v>173</v>
       </c>
-      <c r="B174" s="14">
+      <c r="B174" s="13">
         <v>17</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="13">
         <v>11314</v>
       </c>
       <c r="D174" s="15" t="s">
@@ -7168,14 +7758,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="14">
+    <row r="175" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="13">
         <v>174</v>
       </c>
-      <c r="B175" s="14">
+      <c r="B175" s="13">
         <v>17</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="13">
         <v>11315</v>
       </c>
       <c r="D175" s="15" t="s">
@@ -7191,14 +7781,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="14">
+    <row r="176" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="13">
         <v>175</v>
       </c>
-      <c r="B176" s="14">
+      <c r="B176" s="13">
         <v>17</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="13">
         <v>11316</v>
       </c>
       <c r="D176" s="15" t="s">
@@ -7214,14 +7804,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="14">
+    <row r="177" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="13">
         <v>176</v>
       </c>
-      <c r="B177" s="14">
+      <c r="B177" s="13">
         <v>17</v>
       </c>
-      <c r="C177" s="14">
+      <c r="C177" s="13">
         <v>11317</v>
       </c>
       <c r="D177" s="15" t="s">
@@ -7237,14 +7827,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="14">
+    <row r="178" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="13">
         <v>177</v>
       </c>
-      <c r="B178" s="14">
+      <c r="B178" s="13">
         <v>17</v>
       </c>
-      <c r="C178" s="14">
+      <c r="C178" s="13">
         <v>11318</v>
       </c>
       <c r="D178" s="15" t="s">
@@ -7260,14 +7850,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="14">
+    <row r="179" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="13">
         <v>178</v>
       </c>
-      <c r="B179" s="14">
+      <c r="B179" s="13">
         <v>17</v>
       </c>
-      <c r="C179" s="14">
+      <c r="C179" s="13">
         <v>11319</v>
       </c>
       <c r="D179" s="15" t="s">
@@ -7283,14 +7873,14 @@
         <v>260</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="14">
+    <row r="180" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="13">
         <v>179</v>
       </c>
-      <c r="B180" s="14">
+      <c r="B180" s="13">
         <v>17</v>
       </c>
-      <c r="C180" s="14">
+      <c r="C180" s="13">
         <v>11320</v>
       </c>
       <c r="D180" s="15" t="s">
@@ -7306,106 +7896,106 @@
         <v>261</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="29">
+    <row r="181" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="13">
         <v>180</v>
       </c>
-      <c r="B181" s="29">
+      <c r="B181" s="13">
         <v>18</v>
       </c>
-      <c r="C181" s="29">
+      <c r="C181" s="13">
         <v>11401</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D181" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E181" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F181" s="34" t="s">
+      <c r="F181" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="G181" s="29">
+      <c r="G181" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="29">
+    <row r="182" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="13">
         <v>181</v>
       </c>
-      <c r="B182" s="29">
+      <c r="B182" s="13">
         <v>18</v>
       </c>
-      <c r="C182" s="29">
+      <c r="C182" s="13">
         <v>11402</v>
       </c>
-      <c r="D182" s="30" t="s">
+      <c r="D182" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E182" s="30" t="s">
+      <c r="E182" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F182" s="34" t="s">
+      <c r="F182" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="G182" s="29">
+      <c r="G182" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="29">
+    <row r="183" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="13">
         <v>182</v>
       </c>
-      <c r="B183" s="29">
+      <c r="B183" s="13">
         <v>18</v>
       </c>
-      <c r="C183" s="29">
+      <c r="C183" s="13">
         <v>11403</v>
       </c>
-      <c r="D183" s="30" t="s">
+      <c r="D183" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E183" s="30" t="s">
+      <c r="E183" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F183" s="34" t="s">
+      <c r="F183" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="G183" s="29">
+      <c r="G183" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="29">
+    <row r="184" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="13">
         <v>183</v>
       </c>
-      <c r="B184" s="29">
+      <c r="B184" s="13">
         <v>18</v>
       </c>
-      <c r="C184" s="29">
+      <c r="C184" s="13">
         <v>11404</v>
       </c>
-      <c r="D184" s="30" t="s">
+      <c r="D184" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E184" s="30" t="s">
+      <c r="E184" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F184" s="34" t="s">
+      <c r="F184" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G184" s="29">
+      <c r="G184" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="14">
+    <row r="185" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="13">
         <v>184</v>
       </c>
-      <c r="B185" s="14">
+      <c r="B185" s="13">
         <v>19</v>
       </c>
-      <c r="C185" s="14">
+      <c r="C185" s="13">
         <v>11501</v>
       </c>
       <c r="D185" s="15" t="s">
@@ -7417,18 +8007,18 @@
       <c r="F185" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="G185" s="14">
+      <c r="G185" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="14">
+    <row r="186" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="13">
         <v>185</v>
       </c>
-      <c r="B186" s="14">
+      <c r="B186" s="13">
         <v>19</v>
       </c>
-      <c r="C186" s="14">
+      <c r="C186" s="13">
         <v>11502</v>
       </c>
       <c r="D186" s="15" t="s">
@@ -7440,18 +8030,18 @@
       <c r="F186" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="G186" s="14">
+      <c r="G186" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="14">
+    <row r="187" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="13">
         <v>186</v>
       </c>
-      <c r="B187" s="14">
+      <c r="B187" s="13">
         <v>19</v>
       </c>
-      <c r="C187" s="14">
+      <c r="C187" s="13">
         <v>11503</v>
       </c>
       <c r="D187" s="15" t="s">
@@ -7463,18 +8053,18 @@
       <c r="F187" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="G187" s="14">
+      <c r="G187" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="14">
+    <row r="188" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="13">
         <v>187</v>
       </c>
-      <c r="B188" s="14">
+      <c r="B188" s="13">
         <v>19</v>
       </c>
-      <c r="C188" s="14">
+      <c r="C188" s="13">
         <v>11504</v>
       </c>
       <c r="D188" s="15" t="s">
@@ -7486,18 +8076,18 @@
       <c r="F188" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G188" s="14">
+      <c r="G188" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="14">
+    <row r="189" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="13">
         <v>188</v>
       </c>
-      <c r="B189" s="14">
+      <c r="B189" s="13">
         <v>20</v>
       </c>
-      <c r="C189" s="14">
+      <c r="C189" s="13">
         <v>11511</v>
       </c>
       <c r="D189" s="15" t="s">
@@ -7509,18 +8099,18 @@
       <c r="F189" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="G189" s="14">
+      <c r="G189" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="14">
+    <row r="190" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="13">
         <v>189</v>
       </c>
-      <c r="B190" s="14">
+      <c r="B190" s="13">
         <v>20</v>
       </c>
-      <c r="C190" s="14">
+      <c r="C190" s="13">
         <v>11512</v>
       </c>
       <c r="D190" s="15" t="s">
@@ -7532,18 +8122,18 @@
       <c r="F190" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="G190" s="14">
+      <c r="G190" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="14">
+    <row r="191" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="13">
         <v>190</v>
       </c>
-      <c r="B191" s="14">
+      <c r="B191" s="13">
         <v>20</v>
       </c>
-      <c r="C191" s="14">
+      <c r="C191" s="13">
         <v>11513</v>
       </c>
       <c r="D191" s="15" t="s">
@@ -7555,18 +8145,18 @@
       <c r="F191" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="G191" s="14">
+      <c r="G191" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="14">
+    <row r="192" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="13">
         <v>191</v>
       </c>
-      <c r="B192" s="14">
+      <c r="B192" s="13">
         <v>20</v>
       </c>
-      <c r="C192" s="14">
+      <c r="C192" s="13">
         <v>11514</v>
       </c>
       <c r="D192" s="15" t="s">
@@ -7578,18 +8168,18 @@
       <c r="F192" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="G192" s="14">
+      <c r="G192" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="14">
+    <row r="193" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="13">
         <v>192</v>
       </c>
-      <c r="B193" s="14">
+      <c r="B193" s="13">
         <v>21</v>
       </c>
-      <c r="C193" s="14">
+      <c r="C193" s="13">
         <v>11521</v>
       </c>
       <c r="D193" s="15" t="s">
@@ -7601,18 +8191,18 @@
       <c r="F193" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="G193" s="14">
+      <c r="G193" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="14">
+    <row r="194" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="13">
         <v>193</v>
       </c>
-      <c r="B194" s="14">
+      <c r="B194" s="13">
         <v>21</v>
       </c>
-      <c r="C194" s="14">
+      <c r="C194" s="13">
         <v>11522</v>
       </c>
       <c r="D194" s="15" t="s">
@@ -7624,18 +8214,18 @@
       <c r="F194" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="G194" s="14">
+      <c r="G194" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="14">
+    <row r="195" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="13">
         <v>194</v>
       </c>
-      <c r="B195" s="14">
+      <c r="B195" s="13">
         <v>21</v>
       </c>
-      <c r="C195" s="14">
+      <c r="C195" s="13">
         <v>11523</v>
       </c>
       <c r="D195" s="15" t="s">
@@ -7647,18 +8237,18 @@
       <c r="F195" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="G195" s="14">
+      <c r="G195" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="14">
+    <row r="196" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="13">
         <v>195</v>
       </c>
-      <c r="B196" s="14">
+      <c r="B196" s="13">
         <v>21</v>
       </c>
-      <c r="C196" s="14">
+      <c r="C196" s="13">
         <v>11524</v>
       </c>
       <c r="D196" s="15" t="s">
@@ -7670,18 +8260,18 @@
       <c r="F196" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="G196" s="14">
+      <c r="G196" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="14">
+    <row r="197" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="13">
         <v>196</v>
       </c>
-      <c r="B197" s="14">
+      <c r="B197" s="13">
         <v>22</v>
       </c>
-      <c r="C197" s="14">
+      <c r="C197" s="13">
         <v>11531</v>
       </c>
       <c r="D197" s="15" t="s">
@@ -7693,18 +8283,18 @@
       <c r="F197" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="G197" s="14">
+      <c r="G197" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="14">
+    <row r="198" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="13">
         <v>197</v>
       </c>
-      <c r="B198" s="14">
+      <c r="B198" s="13">
         <v>22</v>
       </c>
-      <c r="C198" s="14">
+      <c r="C198" s="13">
         <v>11532</v>
       </c>
       <c r="D198" s="15" t="s">
@@ -7716,18 +8306,18 @@
       <c r="F198" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="G198" s="14">
+      <c r="G198" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="14">
+    <row r="199" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="13">
         <v>198</v>
       </c>
-      <c r="B199" s="14">
+      <c r="B199" s="13">
         <v>22</v>
       </c>
-      <c r="C199" s="14">
+      <c r="C199" s="13">
         <v>11533</v>
       </c>
       <c r="D199" s="15" t="s">
@@ -7739,18 +8329,18 @@
       <c r="F199" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="G199" s="14">
+      <c r="G199" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="14">
+    <row r="200" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="13">
         <v>199</v>
       </c>
-      <c r="B200" s="14">
+      <c r="B200" s="13">
         <v>22</v>
       </c>
-      <c r="C200" s="14">
+      <c r="C200" s="13">
         <v>11534</v>
       </c>
       <c r="D200" s="15" t="s">
@@ -7762,18 +8352,18 @@
       <c r="F200" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="G200" s="14">
+      <c r="G200" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="14">
+    <row r="201" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="13">
         <v>200</v>
       </c>
-      <c r="B201" s="14">
+      <c r="B201" s="13">
         <v>23</v>
       </c>
-      <c r="C201" s="14">
+      <c r="C201" s="13">
         <v>11541</v>
       </c>
       <c r="D201" s="15" t="s">
@@ -7785,18 +8375,18 @@
       <c r="F201" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="G201" s="14">
+      <c r="G201" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="14">
+    <row r="202" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="13">
         <v>201</v>
       </c>
-      <c r="B202" s="14">
+      <c r="B202" s="13">
         <v>23</v>
       </c>
-      <c r="C202" s="14">
+      <c r="C202" s="13">
         <v>11542</v>
       </c>
       <c r="D202" s="15" t="s">
@@ -7808,18 +8398,18 @@
       <c r="F202" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="G202" s="14">
+      <c r="G202" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="14">
+    <row r="203" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="13">
         <v>202</v>
       </c>
-      <c r="B203" s="14">
+      <c r="B203" s="13">
         <v>23</v>
       </c>
-      <c r="C203" s="14">
+      <c r="C203" s="13">
         <v>11543</v>
       </c>
       <c r="D203" s="15" t="s">
@@ -7831,18 +8421,18 @@
       <c r="F203" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="G203" s="14">
+      <c r="G203" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="14">
+    <row r="204" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="13">
         <v>203</v>
       </c>
-      <c r="B204" s="14">
+      <c r="B204" s="13">
         <v>23</v>
       </c>
-      <c r="C204" s="14">
+      <c r="C204" s="13">
         <v>11544</v>
       </c>
       <c r="D204" s="15" t="s">
@@ -7854,18 +8444,18 @@
       <c r="F204" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="G204" s="14">
+      <c r="G204" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="14">
+    <row r="205" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="13">
         <v>204</v>
       </c>
-      <c r="B205" s="14">
+      <c r="B205" s="13">
         <v>24</v>
       </c>
-      <c r="C205" s="14">
+      <c r="C205" s="13">
         <v>11551</v>
       </c>
       <c r="D205" s="15" t="s">
@@ -7877,18 +8467,18 @@
       <c r="F205" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="G205" s="14">
+      <c r="G205" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="14">
+    <row r="206" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="13">
         <v>205</v>
       </c>
-      <c r="B206" s="14">
+      <c r="B206" s="13">
         <v>24</v>
       </c>
-      <c r="C206" s="14">
+      <c r="C206" s="13">
         <v>11552</v>
       </c>
       <c r="D206" s="15" t="s">
@@ -7900,18 +8490,18 @@
       <c r="F206" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G206" s="14">
+      <c r="G206" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="14">
+    <row r="207" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="13">
         <v>206</v>
       </c>
-      <c r="B207" s="14">
+      <c r="B207" s="13">
         <v>24</v>
       </c>
-      <c r="C207" s="14">
+      <c r="C207" s="13">
         <v>11553</v>
       </c>
       <c r="D207" s="15" t="s">
@@ -7923,18 +8513,18 @@
       <c r="F207" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="G207" s="14">
+      <c r="G207" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="14">
+    <row r="208" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="13">
         <v>207</v>
       </c>
-      <c r="B208" s="14">
+      <c r="B208" s="13">
         <v>24</v>
       </c>
-      <c r="C208" s="14">
+      <c r="C208" s="13">
         <v>11554</v>
       </c>
       <c r="D208" s="15" t="s">
@@ -7946,18 +8536,18 @@
       <c r="F208" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="G208" s="14">
+      <c r="G208" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="14">
+    <row r="209" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="13">
         <v>208</v>
       </c>
-      <c r="B209" s="14">
+      <c r="B209" s="13">
         <v>25</v>
       </c>
-      <c r="C209" s="14">
+      <c r="C209" s="13">
         <v>11561</v>
       </c>
       <c r="D209" s="15" t="s">
@@ -7969,18 +8559,18 @@
       <c r="F209" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="G209" s="14">
+      <c r="G209" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="14">
+    <row r="210" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="13">
         <v>209</v>
       </c>
-      <c r="B210" s="14">
+      <c r="B210" s="13">
         <v>25</v>
       </c>
-      <c r="C210" s="14">
+      <c r="C210" s="13">
         <v>11562</v>
       </c>
       <c r="D210" s="15" t="s">
@@ -7992,18 +8582,18 @@
       <c r="F210" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="G210" s="14">
+      <c r="G210" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="14">
+    <row r="211" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="13">
         <v>210</v>
       </c>
-      <c r="B211" s="14">
+      <c r="B211" s="13">
         <v>25</v>
       </c>
-      <c r="C211" s="14">
+      <c r="C211" s="13">
         <v>11563</v>
       </c>
       <c r="D211" s="15" t="s">
@@ -8015,18 +8605,18 @@
       <c r="F211" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="G211" s="14">
+      <c r="G211" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="14">
+    <row r="212" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="13">
         <v>211</v>
       </c>
-      <c r="B212" s="14">
+      <c r="B212" s="13">
         <v>25</v>
       </c>
-      <c r="C212" s="14">
+      <c r="C212" s="13">
         <v>11564</v>
       </c>
       <c r="D212" s="15" t="s">
@@ -8038,18 +8628,18 @@
       <c r="F212" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="G212" s="14">
+      <c r="G212" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="14">
+    <row r="213" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="13">
         <v>212</v>
       </c>
-      <c r="B213" s="14">
+      <c r="B213" s="13">
         <v>26</v>
       </c>
-      <c r="C213" s="14">
+      <c r="C213" s="13">
         <v>11571</v>
       </c>
       <c r="D213" s="15" t="s">
@@ -8061,18 +8651,18 @@
       <c r="F213" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="G213" s="14">
+      <c r="G213" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="14">
+    <row r="214" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="13">
         <v>213</v>
       </c>
-      <c r="B214" s="14">
+      <c r="B214" s="13">
         <v>26</v>
       </c>
-      <c r="C214" s="14">
+      <c r="C214" s="13">
         <v>11572</v>
       </c>
       <c r="D214" s="15" t="s">
@@ -8084,18 +8674,18 @@
       <c r="F214" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G214" s="14">
+      <c r="G214" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="14">
+    <row r="215" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="13">
         <v>214</v>
       </c>
-      <c r="B215" s="14">
+      <c r="B215" s="13">
         <v>26</v>
       </c>
-      <c r="C215" s="14">
+      <c r="C215" s="13">
         <v>11573</v>
       </c>
       <c r="D215" s="15" t="s">
@@ -8107,18 +8697,18 @@
       <c r="F215" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="G215" s="14">
+      <c r="G215" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="14">
+    <row r="216" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="13">
         <v>215</v>
       </c>
-      <c r="B216" s="14">
+      <c r="B216" s="13">
         <v>26</v>
       </c>
-      <c r="C216" s="14">
+      <c r="C216" s="13">
         <v>11574</v>
       </c>
       <c r="D216" s="15" t="s">
@@ -8130,18 +8720,18 @@
       <c r="F216" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="G216" s="14">
+      <c r="G216" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="14">
+    <row r="217" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="13">
         <v>216</v>
       </c>
-      <c r="B217" s="14">
+      <c r="B217" s="13">
         <v>27</v>
       </c>
-      <c r="C217" s="14">
+      <c r="C217" s="13">
         <v>11581</v>
       </c>
       <c r="D217" s="15" t="s">
@@ -8153,18 +8743,18 @@
       <c r="F217" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G217" s="14">
+      <c r="G217" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="14">
+    <row r="218" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="13">
         <v>217</v>
       </c>
-      <c r="B218" s="14">
+      <c r="B218" s="13">
         <v>27</v>
       </c>
-      <c r="C218" s="14">
+      <c r="C218" s="13">
         <v>11582</v>
       </c>
       <c r="D218" s="15" t="s">
@@ -8176,18 +8766,18 @@
       <c r="F218" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="G218" s="14">
+      <c r="G218" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="14">
+    <row r="219" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="13">
         <v>218</v>
       </c>
-      <c r="B219" s="14">
+      <c r="B219" s="13">
         <v>27</v>
       </c>
-      <c r="C219" s="14">
+      <c r="C219" s="13">
         <v>11583</v>
       </c>
       <c r="D219" s="15" t="s">
@@ -8199,18 +8789,18 @@
       <c r="F219" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="G219" s="14">
+      <c r="G219" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="14">
+    <row r="220" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="13">
         <v>219</v>
       </c>
-      <c r="B220" s="14">
+      <c r="B220" s="13">
         <v>27</v>
       </c>
-      <c r="C220" s="14">
+      <c r="C220" s="13">
         <v>11584</v>
       </c>
       <c r="D220" s="15" t="s">
@@ -8222,12 +8812,837 @@
       <c r="F220" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="G220" s="14">
+      <c r="G220" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F221" s="35"/>
+      <c r="A221" s="23">
+        <v>220</v>
+      </c>
+      <c r="B221" s="23">
+        <v>28</v>
+      </c>
+      <c r="C221" s="23">
+        <v>11601</v>
+      </c>
+      <c r="D221" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E221" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="G221" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="23">
+        <v>221</v>
+      </c>
+      <c r="B222" s="23">
+        <v>28</v>
+      </c>
+      <c r="C222" s="23">
+        <v>11602</v>
+      </c>
+      <c r="D222" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="G222" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="23">
+        <v>222</v>
+      </c>
+      <c r="B223" s="23">
+        <v>28</v>
+      </c>
+      <c r="C223" s="23">
+        <v>11603</v>
+      </c>
+      <c r="D223" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E223" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F223" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G223" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="23">
+        <v>223</v>
+      </c>
+      <c r="B224" s="23">
+        <v>28</v>
+      </c>
+      <c r="C224" s="23">
+        <v>11604</v>
+      </c>
+      <c r="D224" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G224" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="23">
+        <v>224</v>
+      </c>
+      <c r="B225" s="23">
+        <v>29</v>
+      </c>
+      <c r="C225" s="23">
+        <v>11611</v>
+      </c>
+      <c r="D225" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G225" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="23">
+        <v>225</v>
+      </c>
+      <c r="B226" s="23">
+        <v>29</v>
+      </c>
+      <c r="C226" s="23">
+        <v>11612</v>
+      </c>
+      <c r="D226" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E226" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F226" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G226" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="23">
+        <v>226</v>
+      </c>
+      <c r="B227" s="23">
+        <v>29</v>
+      </c>
+      <c r="C227" s="23">
+        <v>11613</v>
+      </c>
+      <c r="D227" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F227" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G227" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="23">
+        <v>227</v>
+      </c>
+      <c r="B228" s="23">
+        <v>29</v>
+      </c>
+      <c r="C228" s="23">
+        <v>11614</v>
+      </c>
+      <c r="D228" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E228" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="G228" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="23">
+        <v>228</v>
+      </c>
+      <c r="B229" s="23">
+        <v>30</v>
+      </c>
+      <c r="C229" s="23">
+        <v>11621</v>
+      </c>
+      <c r="D229" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E229" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F229" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G229" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="23">
+        <v>229</v>
+      </c>
+      <c r="B230" s="23">
+        <v>30</v>
+      </c>
+      <c r="C230" s="23">
+        <v>11622</v>
+      </c>
+      <c r="D230" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E230" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G230" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="23">
+        <v>230</v>
+      </c>
+      <c r="B231" s="23">
+        <v>30</v>
+      </c>
+      <c r="C231" s="23">
+        <v>11623</v>
+      </c>
+      <c r="D231" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F231" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G231" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="23">
+        <v>231</v>
+      </c>
+      <c r="B232" s="23">
+        <v>30</v>
+      </c>
+      <c r="C232" s="23">
+        <v>11624</v>
+      </c>
+      <c r="D232" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="E232" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F232" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="G232" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="23">
+        <v>232</v>
+      </c>
+      <c r="B233" s="23">
+        <v>31</v>
+      </c>
+      <c r="C233" s="23">
+        <v>11631</v>
+      </c>
+      <c r="D233" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E233" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G233" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="23">
+        <v>233</v>
+      </c>
+      <c r="B234" s="23">
+        <v>31</v>
+      </c>
+      <c r="C234" s="23">
+        <v>11632</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E234" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F234" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G234" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="23">
+        <v>234</v>
+      </c>
+      <c r="B235" s="23">
+        <v>31</v>
+      </c>
+      <c r="C235" s="23">
+        <v>11633</v>
+      </c>
+      <c r="D235" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F235" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="G235" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="23">
+        <v>235</v>
+      </c>
+      <c r="B236" s="23">
+        <v>31</v>
+      </c>
+      <c r="C236" s="23">
+        <v>11634</v>
+      </c>
+      <c r="D236" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E236" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G236" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="23">
+        <v>236</v>
+      </c>
+      <c r="B237" s="23">
+        <v>32</v>
+      </c>
+      <c r="C237" s="23">
+        <v>11641</v>
+      </c>
+      <c r="D237" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G237" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="23">
+        <v>237</v>
+      </c>
+      <c r="B238" s="23">
+        <v>32</v>
+      </c>
+      <c r="C238" s="23">
+        <v>11642</v>
+      </c>
+      <c r="D238" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E238" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F238" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G238" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="23">
+        <v>238</v>
+      </c>
+      <c r="B239" s="23">
+        <v>32</v>
+      </c>
+      <c r="C239" s="23">
+        <v>11643</v>
+      </c>
+      <c r="D239" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E239" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F239" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="G239" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="23">
+        <v>239</v>
+      </c>
+      <c r="B240" s="23">
+        <v>32</v>
+      </c>
+      <c r="C240" s="23">
+        <v>11644</v>
+      </c>
+      <c r="D240" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E240" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F240" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="G240" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="23">
+        <v>240</v>
+      </c>
+      <c r="B241" s="23">
+        <v>33</v>
+      </c>
+      <c r="C241" s="23">
+        <v>11651</v>
+      </c>
+      <c r="D241" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E241" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="G241" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="23">
+        <v>241</v>
+      </c>
+      <c r="B242" s="23">
+        <v>33</v>
+      </c>
+      <c r="C242" s="23">
+        <v>11652</v>
+      </c>
+      <c r="D242" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G242" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="23">
+        <v>242</v>
+      </c>
+      <c r="B243" s="23">
+        <v>33</v>
+      </c>
+      <c r="C243" s="23">
+        <v>11653</v>
+      </c>
+      <c r="D243" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E243" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F243" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="G243" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="23">
+        <v>243</v>
+      </c>
+      <c r="B244" s="23">
+        <v>33</v>
+      </c>
+      <c r="C244" s="23">
+        <v>11654</v>
+      </c>
+      <c r="D244" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F244" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G244" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="23">
+        <v>244</v>
+      </c>
+      <c r="B245" s="23">
+        <v>34</v>
+      </c>
+      <c r="C245" s="23">
+        <v>11661</v>
+      </c>
+      <c r="D245" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E245" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F245" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G245" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="23">
+        <v>245</v>
+      </c>
+      <c r="B246" s="23">
+        <v>34</v>
+      </c>
+      <c r="C246" s="23">
+        <v>11662</v>
+      </c>
+      <c r="D246" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E246" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F246" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G246" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="23">
+        <v>246</v>
+      </c>
+      <c r="B247" s="23">
+        <v>34</v>
+      </c>
+      <c r="C247" s="23">
+        <v>11663</v>
+      </c>
+      <c r="D247" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E247" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F247" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="G247" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="23">
+        <v>247</v>
+      </c>
+      <c r="B248" s="23">
+        <v>34</v>
+      </c>
+      <c r="C248" s="23">
+        <v>11664</v>
+      </c>
+      <c r="D248" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F248" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="G248" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="23">
+        <v>248</v>
+      </c>
+      <c r="B249" s="23">
+        <v>35</v>
+      </c>
+      <c r="C249" s="23">
+        <v>11671</v>
+      </c>
+      <c r="D249" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E249" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F249" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="G249" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="23">
+        <v>249</v>
+      </c>
+      <c r="B250" s="23">
+        <v>35</v>
+      </c>
+      <c r="C250" s="23">
+        <v>11672</v>
+      </c>
+      <c r="D250" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F250" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G250" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="23">
+        <v>250</v>
+      </c>
+      <c r="B251" s="23">
+        <v>35</v>
+      </c>
+      <c r="C251" s="23">
+        <v>11673</v>
+      </c>
+      <c r="D251" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F251" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="G251" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="23">
+        <v>251</v>
+      </c>
+      <c r="B252" s="23">
+        <v>35</v>
+      </c>
+      <c r="C252" s="23">
+        <v>11674</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F252" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G252" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="23">
+        <v>252</v>
+      </c>
+      <c r="B253" s="23">
+        <v>36</v>
+      </c>
+      <c r="C253" s="23">
+        <v>11681</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F253" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="G253" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="23">
+        <v>253</v>
+      </c>
+      <c r="B254" s="23">
+        <v>36</v>
+      </c>
+      <c r="C254" s="23">
+        <v>11682</v>
+      </c>
+      <c r="D254" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E254" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F254" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="G254" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="23">
+        <v>254</v>
+      </c>
+      <c r="B255" s="23">
+        <v>36</v>
+      </c>
+      <c r="C255" s="23">
+        <v>11683</v>
+      </c>
+      <c r="D255" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E255" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F255" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="G255" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="23">
+        <v>255</v>
+      </c>
+      <c r="B256" s="23">
+        <v>36</v>
+      </c>
+      <c r="C256" s="23">
+        <v>11684</v>
+      </c>
+      <c r="D256" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E256" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F256" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="G256" s="23">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="F2:F12">

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="507">
   <si>
     <t>id|</t>
   </si>
@@ -1795,6 +1795,339 @@
   </si>
   <si>
     <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>190万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5280万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>680000,680000</t>
+  </si>
+  <si>
+    <t>700000,700000</t>
+  </si>
+  <si>
+    <t>800000,800000</t>
+  </si>
+  <si>
+    <t>1250000,1250000</t>
+  </si>
+  <si>
+    <t>1300000,1300000</t>
+  </si>
+  <si>
+    <t>1350000,1350000</t>
+  </si>
+  <si>
+    <t>1400000,1400000</t>
+  </si>
+  <si>
+    <t>1900000,1900000</t>
+  </si>
+  <si>
+    <t>1950000,1950000</t>
+  </si>
+  <si>
+    <t>2000000,2000000</t>
+  </si>
+  <si>
+    <t>2200000,2200000</t>
+  </si>
+  <si>
+    <t>5000000,5000000</t>
+  </si>
+  <si>
+    <t>5100000,5100000</t>
+  </si>
+  <si>
+    <t>5200000,5200000</t>
+  </si>
+  <si>
+    <t>5300000,5300000</t>
+  </si>
+  <si>
+    <t>10200000,10200000</t>
+  </si>
+  <si>
+    <t>10300000,10300000</t>
+  </si>
+  <si>
+    <t>10400000,10400000</t>
+  </si>
+  <si>
+    <t>10600000,10600000</t>
+  </si>
+  <si>
+    <t>20500000,20500000</t>
+  </si>
+  <si>
+    <t>20800000,20800000</t>
+  </si>
+  <si>
+    <t>21000000,21000000</t>
+  </si>
+  <si>
+    <t>21500000,21500000</t>
+  </si>
+  <si>
+    <t>51800000,51800000</t>
+  </si>
+  <si>
+    <t>52500000,52500000</t>
+  </si>
+  <si>
+    <t>52800000,52800000</t>
+  </si>
+  <si>
+    <t>53800000,53800000</t>
+  </si>
+  <si>
+    <t>新人抽大奖-青铜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖-白银</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖-黄金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>3000金币</t>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ing_bi</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000金币</t>
+  </si>
+  <si>
+    <t>4000,4000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币</t>
+  </si>
+  <si>
+    <t>6000金币</t>
+  </si>
+  <si>
+    <t>6000,6000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000金币</t>
+  </si>
+  <si>
+    <t>7000,7000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000金币</t>
+  </si>
+  <si>
+    <t>8000,8000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000金币</t>
+  </si>
+  <si>
+    <t>9000,9000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000金币</t>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000金币</t>
+  </si>
+  <si>
+    <t>11000,11000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6福利券</t>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8福利券</t>
+  </si>
+  <si>
+    <t>8,8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10福利券</t>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4万金币</t>
+  </si>
+  <si>
+    <t>40000,40000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60福利券</t>
+  </si>
+  <si>
+    <t>60,60</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40福利券</t>
+  </si>
+  <si>
+    <t>40,40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>80福利券</t>
+  </si>
+  <si>
+    <t>80,80</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>120福利券</t>
+  </si>
+  <si>
+    <t>120,120</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>150福利券</t>
+  </si>
+  <si>
+    <t>150,150</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>160福利券</t>
+  </si>
+  <si>
+    <t>160,160</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>170福利券</t>
+  </si>
+  <si>
+    <t>170,170</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>195万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>510万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>530万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2150万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>6</t>
     </r>
     <r>
@@ -1807,6 +2140,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>5万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000,650000</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1828,6 +2178,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>7</t>
     </r>
@@ -1845,20 +2199,67 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万鲸币</t>
-    </r>
+    <t>130万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>135万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>220万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2080万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2150万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>125万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>140万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1866,55 +2267,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>125万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>130万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>135万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>190万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>195万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>140万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>220万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>510万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>520万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>530万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万鲸币</t>
+    <t>1040万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1922,10 +2275,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1040万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1060万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1934,18 +2283,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2080万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2150万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>5180万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1954,110 +2291,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5280万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5380万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50000,650000</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>680000,680000</t>
-  </si>
-  <si>
-    <t>700000,700000</t>
-  </si>
-  <si>
-    <t>800000,800000</t>
-  </si>
-  <si>
-    <t>1250000,1250000</t>
-  </si>
-  <si>
-    <t>1300000,1300000</t>
-  </si>
-  <si>
-    <t>1350000,1350000</t>
-  </si>
-  <si>
-    <t>1400000,1400000</t>
-  </si>
-  <si>
-    <t>1900000,1900000</t>
-  </si>
-  <si>
-    <t>1950000,1950000</t>
-  </si>
-  <si>
-    <t>2000000,2000000</t>
-  </si>
-  <si>
-    <t>2200000,2200000</t>
-  </si>
-  <si>
-    <t>5000000,5000000</t>
-  </si>
-  <si>
-    <t>5100000,5100000</t>
-  </si>
-  <si>
-    <t>5200000,5200000</t>
-  </si>
-  <si>
-    <t>5300000,5300000</t>
-  </si>
-  <si>
-    <t>10200000,10200000</t>
-  </si>
-  <si>
-    <t>10300000,10300000</t>
-  </si>
-  <si>
-    <t>10400000,10400000</t>
-  </si>
-  <si>
-    <t>10600000,10600000</t>
-  </si>
-  <si>
-    <t>20500000,20500000</t>
-  </si>
-  <si>
-    <t>20800000,20800000</t>
-  </si>
-  <si>
-    <t>21000000,21000000</t>
-  </si>
-  <si>
-    <t>21500000,21500000</t>
-  </si>
-  <si>
-    <t>51800000,51800000</t>
-  </si>
-  <si>
-    <t>52500000,52500000</t>
-  </si>
-  <si>
-    <t>52800000,52800000</t>
-  </si>
-  <si>
-    <t>53800000,53800000</t>
+    <t>4000,4000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2138,7 +2373,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2154,6 +2389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,7 +2438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2278,6 +2519,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2554,10 +2805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3706,6 +3958,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="30">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" s="32">
+        <v>1592841599</v>
+      </c>
+      <c r="D38" s="32">
+        <v>32503651200</v>
+      </c>
+      <c r="E38" s="33">
+        <v>32</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="32">
+        <v>37</v>
+      </c>
+      <c r="L38" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1592841599</v>
+      </c>
+      <c r="D39" s="32">
+        <v>32503651200</v>
+      </c>
+      <c r="E39" s="33">
+        <v>33</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="32">
+        <v>38</v>
+      </c>
+      <c r="L39" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="32">
+        <v>1592841599</v>
+      </c>
+      <c r="D40" s="32">
+        <v>32503651200</v>
+      </c>
+      <c r="E40" s="33">
+        <v>34</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="32">
+        <v>39</v>
+      </c>
+      <c r="L40" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3716,10 +4052,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4175,13 +4512,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>33</v>
+      </c>
+      <c r="B34" s="33">
+        <v>33</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33">
+        <v>34</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="D35" s="32">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4191,6 +4562,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4233,13 +4605,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H256"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B257" sqref="B257"/>
+      <selection pane="bottomRight" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8827,13 +9200,13 @@
         <v>11601</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="G221" s="23">
         <v>32</v>
@@ -8850,13 +9223,13 @@
         <v>11602</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="E222" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="G222" s="23">
         <v>32</v>
@@ -8873,13 +9246,13 @@
         <v>11603</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="E223" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="F223" s="27" t="s">
         <v>392</v>
-      </c>
-      <c r="F223" s="27" t="s">
-        <v>419</v>
       </c>
       <c r="G223" s="23">
         <v>32</v>
@@ -8896,13 +9269,13 @@
         <v>11604</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="G224" s="23">
         <v>4</v>
@@ -8919,13 +9292,13 @@
         <v>11611</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="G225" s="23">
         <v>32</v>
@@ -8942,13 +9315,13 @@
         <v>11612</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="E226" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="G226" s="23">
         <v>32</v>
@@ -8965,13 +9338,13 @@
         <v>11613</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="G227" s="23">
         <v>32</v>
@@ -8988,13 +9361,13 @@
         <v>11614</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="G228" s="23">
         <v>4</v>
@@ -9011,13 +9384,13 @@
         <v>11621</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="G229" s="23">
         <v>32</v>
@@ -9034,13 +9407,13 @@
         <v>11622</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="E230" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="G230" s="23">
         <v>32</v>
@@ -9057,13 +9430,13 @@
         <v>11623</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="E231" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="G231" s="23">
         <v>32</v>
@@ -9080,13 +9453,13 @@
         <v>11624</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="G232" s="23">
         <v>4</v>
@@ -9103,13 +9476,13 @@
         <v>11631</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="E233" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="G233" s="23">
         <v>32</v>
@@ -9126,13 +9499,13 @@
         <v>11632</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="E234" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="G234" s="23">
         <v>32</v>
@@ -9149,13 +9522,13 @@
         <v>11633</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="E235" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="G235" s="23">
         <v>32</v>
@@ -9172,13 +9545,13 @@
         <v>11634</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="E236" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="G236" s="23">
         <v>4</v>
@@ -9195,13 +9568,13 @@
         <v>11641</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="E237" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="G237" s="23">
         <v>32</v>
@@ -9218,13 +9591,13 @@
         <v>11642</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="E238" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="G238" s="23">
         <v>32</v>
@@ -9241,13 +9614,13 @@
         <v>11643</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="E239" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="G239" s="23">
         <v>32</v>
@@ -9264,13 +9637,13 @@
         <v>11644</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="G240" s="23">
         <v>4</v>
@@ -9287,13 +9660,13 @@
         <v>11651</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="E241" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G241" s="23">
         <v>32</v>
@@ -9310,13 +9683,13 @@
         <v>11652</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E242" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="G242" s="23">
         <v>32</v>
@@ -9333,13 +9706,13 @@
         <v>11653</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="G243" s="23">
         <v>32</v>
@@ -9356,13 +9729,13 @@
         <v>11654</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="G244" s="23">
         <v>4</v>
@@ -9379,13 +9752,13 @@
         <v>11661</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="E245" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="G245" s="23">
         <v>32</v>
@@ -9402,13 +9775,13 @@
         <v>11662</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="E246" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="G246" s="23">
         <v>32</v>
@@ -9425,13 +9798,13 @@
         <v>11663</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="G247" s="23">
         <v>32</v>
@@ -9448,13 +9821,13 @@
         <v>11664</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="G248" s="23">
         <v>4</v>
@@ -9471,13 +9844,13 @@
         <v>11671</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="E249" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G249" s="23">
         <v>32</v>
@@ -9494,13 +9867,13 @@
         <v>11672</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E250" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="G250" s="23">
         <v>32</v>
@@ -9517,13 +9890,13 @@
         <v>11673</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="E251" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="G251" s="23">
         <v>32</v>
@@ -9540,13 +9913,13 @@
         <v>11674</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="E252" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F252" s="27" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="G252" s="23">
         <v>4</v>
@@ -9563,13 +9936,13 @@
         <v>11681</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="E253" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F253" s="27" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="G253" s="23">
         <v>32</v>
@@ -9586,13 +9959,13 @@
         <v>11682</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>414</v>
+        <v>505</v>
       </c>
       <c r="E254" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="G254" s="23">
         <v>32</v>
@@ -9609,13 +9982,13 @@
         <v>11683</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E255" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="G255" s="23">
         <v>32</v>
@@ -9632,16 +10005,637 @@
         <v>11684</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="E256" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="G256" s="23">
         <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="13">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>37</v>
+      </c>
+      <c r="C257" s="1">
+        <v>11701</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F257" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="13">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>37</v>
+      </c>
+      <c r="C258" s="1">
+        <v>11702</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="13">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>37</v>
+      </c>
+      <c r="C259" s="1">
+        <v>11703</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="13">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>37</v>
+      </c>
+      <c r="C260" s="1">
+        <v>11704</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F260" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="G260" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="13">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>37</v>
+      </c>
+      <c r="C261" s="1">
+        <v>11705</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F261" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G261" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="13">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>37</v>
+      </c>
+      <c r="C262" s="1">
+        <v>11706</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F262" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="13">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1">
+        <v>37</v>
+      </c>
+      <c r="C263" s="1">
+        <v>11707</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="G263" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="13">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1">
+        <v>37</v>
+      </c>
+      <c r="C264" s="1">
+        <v>11708</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F264" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G264" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="13">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1">
+        <v>37</v>
+      </c>
+      <c r="C265" s="1">
+        <v>11709</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F265" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="G265" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="13">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>38</v>
+      </c>
+      <c r="C266" s="1">
+        <v>11710</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E266" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F266" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="G266" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="13">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1">
+        <v>38</v>
+      </c>
+      <c r="C267" s="1">
+        <v>11711</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="G267" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="13">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1">
+        <v>38</v>
+      </c>
+      <c r="C268" s="1">
+        <v>11712</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E268" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="13">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1">
+        <v>38</v>
+      </c>
+      <c r="C269" s="1">
+        <v>11713</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="G269" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="13">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>38</v>
+      </c>
+      <c r="C270" s="1">
+        <v>11714</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E270" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="13">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1">
+        <v>38</v>
+      </c>
+      <c r="C271" s="1">
+        <v>11715</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G271" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="13">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1">
+        <v>38</v>
+      </c>
+      <c r="C272" s="1">
+        <v>11716</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E272" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="G272" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="13">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1">
+        <v>38</v>
+      </c>
+      <c r="C273" s="1">
+        <v>11717</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E273" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G273" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="13">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1">
+        <v>38</v>
+      </c>
+      <c r="C274" s="1">
+        <v>11718</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F274" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="G274" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="13">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1">
+        <v>39</v>
+      </c>
+      <c r="C275" s="1">
+        <v>11719</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G275" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="13">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1">
+        <v>39</v>
+      </c>
+      <c r="C276" s="1">
+        <v>11720</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E276" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F276" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="13">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1">
+        <v>39</v>
+      </c>
+      <c r="C277" s="1">
+        <v>11721</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E277" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="G277" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="13">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1">
+        <v>39</v>
+      </c>
+      <c r="C278" s="1">
+        <v>11722</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="13">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1">
+        <v>39</v>
+      </c>
+      <c r="C279" s="1">
+        <v>11723</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E279" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="13">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1">
+        <v>39</v>
+      </c>
+      <c r="C280" s="1">
+        <v>11724</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F280" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="13">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1">
+        <v>39</v>
+      </c>
+      <c r="C281" s="1">
+        <v>11725</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="G281" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="13">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1">
+        <v>39</v>
+      </c>
+      <c r="C282" s="1">
+        <v>11726</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E282" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F282" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G282" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="13">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1">
+        <v>39</v>
+      </c>
+      <c r="C283" s="1">
+        <v>11727</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E283" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G283" s="1">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9656,9 +10650,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="485">
   <si>
     <t>id|</t>
   </si>
@@ -2114,6 +2114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2141,6 +2142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2168,6 +2170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2195,6 +2198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2289,6 +2293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2305,6 +2310,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2321,6 +2327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2367,6 +2374,115 @@
   <si>
     <t>170000,170000</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,150</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2449,6 +2565,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2456,6 +2573,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2530,7 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2645,6 +2763,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2923,11 +3044,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38:E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="L29" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3849,7 +3970,7 @@
         <v>29</v>
       </c>
       <c r="L30" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,7 +4002,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3913,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3945,7 +4066,7 @@
         <v>32</v>
       </c>
       <c r="L33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3977,7 +4098,7 @@
         <v>33</v>
       </c>
       <c r="L34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4009,7 +4130,7 @@
         <v>34</v>
       </c>
       <c r="L35" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4041,7 +4162,7 @@
         <v>35</v>
       </c>
       <c r="L36" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4073,7 +4194,7 @@
         <v>36</v>
       </c>
       <c r="L37" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4160,31 +4281,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26">
+    <row r="41" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="18">
         <v>1598916600</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="18">
         <v>1599494399</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="28">
         <v>35</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18">
         <v>40</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="C42" s="26">
+        <v>1599523200</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1600099199</v>
+      </c>
+      <c r="E42" s="29">
+        <v>36</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26">
+        <v>41</v>
+      </c>
+      <c r="L42" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4199,10 +4348,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4701,16 +4850,30 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25">
+        <v>36</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4766,13 +4929,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
+      <selection pane="bottomRight" activeCell="A288" sqref="A288:D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8750,59 +8913,115 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="23">
+      <c r="A284" s="13">
         <v>283</v>
       </c>
-      <c r="B284" s="23">
+      <c r="B284" s="13">
         <v>40</v>
       </c>
-      <c r="C284" s="23">
+      <c r="C284" s="13">
         <v>11731</v>
       </c>
-      <c r="D284" s="23">
+      <c r="D284" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="23">
+      <c r="A285" s="13">
         <v>284</v>
       </c>
-      <c r="B285" s="23">
+      <c r="B285" s="13">
         <v>40</v>
       </c>
-      <c r="C285" s="23">
+      <c r="C285" s="13">
         <v>11732</v>
       </c>
-      <c r="D285" s="23">
+      <c r="D285" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="23">
+      <c r="A286" s="13">
         <v>285</v>
       </c>
-      <c r="B286" s="23">
+      <c r="B286" s="13">
         <v>40</v>
       </c>
-      <c r="C286" s="23">
+      <c r="C286" s="13">
         <v>11733</v>
       </c>
-      <c r="D286" s="23">
+      <c r="D286" s="13">
         <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="23">
+      <c r="A287" s="13">
         <v>286</v>
       </c>
-      <c r="B287" s="23">
+      <c r="B287" s="13">
         <v>40</v>
       </c>
-      <c r="C287" s="23">
+      <c r="C287" s="13">
         <v>11734</v>
       </c>
-      <c r="D287" s="23">
+      <c r="D287" s="13">
         <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="23">
+        <v>287</v>
+      </c>
+      <c r="B288" s="23">
+        <v>41</v>
+      </c>
+      <c r="C288" s="23">
+        <v>11741</v>
+      </c>
+      <c r="D288" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="23">
+        <v>288</v>
+      </c>
+      <c r="B289" s="23">
+        <v>41</v>
+      </c>
+      <c r="C289" s="23">
+        <v>11742</v>
+      </c>
+      <c r="D289" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="23">
+        <v>289</v>
+      </c>
+      <c r="B290" s="23">
+        <v>41</v>
+      </c>
+      <c r="C290" s="23">
+        <v>11743</v>
+      </c>
+      <c r="D290" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="23">
+        <v>290</v>
+      </c>
+      <c r="B291" s="23">
+        <v>41</v>
+      </c>
+      <c r="C291" s="23">
+        <v>11744</v>
+      </c>
+      <c r="D291" s="23">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8814,10 +9033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E276" sqref="E276"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288:E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13126,7 +13345,7 @@
         <v>460</v>
       </c>
       <c r="D281" s="37" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E281" s="38" t="s">
         <v>136</v>
@@ -13170,16 +13389,16 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="23">
+      <c r="B284" s="13">
         <v>11731</v>
       </c>
-      <c r="C284" s="24" t="s">
+      <c r="C284" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D284" s="24" t="s">
+      <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E284" s="27" t="s">
+      <c r="E284" s="21" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13187,16 +13406,16 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="23">
+      <c r="B285" s="13">
         <v>11732</v>
       </c>
-      <c r="C285" s="24" t="s">
+      <c r="C285" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="D285" s="24" t="s">
+      <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E285" s="27" t="s">
+      <c r="E285" s="21" t="s">
         <v>441</v>
       </c>
     </row>
@@ -13204,16 +13423,16 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="23">
+      <c r="B286" s="13">
         <v>11733</v>
       </c>
-      <c r="C286" s="24" t="s">
+      <c r="C286" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D286" s="24" t="s">
+      <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E286" s="27" t="s">
+      <c r="E286" s="21" t="s">
         <v>442</v>
       </c>
     </row>
@@ -13221,17 +13440,85 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="23">
+      <c r="B287" s="13">
         <v>11734</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="C287" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="D287" s="24" t="s">
+      <c r="D287" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E287" s="27" t="s">
+      <c r="E287" s="21" t="s">
         <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="23">
+        <v>11741</v>
+      </c>
+      <c r="C288" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D288" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E288" s="27" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="23">
+        <v>11742</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E289" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="23">
+        <v>11743</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E290" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="23">
+        <v>11744</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E291" s="27" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="497">
   <si>
     <t>id|</t>
   </si>
@@ -2482,6 +2482,114 @@
   </si>
   <si>
     <t>1元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000金币</t>
+  </si>
+  <si>
+    <t>15福利券</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>50000金币</t>
+  </si>
+  <si>
+    <r>
+      <t>12000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,12000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,20000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,50000</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2648,7 +2756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2766,6 +2874,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3044,11 +3158,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4337,6 +4451,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1600732800</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1601308799</v>
+      </c>
+      <c r="E43" s="4">
+        <v>37</v>
+      </c>
+      <c r="K43" s="6">
+        <v>42</v>
+      </c>
+      <c r="L43" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4348,10 +4485,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4874,6 +5011,20 @@
         <v>241</v>
       </c>
       <c r="D37" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17">
+        <v>37</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="D38" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4929,13 +5080,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A288" sqref="A288:D291"/>
+      <selection pane="bottomRight" activeCell="A297" sqref="A297:XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9024,6 +9175,76 @@
         <v>50</v>
       </c>
     </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1">
+        <v>42</v>
+      </c>
+      <c r="C292" s="1">
+        <v>11751</v>
+      </c>
+      <c r="D292" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1">
+        <v>42</v>
+      </c>
+      <c r="C293" s="1">
+        <v>11752</v>
+      </c>
+      <c r="D293" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1">
+        <v>42</v>
+      </c>
+      <c r="C294" s="1">
+        <v>11753</v>
+      </c>
+      <c r="D294" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1">
+        <v>42</v>
+      </c>
+      <c r="C295" s="1">
+        <v>11754</v>
+      </c>
+      <c r="D295" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1">
+        <v>42</v>
+      </c>
+      <c r="C296" s="1">
+        <v>11755</v>
+      </c>
+      <c r="D296" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9033,10 +9254,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288:E291"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13521,6 +13742,91 @@
         <v>480</v>
       </c>
     </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1">
+        <v>11751</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E292" s="45" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1">
+        <v>11752</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" s="45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1">
+        <v>11753</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E294" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1">
+        <v>11754</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E295" s="45" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1">
+        <v>11755</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E296" s="45" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13533,7 +13839,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="512">
   <si>
     <t>id|</t>
   </si>
@@ -2592,12 +2592,67 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2684,6 +2739,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2756,7 +2817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2880,6 +2941,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3158,11 +3222,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4403,10 +4467,10 @@
         <v>434</v>
       </c>
       <c r="C41" s="18">
-        <v>1598916600</v>
+        <v>1602547200</v>
       </c>
       <c r="D41" s="18">
-        <v>1599494399</v>
+        <v>1603123199</v>
       </c>
       <c r="E41" s="28">
         <v>35</v>
@@ -4471,6 +4535,75 @@
         <v>42</v>
       </c>
       <c r="L43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D44" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E44" s="4">
+        <v>38</v>
+      </c>
+      <c r="K44" s="6">
+        <v>43</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D45" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E45" s="4">
+        <v>39</v>
+      </c>
+      <c r="K45" s="6">
+        <v>44</v>
+      </c>
+      <c r="L45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D46" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E46" s="4">
+        <v>40</v>
+      </c>
+      <c r="K46" s="6">
+        <v>45</v>
+      </c>
+      <c r="L46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4485,15 +4618,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="25.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5026,6 +5160,48 @@
       </c>
       <c r="D38" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17">
+        <v>38</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="D39" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17">
+        <v>39</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17">
+        <v>40</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D41" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5080,13 +5256,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A297" sqref="A297:XFD297"/>
+      <selection pane="bottomRight" activeCell="C297" sqref="C297:C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9245,6 +9421,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1">
+        <v>43</v>
+      </c>
+      <c r="C297" s="1">
+        <v>11761</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44</v>
+      </c>
+      <c r="C298" s="1">
+        <v>11762</v>
+      </c>
+      <c r="D298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45</v>
+      </c>
+      <c r="C299" s="1">
+        <v>11763</v>
+      </c>
+      <c r="D299" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9254,10 +9472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="E296" sqref="E296"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9265,7 +9483,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13825,6 +14043,57 @@
       </c>
       <c r="E296" s="45" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1">
+        <v>11761</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D297" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="E297" s="45" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1">
+        <v>11762</v>
+      </c>
+      <c r="C298" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D298" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="E298" s="45" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1">
+        <v>11763</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D299" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="E299" s="45" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="511">
   <si>
     <t>id|</t>
   </si>
@@ -2028,57 +2028,6 @@
   </si>
   <si>
     <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -2091,90 +2040,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>300</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>150</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2646,6 +2511,26 @@
   <si>
     <t>1,1</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,300</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3224,9 +3109,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4492,7 +4377,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C42" s="26">
         <v>1599523200</v>
@@ -4520,7 +4405,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C43" s="6">
         <v>1600732800</v>
@@ -4543,7 +4428,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C44" s="13">
         <v>1592841599</v>
@@ -4566,7 +4451,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C45" s="13">
         <v>1592841599</v>
@@ -4589,7 +4474,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C46" s="13">
         <v>1592841599</v>
@@ -5156,7 +5041,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -5170,7 +5055,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D39" s="6">
         <v>100</v>
@@ -5184,7 +5069,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D40" s="6">
         <v>100</v>
@@ -5198,7 +5083,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D41" s="6">
         <v>100</v>
@@ -5259,10 +5144,10 @@
   <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C297" sqref="C297:C299"/>
+      <selection pane="bottomRight" activeCell="D284" sqref="D284:D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5284,7 +5169,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
@@ -9250,7 +9135,7 @@
         <v>11731</v>
       </c>
       <c r="D284" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -9264,7 +9149,7 @@
         <v>11732</v>
       </c>
       <c r="D285" s="13">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -9278,7 +9163,7 @@
         <v>11733</v>
       </c>
       <c r="D286" s="13">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -9292,7 +9177,7 @@
         <v>11734</v>
       </c>
       <c r="D287" s="13">
-        <v>34</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -9474,8 +9359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="E299" sqref="E299"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9489,7 +9374,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
@@ -13543,13 +13428,13 @@
         <v>11711</v>
       </c>
       <c r="C267" s="41" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D267" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -13560,7 +13445,7 @@
         <v>11712</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D268" s="41" t="s">
         <v>388</v>
@@ -13577,13 +13462,13 @@
         <v>11713</v>
       </c>
       <c r="C269" s="41" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D269" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -13594,13 +13479,13 @@
         <v>11714</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D270" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -13611,13 +13496,13 @@
         <v>11715</v>
       </c>
       <c r="C271" s="41" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D271" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -13628,13 +13513,13 @@
         <v>11716</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D272" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E272" s="42" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -13645,13 +13530,13 @@
         <v>11717</v>
       </c>
       <c r="C273" s="41" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D273" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -13662,13 +13547,13 @@
         <v>11718</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D274" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E274" s="42" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -13679,7 +13564,7 @@
         <v>11719</v>
       </c>
       <c r="C275" s="37" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D275" s="37" t="s">
         <v>388</v>
@@ -13696,7 +13581,7 @@
         <v>11720</v>
       </c>
       <c r="C276" s="37" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D276" s="37" t="s">
         <v>388</v>
@@ -13713,7 +13598,7 @@
         <v>11721</v>
       </c>
       <c r="C277" s="37" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D277" s="37" t="s">
         <v>388</v>
@@ -13730,7 +13615,7 @@
         <v>11722</v>
       </c>
       <c r="C278" s="37" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D278" s="37" t="s">
         <v>388</v>
@@ -13747,10 +13632,10 @@
         <v>11723</v>
       </c>
       <c r="C279" s="37" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D279" s="37" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E279" s="38" t="s">
         <v>202</v>
@@ -13764,13 +13649,13 @@
         <v>11724</v>
       </c>
       <c r="C280" s="37" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D280" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -13781,10 +13666,10 @@
         <v>11725</v>
       </c>
       <c r="C281" s="37" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D281" s="37" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E281" s="38" t="s">
         <v>136</v>
@@ -13798,13 +13683,13 @@
         <v>11726</v>
       </c>
       <c r="C282" s="37" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D282" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E282" s="38" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -13815,13 +13700,13 @@
         <v>11727</v>
       </c>
       <c r="C283" s="37" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D283" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E283" s="38" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -13832,13 +13717,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -13849,13 +13734,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -13866,13 +13751,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -13883,13 +13768,13 @@
         <v>11734</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D287" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -13900,13 +13785,13 @@
         <v>11741</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E288" s="27" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -13917,13 +13802,13 @@
         <v>11742</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -13934,13 +13819,13 @@
         <v>11743</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -13951,13 +13836,13 @@
         <v>11744</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -13968,13 +13853,13 @@
         <v>11751</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E292" s="45" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -13985,13 +13870,13 @@
         <v>11752</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E293" s="45" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -14002,13 +13887,13 @@
         <v>11753</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E294" s="45" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -14019,13 +13904,13 @@
         <v>11754</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E295" s="45" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -14036,13 +13921,13 @@
         <v>11755</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E296" s="45" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -14053,13 +13938,13 @@
         <v>11761</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E297" s="45" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -14070,13 +13955,13 @@
         <v>11762</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -14087,13 +13972,13 @@
         <v>11763</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="527">
   <si>
     <t>id|</t>
   </si>
@@ -2040,34 +2040,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2513,24 +2485,193 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>重阳抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>1000,1000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>500,500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>300,300</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1000福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>500福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>300福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,12000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2702,7 +2843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2829,6 +2970,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3107,11 +3257,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4377,7 +4527,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C42" s="26">
         <v>1599523200</v>
@@ -4405,7 +4555,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C43" s="6">
         <v>1600732800</v>
@@ -4428,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C44" s="13">
         <v>1592841599</v>
@@ -4451,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C45" s="13">
         <v>1592841599</v>
@@ -4474,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C46" s="13">
         <v>1592841599</v>
@@ -4489,6 +4639,34 @@
         <v>45</v>
       </c>
       <c r="L46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" s="47">
+        <v>1603152000</v>
+      </c>
+      <c r="D47" s="47">
+        <v>1603727999</v>
+      </c>
+      <c r="E47" s="49">
+        <v>41</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="47">
+        <v>46</v>
+      </c>
+      <c r="L47" s="47">
         <v>1</v>
       </c>
     </row>
@@ -4503,10 +4681,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5041,7 +5219,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -5055,7 +5233,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D39" s="6">
         <v>100</v>
@@ -5069,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D40" s="6">
         <v>100</v>
@@ -5083,10 +5261,24 @@
         <v>40</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D41" s="6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17">
+        <v>41</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5141,13 +5333,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D284" sqref="D284:D287"/>
+      <selection pane="bottomRight" activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5169,7 +5361,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
@@ -9346,6 +9538,90 @@
       </c>
       <c r="D299" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1">
+        <v>46</v>
+      </c>
+      <c r="C300" s="1">
+        <v>11773</v>
+      </c>
+      <c r="D300" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1">
+        <v>46</v>
+      </c>
+      <c r="C301" s="1">
+        <v>11774</v>
+      </c>
+      <c r="D301" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1">
+        <v>46</v>
+      </c>
+      <c r="C302" s="1">
+        <v>11775</v>
+      </c>
+      <c r="D302" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1">
+        <v>46</v>
+      </c>
+      <c r="C303" s="1">
+        <v>11776</v>
+      </c>
+      <c r="D303" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1">
+        <v>46</v>
+      </c>
+      <c r="C304" s="1">
+        <v>11777</v>
+      </c>
+      <c r="D304" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1">
+        <v>46</v>
+      </c>
+      <c r="C305" s="1">
+        <v>11778</v>
+      </c>
+      <c r="D305" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9357,10 +9633,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9374,7 +9651,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
@@ -13428,13 +13705,13 @@
         <v>11711</v>
       </c>
       <c r="C267" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D267" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -13445,7 +13722,7 @@
         <v>11712</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D268" s="41" t="s">
         <v>388</v>
@@ -13462,13 +13739,13 @@
         <v>11713</v>
       </c>
       <c r="C269" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D269" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -13479,13 +13756,13 @@
         <v>11714</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D270" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -13496,13 +13773,13 @@
         <v>11715</v>
       </c>
       <c r="C271" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D271" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -13513,13 +13790,13 @@
         <v>11716</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D272" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E272" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -13530,13 +13807,13 @@
         <v>11717</v>
       </c>
       <c r="C273" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D273" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -13547,13 +13824,13 @@
         <v>11718</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D274" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E274" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -13564,7 +13841,7 @@
         <v>11719</v>
       </c>
       <c r="C275" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D275" s="37" t="s">
         <v>388</v>
@@ -13581,7 +13858,7 @@
         <v>11720</v>
       </c>
       <c r="C276" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D276" s="37" t="s">
         <v>388</v>
@@ -13598,7 +13875,7 @@
         <v>11721</v>
       </c>
       <c r="C277" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D277" s="37" t="s">
         <v>388</v>
@@ -13615,7 +13892,7 @@
         <v>11722</v>
       </c>
       <c r="C278" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D278" s="37" t="s">
         <v>388</v>
@@ -13632,10 +13909,10 @@
         <v>11723</v>
       </c>
       <c r="C279" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D279" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E279" s="38" t="s">
         <v>202</v>
@@ -13649,13 +13926,13 @@
         <v>11724</v>
       </c>
       <c r="C280" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D280" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -13666,10 +13943,10 @@
         <v>11725</v>
       </c>
       <c r="C281" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D281" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E281" s="38" t="s">
         <v>136</v>
@@ -13683,13 +13960,13 @@
         <v>11726</v>
       </c>
       <c r="C282" s="37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D282" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E282" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -13700,13 +13977,13 @@
         <v>11727</v>
       </c>
       <c r="C283" s="37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D283" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E283" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -13717,13 +13994,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -13734,13 +14011,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -13751,13 +14028,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -13774,7 +14051,7 @@
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -13785,13 +14062,13 @@
         <v>11741</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D288" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E288" s="27" t="s">
         <v>470</v>
-      </c>
-      <c r="E288" s="27" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -13802,13 +14079,13 @@
         <v>11742</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -13819,13 +14096,13 @@
         <v>11743</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -13836,13 +14113,13 @@
         <v>11744</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -13853,13 +14130,13 @@
         <v>11751</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E292" s="45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -13870,13 +14147,13 @@
         <v>11752</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>30</v>
+        <v>481</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="E293" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -13887,13 +14164,13 @@
         <v>11753</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E294" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -13904,13 +14181,13 @@
         <v>11754</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E295" s="45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -13921,13 +14198,13 @@
         <v>11755</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>42</v>
+        <v>484</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="E296" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -13938,13 +14215,13 @@
         <v>11761</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E297" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -13955,13 +14232,13 @@
         <v>11762</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -13972,13 +14249,109 @@
         <v>11763</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1">
+        <v>11773</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E300" s="45" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1">
+        <v>11774</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E301" s="45" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1">
+        <v>11775</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E302" s="45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1">
+        <v>11776</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" s="45" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1">
+        <v>11777</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E304" s="45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1">
+        <v>11778</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -13993,8 +14366,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3259,9 +3259,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4661,8 +4661,12 @@
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="I47" s="36">
+        <v>1</v>
+      </c>
+      <c r="J47" s="36">
+        <v>0</v>
+      </c>
       <c r="K47" s="47">
         <v>46</v>
       </c>
@@ -5335,11 +5339,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D300" sqref="D300"/>
+      <selection pane="bottomRight" activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="594">
   <si>
     <t>id|</t>
   </si>
@@ -2654,24 +2654,749 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>白银宝箱v1-v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱v1-v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱v1-v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱v4-v10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱v4-v10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱v4-v10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>030万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>040万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>060万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>050万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>080万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>180万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>280万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000,650000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>680000,680000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,3000000</t>
+  </si>
+  <si>
+    <t>4000000,4000000</t>
+  </si>
+  <si>
+    <t>8000000,8000000</t>
+  </si>
+  <si>
+    <t>10000000,10000000</t>
+  </si>
+  <si>
+    <t>15000000,15000000</t>
+  </si>
+  <si>
+    <t>20000000,20000000</t>
+  </si>
+  <si>
+    <t>30000000,30000000</t>
+  </si>
+  <si>
+    <t>50000000,50000000</t>
+  </si>
+  <si>
+    <t>60000000,60000000</t>
+  </si>
+  <si>
+    <t>100000000,100000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>12000,12000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>15,15</t>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,140000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>20000,20000</t>
+    <t>300000,400000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>30,30</t>
+    <t>650000,850000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>50000,50000</t>
+    <t>10-14万金币</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-40万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>65-85万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_cjlb_1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +3497,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2800,6 +3525,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2843,7 +3580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2979,6 +3716,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3257,11 +4023,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3281,7 +4047,7 @@
     <col min="18" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4671,6 +5437,282 @@
         <v>46</v>
       </c>
       <c r="L47" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
+        <v>47</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="C48" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E48" s="52">
+        <v>42</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53">
+        <v>1</v>
+      </c>
+      <c r="J48" s="53">
+        <v>0</v>
+      </c>
+      <c r="K48" s="50">
+        <v>47</v>
+      </c>
+      <c r="L48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50">
+        <v>48</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E49" s="52">
+        <v>43</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53">
+        <v>1</v>
+      </c>
+      <c r="J49" s="53">
+        <v>0</v>
+      </c>
+      <c r="K49" s="50">
+        <v>48</v>
+      </c>
+      <c r="L49" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D50" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E50" s="52">
+        <v>44</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53">
+        <v>1</v>
+      </c>
+      <c r="J50" s="53">
+        <v>0</v>
+      </c>
+      <c r="K50" s="50">
+        <v>49</v>
+      </c>
+      <c r="L50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
+        <v>50</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D51" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E51" s="52">
+        <v>45</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53">
+        <v>1</v>
+      </c>
+      <c r="J51" s="53">
+        <v>0</v>
+      </c>
+      <c r="K51" s="50">
+        <v>50</v>
+      </c>
+      <c r="L51" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50">
+        <v>51</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D52" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E52" s="52">
+        <v>46</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53">
+        <v>1</v>
+      </c>
+      <c r="J52" s="53">
+        <v>0</v>
+      </c>
+      <c r="K52" s="50">
+        <v>51</v>
+      </c>
+      <c r="L52" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="50">
+        <v>52</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="C53" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D53" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E53" s="52">
+        <v>47</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="50">
+        <v>52</v>
+      </c>
+      <c r="L53" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="55">
+        <v>53</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="C54" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="D54" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="E54" s="56">
+        <v>48</v>
+      </c>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="59">
+        <v>53</v>
+      </c>
+      <c r="L54" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="C55" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="D55" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="E55" s="56">
+        <v>49</v>
+      </c>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="59">
+        <v>54</v>
+      </c>
+      <c r="L55" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="55">
+        <v>55</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="C56" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="D56" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="E56" s="56">
+        <v>50</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="59">
+        <v>55</v>
+      </c>
+      <c r="L56" s="55">
         <v>1</v>
       </c>
     </row>
@@ -4685,10 +5727,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5282,6 +6325,132 @@
         <v>506</v>
       </c>
       <c r="D42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="53">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53">
+        <v>42</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="D43" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53">
+        <v>43</v>
+      </c>
+      <c r="B44" s="53">
+        <v>43</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53">
+        <v>44</v>
+      </c>
+      <c r="B45" s="53">
+        <v>44</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="53">
+        <v>45</v>
+      </c>
+      <c r="B46" s="53">
+        <v>45</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="53">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53">
+        <v>46</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="53">
+        <v>47</v>
+      </c>
+      <c r="B48" s="53">
+        <v>47</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>48</v>
+      </c>
+      <c r="B49" s="57">
+        <v>48</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="D49" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="57">
+        <v>49</v>
+      </c>
+      <c r="B50" s="57">
+        <v>49</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="D50" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>50</v>
+      </c>
+      <c r="B51" s="57">
+        <v>50</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="D51" s="55">
         <v>1</v>
       </c>
     </row>
@@ -5337,13 +6506,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D306" sqref="D306"/>
+      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9628,6 +10797,552 @@
         <v>0</v>
       </c>
     </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1">
+        <v>47</v>
+      </c>
+      <c r="C306" s="1">
+        <v>11779</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1">
+        <v>47</v>
+      </c>
+      <c r="C307" s="1">
+        <v>11780</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1">
+        <v>47</v>
+      </c>
+      <c r="C308" s="1">
+        <v>11781</v>
+      </c>
+      <c r="D308" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1">
+        <v>47</v>
+      </c>
+      <c r="C309" s="1">
+        <v>11782</v>
+      </c>
+      <c r="D309" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>47</v>
+      </c>
+      <c r="C310" s="1">
+        <v>11783</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1">
+        <v>47</v>
+      </c>
+      <c r="C311" s="1">
+        <v>11784</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1">
+        <v>48</v>
+      </c>
+      <c r="C312" s="1">
+        <v>11785</v>
+      </c>
+      <c r="D312" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1">
+        <v>48</v>
+      </c>
+      <c r="C313" s="1">
+        <v>11786</v>
+      </c>
+      <c r="D313" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1">
+        <v>48</v>
+      </c>
+      <c r="C314" s="1">
+        <v>11787</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>48</v>
+      </c>
+      <c r="C315" s="1">
+        <v>11788</v>
+      </c>
+      <c r="D315" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1">
+        <v>48</v>
+      </c>
+      <c r="C316" s="1">
+        <v>11789</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1">
+        <v>48</v>
+      </c>
+      <c r="C317" s="1">
+        <v>11790</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1">
+        <v>49</v>
+      </c>
+      <c r="C318" s="1">
+        <v>11791</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1">
+        <v>49</v>
+      </c>
+      <c r="C319" s="1">
+        <v>11792</v>
+      </c>
+      <c r="D319" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1">
+        <v>49</v>
+      </c>
+      <c r="C320" s="1">
+        <v>11793</v>
+      </c>
+      <c r="D320" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1">
+        <v>49</v>
+      </c>
+      <c r="C321" s="1">
+        <v>11794</v>
+      </c>
+      <c r="D321" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1">
+        <v>49</v>
+      </c>
+      <c r="C322" s="1">
+        <v>11795</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1">
+        <v>49</v>
+      </c>
+      <c r="C323" s="1">
+        <v>11796</v>
+      </c>
+      <c r="D323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1">
+        <v>50</v>
+      </c>
+      <c r="C324" s="1">
+        <v>11797</v>
+      </c>
+      <c r="D324" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1">
+        <v>50</v>
+      </c>
+      <c r="C325" s="1">
+        <v>11798</v>
+      </c>
+      <c r="D325" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1">
+        <v>50</v>
+      </c>
+      <c r="C326" s="1">
+        <v>11799</v>
+      </c>
+      <c r="D326" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1">
+        <v>50</v>
+      </c>
+      <c r="C327" s="1">
+        <v>11800</v>
+      </c>
+      <c r="D327" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1">
+        <v>50</v>
+      </c>
+      <c r="C328" s="1">
+        <v>11801</v>
+      </c>
+      <c r="D328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1">
+        <v>50</v>
+      </c>
+      <c r="C329" s="1">
+        <v>11802</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1">
+        <v>51</v>
+      </c>
+      <c r="C330" s="1">
+        <v>11803</v>
+      </c>
+      <c r="D330" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1">
+        <v>51</v>
+      </c>
+      <c r="C331" s="1">
+        <v>11804</v>
+      </c>
+      <c r="D331" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1">
+        <v>51</v>
+      </c>
+      <c r="C332" s="1">
+        <v>11805</v>
+      </c>
+      <c r="D332" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1">
+        <v>51</v>
+      </c>
+      <c r="C333" s="1">
+        <v>11806</v>
+      </c>
+      <c r="D333" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1">
+        <v>51</v>
+      </c>
+      <c r="C334" s="1">
+        <v>11807</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1">
+        <v>51</v>
+      </c>
+      <c r="C335" s="1">
+        <v>11808</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>52</v>
+      </c>
+      <c r="C336" s="1">
+        <v>11809</v>
+      </c>
+      <c r="D336" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1">
+        <v>52</v>
+      </c>
+      <c r="C337" s="1">
+        <v>11810</v>
+      </c>
+      <c r="D337" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1">
+        <v>52</v>
+      </c>
+      <c r="C338" s="1">
+        <v>11811</v>
+      </c>
+      <c r="D338" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1">
+        <v>52</v>
+      </c>
+      <c r="C339" s="1">
+        <v>11812</v>
+      </c>
+      <c r="D339" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1">
+        <v>52</v>
+      </c>
+      <c r="C340" s="1">
+        <v>11813</v>
+      </c>
+      <c r="D340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1">
+        <v>52</v>
+      </c>
+      <c r="C341" s="1">
+        <v>11814</v>
+      </c>
+      <c r="D341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="59">
+        <v>341</v>
+      </c>
+      <c r="B342" s="59">
+        <v>53</v>
+      </c>
+      <c r="C342" s="59">
+        <v>11815</v>
+      </c>
+      <c r="D342" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="59">
+        <v>342</v>
+      </c>
+      <c r="B343" s="59">
+        <v>54</v>
+      </c>
+      <c r="C343" s="59">
+        <v>11816</v>
+      </c>
+      <c r="D343" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="59">
+        <v>343</v>
+      </c>
+      <c r="B344" s="59">
+        <v>55</v>
+      </c>
+      <c r="C344" s="59">
+        <v>11817</v>
+      </c>
+      <c r="D344" s="59">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9637,11 +11352,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E304" sqref="E304"/>
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E345" sqref="E345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14276,7 +15991,7 @@
         <v>42</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -14293,7 +16008,7 @@
         <v>30</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -14310,7 +16025,7 @@
         <v>42</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -14327,7 +16042,7 @@
         <v>30</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -14340,14 +16055,14 @@
       <c r="C304" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>42</v>
+      <c r="D304" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14356,6 +16071,669 @@
       </c>
       <c r="C305" s="3" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1">
+        <v>11779</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306" s="45" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1">
+        <v>11780</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1">
+        <v>11781</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" s="45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1">
+        <v>11782</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E309" s="45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>11783</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E310" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1">
+        <v>11784</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" s="45" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1">
+        <v>11785</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E312" s="45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1">
+        <v>11786</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E313" s="45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1">
+        <v>11787</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E314" s="45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>11788</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E315" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1">
+        <v>11789</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E316" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1">
+        <v>11790</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1">
+        <v>11791</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E318" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1">
+        <v>11792</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E319" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1">
+        <v>11793</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E320" s="45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1">
+        <v>11794</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E321" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1">
+        <v>11795</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E322" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1">
+        <v>11796</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E323" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1">
+        <v>11797</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E324" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1">
+        <v>11798</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E325" s="45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1">
+        <v>11799</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E326" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1">
+        <v>11800</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E327" s="45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1">
+        <v>11801</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1">
+        <v>11802</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E329" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1">
+        <v>11803</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E330" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1">
+        <v>11804</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331" s="45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1">
+        <v>11805</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1">
+        <v>11806</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1">
+        <v>11807</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1">
+        <v>11808</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E335" s="45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>11809</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336" s="45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1">
+        <v>11810</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E337" s="45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1">
+        <v>11811</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E338" s="45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1">
+        <v>11812</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1">
+        <v>11813</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E340" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1">
+        <v>11814</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E341" s="45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="57">
+        <v>341</v>
+      </c>
+      <c r="B342" s="59">
+        <v>11815</v>
+      </c>
+      <c r="C342" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="D342" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E342" s="60" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="57">
+        <v>342</v>
+      </c>
+      <c r="B343" s="59">
+        <v>11816</v>
+      </c>
+      <c r="C343" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="D343" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E343" s="60" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="57">
+        <v>343</v>
+      </c>
+      <c r="B344" s="59">
+        <v>11817</v>
+      </c>
+      <c r="C344" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="D344" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" s="60" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="608">
   <si>
     <t>id|</t>
   </si>
@@ -2598,10 +2598,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3397,6 +3393,157 @@
   </si>
   <si>
     <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>双十一抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,12000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,20000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,50000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>华为P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3497,7 +3644,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3537,6 +3684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3580,7 +3733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3708,15 +3861,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3744,6 +3888,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4023,11 +4186,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5408,311 +5571,339 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
+    <row r="47" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="18">
         <v>1603152000</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="18">
         <v>1603727999</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="28">
         <v>41</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17">
         <v>1</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="17">
         <v>0</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="18">
         <v>46</v>
       </c>
-      <c r="L47" s="47">
+      <c r="L47" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50">
+    <row r="48" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="47">
         <v>47</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="C48" s="47">
+        <v>1603756800</v>
+      </c>
+      <c r="D48" s="47">
+        <v>1604332799</v>
+      </c>
+      <c r="E48" s="49">
+        <v>42</v>
+      </c>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50">
+        <v>1</v>
+      </c>
+      <c r="J48" s="50">
+        <v>0</v>
+      </c>
+      <c r="K48" s="47">
+        <v>47</v>
+      </c>
+      <c r="L48" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47">
+        <v>48</v>
+      </c>
+      <c r="B49" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C49" s="47">
         <v>1603756800</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D49" s="47">
         <v>1604332799</v>
       </c>
-      <c r="E48" s="52">
-        <v>42</v>
-      </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53">
+      <c r="E49" s="49">
+        <v>43</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50">
         <v>1</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J49" s="50">
         <v>0</v>
       </c>
-      <c r="K48" s="50">
+      <c r="K49" s="47">
+        <v>48</v>
+      </c>
+      <c r="L49" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="47">
+        <v>49</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="C50" s="47">
+        <v>1603756800</v>
+      </c>
+      <c r="D50" s="47">
+        <v>1604332799</v>
+      </c>
+      <c r="E50" s="49">
+        <v>44</v>
+      </c>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50">
+        <v>1</v>
+      </c>
+      <c r="J50" s="50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="47">
+        <v>49</v>
+      </c>
+      <c r="L50" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47">
+        <v>50</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="C51" s="47">
+        <v>1603756800</v>
+      </c>
+      <c r="D51" s="47">
+        <v>1604332799</v>
+      </c>
+      <c r="E51" s="49">
+        <v>45</v>
+      </c>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50">
+        <v>1</v>
+      </c>
+      <c r="J51" s="50">
+        <v>0</v>
+      </c>
+      <c r="K51" s="47">
+        <v>50</v>
+      </c>
+      <c r="L51" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="47">
+        <v>51</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C52" s="47">
+        <v>1603756800</v>
+      </c>
+      <c r="D52" s="47">
+        <v>1604332799</v>
+      </c>
+      <c r="E52" s="49">
+        <v>46</v>
+      </c>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50">
+        <v>1</v>
+      </c>
+      <c r="J52" s="50">
+        <v>0</v>
+      </c>
+      <c r="K52" s="47">
+        <v>51</v>
+      </c>
+      <c r="L52" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="47">
+        <v>52</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="C53" s="47">
+        <v>1603756800</v>
+      </c>
+      <c r="D53" s="47">
+        <v>1604332799</v>
+      </c>
+      <c r="E53" s="49">
         <v>47</v>
       </c>
-      <c r="L48" s="50">
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50">
+      <c r="J53" s="50">
+        <v>0</v>
+      </c>
+      <c r="K53" s="47">
+        <v>52</v>
+      </c>
+      <c r="L53" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52">
+        <v>53</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C54" s="52">
+        <v>1603756800</v>
+      </c>
+      <c r="D54" s="52">
+        <v>2552233600</v>
+      </c>
+      <c r="E54" s="53">
         <v>48</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>523</v>
-      </c>
-      <c r="C49" s="50">
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="56">
+        <v>53</v>
+      </c>
+      <c r="L54" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52">
+        <v>54</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C55" s="52">
         <v>1603756800</v>
       </c>
-      <c r="D49" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="E49" s="52">
-        <v>43</v>
-      </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53">
+      <c r="D55" s="52">
+        <v>2552233600</v>
+      </c>
+      <c r="E55" s="53">
+        <v>49</v>
+      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="56">
+        <v>54</v>
+      </c>
+      <c r="L55" s="52">
         <v>1</v>
       </c>
-      <c r="J49" s="53">
-        <v>0</v>
-      </c>
-      <c r="K49" s="50">
-        <v>48</v>
-      </c>
-      <c r="L49" s="50">
+    </row>
+    <row r="56" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52">
+        <v>55</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="C56" s="52">
+        <v>1603756800</v>
+      </c>
+      <c r="D56" s="52">
+        <v>2552233600</v>
+      </c>
+      <c r="E56" s="53">
+        <v>50</v>
+      </c>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="56">
+        <v>55</v>
+      </c>
+      <c r="L56" s="52">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="C50" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="D50" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="E50" s="52">
-        <v>44</v>
-      </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53">
-        <v>1</v>
-      </c>
-      <c r="J50" s="53">
-        <v>0</v>
-      </c>
-      <c r="K50" s="50">
-        <v>49</v>
-      </c>
-      <c r="L50" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50">
-        <v>50</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="C51" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="D51" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="E51" s="52">
-        <v>45</v>
-      </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53">
-        <v>1</v>
-      </c>
-      <c r="J51" s="53">
-        <v>0</v>
-      </c>
-      <c r="K51" s="50">
-        <v>50</v>
-      </c>
-      <c r="L51" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+    <row r="57" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="58">
+        <v>56</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="58">
+        <v>1604966400</v>
+      </c>
+      <c r="D57" s="58">
+        <v>1605542399</v>
+      </c>
+      <c r="E57" s="59">
         <v>51</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="C52" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="D52" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="E52" s="52">
-        <v>46</v>
-      </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53">
-        <v>1</v>
-      </c>
-      <c r="J52" s="53">
-        <v>0</v>
-      </c>
-      <c r="K52" s="50">
-        <v>51</v>
-      </c>
-      <c r="L52" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="50">
-        <v>52</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="C53" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="D53" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="E53" s="52">
-        <v>47</v>
-      </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53">
-        <v>1</v>
-      </c>
-      <c r="J53" s="53">
-        <v>0</v>
-      </c>
-      <c r="K53" s="50">
-        <v>52</v>
-      </c>
-      <c r="L53" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55">
-        <v>53</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>581</v>
-      </c>
-      <c r="C54" s="55">
-        <v>1603756800</v>
-      </c>
-      <c r="D54" s="55">
-        <v>2552233600</v>
-      </c>
-      <c r="E54" s="56">
-        <v>48</v>
-      </c>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="59">
-        <v>53</v>
-      </c>
-      <c r="L54" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>582</v>
-      </c>
-      <c r="C55" s="55">
-        <v>1603756800</v>
-      </c>
-      <c r="D55" s="55">
-        <v>2552233600</v>
-      </c>
-      <c r="E55" s="56">
-        <v>49</v>
-      </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="59">
-        <v>54</v>
-      </c>
-      <c r="L55" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55">
-        <v>55</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="C56" s="55">
-        <v>1603756800</v>
-      </c>
-      <c r="D56" s="55">
-        <v>2552233600</v>
-      </c>
-      <c r="E56" s="56">
-        <v>50</v>
-      </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="59">
-        <v>55</v>
-      </c>
-      <c r="L56" s="55">
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="58">
+        <v>56</v>
+      </c>
+      <c r="L57" s="58">
         <v>1</v>
       </c>
     </row>
@@ -5727,11 +5918,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6328,129 +6519,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53">
+    <row r="43" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="50">
         <v>42</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="50">
         <v>42</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="D43" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="50">
+        <v>43</v>
+      </c>
+      <c r="B44" s="50">
+        <v>43</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="50">
+        <v>44</v>
+      </c>
+      <c r="B45" s="50">
+        <v>44</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="50">
+        <v>45</v>
+      </c>
+      <c r="B46" s="50">
+        <v>45</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="50">
+        <v>46</v>
+      </c>
+      <c r="B47" s="50">
+        <v>46</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
+        <v>47</v>
+      </c>
+      <c r="B48" s="50">
+        <v>47</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="54">
+        <v>48</v>
+      </c>
+      <c r="B49" s="54">
+        <v>48</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="D49" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="54">
+        <v>49</v>
+      </c>
+      <c r="B50" s="54">
+        <v>49</v>
+      </c>
+      <c r="C50" s="55" t="s">
         <v>590</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D50" s="52">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53">
-        <v>43</v>
-      </c>
-      <c r="B44" s="53">
-        <v>43</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" s="50">
+    <row r="51" spans="1:4" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="54">
+        <v>50</v>
+      </c>
+      <c r="B51" s="54">
+        <v>50</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="D51" s="52">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53">
-        <v>44</v>
-      </c>
-      <c r="B45" s="53">
-        <v>44</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="53">
-        <v>45</v>
-      </c>
-      <c r="B46" s="53">
-        <v>45</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="D46" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="53">
-        <v>46</v>
-      </c>
-      <c r="B47" s="53">
-        <v>46</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="53">
-        <v>47</v>
-      </c>
-      <c r="B48" s="53">
-        <v>47</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
-        <v>48</v>
-      </c>
-      <c r="B49" s="57">
-        <v>48</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="D49" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="57">
-        <v>49</v>
-      </c>
-      <c r="B50" s="57">
-        <v>49</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>591</v>
-      </c>
-      <c r="D50" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
-        <v>50</v>
-      </c>
-      <c r="B51" s="57">
-        <v>50</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="D51" s="55">
+    <row r="52" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="60">
+        <v>51</v>
+      </c>
+      <c r="B52" s="60">
+        <v>51</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52" s="58">
         <v>1</v>
       </c>
     </row>
@@ -6506,13 +6711,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E344"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
+      <selection pane="bottomRight" activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11301,46 +11506,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="59">
+    <row r="342" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="56">
         <v>341</v>
       </c>
-      <c r="B342" s="59">
+      <c r="B342" s="56">
         <v>53</v>
       </c>
-      <c r="C342" s="59">
+      <c r="C342" s="56">
         <v>11815</v>
       </c>
-      <c r="D342" s="59">
+      <c r="D342" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="59">
+    <row r="343" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="56">
         <v>342</v>
       </c>
-      <c r="B343" s="59">
+      <c r="B343" s="56">
         <v>54</v>
       </c>
-      <c r="C343" s="59">
+      <c r="C343" s="56">
         <v>11816</v>
       </c>
-      <c r="D343" s="59">
+      <c r="D343" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="59">
+    <row r="344" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="56">
         <v>343</v>
       </c>
-      <c r="B344" s="59">
+      <c r="B344" s="56">
         <v>55</v>
       </c>
-      <c r="C344" s="59">
+      <c r="C344" s="56">
         <v>11817</v>
       </c>
-      <c r="D344" s="59">
+      <c r="D344" s="56">
         <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="61">
+        <v>344</v>
+      </c>
+      <c r="B345" s="61">
+        <v>56</v>
+      </c>
+      <c r="C345" s="61">
+        <v>11818</v>
+      </c>
+      <c r="D345" s="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="61">
+        <v>345</v>
+      </c>
+      <c r="B346" s="61">
+        <v>56</v>
+      </c>
+      <c r="C346" s="61">
+        <v>11819</v>
+      </c>
+      <c r="D346" s="61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="61">
+        <v>346</v>
+      </c>
+      <c r="B347" s="61">
+        <v>56</v>
+      </c>
+      <c r="C347" s="61">
+        <v>11820</v>
+      </c>
+      <c r="D347" s="61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="61">
+        <v>347</v>
+      </c>
+      <c r="B348" s="61">
+        <v>56</v>
+      </c>
+      <c r="C348" s="61">
+        <v>11821</v>
+      </c>
+      <c r="D348" s="61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="61">
+        <v>348</v>
+      </c>
+      <c r="B349" s="61">
+        <v>56</v>
+      </c>
+      <c r="C349" s="61">
+        <v>11822</v>
+      </c>
+      <c r="D349" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="61">
+        <v>349</v>
+      </c>
+      <c r="B350" s="61">
+        <v>56</v>
+      </c>
+      <c r="C350" s="61">
+        <v>11823</v>
+      </c>
+      <c r="D350" s="61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11352,11 +11641,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E345" sqref="E345"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15713,13 +16002,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -15730,13 +16019,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -15747,13 +16036,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -15770,7 +16059,7 @@
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -15869,7 +16158,7 @@
         <v>481</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="E293" s="45" t="s">
         <v>486</v>
@@ -15991,7 +16280,7 @@
         <v>42</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -16008,7 +16297,7 @@
         <v>30</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -16025,7 +16314,7 @@
         <v>42</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -16042,7 +16331,7 @@
         <v>30</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -16056,10 +16345,10 @@
         <v>511</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -16081,13 +16370,13 @@
         <v>11779</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E306" s="45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -16098,13 +16387,13 @@
         <v>11780</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E307" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -16115,7 +16404,7 @@
         <v>11781</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>42</v>
@@ -16132,7 +16421,7 @@
         <v>11782</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>42</v>
@@ -16149,7 +16438,7 @@
         <v>11783</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>42</v>
@@ -16166,13 +16455,13 @@
         <v>11784</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E311" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -16183,7 +16472,7 @@
         <v>11785</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>42</v>
@@ -16200,7 +16489,7 @@
         <v>11786</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>42</v>
@@ -16217,7 +16506,7 @@
         <v>11787</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>42</v>
@@ -16234,7 +16523,7 @@
         <v>11788</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>42</v>
@@ -16251,13 +16540,13 @@
         <v>11789</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E316" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -16268,7 +16557,7 @@
         <v>11790</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>42</v>
@@ -16285,7 +16574,7 @@
         <v>11791</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>42</v>
@@ -16302,7 +16591,7 @@
         <v>11792</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>42</v>
@@ -16319,7 +16608,7 @@
         <v>11793</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>42</v>
@@ -16336,7 +16625,7 @@
         <v>11794</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>42</v>
@@ -16353,13 +16642,13 @@
         <v>11795</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E322" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -16370,13 +16659,13 @@
         <v>11796</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E323" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -16387,7 +16676,7 @@
         <v>11797</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>42</v>
@@ -16404,7 +16693,7 @@
         <v>11798</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>42</v>
@@ -16421,7 +16710,7 @@
         <v>11799</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>42</v>
@@ -16438,7 +16727,7 @@
         <v>11800</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>42</v>
@@ -16455,13 +16744,13 @@
         <v>11801</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E328" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -16472,13 +16761,13 @@
         <v>11802</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E329" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -16489,7 +16778,7 @@
         <v>11803</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>42</v>
@@ -16506,7 +16795,7 @@
         <v>11804</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>42</v>
@@ -16523,7 +16812,7 @@
         <v>11805</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>42</v>
@@ -16540,7 +16829,7 @@
         <v>11806</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>42</v>
@@ -16557,13 +16846,13 @@
         <v>11807</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E334" s="45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -16574,13 +16863,13 @@
         <v>11808</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E335" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -16591,7 +16880,7 @@
         <v>11809</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>42</v>
@@ -16608,7 +16897,7 @@
         <v>11810</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>42</v>
@@ -16625,7 +16914,7 @@
         <v>11811</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>42</v>
@@ -16642,7 +16931,7 @@
         <v>11812</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>42</v>
@@ -16659,13 +16948,13 @@
         <v>11813</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E340" s="45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -16676,65 +16965,163 @@
         <v>11814</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E341" s="45" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="57">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="54">
         <v>341</v>
       </c>
-      <c r="B342" s="59">
+      <c r="B342" s="56">
         <v>11815</v>
       </c>
-      <c r="C342" s="59" t="s">
+      <c r="C342" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="D342" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E342" s="57" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="54">
+        <v>342</v>
+      </c>
+      <c r="B343" s="56">
+        <v>11816</v>
+      </c>
+      <c r="C343" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="D342" s="59" t="s">
+      <c r="D343" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E342" s="60" t="s">
+      <c r="E343" s="57" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="343" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="57">
-        <v>342</v>
-      </c>
-      <c r="B343" s="59">
-        <v>11816</v>
-      </c>
-      <c r="C343" s="59" t="s">
+    <row r="344" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="54">
+        <v>343</v>
+      </c>
+      <c r="B344" s="56">
+        <v>11817</v>
+      </c>
+      <c r="C344" s="56" t="s">
         <v>588</v>
       </c>
-      <c r="D343" s="59" t="s">
+      <c r="D344" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E343" s="60" t="s">
+      <c r="E344" s="57" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="57">
-        <v>343</v>
-      </c>
-      <c r="B344" s="59">
-        <v>11817</v>
-      </c>
-      <c r="C344" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="D344" s="59" t="s">
+    <row r="345" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="60">
+        <v>344</v>
+      </c>
+      <c r="B345" s="61">
+        <v>11818</v>
+      </c>
+      <c r="C345" s="61" t="s">
+        <v>595</v>
+      </c>
+      <c r="D345" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E344" s="60" t="s">
-        <v>586</v>
-      </c>
+      <c r="E345" s="63" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="60">
+        <v>345</v>
+      </c>
+      <c r="B346" s="61">
+        <v>11819</v>
+      </c>
+      <c r="C346" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="D346" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="E346" s="63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="60">
+        <v>346</v>
+      </c>
+      <c r="B347" s="61">
+        <v>11820</v>
+      </c>
+      <c r="C347" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="D347" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347" s="63" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="60">
+        <v>347</v>
+      </c>
+      <c r="B348" s="61">
+        <v>11821</v>
+      </c>
+      <c r="C348" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D348" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="E348" s="63" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="60">
+        <v>348</v>
+      </c>
+      <c r="B349" s="61">
+        <v>11822</v>
+      </c>
+      <c r="C349" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="D349" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349" s="63" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="60">
+        <v>349</v>
+      </c>
+      <c r="B350" s="61">
+        <v>11823</v>
+      </c>
+      <c r="C350" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="D350" s="61"/>
+      <c r="E350" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="672">
   <si>
     <t>id|</t>
   </si>
@@ -3722,6 +3722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3743,6 +3744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3802,6 +3804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3957,6 +3960,30 @@
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4595,11 +4622,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6400,6 +6427,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D61" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E61" s="4">
+        <v>55</v>
+      </c>
+      <c r="K61" s="6">
+        <v>60</v>
+      </c>
+      <c r="L61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D62" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E62" s="4">
+        <v>56</v>
+      </c>
+      <c r="K62" s="6">
+        <v>61</v>
+      </c>
+      <c r="L62" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6411,11 +6484,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7192,6 +7265,34 @@
       </c>
       <c r="D55" s="49">
         <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17">
+        <v>55</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>668</v>
+      </c>
+      <c r="D56" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17">
+        <v>56</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="D57" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7246,13 +7347,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E377"/>
+  <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B353" sqref="B353"/>
+      <selection pane="bottomRight" activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12545,6 +12646,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="378" spans="1:4" s="13" customFormat="1">
+      <c r="A378" s="13">
+        <v>377</v>
+      </c>
+      <c r="B378" s="13">
+        <v>60</v>
+      </c>
+      <c r="C378" s="13">
+        <v>11851</v>
+      </c>
+      <c r="D378" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="13" customFormat="1">
+      <c r="A379" s="13">
+        <v>378</v>
+      </c>
+      <c r="B379" s="13">
+        <v>61</v>
+      </c>
+      <c r="C379" s="13">
+        <v>11852</v>
+      </c>
+      <c r="D379" s="13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12554,11 +12683,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F368" sqref="F368"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18493,6 +18622,40 @@
       </c>
       <c r="E377" s="57" t="s">
         <v>655</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="16.5">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" s="1">
+        <v>11851</v>
+      </c>
+      <c r="C378" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D378" s="46" t="s">
+        <v>670</v>
+      </c>
+      <c r="E378" s="45" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="16.5">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" s="1">
+        <v>11852</v>
+      </c>
+      <c r="C379" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D379" s="46" t="s">
+        <v>671</v>
+      </c>
+      <c r="E379" s="45" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="678">
   <si>
     <t>id|</t>
   </si>
@@ -3963,6 +3963,18 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>顶级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3971,6 +3983,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3979,12 +3995,20 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_3d_fish_nuclear_bomb_4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>prop_3d_fish_nuclear_bomb_5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4092,7 +4116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4141,6 +4165,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4181,7 +4217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4343,6 +4379,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4622,11 +4681,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6427,26 +6486,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="6">
+    <row r="61" spans="1:12" s="61" customFormat="1">
+      <c r="A61" s="61">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="C61" s="13">
-        <v>1592841599</v>
-      </c>
-      <c r="D61" s="13">
-        <v>32503651200</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="B61" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1607385600</v>
+      </c>
+      <c r="D61" s="64">
+        <v>1607961599</v>
+      </c>
+      <c r="E61" s="62">
         <v>55</v>
       </c>
-      <c r="K61" s="6">
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="61">
         <v>60</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="61">
         <v>1</v>
       </c>
     </row>
@@ -6455,7 +6519,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C62" s="13">
         <v>1592841599</v>
@@ -6466,10 +6530,34 @@
       <c r="E62" s="4">
         <v>56</v>
       </c>
+      <c r="F62" s="13"/>
       <c r="K62" s="6">
         <v>61</v>
       </c>
       <c r="L62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D63" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E63" s="4">
+        <v>57</v>
+      </c>
+      <c r="K63" s="6">
+        <v>62</v>
+      </c>
+      <c r="L63" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6484,11 +6572,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7268,17 +7356,17 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="17">
+      <c r="A56" s="51">
         <v>55</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="51">
         <v>55</v>
       </c>
-      <c r="C56" s="44" t="s">
-        <v>668</v>
+      <c r="C56" s="65" t="s">
+        <v>667</v>
       </c>
       <c r="D56" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7289,9 +7377,23 @@
         <v>56</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D57" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17">
+        <v>57</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="D58" s="6">
         <v>100</v>
       </c>
     </row>
@@ -7347,13 +7449,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C378" sqref="C378"/>
+      <selection pane="bottomRight" activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12646,31 +12748,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="13" customFormat="1">
-      <c r="A378" s="13">
+    <row r="378" spans="1:4" s="64" customFormat="1">
+      <c r="A378" s="64">
         <v>377</v>
       </c>
-      <c r="B378" s="13">
+      <c r="B378" s="64">
         <v>60</v>
       </c>
-      <c r="C378" s="13">
+      <c r="C378" s="64">
         <v>11851</v>
       </c>
-      <c r="D378" s="13">
+      <c r="D378" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="64" customFormat="1">
+      <c r="A379" s="64">
+        <v>378</v>
+      </c>
+      <c r="B379" s="64">
+        <v>60</v>
+      </c>
+      <c r="C379" s="64">
+        <v>11852</v>
+      </c>
+      <c r="D379" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="64" customFormat="1">
+      <c r="A380" s="64">
+        <v>379</v>
+      </c>
+      <c r="B380" s="64">
+        <v>60</v>
+      </c>
+      <c r="C380" s="64">
+        <v>11853</v>
+      </c>
+      <c r="D380" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" s="64" customFormat="1">
+      <c r="A381" s="64">
+        <v>380</v>
+      </c>
+      <c r="B381" s="64">
+        <v>60</v>
+      </c>
+      <c r="C381" s="64">
+        <v>11854</v>
+      </c>
+      <c r="D381" s="64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" s="64" customFormat="1">
+      <c r="A382" s="64">
+        <v>381</v>
+      </c>
+      <c r="B382" s="64">
+        <v>60</v>
+      </c>
+      <c r="C382" s="64">
+        <v>11855</v>
+      </c>
+      <c r="D382" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="64" customFormat="1">
+      <c r="A383" s="64">
+        <v>382</v>
+      </c>
+      <c r="B383" s="64">
+        <v>60</v>
+      </c>
+      <c r="C383" s="64">
+        <v>11856</v>
+      </c>
+      <c r="D383" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="13">
+        <v>383</v>
+      </c>
+      <c r="B384" s="13">
+        <v>61</v>
+      </c>
+      <c r="C384" s="64">
+        <v>11857</v>
+      </c>
+      <c r="D384" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="13" customFormat="1">
-      <c r="A379" s="13">
-        <v>378</v>
-      </c>
-      <c r="B379" s="13">
-        <v>61</v>
-      </c>
-      <c r="C379" s="13">
-        <v>11852</v>
-      </c>
-      <c r="D379" s="13">
+    <row r="385" spans="1:4">
+      <c r="A385" s="13">
+        <v>384</v>
+      </c>
+      <c r="B385" s="13">
+        <v>62</v>
+      </c>
+      <c r="C385" s="64">
+        <v>11858</v>
+      </c>
+      <c r="D385" s="13">
         <v>1</v>
       </c>
     </row>
@@ -12683,11 +12869,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F379"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18624,38 +18810,136 @@
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="16.5">
-      <c r="A378">
+    <row r="378" spans="1:5" s="66" customFormat="1">
+      <c r="A378" s="66">
         <v>377</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="64">
         <v>11851</v>
       </c>
-      <c r="C378" s="15" t="s">
+      <c r="C378" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="D378" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E378" s="67" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" s="66" customFormat="1">
+      <c r="A379" s="66">
+        <v>378</v>
+      </c>
+      <c r="B379" s="64">
+        <v>11852</v>
+      </c>
+      <c r="C379" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="D379" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="E379" s="67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" s="66" customFormat="1">
+      <c r="A380" s="66">
+        <v>379</v>
+      </c>
+      <c r="B380" s="64">
+        <v>11853</v>
+      </c>
+      <c r="C380" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="D380" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E380" s="67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" s="66" customFormat="1">
+      <c r="A381" s="66">
+        <v>380</v>
+      </c>
+      <c r="B381" s="64">
+        <v>11854</v>
+      </c>
+      <c r="C381" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D381" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="E381" s="67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" s="66" customFormat="1">
+      <c r="A382" s="66">
+        <v>381</v>
+      </c>
+      <c r="B382" s="64">
+        <v>11855</v>
+      </c>
+      <c r="C382" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="D382" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="E382" s="67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" s="66" customFormat="1">
+      <c r="A383" s="66">
+        <v>382</v>
+      </c>
+      <c r="B383" s="64">
+        <v>11856</v>
+      </c>
+      <c r="C383" s="68" t="s">
         <v>666</v>
       </c>
-      <c r="D378" s="46" t="s">
+      <c r="D383" s="64"/>
+      <c r="E383" s="69"/>
+    </row>
+    <row r="384" spans="1:5" ht="16.5">
+      <c r="A384" s="66">
+        <v>383</v>
+      </c>
+      <c r="B384" s="64">
+        <v>11857</v>
+      </c>
+      <c r="C384" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D384" s="46" t="s">
+        <v>675</v>
+      </c>
+      <c r="E384" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="16.5">
+      <c r="A385" s="66">
+        <v>384</v>
+      </c>
+      <c r="B385" s="64">
+        <v>11858</v>
+      </c>
+      <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="E378" s="45" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="16.5">
-      <c r="A379">
-        <v>378</v>
-      </c>
-      <c r="B379" s="1">
-        <v>11852</v>
-      </c>
-      <c r="C379" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="D379" s="46" t="s">
-        <v>671</v>
-      </c>
-      <c r="E379" s="45" t="s">
-        <v>502</v>
+      <c r="D385" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="E385" s="45" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="678">
   <si>
     <t>id|</t>
   </si>
@@ -4015,7 +4015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4115,8 +4115,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4177,6 +4184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4217,7 +4230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4402,6 +4415,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4681,16 +4719,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="18" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.875" style="6" customWidth="1"/>
@@ -4706,7 +4744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4744,7 +4782,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5">
-      <c r="A2" s="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4770,7 +4808,7 @@
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="16.5">
-      <c r="A3" s="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4796,7 +4834,7 @@
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="16.5">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4822,7 +4860,7 @@
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4846,7 +4884,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5">
-      <c r="A6" s="1">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4872,7 +4910,7 @@
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="16.5">
-      <c r="A7" s="1">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4898,7 +4936,7 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="16.5">
-      <c r="A8" s="1">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4930,7 +4968,7 @@
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="16.5">
-      <c r="A9" s="1">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4962,7 +5000,7 @@
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="16.5">
-      <c r="A10" s="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4994,7 +5032,7 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="16.5">
-      <c r="A11" s="1">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5026,7 +5064,7 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="16.5">
-      <c r="A12" s="1">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5052,7 +5090,7 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="16.5">
-      <c r="A13" s="1">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5947,7 +5985,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="26" customFormat="1">
-      <c r="A42" s="26">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
@@ -5975,7 +6013,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="6">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
@@ -5998,7 +6036,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="6">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
@@ -6021,7 +6059,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="6">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -6044,7 +6082,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="6">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -6403,7 +6441,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1">
-      <c r="A58" s="49">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
       <c r="B58" s="49" t="s">
@@ -6431,7 +6469,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="49" customFormat="1">
-      <c r="A59" s="49">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -6459,7 +6497,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="49" customFormat="1">
-      <c r="A60" s="49">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
       <c r="B60" s="49" t="s">
@@ -6487,7 +6525,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="61" customFormat="1">
-      <c r="A61" s="61">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
       <c r="B61" s="61" t="s">
@@ -6515,7 +6553,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="6">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -6539,7 +6577,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="6">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -6558,6 +6596,198 @@
         <v>62</v>
       </c>
       <c r="L63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="18" customFormat="1">
+      <c r="A64" s="18">
+        <v>63</v>
+      </c>
+      <c r="B64" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="C64" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D64" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E64" s="74">
+        <v>58</v>
+      </c>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77">
+        <v>1</v>
+      </c>
+      <c r="J64" s="77">
+        <v>0</v>
+      </c>
+      <c r="K64" s="72">
+        <v>63</v>
+      </c>
+      <c r="L64" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="18" customFormat="1">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="73" t="s">
+        <v>522</v>
+      </c>
+      <c r="C65" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D65" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E65" s="74">
+        <v>59</v>
+      </c>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77">
+        <v>1</v>
+      </c>
+      <c r="J65" s="77">
+        <v>0</v>
+      </c>
+      <c r="K65" s="72">
+        <v>64</v>
+      </c>
+      <c r="L65" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="18" customFormat="1">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="73" t="s">
+        <v>523</v>
+      </c>
+      <c r="C66" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D66" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E66" s="74">
+        <v>60</v>
+      </c>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77">
+        <v>1</v>
+      </c>
+      <c r="J66" s="77">
+        <v>0</v>
+      </c>
+      <c r="K66" s="72">
+        <v>65</v>
+      </c>
+      <c r="L66" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="18" customFormat="1">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="C67" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D67" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E67" s="74">
+        <v>61</v>
+      </c>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77">
+        <v>1</v>
+      </c>
+      <c r="J67" s="77">
+        <v>0</v>
+      </c>
+      <c r="K67" s="72">
+        <v>66</v>
+      </c>
+      <c r="L67" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="18" customFormat="1">
+      <c r="A68" s="18">
+        <v>67</v>
+      </c>
+      <c r="B68" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="C68" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D68" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E68" s="74">
+        <v>62</v>
+      </c>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77">
+        <v>1</v>
+      </c>
+      <c r="J68" s="77">
+        <v>0</v>
+      </c>
+      <c r="K68" s="72">
+        <v>67</v>
+      </c>
+      <c r="L68" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="18" customFormat="1">
+      <c r="A69" s="18">
+        <v>68</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D69" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E69" s="74">
+        <v>63</v>
+      </c>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77">
+        <v>1</v>
+      </c>
+      <c r="J69" s="77">
+        <v>0</v>
+      </c>
+      <c r="K69" s="72">
+        <v>68</v>
+      </c>
+      <c r="L69" s="72">
         <v>1</v>
       </c>
     </row>
@@ -6572,11 +6802,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7395,6 +7625,90 @@
       </c>
       <c r="D58" s="6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17">
+        <v>58</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17">
+        <v>59</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17">
+        <v>60</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17">
+        <v>61</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17">
+        <v>62</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17">
+        <v>63</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="72">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7449,13 +7763,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C384" sqref="C384"/>
+      <selection pane="bottomRight" activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12860,6 +13174,510 @@
         <v>1</v>
       </c>
     </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="13">
+        <v>385</v>
+      </c>
+      <c r="B386" s="76">
+        <v>63</v>
+      </c>
+      <c r="C386" s="76">
+        <v>11859</v>
+      </c>
+      <c r="D386" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="13">
+        <v>386</v>
+      </c>
+      <c r="B387" s="76">
+        <v>63</v>
+      </c>
+      <c r="C387" s="76">
+        <v>11860</v>
+      </c>
+      <c r="D387" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="13">
+        <v>387</v>
+      </c>
+      <c r="B388" s="76">
+        <v>63</v>
+      </c>
+      <c r="C388" s="76">
+        <v>11861</v>
+      </c>
+      <c r="D388" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="13">
+        <v>388</v>
+      </c>
+      <c r="B389" s="76">
+        <v>63</v>
+      </c>
+      <c r="C389" s="76">
+        <v>11862</v>
+      </c>
+      <c r="D389" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="13">
+        <v>389</v>
+      </c>
+      <c r="B390" s="76">
+        <v>63</v>
+      </c>
+      <c r="C390" s="76">
+        <v>11863</v>
+      </c>
+      <c r="D390" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="13">
+        <v>390</v>
+      </c>
+      <c r="B391" s="76">
+        <v>63</v>
+      </c>
+      <c r="C391" s="76">
+        <v>11864</v>
+      </c>
+      <c r="D391" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="13">
+        <v>391</v>
+      </c>
+      <c r="B392" s="76">
+        <v>64</v>
+      </c>
+      <c r="C392" s="76">
+        <v>11865</v>
+      </c>
+      <c r="D392" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="13">
+        <v>392</v>
+      </c>
+      <c r="B393" s="76">
+        <v>64</v>
+      </c>
+      <c r="C393" s="76">
+        <v>11866</v>
+      </c>
+      <c r="D393" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="13">
+        <v>393</v>
+      </c>
+      <c r="B394" s="76">
+        <v>64</v>
+      </c>
+      <c r="C394" s="76">
+        <v>11867</v>
+      </c>
+      <c r="D394" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="13">
+        <v>394</v>
+      </c>
+      <c r="B395" s="76">
+        <v>64</v>
+      </c>
+      <c r="C395" s="76">
+        <v>11868</v>
+      </c>
+      <c r="D395" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="13">
+        <v>395</v>
+      </c>
+      <c r="B396" s="76">
+        <v>64</v>
+      </c>
+      <c r="C396" s="76">
+        <v>11869</v>
+      </c>
+      <c r="D396" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="13">
+        <v>396</v>
+      </c>
+      <c r="B397" s="76">
+        <v>64</v>
+      </c>
+      <c r="C397" s="76">
+        <v>11870</v>
+      </c>
+      <c r="D397" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="13">
+        <v>397</v>
+      </c>
+      <c r="B398" s="76">
+        <v>65</v>
+      </c>
+      <c r="C398" s="76">
+        <v>11871</v>
+      </c>
+      <c r="D398" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="13">
+        <v>398</v>
+      </c>
+      <c r="B399" s="76">
+        <v>65</v>
+      </c>
+      <c r="C399" s="76">
+        <v>11872</v>
+      </c>
+      <c r="D399" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="13">
+        <v>399</v>
+      </c>
+      <c r="B400" s="76">
+        <v>65</v>
+      </c>
+      <c r="C400" s="76">
+        <v>11873</v>
+      </c>
+      <c r="D400" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="13">
+        <v>400</v>
+      </c>
+      <c r="B401" s="76">
+        <v>65</v>
+      </c>
+      <c r="C401" s="76">
+        <v>11874</v>
+      </c>
+      <c r="D401" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="13">
+        <v>401</v>
+      </c>
+      <c r="B402" s="76">
+        <v>65</v>
+      </c>
+      <c r="C402" s="76">
+        <v>11875</v>
+      </c>
+      <c r="D402" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="13">
+        <v>402</v>
+      </c>
+      <c r="B403" s="76">
+        <v>65</v>
+      </c>
+      <c r="C403" s="76">
+        <v>11876</v>
+      </c>
+      <c r="D403" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="13">
+        <v>403</v>
+      </c>
+      <c r="B404" s="76">
+        <v>66</v>
+      </c>
+      <c r="C404" s="76">
+        <v>11877</v>
+      </c>
+      <c r="D404" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="13">
+        <v>404</v>
+      </c>
+      <c r="B405" s="76">
+        <v>66</v>
+      </c>
+      <c r="C405" s="76">
+        <v>11878</v>
+      </c>
+      <c r="D405" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="13">
+        <v>405</v>
+      </c>
+      <c r="B406" s="76">
+        <v>66</v>
+      </c>
+      <c r="C406" s="76">
+        <v>11879</v>
+      </c>
+      <c r="D406" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="13">
+        <v>406</v>
+      </c>
+      <c r="B407" s="76">
+        <v>66</v>
+      </c>
+      <c r="C407" s="76">
+        <v>11880</v>
+      </c>
+      <c r="D407" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="13">
+        <v>407</v>
+      </c>
+      <c r="B408" s="76">
+        <v>66</v>
+      </c>
+      <c r="C408" s="76">
+        <v>11881</v>
+      </c>
+      <c r="D408" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="13">
+        <v>408</v>
+      </c>
+      <c r="B409" s="76">
+        <v>66</v>
+      </c>
+      <c r="C409" s="76">
+        <v>11882</v>
+      </c>
+      <c r="D409" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="13">
+        <v>409</v>
+      </c>
+      <c r="B410" s="76">
+        <v>67</v>
+      </c>
+      <c r="C410" s="76">
+        <v>11883</v>
+      </c>
+      <c r="D410" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="13">
+        <v>410</v>
+      </c>
+      <c r="B411" s="76">
+        <v>67</v>
+      </c>
+      <c r="C411" s="76">
+        <v>11884</v>
+      </c>
+      <c r="D411" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="13">
+        <v>411</v>
+      </c>
+      <c r="B412" s="76">
+        <v>67</v>
+      </c>
+      <c r="C412" s="76">
+        <v>11885</v>
+      </c>
+      <c r="D412" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="13">
+        <v>412</v>
+      </c>
+      <c r="B413" s="76">
+        <v>67</v>
+      </c>
+      <c r="C413" s="76">
+        <v>11886</v>
+      </c>
+      <c r="D413" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="13">
+        <v>413</v>
+      </c>
+      <c r="B414" s="76">
+        <v>67</v>
+      </c>
+      <c r="C414" s="76">
+        <v>11887</v>
+      </c>
+      <c r="D414" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="13">
+        <v>414</v>
+      </c>
+      <c r="B415" s="76">
+        <v>67</v>
+      </c>
+      <c r="C415" s="76">
+        <v>11888</v>
+      </c>
+      <c r="D415" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="13">
+        <v>415</v>
+      </c>
+      <c r="B416" s="76">
+        <v>68</v>
+      </c>
+      <c r="C416" s="76">
+        <v>11889</v>
+      </c>
+      <c r="D416" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="13">
+        <v>416</v>
+      </c>
+      <c r="B417" s="76">
+        <v>68</v>
+      </c>
+      <c r="C417" s="76">
+        <v>11890</v>
+      </c>
+      <c r="D417" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="13">
+        <v>417</v>
+      </c>
+      <c r="B418" s="76">
+        <v>68</v>
+      </c>
+      <c r="C418" s="76">
+        <v>11891</v>
+      </c>
+      <c r="D418" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="13">
+        <v>418</v>
+      </c>
+      <c r="B419" s="76">
+        <v>68</v>
+      </c>
+      <c r="C419" s="76">
+        <v>11892</v>
+      </c>
+      <c r="D419" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="13">
+        <v>419</v>
+      </c>
+      <c r="B420" s="76">
+        <v>68</v>
+      </c>
+      <c r="C420" s="76">
+        <v>11893</v>
+      </c>
+      <c r="D420" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="13">
+        <v>420</v>
+      </c>
+      <c r="B421" s="76">
+        <v>68</v>
+      </c>
+      <c r="C421" s="76">
+        <v>11894</v>
+      </c>
+      <c r="D421" s="76">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12869,11 +13687,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F385"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18940,6 +19758,618 @@
       </c>
       <c r="E385" s="45" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="77">
+        <v>385</v>
+      </c>
+      <c r="B386" s="76">
+        <v>11859</v>
+      </c>
+      <c r="C386" s="71" t="s">
+        <v>528</v>
+      </c>
+      <c r="D386" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E386" s="78" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="77">
+        <v>386</v>
+      </c>
+      <c r="B387" s="76">
+        <v>11860</v>
+      </c>
+      <c r="C387" s="71" t="s">
+        <v>529</v>
+      </c>
+      <c r="D387" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E387" s="78" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="77">
+        <v>387</v>
+      </c>
+      <c r="B388" s="76">
+        <v>11861</v>
+      </c>
+      <c r="C388" s="71" t="s">
+        <v>530</v>
+      </c>
+      <c r="D388" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E388" s="78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="77">
+        <v>388</v>
+      </c>
+      <c r="B389" s="76">
+        <v>11862</v>
+      </c>
+      <c r="C389" s="71" t="s">
+        <v>531</v>
+      </c>
+      <c r="D389" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E389" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="77">
+        <v>389</v>
+      </c>
+      <c r="B390" s="76">
+        <v>11863</v>
+      </c>
+      <c r="C390" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="D390" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E390" s="78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="77">
+        <v>390</v>
+      </c>
+      <c r="B391" s="76">
+        <v>11864</v>
+      </c>
+      <c r="C391" s="71" t="s">
+        <v>533</v>
+      </c>
+      <c r="D391" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E391" s="78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="77">
+        <v>391</v>
+      </c>
+      <c r="B392" s="76">
+        <v>11865</v>
+      </c>
+      <c r="C392" s="71" t="s">
+        <v>534</v>
+      </c>
+      <c r="D392" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E392" s="78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="77">
+        <v>392</v>
+      </c>
+      <c r="B393" s="76">
+        <v>11866</v>
+      </c>
+      <c r="C393" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D393" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E393" s="78" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="77">
+        <v>393</v>
+      </c>
+      <c r="B394" s="76">
+        <v>11867</v>
+      </c>
+      <c r="C394" s="71" t="s">
+        <v>536</v>
+      </c>
+      <c r="D394" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E394" s="78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="77">
+        <v>394</v>
+      </c>
+      <c r="B395" s="76">
+        <v>11868</v>
+      </c>
+      <c r="C395" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="D395" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E395" s="78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="77">
+        <v>395</v>
+      </c>
+      <c r="B396" s="76">
+        <v>11869</v>
+      </c>
+      <c r="C396" s="71" t="s">
+        <v>538</v>
+      </c>
+      <c r="D396" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E396" s="78" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="77">
+        <v>396</v>
+      </c>
+      <c r="B397" s="76">
+        <v>11870</v>
+      </c>
+      <c r="C397" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="D397" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E397" s="78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="77">
+        <v>397</v>
+      </c>
+      <c r="B398" s="76">
+        <v>11871</v>
+      </c>
+      <c r="C398" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="D398" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E398" s="78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="77">
+        <v>398</v>
+      </c>
+      <c r="B399" s="76">
+        <v>11872</v>
+      </c>
+      <c r="C399" s="71" t="s">
+        <v>540</v>
+      </c>
+      <c r="D399" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E399" s="78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="77">
+        <v>399</v>
+      </c>
+      <c r="B400" s="76">
+        <v>11873</v>
+      </c>
+      <c r="C400" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="D400" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E400" s="78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="77">
+        <v>400</v>
+      </c>
+      <c r="B401" s="76">
+        <v>11874</v>
+      </c>
+      <c r="C401" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="D401" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E401" s="78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="77">
+        <v>401</v>
+      </c>
+      <c r="B402" s="76">
+        <v>11875</v>
+      </c>
+      <c r="C402" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="D402" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E402" s="78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="77">
+        <v>402</v>
+      </c>
+      <c r="B403" s="76">
+        <v>11876</v>
+      </c>
+      <c r="C403" s="71" t="s">
+        <v>544</v>
+      </c>
+      <c r="D403" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E403" s="78" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="77">
+        <v>403</v>
+      </c>
+      <c r="B404" s="76">
+        <v>11877</v>
+      </c>
+      <c r="C404" s="71" t="s">
+        <v>545</v>
+      </c>
+      <c r="D404" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E404" s="78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="77">
+        <v>404</v>
+      </c>
+      <c r="B405" s="76">
+        <v>11878</v>
+      </c>
+      <c r="C405" s="71" t="s">
+        <v>546</v>
+      </c>
+      <c r="D405" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E405" s="78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="77">
+        <v>405</v>
+      </c>
+      <c r="B406" s="76">
+        <v>11879</v>
+      </c>
+      <c r="C406" s="71" t="s">
+        <v>547</v>
+      </c>
+      <c r="D406" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E406" s="78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="77">
+        <v>406</v>
+      </c>
+      <c r="B407" s="76">
+        <v>11880</v>
+      </c>
+      <c r="C407" s="71" t="s">
+        <v>548</v>
+      </c>
+      <c r="D407" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E407" s="78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="77">
+        <v>407</v>
+      </c>
+      <c r="B408" s="76">
+        <v>11881</v>
+      </c>
+      <c r="C408" s="71" t="s">
+        <v>549</v>
+      </c>
+      <c r="D408" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E408" s="78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="77">
+        <v>408</v>
+      </c>
+      <c r="B409" s="76">
+        <v>11882</v>
+      </c>
+      <c r="C409" s="71" t="s">
+        <v>550</v>
+      </c>
+      <c r="D409" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E409" s="78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="77">
+        <v>409</v>
+      </c>
+      <c r="B410" s="76">
+        <v>11883</v>
+      </c>
+      <c r="C410" s="71" t="s">
+        <v>551</v>
+      </c>
+      <c r="D410" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E410" s="78" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="77">
+        <v>410</v>
+      </c>
+      <c r="B411" s="76">
+        <v>11884</v>
+      </c>
+      <c r="C411" s="71" t="s">
+        <v>552</v>
+      </c>
+      <c r="D411" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E411" s="78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="77">
+        <v>411</v>
+      </c>
+      <c r="B412" s="76">
+        <v>11885</v>
+      </c>
+      <c r="C412" s="71" t="s">
+        <v>553</v>
+      </c>
+      <c r="D412" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E412" s="78" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="77">
+        <v>412</v>
+      </c>
+      <c r="B413" s="76">
+        <v>11886</v>
+      </c>
+      <c r="C413" s="71" t="s">
+        <v>554</v>
+      </c>
+      <c r="D413" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E413" s="78" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="77">
+        <v>413</v>
+      </c>
+      <c r="B414" s="76">
+        <v>11887</v>
+      </c>
+      <c r="C414" s="71" t="s">
+        <v>555</v>
+      </c>
+      <c r="D414" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E414" s="78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="77">
+        <v>414</v>
+      </c>
+      <c r="B415" s="76">
+        <v>11888</v>
+      </c>
+      <c r="C415" s="71" t="s">
+        <v>556</v>
+      </c>
+      <c r="D415" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E415" s="78" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="77">
+        <v>415</v>
+      </c>
+      <c r="B416" s="76">
+        <v>11889</v>
+      </c>
+      <c r="C416" s="71" t="s">
+        <v>557</v>
+      </c>
+      <c r="D416" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E416" s="78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="77">
+        <v>416</v>
+      </c>
+      <c r="B417" s="76">
+        <v>11890</v>
+      </c>
+      <c r="C417" s="71" t="s">
+        <v>558</v>
+      </c>
+      <c r="D417" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E417" s="78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="77">
+        <v>417</v>
+      </c>
+      <c r="B418" s="76">
+        <v>11891</v>
+      </c>
+      <c r="C418" s="71" t="s">
+        <v>559</v>
+      </c>
+      <c r="D418" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E418" s="78" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="77">
+        <v>418</v>
+      </c>
+      <c r="B419" s="76">
+        <v>11892</v>
+      </c>
+      <c r="C419" s="71" t="s">
+        <v>560</v>
+      </c>
+      <c r="D419" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E419" s="78" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="77">
+        <v>419</v>
+      </c>
+      <c r="B420" s="76">
+        <v>11893</v>
+      </c>
+      <c r="C420" s="71" t="s">
+        <v>561</v>
+      </c>
+      <c r="D420" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E420" s="78" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="77">
+        <v>420</v>
+      </c>
+      <c r="B421" s="76">
+        <v>11894</v>
+      </c>
+      <c r="C421" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="D421" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E421" s="78" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="688">
   <si>
     <t>id|</t>
   </si>
@@ -4009,6 +4009,111 @@
   <si>
     <t>1,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P40</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4230,7 +4335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4329,7 +4434,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4441,6 +4545,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4719,11 +4841,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="A70:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4744,7 +4866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5960,7 +6082,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6016,7 +6138,7 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>479</v>
       </c>
       <c r="C43" s="6">
@@ -6108,7 +6230,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6140,7 +6262,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="42" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6172,7 +6294,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="42" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6204,7 +6326,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="42" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6236,7 +6358,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="42" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6268,7 +6390,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="42" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6300,7 +6422,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -6440,115 +6562,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="49" customFormat="1">
+    <row r="58" spans="1:12" s="48" customFormat="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="49">
         <v>52</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="49">
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="48">
         <v>57</v>
       </c>
-      <c r="L58" s="49">
+      <c r="L58" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="49" customFormat="1">
+    <row r="59" spans="1:12" s="48" customFormat="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="49">
         <v>53</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="49">
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="48">
         <v>58</v>
       </c>
-      <c r="L59" s="49">
+      <c r="L59" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="49" customFormat="1">
+    <row r="60" spans="1:12" s="48" customFormat="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="48" t="s">
         <v>609</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="49">
         <v>54</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="49">
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="48">
         <v>59</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="61" customFormat="1">
+    <row r="61" spans="1:12" s="60" customFormat="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="63">
         <v>1607385600</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="63">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="61">
         <v>55</v>
       </c>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="61">
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="60">
         <v>60</v>
       </c>
-      <c r="L61" s="61">
+      <c r="L61" s="60">
         <v>1</v>
       </c>
     </row>
@@ -6603,31 +6725,31 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="75">
+      <c r="C64" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="75">
+      <c r="D64" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="74">
+      <c r="E64" s="73">
         <v>58</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77">
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76">
         <v>1</v>
       </c>
-      <c r="J64" s="77">
+      <c r="J64" s="76">
         <v>0</v>
       </c>
-      <c r="K64" s="72">
+      <c r="K64" s="71">
         <v>63</v>
       </c>
-      <c r="L64" s="72">
+      <c r="L64" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6635,31 +6757,31 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="75">
+      <c r="C65" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="75">
+      <c r="D65" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="74">
+      <c r="E65" s="73">
         <v>59</v>
       </c>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77">
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76">
         <v>1</v>
       </c>
-      <c r="J65" s="77">
+      <c r="J65" s="76">
         <v>0</v>
       </c>
-      <c r="K65" s="72">
+      <c r="K65" s="71">
         <v>64</v>
       </c>
-      <c r="L65" s="72">
+      <c r="L65" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +6789,31 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="75">
+      <c r="C66" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="75">
+      <c r="D66" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="74">
+      <c r="E66" s="73">
         <v>60</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76">
         <v>1</v>
       </c>
-      <c r="J66" s="77">
+      <c r="J66" s="76">
         <v>0</v>
       </c>
-      <c r="K66" s="72">
+      <c r="K66" s="71">
         <v>65</v>
       </c>
-      <c r="L66" s="72">
+      <c r="L66" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6699,31 +6821,31 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="75">
+      <c r="C67" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="75">
+      <c r="D67" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="74">
+      <c r="E67" s="73">
         <v>61</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77">
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76">
         <v>1</v>
       </c>
-      <c r="J67" s="77">
+      <c r="J67" s="76">
         <v>0</v>
       </c>
-      <c r="K67" s="72">
+      <c r="K67" s="71">
         <v>66</v>
       </c>
-      <c r="L67" s="72">
+      <c r="L67" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6731,31 +6853,31 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="75">
+      <c r="C68" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="74">
+      <c r="E68" s="73">
         <v>62</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77">
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76">
         <v>1</v>
       </c>
-      <c r="J68" s="77">
+      <c r="J68" s="76">
         <v>0</v>
       </c>
-      <c r="K68" s="72">
+      <c r="K68" s="71">
         <v>67</v>
       </c>
-      <c r="L68" s="72">
+      <c r="L68" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6763,31 +6885,59 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="75">
+      <c r="C69" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="75">
+      <c r="D69" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="74">
+      <c r="E69" s="73">
         <v>63</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77">
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76">
         <v>1</v>
       </c>
-      <c r="J69" s="77">
+      <c r="J69" s="76">
         <v>0</v>
       </c>
-      <c r="K69" s="72">
+      <c r="K69" s="71">
         <v>68</v>
       </c>
-      <c r="L69" s="72">
+      <c r="L69" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="18" customFormat="1">
+      <c r="A70" s="18">
+        <v>69</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>678</v>
+      </c>
+      <c r="C70" s="79">
+        <v>1609804800</v>
+      </c>
+      <c r="D70" s="79">
+        <v>1610380799</v>
+      </c>
+      <c r="E70" s="80">
+        <v>64</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="81">
+        <v>69</v>
+      </c>
+      <c r="L70" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6802,11 +6952,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7312,7 +7462,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -7340,7 +7490,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -7354,7 +7504,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -7368,7 +7518,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -7382,7 +7532,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -7494,7 +7644,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="51" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -7508,7 +7658,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="51" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -7522,7 +7672,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="51" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -7543,56 +7693,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="51" customFormat="1">
-      <c r="A53" s="51">
+    <row r="53" spans="1:4" s="50" customFormat="1">
+      <c r="A53" s="50">
         <v>52</v>
       </c>
-      <c r="B53" s="51">
+      <c r="B53" s="50">
         <v>52</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="51" customFormat="1">
-      <c r="A54" s="51">
+    <row r="54" spans="1:4" s="50" customFormat="1">
+      <c r="A54" s="50">
         <v>53</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="50">
         <v>53</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="51" customFormat="1">
-      <c r="A55" s="51">
+    <row r="55" spans="1:4" s="50" customFormat="1">
+      <c r="A55" s="50">
         <v>54</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="50">
         <v>54</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>55</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="50">
         <v>55</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>667</v>
       </c>
       <c r="D56" s="6">
@@ -7606,7 +7756,7 @@
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="43" t="s">
         <v>672</v>
       </c>
       <c r="D57" s="6">
@@ -7620,7 +7770,7 @@
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="43" t="s">
         <v>673</v>
       </c>
       <c r="D58" s="6">
@@ -7634,10 +7784,10 @@
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7648,10 +7798,10 @@
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7662,10 +7812,10 @@
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7676,10 +7826,10 @@
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7690,10 +7840,10 @@
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7704,10 +7854,24 @@
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>64</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="D65" s="40">
         <v>1</v>
       </c>
     </row>
@@ -7763,13 +7927,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E421"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D416" sqref="D416"/>
+      <selection pane="bottomRight" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12684,465 +12848,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="59" customFormat="1">
-      <c r="A351" s="59">
+    <row r="351" spans="1:4" s="58" customFormat="1">
+      <c r="A351" s="58">
         <v>350</v>
       </c>
-      <c r="B351" s="59">
+      <c r="B351" s="58">
         <v>57</v>
       </c>
-      <c r="C351" s="59">
+      <c r="C351" s="58">
         <v>11824</v>
       </c>
-      <c r="D351" s="59">
+      <c r="D351" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="59" customFormat="1">
-      <c r="A352" s="59">
+    <row r="352" spans="1:4" s="58" customFormat="1">
+      <c r="A352" s="58">
         <v>351</v>
       </c>
-      <c r="B352" s="59">
+      <c r="B352" s="58">
         <v>57</v>
       </c>
-      <c r="C352" s="59">
+      <c r="C352" s="58">
         <v>11825</v>
       </c>
-      <c r="D352" s="59">
+      <c r="D352" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="59" customFormat="1">
-      <c r="A353" s="59">
+    <row r="353" spans="1:4" s="58" customFormat="1">
+      <c r="A353" s="58">
         <v>352</v>
       </c>
-      <c r="B353" s="59">
+      <c r="B353" s="58">
         <v>57</v>
       </c>
-      <c r="C353" s="59">
+      <c r="C353" s="58">
         <v>11826</v>
       </c>
-      <c r="D353" s="59">
+      <c r="D353" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="59" customFormat="1">
-      <c r="A354" s="59">
+    <row r="354" spans="1:4" s="58" customFormat="1">
+      <c r="A354" s="58">
         <v>353</v>
       </c>
-      <c r="B354" s="59">
+      <c r="B354" s="58">
         <v>57</v>
       </c>
-      <c r="C354" s="59">
+      <c r="C354" s="58">
         <v>11827</v>
       </c>
-      <c r="D354" s="59">
+      <c r="D354" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="59" customFormat="1">
-      <c r="A355" s="59">
+    <row r="355" spans="1:4" s="58" customFormat="1">
+      <c r="A355" s="58">
         <v>354</v>
       </c>
-      <c r="B355" s="59">
+      <c r="B355" s="58">
         <v>57</v>
       </c>
-      <c r="C355" s="59">
+      <c r="C355" s="58">
         <v>11828</v>
       </c>
-      <c r="D355" s="59">
+      <c r="D355" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="59" customFormat="1">
-      <c r="A356" s="59">
+    <row r="356" spans="1:4" s="58" customFormat="1">
+      <c r="A356" s="58">
         <v>355</v>
       </c>
-      <c r="B356" s="59">
+      <c r="B356" s="58">
         <v>57</v>
       </c>
-      <c r="C356" s="59">
+      <c r="C356" s="58">
         <v>11829</v>
       </c>
-      <c r="D356" s="59">
+      <c r="D356" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="59" customFormat="1">
-      <c r="A357" s="59">
+    <row r="357" spans="1:4" s="58" customFormat="1">
+      <c r="A357" s="58">
         <v>356</v>
       </c>
-      <c r="B357" s="59">
+      <c r="B357" s="58">
         <v>57</v>
       </c>
-      <c r="C357" s="59">
+      <c r="C357" s="58">
         <v>11830</v>
       </c>
-      <c r="D357" s="59">
+      <c r="D357" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="59" customFormat="1">
-      <c r="A358" s="59">
+    <row r="358" spans="1:4" s="58" customFormat="1">
+      <c r="A358" s="58">
         <v>357</v>
       </c>
-      <c r="B358" s="59">
+      <c r="B358" s="58">
         <v>57</v>
       </c>
-      <c r="C358" s="59">
+      <c r="C358" s="58">
         <v>11831</v>
       </c>
-      <c r="D358" s="59">
+      <c r="D358" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="59" customFormat="1">
-      <c r="A359" s="59">
+    <row r="359" spans="1:4" s="58" customFormat="1">
+      <c r="A359" s="58">
         <v>358</v>
       </c>
-      <c r="B359" s="59">
+      <c r="B359" s="58">
         <v>57</v>
       </c>
-      <c r="C359" s="59">
+      <c r="C359" s="58">
         <v>11832</v>
       </c>
-      <c r="D359" s="59">
+      <c r="D359" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="54" customFormat="1">
-      <c r="A360" s="54">
+    <row r="360" spans="1:4" s="53" customFormat="1">
+      <c r="A360" s="53">
         <v>359</v>
       </c>
-      <c r="B360" s="60">
+      <c r="B360" s="59">
         <v>58</v>
       </c>
-      <c r="C360" s="54">
+      <c r="C360" s="53">
         <v>11833</v>
       </c>
-      <c r="D360" s="60">
+      <c r="D360" s="59">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="54" customFormat="1">
-      <c r="A361" s="54">
+    <row r="361" spans="1:4" s="53" customFormat="1">
+      <c r="A361" s="53">
         <v>360</v>
       </c>
-      <c r="B361" s="60">
+      <c r="B361" s="59">
         <v>58</v>
       </c>
-      <c r="C361" s="54">
+      <c r="C361" s="53">
         <v>11834</v>
       </c>
-      <c r="D361" s="60">
+      <c r="D361" s="59">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="54" customFormat="1">
-      <c r="A362" s="54">
+    <row r="362" spans="1:4" s="53" customFormat="1">
+      <c r="A362" s="53">
         <v>361</v>
       </c>
-      <c r="B362" s="60">
+      <c r="B362" s="59">
         <v>58</v>
       </c>
-      <c r="C362" s="54">
+      <c r="C362" s="53">
         <v>11835</v>
       </c>
-      <c r="D362" s="60">
+      <c r="D362" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="54" customFormat="1">
-      <c r="A363" s="54">
+    <row r="363" spans="1:4" s="53" customFormat="1">
+      <c r="A363" s="53">
         <v>362</v>
       </c>
-      <c r="B363" s="60">
+      <c r="B363" s="59">
         <v>58</v>
       </c>
-      <c r="C363" s="54">
+      <c r="C363" s="53">
         <v>11836</v>
       </c>
-      <c r="D363" s="60">
+      <c r="D363" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="54" customFormat="1">
-      <c r="A364" s="54">
+    <row r="364" spans="1:4" s="53" customFormat="1">
+      <c r="A364" s="53">
         <v>363</v>
       </c>
-      <c r="B364" s="60">
+      <c r="B364" s="59">
         <v>58</v>
       </c>
-      <c r="C364" s="54">
+      <c r="C364" s="53">
         <v>11837</v>
       </c>
-      <c r="D364" s="60">
+      <c r="D364" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="54" customFormat="1">
-      <c r="A365" s="54">
+    <row r="365" spans="1:4" s="53" customFormat="1">
+      <c r="A365" s="53">
         <v>364</v>
       </c>
-      <c r="B365" s="60">
+      <c r="B365" s="59">
         <v>58</v>
       </c>
-      <c r="C365" s="54">
+      <c r="C365" s="53">
         <v>11838</v>
       </c>
-      <c r="D365" s="60">
+      <c r="D365" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="54" customFormat="1">
-      <c r="A366" s="54">
+    <row r="366" spans="1:4" s="53" customFormat="1">
+      <c r="A366" s="53">
         <v>365</v>
       </c>
-      <c r="B366" s="60">
+      <c r="B366" s="59">
         <v>58</v>
       </c>
-      <c r="C366" s="54">
+      <c r="C366" s="53">
         <v>11839</v>
       </c>
-      <c r="D366" s="60">
+      <c r="D366" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="54" customFormat="1">
-      <c r="A367" s="54">
+    <row r="367" spans="1:4" s="53" customFormat="1">
+      <c r="A367" s="53">
         <v>366</v>
       </c>
-      <c r="B367" s="60">
+      <c r="B367" s="59">
         <v>58</v>
       </c>
-      <c r="C367" s="54">
+      <c r="C367" s="53">
         <v>11840</v>
       </c>
-      <c r="D367" s="60">
+      <c r="D367" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="54" customFormat="1">
-      <c r="A368" s="54">
+    <row r="368" spans="1:4" s="53" customFormat="1">
+      <c r="A368" s="53">
         <v>367</v>
       </c>
-      <c r="B368" s="60">
+      <c r="B368" s="59">
         <v>58</v>
       </c>
-      <c r="C368" s="54">
+      <c r="C368" s="53">
         <v>11841</v>
       </c>
-      <c r="D368" s="60">
+      <c r="D368" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="48" customFormat="1">
-      <c r="A369" s="48">
+    <row r="369" spans="1:4" s="47" customFormat="1">
+      <c r="A369" s="47">
         <v>368</v>
       </c>
-      <c r="B369" s="59">
+      <c r="B369" s="58">
         <v>59</v>
       </c>
-      <c r="C369" s="48">
+      <c r="C369" s="47">
         <v>11842</v>
       </c>
-      <c r="D369" s="59">
+      <c r="D369" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="48" customFormat="1">
-      <c r="A370" s="48">
+    <row r="370" spans="1:4" s="47" customFormat="1">
+      <c r="A370" s="47">
         <v>369</v>
       </c>
-      <c r="B370" s="59">
+      <c r="B370" s="58">
         <v>59</v>
       </c>
-      <c r="C370" s="48">
+      <c r="C370" s="47">
         <v>11843</v>
       </c>
-      <c r="D370" s="59">
+      <c r="D370" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="48" customFormat="1">
-      <c r="A371" s="48">
+    <row r="371" spans="1:4" s="47" customFormat="1">
+      <c r="A371" s="47">
         <v>370</v>
       </c>
-      <c r="B371" s="59">
+      <c r="B371" s="58">
         <v>59</v>
       </c>
-      <c r="C371" s="48">
+      <c r="C371" s="47">
         <v>11844</v>
       </c>
-      <c r="D371" s="59">
+      <c r="D371" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="48" customFormat="1">
-      <c r="A372" s="48">
+    <row r="372" spans="1:4" s="47" customFormat="1">
+      <c r="A372" s="47">
         <v>371</v>
       </c>
-      <c r="B372" s="59">
+      <c r="B372" s="58">
         <v>59</v>
       </c>
-      <c r="C372" s="48">
+      <c r="C372" s="47">
         <v>11845</v>
       </c>
-      <c r="D372" s="59">
+      <c r="D372" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="48" customFormat="1">
-      <c r="A373" s="48">
+    <row r="373" spans="1:4" s="47" customFormat="1">
+      <c r="A373" s="47">
         <v>372</v>
       </c>
-      <c r="B373" s="59">
+      <c r="B373" s="58">
         <v>59</v>
       </c>
-      <c r="C373" s="48">
+      <c r="C373" s="47">
         <v>11846</v>
       </c>
-      <c r="D373" s="59">
+      <c r="D373" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="48" customFormat="1">
-      <c r="A374" s="48">
+    <row r="374" spans="1:4" s="47" customFormat="1">
+      <c r="A374" s="47">
         <v>373</v>
       </c>
-      <c r="B374" s="59">
+      <c r="B374" s="58">
         <v>59</v>
       </c>
-      <c r="C374" s="48">
+      <c r="C374" s="47">
         <v>11847</v>
       </c>
-      <c r="D374" s="59">
+      <c r="D374" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="48" customFormat="1">
-      <c r="A375" s="48">
+    <row r="375" spans="1:4" s="47" customFormat="1">
+      <c r="A375" s="47">
         <v>374</v>
       </c>
-      <c r="B375" s="59">
+      <c r="B375" s="58">
         <v>59</v>
       </c>
-      <c r="C375" s="48">
+      <c r="C375" s="47">
         <v>11848</v>
       </c>
-      <c r="D375" s="59">
+      <c r="D375" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="48" customFormat="1">
-      <c r="A376" s="48">
+    <row r="376" spans="1:4" s="47" customFormat="1">
+      <c r="A376" s="47">
         <v>375</v>
       </c>
-      <c r="B376" s="59">
+      <c r="B376" s="58">
         <v>59</v>
       </c>
-      <c r="C376" s="48">
+      <c r="C376" s="47">
         <v>11849</v>
       </c>
-      <c r="D376" s="59">
+      <c r="D376" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="48" customFormat="1">
-      <c r="A377" s="48">
+    <row r="377" spans="1:4" s="47" customFormat="1">
+      <c r="A377" s="47">
         <v>376</v>
       </c>
-      <c r="B377" s="59">
+      <c r="B377" s="58">
         <v>59</v>
       </c>
-      <c r="C377" s="48">
+      <c r="C377" s="47">
         <v>11850</v>
       </c>
-      <c r="D377" s="59">
+      <c r="D377" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="64" customFormat="1">
-      <c r="A378" s="64">
+    <row r="378" spans="1:4" s="63" customFormat="1">
+      <c r="A378" s="63">
         <v>377</v>
       </c>
-      <c r="B378" s="64">
+      <c r="B378" s="63">
         <v>60</v>
       </c>
-      <c r="C378" s="64">
+      <c r="C378" s="63">
         <v>11851</v>
       </c>
-      <c r="D378" s="64">
+      <c r="D378" s="63">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="64" customFormat="1">
-      <c r="A379" s="64">
+    <row r="379" spans="1:4" s="63" customFormat="1">
+      <c r="A379" s="63">
         <v>378</v>
       </c>
-      <c r="B379" s="64">
+      <c r="B379" s="63">
         <v>60</v>
       </c>
-      <c r="C379" s="64">
+      <c r="C379" s="63">
         <v>11852</v>
       </c>
-      <c r="D379" s="64">
+      <c r="D379" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="64" customFormat="1">
-      <c r="A380" s="64">
+    <row r="380" spans="1:4" s="63" customFormat="1">
+      <c r="A380" s="63">
         <v>379</v>
       </c>
-      <c r="B380" s="64">
+      <c r="B380" s="63">
         <v>60</v>
       </c>
-      <c r="C380" s="64">
+      <c r="C380" s="63">
         <v>11853</v>
       </c>
-      <c r="D380" s="64">
+      <c r="D380" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="64" customFormat="1">
-      <c r="A381" s="64">
+    <row r="381" spans="1:4" s="63" customFormat="1">
+      <c r="A381" s="63">
         <v>380</v>
       </c>
-      <c r="B381" s="64">
+      <c r="B381" s="63">
         <v>60</v>
       </c>
-      <c r="C381" s="64">
+      <c r="C381" s="63">
         <v>11854</v>
       </c>
-      <c r="D381" s="64">
+      <c r="D381" s="63">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="64" customFormat="1">
-      <c r="A382" s="64">
+    <row r="382" spans="1:4" s="63" customFormat="1">
+      <c r="A382" s="63">
         <v>381</v>
       </c>
-      <c r="B382" s="64">
+      <c r="B382" s="63">
         <v>60</v>
       </c>
-      <c r="C382" s="64">
+      <c r="C382" s="63">
         <v>11855</v>
       </c>
-      <c r="D382" s="64">
+      <c r="D382" s="63">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="64" customFormat="1">
-      <c r="A383" s="64">
+    <row r="383" spans="1:4" s="63" customFormat="1">
+      <c r="A383" s="63">
         <v>382</v>
       </c>
-      <c r="B383" s="64">
+      <c r="B383" s="63">
         <v>60</v>
       </c>
-      <c r="C383" s="64">
+      <c r="C383" s="63">
         <v>11856</v>
       </c>
-      <c r="D383" s="64">
+      <c r="D383" s="63">
         <v>0</v>
       </c>
     </row>
@@ -13153,7 +13317,7 @@
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="64">
+      <c r="C384" s="63">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
@@ -13167,7 +13331,7 @@
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="64">
+      <c r="C385" s="63">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
@@ -13178,13 +13342,13 @@
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="76">
+      <c r="B386" s="75">
         <v>63</v>
       </c>
-      <c r="C386" s="76">
+      <c r="C386" s="75">
         <v>11859</v>
       </c>
-      <c r="D386" s="76">
+      <c r="D386" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13192,13 +13356,13 @@
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="76">
+      <c r="B387" s="75">
         <v>63</v>
       </c>
-      <c r="C387" s="76">
+      <c r="C387" s="75">
         <v>11860</v>
       </c>
-      <c r="D387" s="76">
+      <c r="D387" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13206,13 +13370,13 @@
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="76">
+      <c r="B388" s="75">
         <v>63</v>
       </c>
-      <c r="C388" s="76">
+      <c r="C388" s="75">
         <v>11861</v>
       </c>
-      <c r="D388" s="76">
+      <c r="D388" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13220,13 +13384,13 @@
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="76">
+      <c r="B389" s="75">
         <v>63</v>
       </c>
-      <c r="C389" s="76">
+      <c r="C389" s="75">
         <v>11862</v>
       </c>
-      <c r="D389" s="76">
+      <c r="D389" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13234,13 +13398,13 @@
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="76">
+      <c r="B390" s="75">
         <v>63</v>
       </c>
-      <c r="C390" s="76">
+      <c r="C390" s="75">
         <v>11863</v>
       </c>
-      <c r="D390" s="76">
+      <c r="D390" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13248,13 +13412,13 @@
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="76">
+      <c r="B391" s="75">
         <v>63</v>
       </c>
-      <c r="C391" s="76">
+      <c r="C391" s="75">
         <v>11864</v>
       </c>
-      <c r="D391" s="76">
+      <c r="D391" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13262,13 +13426,13 @@
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="76">
+      <c r="B392" s="75">
         <v>64</v>
       </c>
-      <c r="C392" s="76">
+      <c r="C392" s="75">
         <v>11865</v>
       </c>
-      <c r="D392" s="76">
+      <c r="D392" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13276,13 +13440,13 @@
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="76">
+      <c r="B393" s="75">
         <v>64</v>
       </c>
-      <c r="C393" s="76">
+      <c r="C393" s="75">
         <v>11866</v>
       </c>
-      <c r="D393" s="76">
+      <c r="D393" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13290,13 +13454,13 @@
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="76">
+      <c r="B394" s="75">
         <v>64</v>
       </c>
-      <c r="C394" s="76">
+      <c r="C394" s="75">
         <v>11867</v>
       </c>
-      <c r="D394" s="76">
+      <c r="D394" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13304,13 +13468,13 @@
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="76">
+      <c r="B395" s="75">
         <v>64</v>
       </c>
-      <c r="C395" s="76">
+      <c r="C395" s="75">
         <v>11868</v>
       </c>
-      <c r="D395" s="76">
+      <c r="D395" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13318,13 +13482,13 @@
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="76">
+      <c r="B396" s="75">
         <v>64</v>
       </c>
-      <c r="C396" s="76">
+      <c r="C396" s="75">
         <v>11869</v>
       </c>
-      <c r="D396" s="76">
+      <c r="D396" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13332,13 +13496,13 @@
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="76">
+      <c r="B397" s="75">
         <v>64</v>
       </c>
-      <c r="C397" s="76">
+      <c r="C397" s="75">
         <v>11870</v>
       </c>
-      <c r="D397" s="76">
+      <c r="D397" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13346,13 +13510,13 @@
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="76">
+      <c r="B398" s="75">
         <v>65</v>
       </c>
-      <c r="C398" s="76">
+      <c r="C398" s="75">
         <v>11871</v>
       </c>
-      <c r="D398" s="76">
+      <c r="D398" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13360,13 +13524,13 @@
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="76">
+      <c r="B399" s="75">
         <v>65</v>
       </c>
-      <c r="C399" s="76">
+      <c r="C399" s="75">
         <v>11872</v>
       </c>
-      <c r="D399" s="76">
+      <c r="D399" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13374,13 +13538,13 @@
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="76">
+      <c r="B400" s="75">
         <v>65</v>
       </c>
-      <c r="C400" s="76">
+      <c r="C400" s="75">
         <v>11873</v>
       </c>
-      <c r="D400" s="76">
+      <c r="D400" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13388,13 +13552,13 @@
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="76">
+      <c r="B401" s="75">
         <v>65</v>
       </c>
-      <c r="C401" s="76">
+      <c r="C401" s="75">
         <v>11874</v>
       </c>
-      <c r="D401" s="76">
+      <c r="D401" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13402,13 +13566,13 @@
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="76">
+      <c r="B402" s="75">
         <v>65</v>
       </c>
-      <c r="C402" s="76">
+      <c r="C402" s="75">
         <v>11875</v>
       </c>
-      <c r="D402" s="76">
+      <c r="D402" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13416,13 +13580,13 @@
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="76">
+      <c r="B403" s="75">
         <v>65</v>
       </c>
-      <c r="C403" s="76">
+      <c r="C403" s="75">
         <v>11876</v>
       </c>
-      <c r="D403" s="76">
+      <c r="D403" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13430,13 +13594,13 @@
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="76">
+      <c r="B404" s="75">
         <v>66</v>
       </c>
-      <c r="C404" s="76">
+      <c r="C404" s="75">
         <v>11877</v>
       </c>
-      <c r="D404" s="76">
+      <c r="D404" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13444,13 +13608,13 @@
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="76">
+      <c r="B405" s="75">
         <v>66</v>
       </c>
-      <c r="C405" s="76">
+      <c r="C405" s="75">
         <v>11878</v>
       </c>
-      <c r="D405" s="76">
+      <c r="D405" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13458,13 +13622,13 @@
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="76">
+      <c r="B406" s="75">
         <v>66</v>
       </c>
-      <c r="C406" s="76">
+      <c r="C406" s="75">
         <v>11879</v>
       </c>
-      <c r="D406" s="76">
+      <c r="D406" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13472,13 +13636,13 @@
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="76">
+      <c r="B407" s="75">
         <v>66</v>
       </c>
-      <c r="C407" s="76">
+      <c r="C407" s="75">
         <v>11880</v>
       </c>
-      <c r="D407" s="76">
+      <c r="D407" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13486,13 +13650,13 @@
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="76">
+      <c r="B408" s="75">
         <v>66</v>
       </c>
-      <c r="C408" s="76">
+      <c r="C408" s="75">
         <v>11881</v>
       </c>
-      <c r="D408" s="76">
+      <c r="D408" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13500,13 +13664,13 @@
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="76">
+      <c r="B409" s="75">
         <v>66</v>
       </c>
-      <c r="C409" s="76">
+      <c r="C409" s="75">
         <v>11882</v>
       </c>
-      <c r="D409" s="76">
+      <c r="D409" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13514,13 +13678,13 @@
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="76">
+      <c r="B410" s="75">
         <v>67</v>
       </c>
-      <c r="C410" s="76">
+      <c r="C410" s="75">
         <v>11883</v>
       </c>
-      <c r="D410" s="76">
+      <c r="D410" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13528,13 +13692,13 @@
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="76">
+      <c r="B411" s="75">
         <v>67</v>
       </c>
-      <c r="C411" s="76">
+      <c r="C411" s="75">
         <v>11884</v>
       </c>
-      <c r="D411" s="76">
+      <c r="D411" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13542,13 +13706,13 @@
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="76">
+      <c r="B412" s="75">
         <v>67</v>
       </c>
-      <c r="C412" s="76">
+      <c r="C412" s="75">
         <v>11885</v>
       </c>
-      <c r="D412" s="76">
+      <c r="D412" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13556,13 +13720,13 @@
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="76">
+      <c r="B413" s="75">
         <v>67</v>
       </c>
-      <c r="C413" s="76">
+      <c r="C413" s="75">
         <v>11886</v>
       </c>
-      <c r="D413" s="76">
+      <c r="D413" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13570,13 +13734,13 @@
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="76">
+      <c r="B414" s="75">
         <v>67</v>
       </c>
-      <c r="C414" s="76">
+      <c r="C414" s="75">
         <v>11887</v>
       </c>
-      <c r="D414" s="76">
+      <c r="D414" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13584,13 +13748,13 @@
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="76">
+      <c r="B415" s="75">
         <v>67</v>
       </c>
-      <c r="C415" s="76">
+      <c r="C415" s="75">
         <v>11888</v>
       </c>
-      <c r="D415" s="76">
+      <c r="D415" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13598,13 +13762,13 @@
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="76">
+      <c r="B416" s="75">
         <v>68</v>
       </c>
-      <c r="C416" s="76">
+      <c r="C416" s="75">
         <v>11889</v>
       </c>
-      <c r="D416" s="76">
+      <c r="D416" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13612,13 +13776,13 @@
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="76">
+      <c r="B417" s="75">
         <v>68</v>
       </c>
-      <c r="C417" s="76">
+      <c r="C417" s="75">
         <v>11890</v>
       </c>
-      <c r="D417" s="76">
+      <c r="D417" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13626,13 +13790,13 @@
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="76">
+      <c r="B418" s="75">
         <v>68</v>
       </c>
-      <c r="C418" s="76">
+      <c r="C418" s="75">
         <v>11891</v>
       </c>
-      <c r="D418" s="76">
+      <c r="D418" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13640,13 +13804,13 @@
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="76">
+      <c r="B419" s="75">
         <v>68</v>
       </c>
-      <c r="C419" s="76">
+      <c r="C419" s="75">
         <v>11892</v>
       </c>
-      <c r="D419" s="76">
+      <c r="D419" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13654,13 +13818,13 @@
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="76">
+      <c r="B420" s="75">
         <v>68</v>
       </c>
-      <c r="C420" s="76">
+      <c r="C420" s="75">
         <v>11893</v>
       </c>
-      <c r="D420" s="76">
+      <c r="D420" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13668,13 +13832,97 @@
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="76">
+      <c r="B421" s="75">
         <v>68</v>
       </c>
-      <c r="C421" s="76">
+      <c r="C421" s="75">
         <v>11894</v>
       </c>
-      <c r="D421" s="76">
+      <c r="D421" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="13">
+        <v>421</v>
+      </c>
+      <c r="B422" s="39">
+        <v>69</v>
+      </c>
+      <c r="C422" s="39">
+        <v>11895</v>
+      </c>
+      <c r="D422" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="13">
+        <v>422</v>
+      </c>
+      <c r="B423" s="39">
+        <v>69</v>
+      </c>
+      <c r="C423" s="39">
+        <v>11896</v>
+      </c>
+      <c r="D423" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="13">
+        <v>423</v>
+      </c>
+      <c r="B424" s="39">
+        <v>69</v>
+      </c>
+      <c r="C424" s="39">
+        <v>11897</v>
+      </c>
+      <c r="D424" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="13">
+        <v>424</v>
+      </c>
+      <c r="B425" s="39">
+        <v>69</v>
+      </c>
+      <c r="C425" s="39">
+        <v>11898</v>
+      </c>
+      <c r="D425" s="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="13">
+        <v>425</v>
+      </c>
+      <c r="B426" s="39">
+        <v>69</v>
+      </c>
+      <c r="C426" s="39">
+        <v>11899</v>
+      </c>
+      <c r="D426" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="13">
+        <v>426</v>
+      </c>
+      <c r="B427" s="39">
+        <v>69</v>
+      </c>
+      <c r="C427" s="39">
+        <v>11900</v>
+      </c>
+      <c r="D427" s="39">
         <v>0</v>
       </c>
     </row>
@@ -13687,27 +13935,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:F427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="83" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -13722,10 +13970,10 @@
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>1001</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -13736,10 +13984,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>1002</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -13750,10 +13998,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>1003</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -13764,10 +14012,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>1004</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -13778,10 +14026,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>1005</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -13792,10 +14040,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>1006</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -13806,10 +14054,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>1007</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -13820,10 +14068,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>2001</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -13834,10 +14082,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>2002</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -13848,10 +14096,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>2003</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -13862,10 +14110,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>2004</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -13876,10 +14124,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>2005</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -13890,10 +14138,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>2006</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -13902,10 +14150,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>2007</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -13914,10 +14162,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>2008</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -13925,10 +14173,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>2009</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -13936,10 +14184,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>2010</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -13947,10 +14195,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>3001</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -13964,10 +14212,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>3002</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -13981,10 +14229,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>3003</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -13998,10 +14246,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>3004</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -14015,10 +14263,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>3005</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -14032,10 +14280,10 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>3006</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -14049,10 +14297,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>3007</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -14066,10 +14314,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>3008</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -14077,10 +14325,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>3009</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -14088,10 +14336,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>3010</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -14099,10 +14347,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="13">
         <v>3011</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -14110,10 +14358,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="13">
         <v>3012</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -14121,10 +14369,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="13">
         <v>3013</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -14132,10 +14380,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <v>3014</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -14143,10 +14391,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="13">
         <v>3015</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -14154,10 +14402,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="13">
         <v>3016</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -14165,10 +14413,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="13">
         <v>4001</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -14179,10 +14427,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="13">
         <v>4002</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -14193,10 +14441,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="13">
         <v>4003</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -14207,10 +14455,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="13">
         <v>5001</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -14221,10 +14469,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="13">
         <v>5002</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -14235,10 +14483,10 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="13">
         <v>5003</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -14249,10 +14497,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="13">
         <v>6001</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -14263,10 +14511,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="13">
         <v>6002</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -14277,10 +14525,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="13">
         <v>6003</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -14291,10 +14539,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="13">
         <v>6004</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -14305,10 +14553,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="13">
         <v>6005</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -14319,10 +14567,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="13">
         <v>6006</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -14333,10 +14581,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="13">
         <v>6007</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -14347,10 +14595,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="13">
         <v>6008</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -14361,10 +14609,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="13">
         <v>6009</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -14375,10 +14623,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="13">
         <v>7001</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -14389,10 +14637,10 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="13">
         <v>7002</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -14403,10 +14651,10 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="13">
         <v>7003</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -14417,10 +14665,10 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="13">
         <v>7004</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -14431,10 +14679,10 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="13">
         <v>7005</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -14445,10 +14693,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="13">
         <v>7006</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -14459,10 +14707,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="13">
         <v>7007</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -14473,10 +14721,10 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="13">
         <v>7008</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -14484,10 +14732,10 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="13">
         <v>7009</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -14495,10 +14743,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="13">
         <v>7010</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -14506,10 +14754,10 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="13">
         <v>7001</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -14520,10 +14768,10 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="13">
         <v>7002</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -14534,10 +14782,10 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="13">
         <v>7003</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -14548,10 +14796,10 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="13">
         <v>7004</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -14562,10 +14810,10 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="13">
         <v>7005</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -14576,10 +14824,10 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="13">
         <v>7006</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -14590,10 +14838,10 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="13">
         <v>7007</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -14604,10 +14852,10 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="13">
         <v>7008</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -14615,10 +14863,10 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="13">
         <v>7009</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -14626,10 +14874,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="13">
         <v>7010</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -14637,10 +14885,10 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="13">
         <v>7001</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -14651,10 +14899,10 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="13">
         <v>7002</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -14665,10 +14913,10 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="13">
         <v>7003</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -14679,10 +14927,10 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="13">
         <v>7004</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -14693,10 +14941,10 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="13">
         <v>7005</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -14707,10 +14955,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="13">
         <v>7006</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -14721,10 +14969,10 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="13">
         <v>7007</v>
       </c>
       <c r="D76" s="11" t="s">
@@ -14735,10 +14983,10 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="13">
         <v>7008</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -14746,10 +14994,10 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="13">
         <v>7009</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -14757,10 +15005,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="13">
         <v>7010</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -14768,10 +15016,10 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="13">
         <v>7001</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -14782,10 +15030,10 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="13">
         <v>7002</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -14796,10 +15044,10 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="13">
         <v>7003</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -14810,10 +15058,10 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="13">
         <v>7004</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -14824,10 +15072,10 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="13">
         <v>7005</v>
       </c>
       <c r="D84" s="11" t="s">
@@ -14838,10 +15086,10 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="13">
         <v>7006</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -14852,10 +15100,10 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="13">
         <v>7007</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -14866,10 +15114,10 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87">
+      <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="13">
         <v>7008</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -14877,10 +15125,10 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88">
+      <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="13">
         <v>7009</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -14888,10 +15136,10 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89">
+      <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="13">
         <v>7010</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -14899,7 +15147,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90">
+      <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="13">
@@ -14914,7 +15162,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91">
+      <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="13">
@@ -14929,7 +15177,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="13">
@@ -14944,7 +15192,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93">
+      <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="13">
@@ -14959,7 +15207,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="13">
@@ -14974,7 +15222,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="13">
@@ -14989,7 +15237,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96">
+      <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="13">
@@ -15004,7 +15252,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
+      <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="13">
@@ -15019,7 +15267,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="13">
@@ -15034,7 +15282,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="13">
@@ -15049,7 +15297,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="13">
@@ -15064,7 +15312,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="13">
@@ -15079,7 +15327,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102">
+      <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="13">
@@ -15094,7 +15342,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103">
+      <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="13">
@@ -15107,7 +15355,7 @@
       <c r="E103" s="33"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104">
+      <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="13">
@@ -15120,7 +15368,7 @@
       <c r="E104" s="33"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105">
+      <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="13">
@@ -15135,7 +15383,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106">
+      <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="13">
@@ -15150,7 +15398,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
+      <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="13">
@@ -15163,7 +15411,7 @@
       <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108">
+      <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108" s="13">
@@ -15176,10 +15424,10 @@
       <c r="E108" s="33"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109">
+      <c r="A109" s="17">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="13">
         <v>9001</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -15190,10 +15438,10 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110">
+      <c r="A110" s="17">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="13">
         <v>9002</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -15204,10 +15452,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111">
+      <c r="A111" s="17">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="13">
         <v>9003</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -15218,10 +15466,10 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
+      <c r="A112" s="17">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="13">
         <v>9004</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -15232,10 +15480,10 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113">
+      <c r="A113" s="17">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="13">
         <v>9005</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -15246,10 +15494,10 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114">
+      <c r="A114" s="17">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="13">
         <v>9006</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -15260,10 +15508,10 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115">
+      <c r="A115" s="17">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="13">
         <v>9007</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -15274,10 +15522,10 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116">
+      <c r="A116" s="17">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="13">
         <v>9008</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -15288,10 +15536,10 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117">
+      <c r="A117" s="17">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="13">
         <v>9009</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -15302,10 +15550,10 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118">
+      <c r="A118" s="17">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="13">
         <v>9010</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -15316,10 +15564,10 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119">
+      <c r="A119" s="17">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="13">
         <v>9011</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -15330,10 +15578,10 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120">
+      <c r="A120" s="17">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="13">
         <v>9012</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -15344,7 +15592,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121">
+      <c r="A121" s="17">
         <v>120</v>
       </c>
       <c r="B121" s="13">
@@ -15359,7 +15607,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122">
+      <c r="A122" s="17">
         <v>121</v>
       </c>
       <c r="B122" s="13">
@@ -15374,7 +15622,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123">
+      <c r="A123" s="17">
         <v>122</v>
       </c>
       <c r="B123" s="13">
@@ -15389,7 +15637,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124">
+      <c r="A124" s="17">
         <v>123</v>
       </c>
       <c r="B124" s="13">
@@ -15404,7 +15652,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125">
+      <c r="A125" s="17">
         <v>124</v>
       </c>
       <c r="B125" s="13">
@@ -15419,7 +15667,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126">
+      <c r="A126" s="17">
         <v>125</v>
       </c>
       <c r="B126" s="13">
@@ -15434,7 +15682,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127">
+      <c r="A127" s="17">
         <v>126</v>
       </c>
       <c r="B127" s="13">
@@ -15449,7 +15697,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128">
+      <c r="A128" s="17">
         <v>127</v>
       </c>
       <c r="B128" s="13">
@@ -15462,7 +15710,7 @@
       <c r="E128" s="16"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129">
+      <c r="A129" s="17">
         <v>128</v>
       </c>
       <c r="B129" s="13">
@@ -15475,7 +15723,7 @@
       <c r="E129" s="16"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130">
+      <c r="A130" s="17">
         <v>129</v>
       </c>
       <c r="B130" s="13">
@@ -15488,7 +15736,7 @@
       <c r="E130" s="16"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131">
+      <c r="A131" s="17">
         <v>130</v>
       </c>
       <c r="B131" s="13">
@@ -15505,7 +15753,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132">
+      <c r="A132" s="17">
         <v>131</v>
       </c>
       <c r="B132" s="13">
@@ -15522,7 +15770,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133">
+      <c r="A133" s="17">
         <v>132</v>
       </c>
       <c r="B133" s="13">
@@ -15539,7 +15787,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134">
+      <c r="A134" s="17">
         <v>133</v>
       </c>
       <c r="B134" s="13">
@@ -15556,7 +15804,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135">
+      <c r="A135" s="17">
         <v>134</v>
       </c>
       <c r="B135" s="13">
@@ -15573,7 +15821,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136">
+      <c r="A136" s="17">
         <v>135</v>
       </c>
       <c r="B136" s="13">
@@ -15590,7 +15838,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137">
+      <c r="A137" s="17">
         <v>136</v>
       </c>
       <c r="B137" s="13">
@@ -15607,7 +15855,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138">
+      <c r="A138" s="17">
         <v>137</v>
       </c>
       <c r="B138" s="13">
@@ -15624,7 +15872,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139">
+      <c r="A139" s="17">
         <v>138</v>
       </c>
       <c r="B139" s="13">
@@ -15637,7 +15885,7 @@
       <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140">
+      <c r="A140" s="17">
         <v>139</v>
       </c>
       <c r="B140" s="13">
@@ -15650,7 +15898,7 @@
       <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141">
+      <c r="A141" s="17">
         <v>140</v>
       </c>
       <c r="B141" s="13">
@@ -15667,7 +15915,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142">
+      <c r="A142" s="17">
         <v>141</v>
       </c>
       <c r="B142" s="13">
@@ -15684,7 +15932,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143">
+      <c r="A143" s="17">
         <v>142</v>
       </c>
       <c r="B143" s="13">
@@ -15697,7 +15945,7 @@
       <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144">
+      <c r="A144" s="17">
         <v>143</v>
       </c>
       <c r="B144" s="13">
@@ -15710,7 +15958,7 @@
       <c r="E144" s="21"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145">
+      <c r="A145" s="17">
         <v>144</v>
       </c>
       <c r="B145" s="13">
@@ -15723,7 +15971,7 @@
       <c r="E145" s="21"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146">
+      <c r="A146" s="17">
         <v>145</v>
       </c>
       <c r="B146" s="13">
@@ -15740,7 +15988,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147">
+      <c r="A147" s="17">
         <v>146</v>
       </c>
       <c r="B147" s="13">
@@ -15757,7 +16005,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148">
+      <c r="A148" s="17">
         <v>147</v>
       </c>
       <c r="B148" s="13">
@@ -15774,7 +16022,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149">
+      <c r="A149" s="17">
         <v>148</v>
       </c>
       <c r="B149" s="13">
@@ -15791,7 +16039,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150">
+      <c r="A150" s="17">
         <v>149</v>
       </c>
       <c r="B150" s="13">
@@ -15808,7 +16056,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151">
+      <c r="A151" s="17">
         <v>150</v>
       </c>
       <c r="B151" s="13">
@@ -15825,7 +16073,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152">
+      <c r="A152" s="17">
         <v>151</v>
       </c>
       <c r="B152" s="13">
@@ -15842,7 +16090,7 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153">
+      <c r="A153" s="17">
         <v>152</v>
       </c>
       <c r="B153" s="13">
@@ -15859,7 +16107,7 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154">
+      <c r="A154" s="17">
         <v>153</v>
       </c>
       <c r="B154" s="13">
@@ -15872,7 +16120,7 @@
       <c r="E154" s="21"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155">
+      <c r="A155" s="17">
         <v>154</v>
       </c>
       <c r="B155" s="13">
@@ -15889,7 +16137,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156">
+      <c r="A156" s="17">
         <v>155</v>
       </c>
       <c r="B156" s="13">
@@ -15906,7 +16154,7 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157">
+      <c r="A157" s="17">
         <v>156</v>
       </c>
       <c r="B157" s="13">
@@ -15923,7 +16171,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158">
+      <c r="A158" s="17">
         <v>157</v>
       </c>
       <c r="B158" s="13">
@@ -15940,7 +16188,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159">
+      <c r="A159" s="17">
         <v>158</v>
       </c>
       <c r="B159" s="13">
@@ -15957,7 +16205,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160">
+      <c r="A160" s="17">
         <v>159</v>
       </c>
       <c r="B160" s="13">
@@ -15974,7 +16222,7 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161">
+      <c r="A161" s="17">
         <v>160</v>
       </c>
       <c r="B161" s="13">
@@ -15987,7 +16235,7 @@
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162">
+      <c r="A162" s="17">
         <v>161</v>
       </c>
       <c r="B162" s="13">
@@ -16000,7 +16248,7 @@
       <c r="E162" s="21"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163">
+      <c r="A163" s="17">
         <v>162</v>
       </c>
       <c r="B163" s="13">
@@ -16017,7 +16265,7 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164">
+      <c r="A164" s="17">
         <v>163</v>
       </c>
       <c r="B164" s="13">
@@ -16030,7 +16278,7 @@
       <c r="E164" s="21"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165">
+      <c r="A165" s="17">
         <v>164</v>
       </c>
       <c r="B165" s="13">
@@ -16043,7 +16291,7 @@
       <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166">
+      <c r="A166" s="17">
         <v>165</v>
       </c>
       <c r="B166" s="13">
@@ -16056,7 +16304,7 @@
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167">
+      <c r="A167" s="17">
         <v>166</v>
       </c>
       <c r="B167" s="13">
@@ -16073,7 +16321,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168">
+      <c r="A168" s="17">
         <v>167</v>
       </c>
       <c r="B168" s="13">
@@ -16086,7 +16334,7 @@
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169">
+      <c r="A169" s="17">
         <v>168</v>
       </c>
       <c r="B169" s="13">
@@ -16103,7 +16351,7 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170">
+      <c r="A170" s="17">
         <v>169</v>
       </c>
       <c r="B170" s="13">
@@ -16120,7 +16368,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171">
+      <c r="A171" s="17">
         <v>170</v>
       </c>
       <c r="B171" s="13">
@@ -16137,7 +16385,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172">
+      <c r="A172" s="17">
         <v>171</v>
       </c>
       <c r="B172" s="13">
@@ -16154,7 +16402,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173">
+      <c r="A173" s="17">
         <v>172</v>
       </c>
       <c r="B173" s="13">
@@ -16171,7 +16419,7 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174">
+      <c r="A174" s="17">
         <v>173</v>
       </c>
       <c r="B174" s="13">
@@ -16188,7 +16436,7 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175">
+      <c r="A175" s="17">
         <v>174</v>
       </c>
       <c r="B175" s="13">
@@ -16205,7 +16453,7 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176">
+      <c r="A176" s="17">
         <v>175</v>
       </c>
       <c r="B176" s="13">
@@ -16222,7 +16470,7 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177">
+      <c r="A177" s="17">
         <v>176</v>
       </c>
       <c r="B177" s="13">
@@ -16239,7 +16487,7 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178">
+      <c r="A178" s="17">
         <v>177</v>
       </c>
       <c r="B178" s="13">
@@ -16256,7 +16504,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179">
+      <c r="A179" s="17">
         <v>178</v>
       </c>
       <c r="B179" s="13">
@@ -16273,7 +16521,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180">
+      <c r="A180" s="17">
         <v>179</v>
       </c>
       <c r="B180" s="13">
@@ -16290,7 +16538,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181">
+      <c r="A181" s="17">
         <v>180</v>
       </c>
       <c r="B181" s="13">
@@ -16307,7 +16555,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182">
+      <c r="A182" s="17">
         <v>181</v>
       </c>
       <c r="B182" s="13">
@@ -16324,7 +16572,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183">
+      <c r="A183" s="17">
         <v>182</v>
       </c>
       <c r="B183" s="13">
@@ -16341,7 +16589,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184">
+      <c r="A184" s="17">
         <v>183</v>
       </c>
       <c r="B184" s="13">
@@ -16358,7 +16606,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185">
+      <c r="A185" s="17">
         <v>184</v>
       </c>
       <c r="B185" s="13">
@@ -16375,7 +16623,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186">
+      <c r="A186" s="17">
         <v>185</v>
       </c>
       <c r="B186" s="13">
@@ -16392,7 +16640,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187">
+      <c r="A187" s="17">
         <v>186</v>
       </c>
       <c r="B187" s="13">
@@ -16409,7 +16657,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188">
+      <c r="A188" s="17">
         <v>187</v>
       </c>
       <c r="B188" s="13">
@@ -16426,7 +16674,7 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189">
+      <c r="A189" s="17">
         <v>188</v>
       </c>
       <c r="B189" s="13">
@@ -16443,7 +16691,7 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190">
+      <c r="A190" s="17">
         <v>189</v>
       </c>
       <c r="B190" s="13">
@@ -16460,7 +16708,7 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191">
+      <c r="A191" s="17">
         <v>190</v>
       </c>
       <c r="B191" s="13">
@@ -16477,7 +16725,7 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192">
+      <c r="A192" s="17">
         <v>191</v>
       </c>
       <c r="B192" s="13">
@@ -16494,7 +16742,7 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193">
+      <c r="A193" s="17">
         <v>192</v>
       </c>
       <c r="B193" s="13">
@@ -16511,7 +16759,7 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194">
+      <c r="A194" s="17">
         <v>193</v>
       </c>
       <c r="B194" s="13">
@@ -16528,7 +16776,7 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195">
+      <c r="A195" s="17">
         <v>194</v>
       </c>
       <c r="B195" s="13">
@@ -16545,7 +16793,7 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196">
+      <c r="A196" s="17">
         <v>195</v>
       </c>
       <c r="B196" s="13">
@@ -16562,7 +16810,7 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197">
+      <c r="A197" s="17">
         <v>196</v>
       </c>
       <c r="B197" s="13">
@@ -16579,7 +16827,7 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198">
+      <c r="A198" s="17">
         <v>197</v>
       </c>
       <c r="B198" s="13">
@@ -16596,7 +16844,7 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199">
+      <c r="A199" s="17">
         <v>198</v>
       </c>
       <c r="B199" s="13">
@@ -16613,7 +16861,7 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200">
+      <c r="A200" s="17">
         <v>199</v>
       </c>
       <c r="B200" s="13">
@@ -16630,7 +16878,7 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201">
+      <c r="A201" s="17">
         <v>200</v>
       </c>
       <c r="B201" s="13">
@@ -16647,7 +16895,7 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202">
+      <c r="A202" s="17">
         <v>201</v>
       </c>
       <c r="B202" s="13">
@@ -16664,7 +16912,7 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203">
+      <c r="A203" s="17">
         <v>202</v>
       </c>
       <c r="B203" s="13">
@@ -16681,7 +16929,7 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204">
+      <c r="A204" s="17">
         <v>203</v>
       </c>
       <c r="B204" s="13">
@@ -16698,7 +16946,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205">
+      <c r="A205" s="17">
         <v>204</v>
       </c>
       <c r="B205" s="13">
@@ -16715,7 +16963,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206">
+      <c r="A206" s="17">
         <v>205</v>
       </c>
       <c r="B206" s="13">
@@ -16732,7 +16980,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207">
+      <c r="A207" s="17">
         <v>206</v>
       </c>
       <c r="B207" s="13">
@@ -16749,7 +16997,7 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208">
+      <c r="A208" s="17">
         <v>207</v>
       </c>
       <c r="B208" s="13">
@@ -16766,7 +17014,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209">
+      <c r="A209" s="17">
         <v>208</v>
       </c>
       <c r="B209" s="13">
@@ -16783,7 +17031,7 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210">
+      <c r="A210" s="17">
         <v>209</v>
       </c>
       <c r="B210" s="13">
@@ -16800,7 +17048,7 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211">
+      <c r="A211" s="17">
         <v>210</v>
       </c>
       <c r="B211" s="13">
@@ -16817,7 +17065,7 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212">
+      <c r="A212" s="17">
         <v>211</v>
       </c>
       <c r="B212" s="13">
@@ -16834,7 +17082,7 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213">
+      <c r="A213" s="17">
         <v>212</v>
       </c>
       <c r="B213" s="13">
@@ -16851,7 +17099,7 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214">
+      <c r="A214" s="17">
         <v>213</v>
       </c>
       <c r="B214" s="13">
@@ -16868,7 +17116,7 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215">
+      <c r="A215" s="17">
         <v>214</v>
       </c>
       <c r="B215" s="13">
@@ -16885,7 +17133,7 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216">
+      <c r="A216" s="17">
         <v>215</v>
       </c>
       <c r="B216" s="13">
@@ -16902,7 +17150,7 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217">
+      <c r="A217" s="17">
         <v>216</v>
       </c>
       <c r="B217" s="13">
@@ -16919,7 +17167,7 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218">
+      <c r="A218" s="17">
         <v>217</v>
       </c>
       <c r="B218" s="13">
@@ -16936,7 +17184,7 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219">
+      <c r="A219" s="17">
         <v>218</v>
       </c>
       <c r="B219" s="13">
@@ -16953,7 +17201,7 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220">
+      <c r="A220" s="17">
         <v>219</v>
       </c>
       <c r="B220" s="13">
@@ -16970,10 +17218,10 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221">
+      <c r="A221" s="17">
         <v>220</v>
       </c>
-      <c r="B221" s="23">
+      <c r="B221" s="13">
         <v>11601</v>
       </c>
       <c r="C221" s="24" t="s">
@@ -16987,10 +17235,10 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222">
+      <c r="A222" s="17">
         <v>221</v>
       </c>
-      <c r="B222" s="23">
+      <c r="B222" s="13">
         <v>11602</v>
       </c>
       <c r="C222" s="24" t="s">
@@ -17004,10 +17252,10 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223">
+      <c r="A223" s="17">
         <v>222</v>
       </c>
-      <c r="B223" s="23">
+      <c r="B223" s="13">
         <v>11603</v>
       </c>
       <c r="C223" s="24" t="s">
@@ -17021,10 +17269,10 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224">
+      <c r="A224" s="17">
         <v>223</v>
       </c>
-      <c r="B224" s="23">
+      <c r="B224" s="13">
         <v>11604</v>
       </c>
       <c r="C224" s="24" t="s">
@@ -17038,10 +17286,10 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225">
+      <c r="A225" s="17">
         <v>224</v>
       </c>
-      <c r="B225" s="23">
+      <c r="B225" s="13">
         <v>11611</v>
       </c>
       <c r="C225" s="24" t="s">
@@ -17055,10 +17303,10 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226">
+      <c r="A226" s="17">
         <v>225</v>
       </c>
-      <c r="B226" s="23">
+      <c r="B226" s="13">
         <v>11612</v>
       </c>
       <c r="C226" s="24" t="s">
@@ -17072,10 +17320,10 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227">
+      <c r="A227" s="17">
         <v>226</v>
       </c>
-      <c r="B227" s="23">
+      <c r="B227" s="13">
         <v>11613</v>
       </c>
       <c r="C227" s="24" t="s">
@@ -17089,10 +17337,10 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228">
+      <c r="A228" s="17">
         <v>227</v>
       </c>
-      <c r="B228" s="23">
+      <c r="B228" s="13">
         <v>11614</v>
       </c>
       <c r="C228" s="24" t="s">
@@ -17106,10 +17354,10 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229">
+      <c r="A229" s="17">
         <v>228</v>
       </c>
-      <c r="B229" s="23">
+      <c r="B229" s="13">
         <v>11621</v>
       </c>
       <c r="C229" s="24" t="s">
@@ -17123,10 +17371,10 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230">
+      <c r="A230" s="17">
         <v>229</v>
       </c>
-      <c r="B230" s="23">
+      <c r="B230" s="13">
         <v>11622</v>
       </c>
       <c r="C230" s="24" t="s">
@@ -17140,10 +17388,10 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231">
+      <c r="A231" s="17">
         <v>230</v>
       </c>
-      <c r="B231" s="23">
+      <c r="B231" s="13">
         <v>11623</v>
       </c>
       <c r="C231" s="24" t="s">
@@ -17157,10 +17405,10 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232">
+      <c r="A232" s="17">
         <v>231</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232" s="13">
         <v>11624</v>
       </c>
       <c r="C232" s="24" t="s">
@@ -17174,10 +17422,10 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233">
+      <c r="A233" s="17">
         <v>232</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233" s="13">
         <v>11631</v>
       </c>
       <c r="C233" s="24" t="s">
@@ -17191,10 +17439,10 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234">
+      <c r="A234" s="17">
         <v>233</v>
       </c>
-      <c r="B234" s="23">
+      <c r="B234" s="13">
         <v>11632</v>
       </c>
       <c r="C234" s="24" t="s">
@@ -17208,10 +17456,10 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235">
+      <c r="A235" s="17">
         <v>234</v>
       </c>
-      <c r="B235" s="23">
+      <c r="B235" s="13">
         <v>11633</v>
       </c>
       <c r="C235" s="24" t="s">
@@ -17225,10 +17473,10 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236">
+      <c r="A236" s="17">
         <v>235</v>
       </c>
-      <c r="B236" s="23">
+      <c r="B236" s="13">
         <v>11634</v>
       </c>
       <c r="C236" s="24" t="s">
@@ -17242,10 +17490,10 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237">
+      <c r="A237" s="17">
         <v>236</v>
       </c>
-      <c r="B237" s="23">
+      <c r="B237" s="13">
         <v>11641</v>
       </c>
       <c r="C237" s="24" t="s">
@@ -17259,10 +17507,10 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238">
+      <c r="A238" s="17">
         <v>237</v>
       </c>
-      <c r="B238" s="23">
+      <c r="B238" s="13">
         <v>11642</v>
       </c>
       <c r="C238" s="24" t="s">
@@ -17276,10 +17524,10 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239">
+      <c r="A239" s="17">
         <v>238</v>
       </c>
-      <c r="B239" s="23">
+      <c r="B239" s="13">
         <v>11643</v>
       </c>
       <c r="C239" s="24" t="s">
@@ -17293,10 +17541,10 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240">
+      <c r="A240" s="17">
         <v>239</v>
       </c>
-      <c r="B240" s="23">
+      <c r="B240" s="13">
         <v>11644</v>
       </c>
       <c r="C240" s="24" t="s">
@@ -17310,10 +17558,10 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241">
+      <c r="A241" s="17">
         <v>240</v>
       </c>
-      <c r="B241" s="23">
+      <c r="B241" s="13">
         <v>11651</v>
       </c>
       <c r="C241" s="24" t="s">
@@ -17327,10 +17575,10 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242">
+      <c r="A242" s="17">
         <v>241</v>
       </c>
-      <c r="B242" s="23">
+      <c r="B242" s="13">
         <v>11652</v>
       </c>
       <c r="C242" s="24" t="s">
@@ -17344,10 +17592,10 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243">
+      <c r="A243" s="17">
         <v>242</v>
       </c>
-      <c r="B243" s="23">
+      <c r="B243" s="13">
         <v>11653</v>
       </c>
       <c r="C243" s="24" t="s">
@@ -17361,10 +17609,10 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244">
+      <c r="A244" s="17">
         <v>243</v>
       </c>
-      <c r="B244" s="23">
+      <c r="B244" s="13">
         <v>11654</v>
       </c>
       <c r="C244" s="24" t="s">
@@ -17378,10 +17626,10 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245">
+      <c r="A245" s="17">
         <v>244</v>
       </c>
-      <c r="B245" s="23">
+      <c r="B245" s="13">
         <v>11661</v>
       </c>
       <c r="C245" s="24" t="s">
@@ -17395,10 +17643,10 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246">
+      <c r="A246" s="17">
         <v>245</v>
       </c>
-      <c r="B246" s="23">
+      <c r="B246" s="13">
         <v>11662</v>
       </c>
       <c r="C246" s="24" t="s">
@@ -17412,10 +17660,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247">
+      <c r="A247" s="17">
         <v>246</v>
       </c>
-      <c r="B247" s="23">
+      <c r="B247" s="13">
         <v>11663</v>
       </c>
       <c r="C247" s="24" t="s">
@@ -17429,10 +17677,10 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248">
+      <c r="A248" s="17">
         <v>247</v>
       </c>
-      <c r="B248" s="23">
+      <c r="B248" s="13">
         <v>11664</v>
       </c>
       <c r="C248" s="24" t="s">
@@ -17446,10 +17694,10 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249">
+      <c r="A249" s="17">
         <v>248</v>
       </c>
-      <c r="B249" s="23">
+      <c r="B249" s="13">
         <v>11671</v>
       </c>
       <c r="C249" s="24" t="s">
@@ -17463,10 +17711,10 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250">
+      <c r="A250" s="17">
         <v>249</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B250" s="13">
         <v>11672</v>
       </c>
       <c r="C250" s="24" t="s">
@@ -17480,10 +17728,10 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251">
+      <c r="A251" s="17">
         <v>250</v>
       </c>
-      <c r="B251" s="23">
+      <c r="B251" s="13">
         <v>11673</v>
       </c>
       <c r="C251" s="24" t="s">
@@ -17497,10 +17745,10 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252">
+      <c r="A252" s="17">
         <v>251</v>
       </c>
-      <c r="B252" s="23">
+      <c r="B252" s="13">
         <v>11674</v>
       </c>
       <c r="C252" s="24" t="s">
@@ -17514,10 +17762,10 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253">
+      <c r="A253" s="17">
         <v>252</v>
       </c>
-      <c r="B253" s="23">
+      <c r="B253" s="13">
         <v>11681</v>
       </c>
       <c r="C253" s="24" t="s">
@@ -17531,10 +17779,10 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254">
+      <c r="A254" s="17">
         <v>253</v>
       </c>
-      <c r="B254" s="23">
+      <c r="B254" s="13">
         <v>11682</v>
       </c>
       <c r="C254" s="24" t="s">
@@ -17548,10 +17796,10 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255">
+      <c r="A255" s="17">
         <v>254</v>
       </c>
-      <c r="B255" s="23">
+      <c r="B255" s="13">
         <v>11683</v>
       </c>
       <c r="C255" s="24" t="s">
@@ -17565,10 +17813,10 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256">
+      <c r="A256" s="17">
         <v>255</v>
       </c>
-      <c r="B256" s="23">
+      <c r="B256" s="13">
         <v>11684</v>
       </c>
       <c r="C256" s="24" t="s">
@@ -17582,466 +17830,466 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="36">
+      <c r="A257" s="17">
         <v>256</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="13">
         <v>11701</v>
       </c>
       <c r="C257" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="37" t="s">
+      <c r="D257" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="38" t="s">
+      <c r="E257" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="36">
+      <c r="A258" s="17">
         <v>257</v>
       </c>
-      <c r="B258" s="35">
+      <c r="B258" s="13">
         <v>11702</v>
       </c>
       <c r="C258" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="37" t="s">
+      <c r="D258" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="38" t="s">
+      <c r="E258" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="36">
+      <c r="A259" s="17">
         <v>258</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="13">
         <v>11703</v>
       </c>
       <c r="C259" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="37" t="s">
+      <c r="D259" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="38" t="s">
+      <c r="E259" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="36">
+      <c r="A260" s="17">
         <v>259</v>
       </c>
-      <c r="B260" s="35">
+      <c r="B260" s="13">
         <v>11704</v>
       </c>
       <c r="C260" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="37" t="s">
+      <c r="D260" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="38" t="s">
+      <c r="E260" s="37" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="36">
+      <c r="A261" s="17">
         <v>260</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="13">
         <v>11705</v>
       </c>
       <c r="C261" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="37" t="s">
+      <c r="D261" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="38" t="s">
+      <c r="E261" s="37" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="36">
+      <c r="A262" s="17">
         <v>261</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="13">
         <v>11706</v>
       </c>
       <c r="C262" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="37" t="s">
+      <c r="D262" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="38" t="s">
+      <c r="E262" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="36">
+      <c r="A263" s="17">
         <v>262</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="13">
         <v>11707</v>
       </c>
       <c r="C263" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="37" t="s">
+      <c r="D263" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="38" t="s">
+      <c r="E263" s="37" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="36">
+      <c r="A264" s="17">
         <v>263</v>
       </c>
-      <c r="B264" s="35">
+      <c r="B264" s="13">
         <v>11708</v>
       </c>
       <c r="C264" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="37" t="s">
+      <c r="D264" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="38" t="s">
+      <c r="E264" s="37" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="36">
+      <c r="A265" s="17">
         <v>264</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="13">
         <v>11709</v>
       </c>
       <c r="C265" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="37" t="s">
+      <c r="D265" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="38" t="s">
+      <c r="E265" s="37" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="39">
+      <c r="A266" s="17">
         <v>265</v>
       </c>
-      <c r="B266" s="40">
+      <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="41" t="s">
+      <c r="C266" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="41" t="s">
+      <c r="D266" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="42" t="s">
+      <c r="E266" s="41" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="39">
+      <c r="A267" s="17">
         <v>266</v>
       </c>
-      <c r="B267" s="40">
+      <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="41" t="s">
+      <c r="C267" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="41" t="s">
+      <c r="D267" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="42" t="s">
+      <c r="E267" s="41" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="39">
+      <c r="A268" s="17">
         <v>267</v>
       </c>
-      <c r="B268" s="40">
+      <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="41" t="s">
+      <c r="C268" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="41" t="s">
+      <c r="D268" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="42" t="s">
+      <c r="E268" s="41" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="39">
+      <c r="A269" s="17">
         <v>268</v>
       </c>
-      <c r="B269" s="40">
+      <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="41" t="s">
+      <c r="C269" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="41" t="s">
+      <c r="D269" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="42" t="s">
+      <c r="E269" s="41" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="39">
+      <c r="A270" s="17">
         <v>269</v>
       </c>
-      <c r="B270" s="40">
+      <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="41" t="s">
+      <c r="C270" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="41" t="s">
+      <c r="D270" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="42" t="s">
+      <c r="E270" s="41" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="39">
+      <c r="A271" s="17">
         <v>270</v>
       </c>
-      <c r="B271" s="40">
+      <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="41" t="s">
+      <c r="C271" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="41" t="s">
+      <c r="D271" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="42" t="s">
+      <c r="E271" s="41" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="39">
+      <c r="A272" s="17">
         <v>271</v>
       </c>
-      <c r="B272" s="40">
+      <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="41" t="s">
+      <c r="C272" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="41" t="s">
+      <c r="D272" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="42" t="s">
+      <c r="E272" s="41" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="39">
+      <c r="A273" s="17">
         <v>272</v>
       </c>
-      <c r="B273" s="40">
+      <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="41" t="s">
+      <c r="C273" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="41" t="s">
+      <c r="D273" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="42" t="s">
+      <c r="E273" s="41" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="39">
+      <c r="A274" s="17">
         <v>273</v>
       </c>
-      <c r="B274" s="40">
+      <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="41" t="s">
+      <c r="C274" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="41" t="s">
+      <c r="D274" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="42" t="s">
+      <c r="E274" s="41" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36">
+      <c r="A275" s="17">
         <v>274</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="13">
         <v>11719</v>
       </c>
-      <c r="C275" s="37" t="s">
+      <c r="C275" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="D275" s="37" t="s">
+      <c r="D275" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E275" s="38" t="s">
+      <c r="E275" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="36">
+      <c r="A276" s="17">
         <v>275</v>
       </c>
-      <c r="B276" s="35">
+      <c r="B276" s="13">
         <v>11720</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="D276" s="37" t="s">
+      <c r="D276" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="38" t="s">
+      <c r="E276" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="36">
+      <c r="A277" s="17">
         <v>276</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="13">
         <v>11721</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C277" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="D277" s="37" t="s">
+      <c r="D277" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E277" s="38" t="s">
+      <c r="E277" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="36">
+      <c r="A278" s="17">
         <v>277</v>
       </c>
-      <c r="B278" s="35">
+      <c r="B278" s="13">
         <v>11722</v>
       </c>
-      <c r="C278" s="37" t="s">
+      <c r="C278" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="D278" s="37" t="s">
+      <c r="D278" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E278" s="38" t="s">
+      <c r="E278" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="36">
+      <c r="A279" s="17">
         <v>278</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="13">
         <v>11723</v>
       </c>
-      <c r="C279" s="37" t="s">
+      <c r="C279" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="D279" s="37" t="s">
+      <c r="D279" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="E279" s="38" t="s">
+      <c r="E279" s="37" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="36">
+      <c r="A280" s="17">
         <v>279</v>
       </c>
-      <c r="B280" s="35">
+      <c r="B280" s="13">
         <v>11724</v>
       </c>
-      <c r="C280" s="37" t="s">
+      <c r="C280" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="D280" s="37" t="s">
+      <c r="D280" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="38" t="s">
+      <c r="E280" s="37" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="36">
+      <c r="A281" s="17">
         <v>280</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="13">
         <v>11725</v>
       </c>
-      <c r="C281" s="37" t="s">
+      <c r="C281" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="37" t="s">
+      <c r="D281" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="E281" s="38" t="s">
+      <c r="E281" s="37" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="36">
+      <c r="A282" s="17">
         <v>281</v>
       </c>
-      <c r="B282" s="35">
+      <c r="B282" s="13">
         <v>11726</v>
       </c>
-      <c r="C282" s="37" t="s">
+      <c r="C282" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="D282" s="37" t="s">
+      <c r="D282" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E282" s="38" t="s">
+      <c r="E282" s="37" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="36">
+      <c r="A283" s="17">
         <v>282</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="13">
         <v>11727</v>
       </c>
-      <c r="C283" s="37" t="s">
+      <c r="C283" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="D283" s="37" t="s">
+      <c r="D283" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E283" s="38" t="s">
+      <c r="E283" s="37" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284">
+      <c r="A284" s="17">
         <v>283</v>
       </c>
       <c r="B284" s="13">
@@ -18058,7 +18306,7 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285">
+      <c r="A285" s="17">
         <v>284</v>
       </c>
       <c r="B285" s="13">
@@ -18075,7 +18323,7 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286">
+      <c r="A286" s="17">
         <v>285</v>
       </c>
       <c r="B286" s="13">
@@ -18092,7 +18340,7 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287">
+      <c r="A287" s="17">
         <v>286</v>
       </c>
       <c r="B287" s="13">
@@ -18109,10 +18357,10 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288">
+      <c r="A288" s="17">
         <v>287</v>
       </c>
-      <c r="B288" s="23">
+      <c r="B288" s="13">
         <v>11741</v>
       </c>
       <c r="C288" s="24" t="s">
@@ -18126,10 +18374,10 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289">
+      <c r="A289" s="17">
         <v>288</v>
       </c>
-      <c r="B289" s="23">
+      <c r="B289" s="13">
         <v>11742</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -18143,10 +18391,10 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290">
+      <c r="A290" s="17">
         <v>289</v>
       </c>
-      <c r="B290" s="23">
+      <c r="B290" s="13">
         <v>11743</v>
       </c>
       <c r="C290" s="24" t="s">
@@ -18160,10 +18408,10 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291">
+      <c r="A291" s="17">
         <v>290</v>
       </c>
-      <c r="B291" s="23">
+      <c r="B291" s="13">
         <v>11744</v>
       </c>
       <c r="C291" s="24" t="s">
@@ -18177,10 +18425,10 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292">
+      <c r="A292" s="17">
         <v>291</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="13">
         <v>11751</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -18189,15 +18437,15 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="45" t="s">
+      <c r="E292" s="44" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293">
+      <c r="A293" s="17">
         <v>292</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="13">
         <v>11752</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -18206,15 +18454,15 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="45" t="s">
+      <c r="E293" s="44" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294">
+      <c r="A294" s="17">
         <v>293</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="13">
         <v>11753</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -18223,15 +18471,15 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="45" t="s">
+      <c r="E294" s="44" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295">
+      <c r="A295" s="17">
         <v>294</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="13">
         <v>11754</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -18240,15 +18488,15 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="45" t="s">
+      <c r="E295" s="44" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296">
+      <c r="A296" s="17">
         <v>295</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="13">
         <v>11755</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -18257,66 +18505,66 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="45" t="s">
+      <c r="E296" s="44" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16.5">
-      <c r="A297">
+      <c r="A297" s="17">
         <v>296</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="13">
         <v>11761</v>
       </c>
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="46" t="s">
+      <c r="D297" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="45" t="s">
+      <c r="E297" s="44" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16.5">
-      <c r="A298">
+      <c r="A298" s="17">
         <v>297</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="13">
         <v>11762</v>
       </c>
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="46" t="s">
+      <c r="D298" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="45" t="s">
+      <c r="E298" s="44" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16.5">
-      <c r="A299">
+      <c r="A299" s="17">
         <v>298</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="13">
         <v>11763</v>
       </c>
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="46" t="s">
+      <c r="D299" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="45" t="s">
+      <c r="E299" s="44" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300">
+      <c r="A300" s="17">
         <v>299</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="13">
         <v>11773</v>
       </c>
       <c r="C300" s="3" t="s">
@@ -18325,15 +18573,15 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="45" t="s">
+      <c r="E300" s="44" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301">
+      <c r="A301" s="17">
         <v>300</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="13">
         <v>11774</v>
       </c>
       <c r="C301" s="3" t="s">
@@ -18342,15 +18590,15 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="45" t="s">
+      <c r="E301" s="44" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302">
+      <c r="A302" s="17">
         <v>301</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="13">
         <v>11775</v>
       </c>
       <c r="C302" s="3" t="s">
@@ -18359,15 +18607,15 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="45" t="s">
+      <c r="E302" s="44" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303">
+      <c r="A303" s="17">
         <v>302</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="13">
         <v>11776</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -18376,15 +18624,15 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="45" t="s">
+      <c r="E303" s="44" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304">
+      <c r="A304" s="17">
         <v>303</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="13">
         <v>11777</v>
       </c>
       <c r="C304" s="3" t="s">
@@ -18393,15 +18641,15 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="45" t="s">
+      <c r="E304" s="44" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305">
+      <c r="A305" s="17">
         <v>304</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="13">
         <v>11778</v>
       </c>
       <c r="C305" s="3" t="s">
@@ -18409,10 +18657,10 @@
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306">
+      <c r="A306" s="17">
         <v>305</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="13">
         <v>11779</v>
       </c>
       <c r="C306" s="3" t="s">
@@ -18421,15 +18669,15 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="45" t="s">
+      <c r="E306" s="44" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307">
+      <c r="A307" s="17">
         <v>306</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="13">
         <v>11780</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -18438,15 +18686,15 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="45" t="s">
+      <c r="E307" s="44" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308">
+      <c r="A308" s="17">
         <v>307</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="13">
         <v>11781</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -18455,15 +18703,15 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="45" t="s">
+      <c r="E308" s="44" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309">
+      <c r="A309" s="17">
         <v>308</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="13">
         <v>11782</v>
       </c>
       <c r="C309" s="3" t="s">
@@ -18472,15 +18720,15 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="45" t="s">
+      <c r="E309" s="44" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310">
+      <c r="A310" s="17">
         <v>309</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="13">
         <v>11783</v>
       </c>
       <c r="C310" s="3" t="s">
@@ -18489,15 +18737,15 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="45" t="s">
+      <c r="E310" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311">
+      <c r="A311" s="17">
         <v>310</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="13">
         <v>11784</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -18506,15 +18754,15 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="45" t="s">
+      <c r="E311" s="44" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312">
+      <c r="A312" s="17">
         <v>311</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="13">
         <v>11785</v>
       </c>
       <c r="C312" s="3" t="s">
@@ -18523,15 +18771,15 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="45" t="s">
+      <c r="E312" s="44" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313">
+      <c r="A313" s="17">
         <v>312</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="13">
         <v>11786</v>
       </c>
       <c r="C313" s="3" t="s">
@@ -18540,15 +18788,15 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="45" t="s">
+      <c r="E313" s="44" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314">
+      <c r="A314" s="17">
         <v>313</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="13">
         <v>11787</v>
       </c>
       <c r="C314" s="3" t="s">
@@ -18557,15 +18805,15 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="45" t="s">
+      <c r="E314" s="44" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315">
+      <c r="A315" s="17">
         <v>314</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="13">
         <v>11788</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -18574,15 +18822,15 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="45" t="s">
+      <c r="E315" s="44" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316">
+      <c r="A316" s="17">
         <v>315</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="13">
         <v>11789</v>
       </c>
       <c r="C316" s="3" t="s">
@@ -18591,15 +18839,15 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="45" t="s">
+      <c r="E316" s="44" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317">
+      <c r="A317" s="17">
         <v>316</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="13">
         <v>11790</v>
       </c>
       <c r="C317" s="3" t="s">
@@ -18608,15 +18856,15 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="45" t="s">
+      <c r="E317" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318">
+      <c r="A318" s="17">
         <v>317</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="13">
         <v>11791</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -18625,15 +18873,15 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="45" t="s">
+      <c r="E318" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319">
+      <c r="A319" s="17">
         <v>318</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="13">
         <v>11792</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -18642,15 +18890,15 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="45" t="s">
+      <c r="E319" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320">
+      <c r="A320" s="17">
         <v>319</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="13">
         <v>11793</v>
       </c>
       <c r="C320" s="3" t="s">
@@ -18659,15 +18907,15 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="45" t="s">
+      <c r="E320" s="44" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321">
+      <c r="A321" s="17">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="13">
         <v>11794</v>
       </c>
       <c r="C321" s="3" t="s">
@@ -18676,15 +18924,15 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="45" t="s">
+      <c r="E321" s="44" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322">
+      <c r="A322" s="17">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="13">
         <v>11795</v>
       </c>
       <c r="C322" s="3" t="s">
@@ -18693,15 +18941,15 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="45" t="s">
+      <c r="E322" s="44" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323">
+      <c r="A323" s="17">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="13">
         <v>11796</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -18710,15 +18958,15 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="45" t="s">
+      <c r="E323" s="44" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324">
+      <c r="A324" s="17">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="13">
         <v>11797</v>
       </c>
       <c r="C324" s="3" t="s">
@@ -18727,15 +18975,15 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="45" t="s">
+      <c r="E324" s="44" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325">
+      <c r="A325" s="17">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="13">
         <v>11798</v>
       </c>
       <c r="C325" s="3" t="s">
@@ -18744,15 +18992,15 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="45" t="s">
+      <c r="E325" s="44" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326">
+      <c r="A326" s="17">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="13">
         <v>11799</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -18761,15 +19009,15 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="45" t="s">
+      <c r="E326" s="44" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327">
+      <c r="A327" s="17">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="13">
         <v>11800</v>
       </c>
       <c r="C327" s="3" t="s">
@@ -18778,15 +19026,15 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="45" t="s">
+      <c r="E327" s="44" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328">
+      <c r="A328" s="17">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="13">
         <v>11801</v>
       </c>
       <c r="C328" s="3" t="s">
@@ -18795,15 +19043,15 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="45" t="s">
+      <c r="E328" s="44" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329">
+      <c r="A329" s="17">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="13">
         <v>11802</v>
       </c>
       <c r="C329" s="3" t="s">
@@ -18812,15 +19060,15 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="45" t="s">
+      <c r="E329" s="44" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330">
+      <c r="A330" s="17">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="13">
         <v>11803</v>
       </c>
       <c r="C330" s="3" t="s">
@@ -18829,15 +19077,15 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="45" t="s">
+      <c r="E330" s="44" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331">
+      <c r="A331" s="17">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="13">
         <v>11804</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -18846,15 +19094,15 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="45" t="s">
+      <c r="E331" s="44" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332">
+      <c r="A332" s="17">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="13">
         <v>11805</v>
       </c>
       <c r="C332" s="3" t="s">
@@ -18863,15 +19111,15 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="45" t="s">
+      <c r="E332" s="44" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333">
+      <c r="A333" s="17">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="13">
         <v>11806</v>
       </c>
       <c r="C333" s="3" t="s">
@@ -18880,15 +19128,15 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="45" t="s">
+      <c r="E333" s="44" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334">
+      <c r="A334" s="17">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="13">
         <v>11807</v>
       </c>
       <c r="C334" s="3" t="s">
@@ -18897,15 +19145,15 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="45" t="s">
+      <c r="E334" s="44" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335">
+      <c r="A335" s="17">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="13">
         <v>11808</v>
       </c>
       <c r="C335" s="3" t="s">
@@ -18914,15 +19162,15 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="45" t="s">
+      <c r="E335" s="44" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336">
+      <c r="A336" s="17">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="13">
         <v>11809</v>
       </c>
       <c r="C336" s="3" t="s">
@@ -18931,15 +19179,15 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="45" t="s">
+      <c r="E336" s="44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337">
+      <c r="A337" s="17">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="13">
         <v>11810</v>
       </c>
       <c r="C337" s="3" t="s">
@@ -18948,15 +19196,15 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="45" t="s">
+      <c r="E337" s="44" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338">
+      <c r="A338" s="17">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="13">
         <v>11811</v>
       </c>
       <c r="C338" s="3" t="s">
@@ -18965,15 +19213,15 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="45" t="s">
+      <c r="E338" s="44" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339">
+      <c r="A339" s="17">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="13">
         <v>11812</v>
       </c>
       <c r="C339" s="3" t="s">
@@ -18982,15 +19230,15 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="45" t="s">
+      <c r="E339" s="44" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340">
+      <c r="A340" s="17">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="13">
         <v>11813</v>
       </c>
       <c r="C340" s="3" t="s">
@@ -18999,15 +19247,15 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="45" t="s">
+      <c r="E340" s="44" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341">
+      <c r="A341" s="17">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="13">
         <v>11814</v>
       </c>
       <c r="C341" s="3" t="s">
@@ -19016,7 +19264,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="45" t="s">
+      <c r="E341" s="44" t="s">
         <v>574</v>
       </c>
     </row>
@@ -19169,1208 +19417,1306 @@
       <c r="D350" s="13"/>
       <c r="E350" s="33"/>
     </row>
-    <row r="351" spans="1:5" s="53" customFormat="1">
-      <c r="A351" s="53">
+    <row r="351" spans="1:5" s="52" customFormat="1">
+      <c r="A351" s="17">
         <v>350</v>
       </c>
-      <c r="B351" s="54">
+      <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="54" t="s">
+      <c r="C351" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="55" t="s">
+      <c r="D351" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="57" t="s">
+      <c r="E351" s="56" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="53" customFormat="1">
-      <c r="A352" s="53">
+    <row r="352" spans="1:5" s="52" customFormat="1">
+      <c r="A352" s="17">
         <v>351</v>
       </c>
-      <c r="B352" s="54">
+      <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="55" t="s">
+      <c r="C352" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="55" t="s">
+      <c r="D352" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="57" t="s">
+      <c r="E352" s="56" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="53" customFormat="1">
-      <c r="A353" s="53">
+    <row r="353" spans="1:5" s="52" customFormat="1">
+      <c r="A353" s="17">
         <v>352</v>
       </c>
-      <c r="B353" s="54">
+      <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="55" t="s">
+      <c r="C353" s="54" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="55" t="s">
+      <c r="D353" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="57" t="s">
+      <c r="E353" s="56" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="53" customFormat="1">
-      <c r="A354" s="53">
+    <row r="354" spans="1:5" s="52" customFormat="1">
+      <c r="A354" s="17">
         <v>353</v>
       </c>
-      <c r="B354" s="54">
+      <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="55" t="s">
+      <c r="C354" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="55" t="s">
+      <c r="D354" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="57" t="s">
+      <c r="E354" s="56" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="53" customFormat="1">
-      <c r="A355" s="53">
+    <row r="355" spans="1:5" s="52" customFormat="1">
+      <c r="A355" s="17">
         <v>354</v>
       </c>
-      <c r="B355" s="54">
+      <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="55" t="s">
+      <c r="C355" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="54" t="s">
+      <c r="D355" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="57" t="s">
+      <c r="E355" s="56" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="53" customFormat="1">
-      <c r="A356" s="53">
+    <row r="356" spans="1:5" s="52" customFormat="1">
+      <c r="A356" s="17">
         <v>355</v>
       </c>
-      <c r="B356" s="54">
+      <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="55" t="s">
+      <c r="C356" s="54" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="54" t="s">
+      <c r="D356" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="57" t="s">
+      <c r="E356" s="56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="53" customFormat="1">
-      <c r="A357" s="53">
+    <row r="357" spans="1:5" s="52" customFormat="1">
+      <c r="A357" s="17">
         <v>356</v>
       </c>
-      <c r="B357" s="54">
+      <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="55" t="s">
+      <c r="C357" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="55" t="s">
+      <c r="D357" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="57" t="s">
+      <c r="E357" s="56" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="53" customFormat="1">
-      <c r="A358" s="53">
+    <row r="358" spans="1:5" s="52" customFormat="1">
+      <c r="A358" s="17">
         <v>357</v>
       </c>
-      <c r="B358" s="54">
+      <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="55" t="s">
+      <c r="C358" s="54" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="55" t="s">
+      <c r="D358" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="57" t="s">
+      <c r="E358" s="56" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="53" customFormat="1">
-      <c r="A359" s="53">
+    <row r="359" spans="1:5" s="52" customFormat="1">
+      <c r="A359" s="17">
         <v>358</v>
       </c>
-      <c r="B359" s="54">
+      <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="55" t="s">
+      <c r="C359" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="55" t="s">
+      <c r="D359" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="57" t="s">
+      <c r="E359" s="56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="47" customFormat="1">
-      <c r="A360" s="47">
+    <row r="360" spans="1:5" s="46" customFormat="1">
+      <c r="A360" s="17">
         <v>359</v>
       </c>
-      <c r="B360" s="48">
+      <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="56" t="s">
+      <c r="C360" s="55" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="56" t="s">
+      <c r="D360" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="58" t="s">
+      <c r="E360" s="57" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="47" customFormat="1">
-      <c r="A361" s="47">
+    <row r="361" spans="1:5" s="46" customFormat="1">
+      <c r="A361" s="17">
         <v>360</v>
       </c>
-      <c r="B361" s="48">
+      <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="56" t="s">
+      <c r="C361" s="55" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="56" t="s">
+      <c r="D361" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="58" t="s">
+      <c r="E361" s="57" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="47" customFormat="1">
-      <c r="A362" s="47">
+    <row r="362" spans="1:5" s="46" customFormat="1">
+      <c r="A362" s="17">
         <v>361</v>
       </c>
-      <c r="B362" s="48">
+      <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="56" t="s">
+      <c r="C362" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="56" t="s">
+      <c r="D362" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="58" t="s">
+      <c r="E362" s="57" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="47" customFormat="1">
-      <c r="A363" s="47">
+    <row r="363" spans="1:5" s="46" customFormat="1">
+      <c r="A363" s="17">
         <v>362</v>
       </c>
-      <c r="B363" s="48">
+      <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="56" t="s">
+      <c r="C363" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="56" t="s">
+      <c r="D363" s="55" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="58" t="s">
+      <c r="E363" s="57" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="47" customFormat="1">
-      <c r="A364" s="47">
+    <row r="364" spans="1:5" s="46" customFormat="1">
+      <c r="A364" s="17">
         <v>363</v>
       </c>
-      <c r="B364" s="48">
+      <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="56" t="s">
+      <c r="C364" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="48" t="s">
+      <c r="D364" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="58" t="s">
+      <c r="E364" s="57" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="47" customFormat="1">
-      <c r="A365" s="47">
+    <row r="365" spans="1:5" s="46" customFormat="1">
+      <c r="A365" s="17">
         <v>364</v>
       </c>
-      <c r="B365" s="48">
+      <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="56" t="s">
+      <c r="C365" s="55" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="48" t="s">
+      <c r="D365" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="58" t="s">
+      <c r="E365" s="57" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="47" customFormat="1">
-      <c r="A366" s="47">
+    <row r="366" spans="1:5" s="46" customFormat="1">
+      <c r="A366" s="17">
         <v>365</v>
       </c>
-      <c r="B366" s="48">
+      <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="56" t="s">
+      <c r="C366" s="55" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="56" t="s">
+      <c r="D366" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="58" t="s">
+      <c r="E366" s="57" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="47" customFormat="1">
-      <c r="A367" s="47">
+    <row r="367" spans="1:5" s="46" customFormat="1">
+      <c r="A367" s="17">
         <v>366</v>
       </c>
-      <c r="B367" s="48">
+      <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="56" t="s">
+      <c r="C367" s="55" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="56" t="s">
+      <c r="D367" s="55" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="58" t="s">
+      <c r="E367" s="57" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="47" customFormat="1">
-      <c r="A368" s="47">
+    <row r="368" spans="1:5" s="46" customFormat="1">
+      <c r="A368" s="17">
         <v>367</v>
       </c>
-      <c r="B368" s="48">
+      <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="56" t="s">
+      <c r="C368" s="55" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="56" t="s">
+      <c r="D368" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="58" t="s">
+      <c r="E368" s="57" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="53" customFormat="1">
-      <c r="A369" s="53">
+    <row r="369" spans="1:5" s="52" customFormat="1">
+      <c r="A369" s="17">
         <v>368</v>
       </c>
-      <c r="B369" s="54">
+      <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="55" t="s">
+      <c r="C369" s="54" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="55" t="s">
+      <c r="D369" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="57" t="s">
+      <c r="E369" s="56" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="53" customFormat="1">
-      <c r="A370" s="53">
+    <row r="370" spans="1:5" s="52" customFormat="1">
+      <c r="A370" s="17">
         <v>369</v>
       </c>
-      <c r="B370" s="54">
+      <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="55" t="s">
+      <c r="C370" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="55" t="s">
+      <c r="D370" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="57" t="s">
+      <c r="E370" s="56" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="53" customFormat="1">
-      <c r="A371" s="53">
+    <row r="371" spans="1:5" s="52" customFormat="1">
+      <c r="A371" s="17">
         <v>370</v>
       </c>
-      <c r="B371" s="54">
+      <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="55" t="s">
+      <c r="C371" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="55" t="s">
+      <c r="D371" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="57" t="s">
+      <c r="E371" s="56" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="53" customFormat="1">
-      <c r="A372" s="53">
+    <row r="372" spans="1:5" s="52" customFormat="1">
+      <c r="A372" s="17">
         <v>371</v>
       </c>
-      <c r="B372" s="54">
+      <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="55" t="s">
+      <c r="C372" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="55" t="s">
+      <c r="D372" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="57" t="s">
+      <c r="E372" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="53" customFormat="1">
-      <c r="A373" s="53">
+    <row r="373" spans="1:5" s="52" customFormat="1">
+      <c r="A373" s="17">
         <v>372</v>
       </c>
-      <c r="B373" s="54">
+      <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="55" t="s">
+      <c r="C373" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="54" t="s">
+      <c r="D373" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="57" t="s">
+      <c r="E373" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="53" customFormat="1">
-      <c r="A374" s="53">
+    <row r="374" spans="1:5" s="52" customFormat="1">
+      <c r="A374" s="17">
         <v>373</v>
       </c>
-      <c r="B374" s="54">
+      <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="55" t="s">
+      <c r="C374" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="54" t="s">
+      <c r="D374" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="57" t="s">
+      <c r="E374" s="56" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="53" customFormat="1">
-      <c r="A375" s="53">
+    <row r="375" spans="1:5" s="52" customFormat="1">
+      <c r="A375" s="17">
         <v>374</v>
       </c>
-      <c r="B375" s="54">
+      <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="55" t="s">
+      <c r="C375" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="55" t="s">
+      <c r="D375" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="57" t="s">
+      <c r="E375" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="53" customFormat="1">
-      <c r="A376" s="53">
+    <row r="376" spans="1:5" s="52" customFormat="1">
+      <c r="A376" s="17">
         <v>375</v>
       </c>
-      <c r="B376" s="54">
+      <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="55" t="s">
+      <c r="C376" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="55" t="s">
+      <c r="D376" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="57" t="s">
+      <c r="E376" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="53" customFormat="1">
-      <c r="A377" s="53">
+    <row r="377" spans="1:5" s="52" customFormat="1">
+      <c r="A377" s="17">
         <v>376</v>
       </c>
-      <c r="B377" s="54">
+      <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="55" t="s">
+      <c r="C377" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="55" t="s">
+      <c r="D377" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="57" t="s">
+      <c r="E377" s="56" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="66" customFormat="1">
-      <c r="A378" s="66">
+    <row r="378" spans="1:5" s="65" customFormat="1">
+      <c r="A378" s="17">
         <v>377</v>
       </c>
-      <c r="B378" s="64">
+      <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="64" t="s">
+      <c r="C378" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="64" t="s">
+      <c r="D378" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="67" t="s">
+      <c r="E378" s="66" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="66" customFormat="1">
-      <c r="A379" s="66">
+    <row r="379" spans="1:5" s="65" customFormat="1">
+      <c r="A379" s="17">
         <v>378</v>
       </c>
-      <c r="B379" s="64">
+      <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="68" t="s">
+      <c r="C379" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="68" t="s">
+      <c r="D379" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="67" t="s">
+      <c r="E379" s="66" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="66" customFormat="1">
-      <c r="A380" s="66">
+    <row r="380" spans="1:5" s="65" customFormat="1">
+      <c r="A380" s="17">
         <v>379</v>
       </c>
-      <c r="B380" s="64">
+      <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="68" t="s">
+      <c r="C380" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="64" t="s">
+      <c r="D380" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="67" t="s">
+      <c r="E380" s="66" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="66" customFormat="1">
-      <c r="A381" s="66">
+    <row r="381" spans="1:5" s="65" customFormat="1">
+      <c r="A381" s="17">
         <v>380</v>
       </c>
-      <c r="B381" s="64">
+      <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="68" t="s">
+      <c r="C381" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="68" t="s">
+      <c r="D381" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="67" t="s">
+      <c r="E381" s="66" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="66" customFormat="1">
-      <c r="A382" s="66">
+    <row r="382" spans="1:5" s="65" customFormat="1">
+      <c r="A382" s="17">
         <v>381</v>
       </c>
-      <c r="B382" s="64">
+      <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="68" t="s">
+      <c r="C382" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="68" t="s">
+      <c r="D382" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="67" t="s">
+      <c r="E382" s="66" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="66" customFormat="1">
-      <c r="A383" s="66">
+    <row r="383" spans="1:5" s="65" customFormat="1">
+      <c r="A383" s="17">
         <v>382</v>
       </c>
-      <c r="B383" s="64">
+      <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="68" t="s">
+      <c r="C383" s="67" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="64"/>
-      <c r="E383" s="69"/>
+      <c r="D383" s="63"/>
+      <c r="E383" s="68"/>
     </row>
     <row r="384" spans="1:5" ht="16.5">
-      <c r="A384" s="66">
+      <c r="A384" s="17">
         <v>383</v>
       </c>
-      <c r="B384" s="64">
+      <c r="B384" s="13">
         <v>11857</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="46" t="s">
+      <c r="D384" s="45" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="45" t="s">
+      <c r="E384" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="16.5">
-      <c r="A385" s="66">
+      <c r="A385" s="17">
         <v>384</v>
       </c>
-      <c r="B385" s="64">
+      <c r="B385" s="13">
         <v>11858</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="45" t="s">
+      <c r="E385" s="44" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="77">
+      <c r="A386" s="17">
         <v>385</v>
       </c>
-      <c r="B386" s="76">
+      <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="71" t="s">
+      <c r="C386" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="76" t="s">
+      <c r="D386" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="78" t="s">
+      <c r="E386" s="77" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="77">
+      <c r="A387" s="17">
         <v>386</v>
       </c>
-      <c r="B387" s="76">
+      <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="71" t="s">
+      <c r="C387" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="76" t="s">
+      <c r="D387" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="78" t="s">
+      <c r="E387" s="77" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="77">
+      <c r="A388" s="17">
         <v>387</v>
       </c>
-      <c r="B388" s="76">
+      <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="71" t="s">
+      <c r="C388" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="76" t="s">
+      <c r="D388" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="78" t="s">
+      <c r="E388" s="77" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="77">
+      <c r="A389" s="17">
         <v>388</v>
       </c>
-      <c r="B389" s="76">
+      <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="71" t="s">
+      <c r="C389" s="70" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="76" t="s">
+      <c r="D389" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="78" t="s">
+      <c r="E389" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="77">
+      <c r="A390" s="17">
         <v>389</v>
       </c>
-      <c r="B390" s="76">
+      <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="71" t="s">
+      <c r="C390" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="76" t="s">
+      <c r="D390" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="78" t="s">
+      <c r="E390" s="77" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="77">
+      <c r="A391" s="17">
         <v>390</v>
       </c>
-      <c r="B391" s="76">
+      <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="71" t="s">
+      <c r="C391" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="76" t="s">
+      <c r="D391" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="78" t="s">
+      <c r="E391" s="77" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="77">
+      <c r="A392" s="17">
         <v>391</v>
       </c>
-      <c r="B392" s="76">
+      <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="71" t="s">
+      <c r="C392" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="76" t="s">
+      <c r="D392" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="78" t="s">
+      <c r="E392" s="77" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="77">
+      <c r="A393" s="17">
         <v>392</v>
       </c>
-      <c r="B393" s="76">
+      <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="71" t="s">
+      <c r="C393" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="76" t="s">
+      <c r="D393" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="78" t="s">
+      <c r="E393" s="77" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="77">
+      <c r="A394" s="17">
         <v>393</v>
       </c>
-      <c r="B394" s="76">
+      <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="71" t="s">
+      <c r="C394" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="76" t="s">
+      <c r="D394" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="78" t="s">
+      <c r="E394" s="77" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="77">
+      <c r="A395" s="17">
         <v>394</v>
       </c>
-      <c r="B395" s="76">
+      <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="71" t="s">
+      <c r="C395" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="76" t="s">
+      <c r="D395" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="78" t="s">
+      <c r="E395" s="77" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="77">
+      <c r="A396" s="17">
         <v>395</v>
       </c>
-      <c r="B396" s="76">
+      <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="71" t="s">
+      <c r="C396" s="70" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="76" t="s">
+      <c r="D396" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="78" t="s">
+      <c r="E396" s="77" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="77">
+      <c r="A397" s="17">
         <v>396</v>
       </c>
-      <c r="B397" s="76">
+      <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="71" t="s">
+      <c r="C397" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="76" t="s">
+      <c r="D397" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="78" t="s">
+      <c r="E397" s="77" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="77">
+      <c r="A398" s="17">
         <v>397</v>
       </c>
-      <c r="B398" s="76">
+      <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="71" t="s">
+      <c r="C398" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="76" t="s">
+      <c r="D398" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="78" t="s">
+      <c r="E398" s="77" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="77">
+      <c r="A399" s="17">
         <v>398</v>
       </c>
-      <c r="B399" s="76">
+      <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="71" t="s">
+      <c r="C399" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="76" t="s">
+      <c r="D399" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="78" t="s">
+      <c r="E399" s="77" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="77">
+      <c r="A400" s="17">
         <v>399</v>
       </c>
-      <c r="B400" s="76">
+      <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="71" t="s">
+      <c r="C400" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="76" t="s">
+      <c r="D400" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="78" t="s">
+      <c r="E400" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="77">
+      <c r="A401" s="17">
         <v>400</v>
       </c>
-      <c r="B401" s="76">
+      <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="71" t="s">
+      <c r="C401" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="76" t="s">
+      <c r="D401" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="78" t="s">
+      <c r="E401" s="77" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="77">
+      <c r="A402" s="17">
         <v>401</v>
       </c>
-      <c r="B402" s="76">
+      <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="71" t="s">
+      <c r="C402" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="76" t="s">
+      <c r="D402" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="78" t="s">
+      <c r="E402" s="77" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="77">
+      <c r="A403" s="17">
         <v>402</v>
       </c>
-      <c r="B403" s="76">
+      <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="71" t="s">
+      <c r="C403" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="76" t="s">
+      <c r="D403" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="78" t="s">
+      <c r="E403" s="77" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="77">
+      <c r="A404" s="17">
         <v>403</v>
       </c>
-      <c r="B404" s="76">
+      <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="71" t="s">
+      <c r="C404" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="76" t="s">
+      <c r="D404" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="78" t="s">
+      <c r="E404" s="77" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="77">
+      <c r="A405" s="17">
         <v>404</v>
       </c>
-      <c r="B405" s="76">
+      <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="71" t="s">
+      <c r="C405" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="76" t="s">
+      <c r="D405" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="78" t="s">
+      <c r="E405" s="77" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="77">
+      <c r="A406" s="17">
         <v>405</v>
       </c>
-      <c r="B406" s="76">
+      <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="71" t="s">
+      <c r="C406" s="70" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="76" t="s">
+      <c r="D406" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="78" t="s">
+      <c r="E406" s="77" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="77">
+      <c r="A407" s="17">
         <v>406</v>
       </c>
-      <c r="B407" s="76">
+      <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="71" t="s">
+      <c r="C407" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="76" t="s">
+      <c r="D407" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="78" t="s">
+      <c r="E407" s="77" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="77">
+      <c r="A408" s="17">
         <v>407</v>
       </c>
-      <c r="B408" s="76">
+      <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="71" t="s">
+      <c r="C408" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="76" t="s">
+      <c r="D408" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="78" t="s">
+      <c r="E408" s="77" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="77">
+      <c r="A409" s="17">
         <v>408</v>
       </c>
-      <c r="B409" s="76">
+      <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="71" t="s">
+      <c r="C409" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="76" t="s">
+      <c r="D409" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="78" t="s">
+      <c r="E409" s="77" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="77">
+      <c r="A410" s="17">
         <v>409</v>
       </c>
-      <c r="B410" s="76">
+      <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="71" t="s">
+      <c r="C410" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="76" t="s">
+      <c r="D410" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="78" t="s">
+      <c r="E410" s="77" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="77">
+      <c r="A411" s="17">
         <v>410</v>
       </c>
-      <c r="B411" s="76">
+      <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="71" t="s">
+      <c r="C411" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="76" t="s">
+      <c r="D411" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="78" t="s">
+      <c r="E411" s="77" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="77">
+      <c r="A412" s="17">
         <v>411</v>
       </c>
-      <c r="B412" s="76">
+      <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="71" t="s">
+      <c r="C412" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="76" t="s">
+      <c r="D412" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="78" t="s">
+      <c r="E412" s="77" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="77">
+      <c r="A413" s="17">
         <v>412</v>
       </c>
-      <c r="B413" s="76">
+      <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="71" t="s">
+      <c r="C413" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="76" t="s">
+      <c r="D413" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="78" t="s">
+      <c r="E413" s="77" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="77">
+      <c r="A414" s="17">
         <v>413</v>
       </c>
-      <c r="B414" s="76">
+      <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="71" t="s">
+      <c r="C414" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="76" t="s">
+      <c r="D414" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="78" t="s">
+      <c r="E414" s="77" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="77">
+      <c r="A415" s="17">
         <v>414</v>
       </c>
-      <c r="B415" s="76">
+      <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="71" t="s">
+      <c r="C415" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="76" t="s">
+      <c r="D415" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="78" t="s">
+      <c r="E415" s="77" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="77">
+      <c r="A416" s="17">
         <v>415</v>
       </c>
-      <c r="B416" s="76">
+      <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="71" t="s">
+      <c r="C416" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="76" t="s">
+      <c r="D416" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="78" t="s">
+      <c r="E416" s="77" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="77">
+      <c r="A417" s="17">
         <v>416</v>
       </c>
-      <c r="B417" s="76">
+      <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="71" t="s">
+      <c r="C417" s="70" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="76" t="s">
+      <c r="D417" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="78" t="s">
+      <c r="E417" s="77" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="77">
+      <c r="A418" s="17">
         <v>417</v>
       </c>
-      <c r="B418" s="76">
+      <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="71" t="s">
+      <c r="C418" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="76" t="s">
+      <c r="D418" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="78" t="s">
+      <c r="E418" s="77" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="77">
+      <c r="A419" s="17">
         <v>418</v>
       </c>
-      <c r="B419" s="76">
+      <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="71" t="s">
+      <c r="C419" s="70" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="76" t="s">
+      <c r="D419" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="78" t="s">
+      <c r="E419" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="77">
+      <c r="A420" s="17">
         <v>419</v>
       </c>
-      <c r="B420" s="76">
+      <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="71" t="s">
+      <c r="C420" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="76" t="s">
+      <c r="D420" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="78" t="s">
+      <c r="E420" s="77" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="77">
+      <c r="A421" s="17">
         <v>420</v>
       </c>
-      <c r="B421" s="76">
+      <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="71" t="s">
+      <c r="C421" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="76" t="s">
+      <c r="D421" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="78" t="s">
+      <c r="E421" s="77" t="s">
         <v>574</v>
       </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="17">
+        <v>421</v>
+      </c>
+      <c r="B422" s="13">
+        <v>11895</v>
+      </c>
+      <c r="C422" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="D422" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E422" s="41" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="17">
+        <v>422</v>
+      </c>
+      <c r="B423" s="13">
+        <v>11896</v>
+      </c>
+      <c r="C423" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D423" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E423" s="41" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="17">
+        <v>423</v>
+      </c>
+      <c r="B424" s="13">
+        <v>11897</v>
+      </c>
+      <c r="C424" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E424" s="41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="17">
+        <v>424</v>
+      </c>
+      <c r="B425" s="13">
+        <v>11898</v>
+      </c>
+      <c r="C425" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="D425" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E425" s="41" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="17">
+        <v>425</v>
+      </c>
+      <c r="B426" s="13">
+        <v>11899</v>
+      </c>
+      <c r="C426" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="D426" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E426" s="41" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="17">
+        <v>426</v>
+      </c>
+      <c r="B427" s="13">
+        <v>11900</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="D427" s="39"/>
+      <c r="E427" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="725">
   <si>
     <t>id|</t>
   </si>
@@ -4108,11 +4108,549 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>30,30</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>15,15</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包稀有宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包史诗宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包传说宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_xybox</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_ssbox</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_csbox</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,60000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,100000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,60</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,60</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,80000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,120000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,220000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,90</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,110</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,190</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,80</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30,210</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30000,170000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30,170</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,300</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,170</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,300</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4335,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4563,6 +5101,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4841,11 +5385,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="A70:E70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6941,6 +7485,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="71" spans="1:12" s="84" customFormat="1">
+      <c r="A71" s="84">
+        <v>70</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>691</v>
+      </c>
+      <c r="C71" s="84">
+        <v>1610409600</v>
+      </c>
+      <c r="D71" s="84">
+        <v>1610985599</v>
+      </c>
+      <c r="E71" s="85">
+        <v>65</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="84">
+        <v>70</v>
+      </c>
+      <c r="L71" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="84" customFormat="1">
+      <c r="A72" s="84">
+        <v>71</v>
+      </c>
+      <c r="B72" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="C72" s="84">
+        <v>1610409600</v>
+      </c>
+      <c r="D72" s="84">
+        <v>1610985599</v>
+      </c>
+      <c r="E72" s="85">
+        <v>66</v>
+      </c>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="84">
+        <v>71</v>
+      </c>
+      <c r="L72" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="84" customFormat="1">
+      <c r="A73" s="84">
+        <v>72</v>
+      </c>
+      <c r="B73" s="84" t="s">
+        <v>693</v>
+      </c>
+      <c r="C73" s="84">
+        <v>1610409600</v>
+      </c>
+      <c r="D73" s="84">
+        <v>1610985599</v>
+      </c>
+      <c r="E73" s="85">
+        <v>67</v>
+      </c>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="84">
+        <v>72</v>
+      </c>
+      <c r="L73" s="84">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6952,11 +7580,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7872,6 +8500,48 @@
         <v>679</v>
       </c>
       <c r="D65" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17">
+        <v>65</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="D66" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="17">
+        <v>66</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>695</v>
+      </c>
+      <c r="D67" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17">
+        <v>67</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>696</v>
+      </c>
+      <c r="D68" s="84">
         <v>1</v>
       </c>
     </row>
@@ -7927,13 +8597,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C422" sqref="C422"/>
+      <selection pane="bottomRight" activeCell="E444" sqref="E444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13926,6 +14596,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="13">
+        <v>427</v>
+      </c>
+      <c r="B428" s="53">
+        <v>70</v>
+      </c>
+      <c r="C428" s="53">
+        <v>11901</v>
+      </c>
+      <c r="D428" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="13">
+        <v>428</v>
+      </c>
+      <c r="B429" s="53">
+        <v>70</v>
+      </c>
+      <c r="C429" s="53">
+        <v>11902</v>
+      </c>
+      <c r="D429" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="13">
+        <v>429</v>
+      </c>
+      <c r="B430" s="53">
+        <v>70</v>
+      </c>
+      <c r="C430" s="53">
+        <v>11903</v>
+      </c>
+      <c r="D430" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="13">
+        <v>430</v>
+      </c>
+      <c r="B431" s="53">
+        <v>70</v>
+      </c>
+      <c r="C431" s="53">
+        <v>11904</v>
+      </c>
+      <c r="D431" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="13">
+        <v>431</v>
+      </c>
+      <c r="B432" s="53">
+        <v>70</v>
+      </c>
+      <c r="C432" s="53">
+        <v>11905</v>
+      </c>
+      <c r="D432" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="13">
+        <v>432</v>
+      </c>
+      <c r="B433" s="53">
+        <v>70</v>
+      </c>
+      <c r="C433" s="53">
+        <v>11906</v>
+      </c>
+      <c r="D433" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="13">
+        <v>433</v>
+      </c>
+      <c r="B434" s="53">
+        <v>70</v>
+      </c>
+      <c r="C434" s="53">
+        <v>11907</v>
+      </c>
+      <c r="D434" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="13">
+        <v>434</v>
+      </c>
+      <c r="B435" s="53">
+        <v>70</v>
+      </c>
+      <c r="C435" s="53">
+        <v>11908</v>
+      </c>
+      <c r="D435" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="13">
+        <v>435</v>
+      </c>
+      <c r="B436" s="53">
+        <v>70</v>
+      </c>
+      <c r="C436" s="53">
+        <v>11909</v>
+      </c>
+      <c r="D436" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="13">
+        <v>436</v>
+      </c>
+      <c r="B437" s="53">
+        <v>71</v>
+      </c>
+      <c r="C437" s="53">
+        <v>11911</v>
+      </c>
+      <c r="D437" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="13">
+        <v>437</v>
+      </c>
+      <c r="B438" s="53">
+        <v>71</v>
+      </c>
+      <c r="C438" s="53">
+        <v>11912</v>
+      </c>
+      <c r="D438" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="13">
+        <v>438</v>
+      </c>
+      <c r="B439" s="53">
+        <v>71</v>
+      </c>
+      <c r="C439" s="53">
+        <v>11913</v>
+      </c>
+      <c r="D439" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="13">
+        <v>439</v>
+      </c>
+      <c r="B440" s="53">
+        <v>71</v>
+      </c>
+      <c r="C440" s="53">
+        <v>11914</v>
+      </c>
+      <c r="D440" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="13">
+        <v>440</v>
+      </c>
+      <c r="B441" s="53">
+        <v>71</v>
+      </c>
+      <c r="C441" s="53">
+        <v>11915</v>
+      </c>
+      <c r="D441" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="13">
+        <v>441</v>
+      </c>
+      <c r="B442" s="53">
+        <v>71</v>
+      </c>
+      <c r="C442" s="53">
+        <v>11916</v>
+      </c>
+      <c r="D442" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="13">
+        <v>442</v>
+      </c>
+      <c r="B443" s="53">
+        <v>71</v>
+      </c>
+      <c r="C443" s="53">
+        <v>11917</v>
+      </c>
+      <c r="D443" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="13">
+        <v>443</v>
+      </c>
+      <c r="B444" s="53">
+        <v>71</v>
+      </c>
+      <c r="C444" s="53">
+        <v>11918</v>
+      </c>
+      <c r="D444" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="13">
+        <v>444</v>
+      </c>
+      <c r="B445" s="53">
+        <v>71</v>
+      </c>
+      <c r="C445" s="53">
+        <v>11919</v>
+      </c>
+      <c r="D445" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="13">
+        <v>445</v>
+      </c>
+      <c r="B446" s="53">
+        <v>72</v>
+      </c>
+      <c r="C446" s="53">
+        <v>11921</v>
+      </c>
+      <c r="D446" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="13">
+        <v>446</v>
+      </c>
+      <c r="B447" s="53">
+        <v>72</v>
+      </c>
+      <c r="C447" s="53">
+        <v>11922</v>
+      </c>
+      <c r="D447" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="13">
+        <v>447</v>
+      </c>
+      <c r="B448" s="53">
+        <v>72</v>
+      </c>
+      <c r="C448" s="53">
+        <v>11923</v>
+      </c>
+      <c r="D448" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="13">
+        <v>448</v>
+      </c>
+      <c r="B449" s="53">
+        <v>72</v>
+      </c>
+      <c r="C449" s="53">
+        <v>11924</v>
+      </c>
+      <c r="D449" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="13">
+        <v>449</v>
+      </c>
+      <c r="B450" s="53">
+        <v>72</v>
+      </c>
+      <c r="C450" s="53">
+        <v>11925</v>
+      </c>
+      <c r="D450" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="13">
+        <v>450</v>
+      </c>
+      <c r="B451" s="53">
+        <v>72</v>
+      </c>
+      <c r="C451" s="53">
+        <v>11926</v>
+      </c>
+      <c r="D451" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="13">
+        <v>451</v>
+      </c>
+      <c r="B452" s="53">
+        <v>72</v>
+      </c>
+      <c r="C452" s="53">
+        <v>11927</v>
+      </c>
+      <c r="D452" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="13">
+        <v>452</v>
+      </c>
+      <c r="B453" s="53">
+        <v>72</v>
+      </c>
+      <c r="C453" s="53">
+        <v>11928</v>
+      </c>
+      <c r="D453" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="13">
+        <v>453</v>
+      </c>
+      <c r="B454" s="53">
+        <v>72</v>
+      </c>
+      <c r="C454" s="53">
+        <v>11929</v>
+      </c>
+      <c r="D454" s="53">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13935,11 +14983,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20634,7 +21682,7 @@
         <v>42</v>
       </c>
       <c r="E422" s="41" t="s">
-        <v>579</v>
+        <v>686</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -20668,7 +21716,7 @@
         <v>42</v>
       </c>
       <c r="E424" s="41" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -20685,7 +21733,7 @@
         <v>601</v>
       </c>
       <c r="E425" s="41" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -20702,7 +21750,7 @@
         <v>42</v>
       </c>
       <c r="E426" s="41" t="s">
-        <v>578</v>
+        <v>690</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -20717,6 +21765,411 @@
       </c>
       <c r="D427" s="39"/>
       <c r="E427" s="82"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="17">
+        <v>427</v>
+      </c>
+      <c r="B428" s="53">
+        <v>11901</v>
+      </c>
+      <c r="C428" s="53"/>
+      <c r="D428" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E428" s="56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="17">
+        <v>428</v>
+      </c>
+      <c r="B429" s="53">
+        <v>11902</v>
+      </c>
+      <c r="C429" s="53"/>
+      <c r="D429" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E429" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="17">
+        <v>429</v>
+      </c>
+      <c r="B430" s="53">
+        <v>11903</v>
+      </c>
+      <c r="C430" s="53"/>
+      <c r="D430" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E430" s="56" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="17">
+        <v>430</v>
+      </c>
+      <c r="B431" s="53">
+        <v>11904</v>
+      </c>
+      <c r="C431" s="53"/>
+      <c r="D431" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E431" s="56" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="17">
+        <v>431</v>
+      </c>
+      <c r="B432" s="53">
+        <v>11905</v>
+      </c>
+      <c r="C432" s="53"/>
+      <c r="D432" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E432" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="17">
+        <v>432</v>
+      </c>
+      <c r="B433" s="53">
+        <v>11906</v>
+      </c>
+      <c r="C433" s="53"/>
+      <c r="D433" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E433" s="56" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="17">
+        <v>433</v>
+      </c>
+      <c r="B434" s="53">
+        <v>11907</v>
+      </c>
+      <c r="C434" s="53"/>
+      <c r="D434" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E434" s="56" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="17">
+        <v>434</v>
+      </c>
+      <c r="B435" s="53">
+        <v>11908</v>
+      </c>
+      <c r="C435" s="53"/>
+      <c r="D435" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E435" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="17">
+        <v>435</v>
+      </c>
+      <c r="B436" s="53">
+        <v>11909</v>
+      </c>
+      <c r="C436" s="53"/>
+      <c r="D436" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E436" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="17">
+        <v>436</v>
+      </c>
+      <c r="B437" s="53">
+        <v>11911</v>
+      </c>
+      <c r="C437" s="53"/>
+      <c r="D437" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E437" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="17">
+        <v>437</v>
+      </c>
+      <c r="B438" s="53">
+        <v>11912</v>
+      </c>
+      <c r="C438" s="53"/>
+      <c r="D438" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E438" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="17">
+        <v>438</v>
+      </c>
+      <c r="B439" s="53">
+        <v>11913</v>
+      </c>
+      <c r="C439" s="53"/>
+      <c r="D439" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E439" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="17">
+        <v>439</v>
+      </c>
+      <c r="B440" s="53">
+        <v>11914</v>
+      </c>
+      <c r="C440" s="53"/>
+      <c r="D440" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E440" s="56" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="17">
+        <v>440</v>
+      </c>
+      <c r="B441" s="53">
+        <v>11915</v>
+      </c>
+      <c r="C441" s="53"/>
+      <c r="D441" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E441" s="56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="17">
+        <v>441</v>
+      </c>
+      <c r="B442" s="53">
+        <v>11916</v>
+      </c>
+      <c r="C442" s="53"/>
+      <c r="D442" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E442" s="56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="17">
+        <v>442</v>
+      </c>
+      <c r="B443" s="53">
+        <v>11917</v>
+      </c>
+      <c r="C443" s="53"/>
+      <c r="D443" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E443" s="56" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="17">
+        <v>443</v>
+      </c>
+      <c r="B444" s="53">
+        <v>11918</v>
+      </c>
+      <c r="C444" s="53"/>
+      <c r="D444" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E444" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="17">
+        <v>444</v>
+      </c>
+      <c r="B445" s="53">
+        <v>11919</v>
+      </c>
+      <c r="C445" s="53"/>
+      <c r="D445" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E445" s="56" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="17">
+        <v>445</v>
+      </c>
+      <c r="B446" s="53">
+        <v>11921</v>
+      </c>
+      <c r="C446" s="53"/>
+      <c r="D446" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E446" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="17">
+        <v>446</v>
+      </c>
+      <c r="B447" s="53">
+        <v>11922</v>
+      </c>
+      <c r="C447" s="53"/>
+      <c r="D447" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E447" s="56" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="17">
+        <v>447</v>
+      </c>
+      <c r="B448" s="53">
+        <v>11923</v>
+      </c>
+      <c r="C448" s="53"/>
+      <c r="D448" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E448" s="56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="17">
+        <v>448</v>
+      </c>
+      <c r="B449" s="53">
+        <v>11924</v>
+      </c>
+      <c r="C449" s="53"/>
+      <c r="D449" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E449" s="56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="17">
+        <v>449</v>
+      </c>
+      <c r="B450" s="53">
+        <v>11925</v>
+      </c>
+      <c r="C450" s="53"/>
+      <c r="D450" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E450" s="56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="17">
+        <v>450</v>
+      </c>
+      <c r="B451" s="53">
+        <v>11926</v>
+      </c>
+      <c r="C451" s="53"/>
+      <c r="D451" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E451" s="56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="17">
+        <v>451</v>
+      </c>
+      <c r="B452" s="53">
+        <v>11927</v>
+      </c>
+      <c r="C452" s="53"/>
+      <c r="D452" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E452" s="56" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="17">
+        <v>452</v>
+      </c>
+      <c r="B453" s="53">
+        <v>11928</v>
+      </c>
+      <c r="C453" s="53"/>
+      <c r="D453" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E453" s="56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="17">
+        <v>453</v>
+      </c>
+      <c r="B454" s="53">
+        <v>11929</v>
+      </c>
+      <c r="C454" s="53"/>
+      <c r="D454" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E454" s="56" t="s">
+        <v>724</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -20732,7 +22185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4873,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4951,9 +4951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4978,7 +4975,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5007,9 +5003,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,13 +5029,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5068,33 +5054,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5105,8 +5069,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5388,8 +5352,8 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5410,7 +5374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6626,7 +6590,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6650,62 +6614,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="26" customFormat="1">
+    <row r="42" spans="1:12" s="18" customFormat="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="18">
         <v>1599523200</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="18">
         <v>1600099199</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <v>36</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18">
         <v>41</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" s="18" customFormat="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="18">
         <v>1600732800</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="18">
         <v>1601308799</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="28">
         <v>37</v>
       </c>
-      <c r="K43" s="6">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18">
         <v>42</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" s="18" customFormat="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>490</v>
       </c>
       <c r="C44" s="13">
@@ -6714,21 +6683,26 @@
       <c r="D44" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="28">
         <v>38</v>
       </c>
-      <c r="K44" s="6">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18">
         <v>43</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" s="18" customFormat="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="15" t="s">
         <v>491</v>
       </c>
       <c r="C45" s="13">
@@ -6737,21 +6711,26 @@
       <c r="D45" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="28">
         <v>39</v>
       </c>
-      <c r="K45" s="6">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18">
         <v>44</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" s="18" customFormat="1">
       <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="15" t="s">
         <v>492</v>
       </c>
       <c r="C46" s="13">
@@ -6760,13 +6739,18 @@
       <c r="D46" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="28">
         <v>40</v>
       </c>
-      <c r="K46" s="6">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18">
         <v>45</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6774,7 +6758,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6806,7 +6790,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6838,7 +6822,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6870,7 +6854,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6902,7 +6886,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6934,7 +6918,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6966,7 +6950,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -7106,119 +7090,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="48" customFormat="1">
+    <row r="58" spans="1:12" s="18" customFormat="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="28">
         <v>52</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="48">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="18">
         <v>57</v>
       </c>
-      <c r="L58" s="48">
+      <c r="L58" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="48" customFormat="1">
+    <row r="59" spans="1:12" s="18" customFormat="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="28">
         <v>53</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="48">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18">
         <v>58</v>
       </c>
-      <c r="L59" s="48">
+      <c r="L59" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="48" customFormat="1">
+    <row r="60" spans="1:12" s="18" customFormat="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="28">
         <v>54</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="48">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18">
         <v>59</v>
       </c>
-      <c r="L60" s="48">
+      <c r="L60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="60" customFormat="1">
+    <row r="61" spans="1:12" s="18" customFormat="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="13">
         <v>1607385600</v>
       </c>
-      <c r="D61" s="63">
+      <c r="D61" s="13">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="28">
         <v>55</v>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="60">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="18">
         <v>60</v>
       </c>
-      <c r="L61" s="60">
+      <c r="L61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" s="18" customFormat="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -7231,18 +7215,22 @@
       <c r="D62" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="28">
         <v>56</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="K62" s="6">
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="18">
         <v>61</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" s="18" customFormat="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -7255,13 +7243,18 @@
       <c r="D63" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="28">
         <v>57</v>
       </c>
-      <c r="K63" s="6">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18">
         <v>62</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7269,31 +7262,31 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="73">
+      <c r="E64" s="28">
         <v>58</v>
       </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17">
         <v>1</v>
       </c>
-      <c r="J64" s="76">
+      <c r="J64" s="17">
         <v>0</v>
       </c>
-      <c r="K64" s="71">
+      <c r="K64" s="18">
         <v>63</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7301,31 +7294,31 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="73">
+      <c r="E65" s="28">
         <v>59</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17">
         <v>1</v>
       </c>
-      <c r="J65" s="76">
+      <c r="J65" s="17">
         <v>0</v>
       </c>
-      <c r="K65" s="71">
+      <c r="K65" s="18">
         <v>64</v>
       </c>
-      <c r="L65" s="71">
+      <c r="L65" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7333,31 +7326,31 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="73">
+      <c r="E66" s="28">
         <v>60</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76">
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17">
         <v>1</v>
       </c>
-      <c r="J66" s="76">
+      <c r="J66" s="17">
         <v>0</v>
       </c>
-      <c r="K66" s="71">
+      <c r="K66" s="18">
         <v>65</v>
       </c>
-      <c r="L66" s="71">
+      <c r="L66" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7365,31 +7358,31 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="28">
         <v>61</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17">
         <v>1</v>
       </c>
-      <c r="J67" s="76">
+      <c r="J67" s="17">
         <v>0</v>
       </c>
-      <c r="K67" s="71">
+      <c r="K67" s="18">
         <v>66</v>
       </c>
-      <c r="L67" s="71">
+      <c r="L67" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7397,31 +7390,31 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="73">
+      <c r="E68" s="28">
         <v>62</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17">
         <v>1</v>
       </c>
-      <c r="J68" s="76">
+      <c r="J68" s="17">
         <v>0</v>
       </c>
-      <c r="K68" s="71">
+      <c r="K68" s="18">
         <v>67</v>
       </c>
-      <c r="L68" s="71">
+      <c r="L68" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7429,31 +7422,31 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="73">
+      <c r="E69" s="28">
         <v>63</v>
       </c>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76">
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17">
         <v>1</v>
       </c>
-      <c r="J69" s="76">
+      <c r="J69" s="17">
         <v>0</v>
       </c>
-      <c r="K69" s="71">
+      <c r="K69" s="18">
         <v>68</v>
       </c>
-      <c r="L69" s="71">
+      <c r="L69" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7461,111 +7454,111 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="79">
+      <c r="C70" s="71">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="79">
+      <c r="D70" s="71">
         <v>1610380799</v>
       </c>
-      <c r="E70" s="80">
+      <c r="E70" s="28">
         <v>64</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="81">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="18">
         <v>69</v>
       </c>
-      <c r="L70" s="81">
+      <c r="L70" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="84" customFormat="1">
-      <c r="A71" s="84">
+    <row r="71" spans="1:12" s="18" customFormat="1">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="C71" s="84">
+      <c r="C71" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E71" s="85">
+      <c r="E71" s="28">
         <v>65</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="84">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18">
         <v>70</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="84" customFormat="1">
-      <c r="A72" s="84">
+    <row r="72" spans="1:12" s="18" customFormat="1">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C72" s="84">
+      <c r="C72" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D72" s="84">
+      <c r="D72" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="28">
         <v>66</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="84">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18">
         <v>71</v>
       </c>
-      <c r="L72" s="84">
+      <c r="L72" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="84" customFormat="1">
-      <c r="A73" s="84">
+    <row r="73" spans="1:12" s="18" customFormat="1">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="C73" s="84">
+      <c r="C73" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D73" s="84">
+      <c r="D73" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="28">
         <v>67</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="84">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="18">
         <v>72</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="18">
         <v>1</v>
       </c>
     </row>
@@ -8090,7 +8083,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -8104,7 +8097,7 @@
       <c r="B37" s="25">
         <v>36</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>241</v>
       </c>
       <c r="D37" s="26">
@@ -8118,7 +8111,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="41" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -8132,7 +8125,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="41" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -8146,7 +8139,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="41" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -8160,7 +8153,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="41" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -8272,7 +8265,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="48" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8286,7 +8279,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="48" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8300,7 +8293,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8321,56 +8314,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="50" customFormat="1">
-      <c r="A53" s="50">
+    <row r="53" spans="1:4" s="47" customFormat="1">
+      <c r="A53" s="47">
         <v>52</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="47">
         <v>52</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="50" customFormat="1">
-      <c r="A54" s="50">
+    <row r="54" spans="1:4" s="47" customFormat="1">
+      <c r="A54" s="47">
         <v>53</v>
       </c>
-      <c r="B54" s="50">
+      <c r="B54" s="47">
         <v>53</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="50" customFormat="1">
-      <c r="A55" s="50">
+    <row r="55" spans="1:4" s="47" customFormat="1">
+      <c r="A55" s="47">
         <v>54</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="47">
         <v>54</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="46" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="50">
+      <c r="A56" s="47">
         <v>55</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56" s="47">
         <v>55</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="58" t="s">
         <v>667</v>
       </c>
       <c r="D56" s="6">
@@ -8384,7 +8377,7 @@
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="41" t="s">
         <v>672</v>
       </c>
       <c r="D57" s="6">
@@ -8398,7 +8391,7 @@
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="41" t="s">
         <v>673</v>
       </c>
       <c r="D58" s="6">
@@ -8412,10 +8405,10 @@
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="71">
+      <c r="D59" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8426,10 +8419,10 @@
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8440,10 +8433,10 @@
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="71">
+      <c r="D61" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8454,10 +8447,10 @@
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="71">
+      <c r="D62" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8468,10 +8461,10 @@
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="71">
+      <c r="D63" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8482,10 +8475,10 @@
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8496,10 +8489,10 @@
       <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>1</v>
       </c>
     </row>
@@ -8510,10 +8503,10 @@
       <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="D66" s="84">
+      <c r="D66" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8524,10 +8517,10 @@
       <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="D67" s="84">
+      <c r="D67" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8538,10 +8531,10 @@
       <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D68" s="70">
         <v>1</v>
       </c>
     </row>
@@ -12203,380 +12196,380 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="35">
+      <c r="A257" s="34">
         <v>256</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="34">
         <v>37</v>
       </c>
-      <c r="C257" s="35">
+      <c r="C257" s="34">
         <v>11701</v>
       </c>
-      <c r="D257" s="35">
+      <c r="D257" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="35">
+      <c r="A258" s="34">
         <v>257</v>
       </c>
-      <c r="B258" s="35">
+      <c r="B258" s="34">
         <v>37</v>
       </c>
-      <c r="C258" s="35">
+      <c r="C258" s="34">
         <v>11702</v>
       </c>
-      <c r="D258" s="35">
+      <c r="D258" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="35">
+      <c r="A259" s="34">
         <v>258</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="34">
         <v>37</v>
       </c>
-      <c r="C259" s="35">
+      <c r="C259" s="34">
         <v>11703</v>
       </c>
-      <c r="D259" s="35">
+      <c r="D259" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="35">
+      <c r="A260" s="34">
         <v>259</v>
       </c>
-      <c r="B260" s="35">
+      <c r="B260" s="34">
         <v>37</v>
       </c>
-      <c r="C260" s="35">
+      <c r="C260" s="34">
         <v>11704</v>
       </c>
-      <c r="D260" s="35">
+      <c r="D260" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="35">
+      <c r="A261" s="34">
         <v>260</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="34">
         <v>37</v>
       </c>
-      <c r="C261" s="35">
+      <c r="C261" s="34">
         <v>11705</v>
       </c>
-      <c r="D261" s="35">
+      <c r="D261" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="35">
+      <c r="A262" s="34">
         <v>261</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="34">
         <v>37</v>
       </c>
-      <c r="C262" s="35">
+      <c r="C262" s="34">
         <v>11706</v>
       </c>
-      <c r="D262" s="35">
+      <c r="D262" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="35">
+      <c r="A263" s="34">
         <v>262</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="34">
         <v>37</v>
       </c>
-      <c r="C263" s="35">
+      <c r="C263" s="34">
         <v>11707</v>
       </c>
-      <c r="D263" s="35">
+      <c r="D263" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="35">
+      <c r="A264" s="34">
         <v>263</v>
       </c>
-      <c r="B264" s="35">
+      <c r="B264" s="34">
         <v>37</v>
       </c>
-      <c r="C264" s="35">
+      <c r="C264" s="34">
         <v>11708</v>
       </c>
-      <c r="D264" s="35">
+      <c r="D264" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="35">
+      <c r="A265" s="34">
         <v>264</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="34">
         <v>37</v>
       </c>
-      <c r="C265" s="35">
+      <c r="C265" s="34">
         <v>11709</v>
       </c>
-      <c r="D265" s="35">
+      <c r="D265" s="34">
         <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="35">
+      <c r="A266" s="34">
         <v>265</v>
       </c>
-      <c r="B266" s="35">
+      <c r="B266" s="34">
         <v>38</v>
       </c>
-      <c r="C266" s="35">
+      <c r="C266" s="34">
         <v>11710</v>
       </c>
-      <c r="D266" s="35">
+      <c r="D266" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="35">
+      <c r="A267" s="34">
         <v>266</v>
       </c>
-      <c r="B267" s="35">
+      <c r="B267" s="34">
         <v>38</v>
       </c>
-      <c r="C267" s="35">
+      <c r="C267" s="34">
         <v>11711</v>
       </c>
-      <c r="D267" s="35">
+      <c r="D267" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="35">
+      <c r="A268" s="34">
         <v>267</v>
       </c>
-      <c r="B268" s="35">
+      <c r="B268" s="34">
         <v>38</v>
       </c>
-      <c r="C268" s="35">
+      <c r="C268" s="34">
         <v>11712</v>
       </c>
-      <c r="D268" s="35">
+      <c r="D268" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="35">
+      <c r="A269" s="34">
         <v>268</v>
       </c>
-      <c r="B269" s="35">
+      <c r="B269" s="34">
         <v>38</v>
       </c>
-      <c r="C269" s="35">
+      <c r="C269" s="34">
         <v>11713</v>
       </c>
-      <c r="D269" s="35">
+      <c r="D269" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="35">
+      <c r="A270" s="34">
         <v>269</v>
       </c>
-      <c r="B270" s="35">
+      <c r="B270" s="34">
         <v>38</v>
       </c>
-      <c r="C270" s="35">
+      <c r="C270" s="34">
         <v>11714</v>
       </c>
-      <c r="D270" s="35">
+      <c r="D270" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="35">
+      <c r="A271" s="34">
         <v>270</v>
       </c>
-      <c r="B271" s="35">
+      <c r="B271" s="34">
         <v>38</v>
       </c>
-      <c r="C271" s="35">
+      <c r="C271" s="34">
         <v>11715</v>
       </c>
-      <c r="D271" s="35">
+      <c r="D271" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="35">
+      <c r="A272" s="34">
         <v>271</v>
       </c>
-      <c r="B272" s="35">
+      <c r="B272" s="34">
         <v>38</v>
       </c>
-      <c r="C272" s="35">
+      <c r="C272" s="34">
         <v>11716</v>
       </c>
-      <c r="D272" s="35">
+      <c r="D272" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="35">
+      <c r="A273" s="34">
         <v>272</v>
       </c>
-      <c r="B273" s="35">
+      <c r="B273" s="34">
         <v>38</v>
       </c>
-      <c r="C273" s="35">
+      <c r="C273" s="34">
         <v>11717</v>
       </c>
-      <c r="D273" s="35">
+      <c r="D273" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="35">
+      <c r="A274" s="34">
         <v>273</v>
       </c>
-      <c r="B274" s="35">
+      <c r="B274" s="34">
         <v>38</v>
       </c>
-      <c r="C274" s="35">
+      <c r="C274" s="34">
         <v>11718</v>
       </c>
-      <c r="D274" s="35">
+      <c r="D274" s="34">
         <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="35">
+      <c r="A275" s="34">
         <v>274</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="34">
         <v>39</v>
       </c>
-      <c r="C275" s="35">
+      <c r="C275" s="34">
         <v>11719</v>
       </c>
-      <c r="D275" s="35">
+      <c r="D275" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="35">
+      <c r="A276" s="34">
         <v>275</v>
       </c>
-      <c r="B276" s="35">
+      <c r="B276" s="34">
         <v>39</v>
       </c>
-      <c r="C276" s="35">
+      <c r="C276" s="34">
         <v>11720</v>
       </c>
-      <c r="D276" s="35">
+      <c r="D276" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="35">
+      <c r="A277" s="34">
         <v>276</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="34">
         <v>39</v>
       </c>
-      <c r="C277" s="35">
+      <c r="C277" s="34">
         <v>11721</v>
       </c>
-      <c r="D277" s="35">
+      <c r="D277" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="35">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="35">
+      <c r="B278" s="34">
         <v>39</v>
       </c>
-      <c r="C278" s="35">
+      <c r="C278" s="34">
         <v>11722</v>
       </c>
-      <c r="D278" s="35">
+      <c r="D278" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="35">
+      <c r="A279" s="34">
         <v>278</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="34">
         <v>39</v>
       </c>
-      <c r="C279" s="35">
+      <c r="C279" s="34">
         <v>11723</v>
       </c>
-      <c r="D279" s="35">
+      <c r="D279" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="35">
+      <c r="A280" s="34">
         <v>279</v>
       </c>
-      <c r="B280" s="35">
+      <c r="B280" s="34">
         <v>39</v>
       </c>
-      <c r="C280" s="35">
+      <c r="C280" s="34">
         <v>11724</v>
       </c>
-      <c r="D280" s="35">
+      <c r="D280" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="35">
+      <c r="A281" s="34">
         <v>280</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="34">
         <v>39</v>
       </c>
-      <c r="C281" s="35">
+      <c r="C281" s="34">
         <v>11725</v>
       </c>
-      <c r="D281" s="35">
+      <c r="D281" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="35">
+      <c r="A282" s="34">
         <v>281</v>
       </c>
-      <c r="B282" s="35">
+      <c r="B282" s="34">
         <v>39</v>
       </c>
-      <c r="C282" s="35">
+      <c r="C282" s="34">
         <v>11726</v>
       </c>
-      <c r="D282" s="35">
+      <c r="D282" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="35">
+      <c r="A283" s="34">
         <v>282</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="34">
         <v>39</v>
       </c>
-      <c r="C283" s="35">
+      <c r="C283" s="34">
         <v>11727</v>
       </c>
-      <c r="D283" s="35">
+      <c r="D283" s="34">
         <v>166</v>
       </c>
     </row>
@@ -13518,465 +13511,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="58" customFormat="1">
-      <c r="A351" s="58">
+    <row r="351" spans="1:4" s="55" customFormat="1">
+      <c r="A351" s="55">
         <v>350</v>
       </c>
-      <c r="B351" s="58">
+      <c r="B351" s="55">
         <v>57</v>
       </c>
-      <c r="C351" s="58">
+      <c r="C351" s="55">
         <v>11824</v>
       </c>
-      <c r="D351" s="58">
+      <c r="D351" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="58" customFormat="1">
-      <c r="A352" s="58">
+    <row r="352" spans="1:4" s="55" customFormat="1">
+      <c r="A352" s="55">
         <v>351</v>
       </c>
-      <c r="B352" s="58">
+      <c r="B352" s="55">
         <v>57</v>
       </c>
-      <c r="C352" s="58">
+      <c r="C352" s="55">
         <v>11825</v>
       </c>
-      <c r="D352" s="58">
+      <c r="D352" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="58" customFormat="1">
-      <c r="A353" s="58">
+    <row r="353" spans="1:4" s="55" customFormat="1">
+      <c r="A353" s="55">
         <v>352</v>
       </c>
-      <c r="B353" s="58">
+      <c r="B353" s="55">
         <v>57</v>
       </c>
-      <c r="C353" s="58">
+      <c r="C353" s="55">
         <v>11826</v>
       </c>
-      <c r="D353" s="58">
+      <c r="D353" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="58" customFormat="1">
-      <c r="A354" s="58">
+    <row r="354" spans="1:4" s="55" customFormat="1">
+      <c r="A354" s="55">
         <v>353</v>
       </c>
-      <c r="B354" s="58">
+      <c r="B354" s="55">
         <v>57</v>
       </c>
-      <c r="C354" s="58">
+      <c r="C354" s="55">
         <v>11827</v>
       </c>
-      <c r="D354" s="58">
+      <c r="D354" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="58" customFormat="1">
-      <c r="A355" s="58">
+    <row r="355" spans="1:4" s="55" customFormat="1">
+      <c r="A355" s="55">
         <v>354</v>
       </c>
-      <c r="B355" s="58">
+      <c r="B355" s="55">
         <v>57</v>
       </c>
-      <c r="C355" s="58">
+      <c r="C355" s="55">
         <v>11828</v>
       </c>
-      <c r="D355" s="58">
+      <c r="D355" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="58" customFormat="1">
-      <c r="A356" s="58">
+    <row r="356" spans="1:4" s="55" customFormat="1">
+      <c r="A356" s="55">
         <v>355</v>
       </c>
-      <c r="B356" s="58">
+      <c r="B356" s="55">
         <v>57</v>
       </c>
-      <c r="C356" s="58">
+      <c r="C356" s="55">
         <v>11829</v>
       </c>
-      <c r="D356" s="58">
+      <c r="D356" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="58" customFormat="1">
-      <c r="A357" s="58">
+    <row r="357" spans="1:4" s="55" customFormat="1">
+      <c r="A357" s="55">
         <v>356</v>
       </c>
-      <c r="B357" s="58">
+      <c r="B357" s="55">
         <v>57</v>
       </c>
-      <c r="C357" s="58">
+      <c r="C357" s="55">
         <v>11830</v>
       </c>
-      <c r="D357" s="58">
+      <c r="D357" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="58" customFormat="1">
-      <c r="A358" s="58">
+    <row r="358" spans="1:4" s="55" customFormat="1">
+      <c r="A358" s="55">
         <v>357</v>
       </c>
-      <c r="B358" s="58">
+      <c r="B358" s="55">
         <v>57</v>
       </c>
-      <c r="C358" s="58">
+      <c r="C358" s="55">
         <v>11831</v>
       </c>
-      <c r="D358" s="58">
+      <c r="D358" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="58" customFormat="1">
-      <c r="A359" s="58">
+    <row r="359" spans="1:4" s="55" customFormat="1">
+      <c r="A359" s="55">
         <v>358</v>
       </c>
-      <c r="B359" s="58">
+      <c r="B359" s="55">
         <v>57</v>
       </c>
-      <c r="C359" s="58">
+      <c r="C359" s="55">
         <v>11832</v>
       </c>
-      <c r="D359" s="58">
+      <c r="D359" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="53" customFormat="1">
-      <c r="A360" s="53">
+    <row r="360" spans="1:4" s="50" customFormat="1">
+      <c r="A360" s="50">
         <v>359</v>
       </c>
-      <c r="B360" s="59">
+      <c r="B360" s="56">
         <v>58</v>
       </c>
-      <c r="C360" s="53">
+      <c r="C360" s="50">
         <v>11833</v>
       </c>
-      <c r="D360" s="59">
+      <c r="D360" s="56">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="53" customFormat="1">
-      <c r="A361" s="53">
+    <row r="361" spans="1:4" s="50" customFormat="1">
+      <c r="A361" s="50">
         <v>360</v>
       </c>
-      <c r="B361" s="59">
+      <c r="B361" s="56">
         <v>58</v>
       </c>
-      <c r="C361" s="53">
+      <c r="C361" s="50">
         <v>11834</v>
       </c>
-      <c r="D361" s="59">
+      <c r="D361" s="56">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="53" customFormat="1">
-      <c r="A362" s="53">
+    <row r="362" spans="1:4" s="50" customFormat="1">
+      <c r="A362" s="50">
         <v>361</v>
       </c>
-      <c r="B362" s="59">
+      <c r="B362" s="56">
         <v>58</v>
       </c>
-      <c r="C362" s="53">
+      <c r="C362" s="50">
         <v>11835</v>
       </c>
-      <c r="D362" s="59">
+      <c r="D362" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="53" customFormat="1">
-      <c r="A363" s="53">
+    <row r="363" spans="1:4" s="50" customFormat="1">
+      <c r="A363" s="50">
         <v>362</v>
       </c>
-      <c r="B363" s="59">
+      <c r="B363" s="56">
         <v>58</v>
       </c>
-      <c r="C363" s="53">
+      <c r="C363" s="50">
         <v>11836</v>
       </c>
-      <c r="D363" s="59">
+      <c r="D363" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="53" customFormat="1">
-      <c r="A364" s="53">
+    <row r="364" spans="1:4" s="50" customFormat="1">
+      <c r="A364" s="50">
         <v>363</v>
       </c>
-      <c r="B364" s="59">
+      <c r="B364" s="56">
         <v>58</v>
       </c>
-      <c r="C364" s="53">
+      <c r="C364" s="50">
         <v>11837</v>
       </c>
-      <c r="D364" s="59">
+      <c r="D364" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="53" customFormat="1">
-      <c r="A365" s="53">
+    <row r="365" spans="1:4" s="50" customFormat="1">
+      <c r="A365" s="50">
         <v>364</v>
       </c>
-      <c r="B365" s="59">
+      <c r="B365" s="56">
         <v>58</v>
       </c>
-      <c r="C365" s="53">
+      <c r="C365" s="50">
         <v>11838</v>
       </c>
-      <c r="D365" s="59">
+      <c r="D365" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="53" customFormat="1">
-      <c r="A366" s="53">
+    <row r="366" spans="1:4" s="50" customFormat="1">
+      <c r="A366" s="50">
         <v>365</v>
       </c>
-      <c r="B366" s="59">
+      <c r="B366" s="56">
         <v>58</v>
       </c>
-      <c r="C366" s="53">
+      <c r="C366" s="50">
         <v>11839</v>
       </c>
-      <c r="D366" s="59">
+      <c r="D366" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="53" customFormat="1">
-      <c r="A367" s="53">
+    <row r="367" spans="1:4" s="50" customFormat="1">
+      <c r="A367" s="50">
         <v>366</v>
       </c>
-      <c r="B367" s="59">
+      <c r="B367" s="56">
         <v>58</v>
       </c>
-      <c r="C367" s="53">
+      <c r="C367" s="50">
         <v>11840</v>
       </c>
-      <c r="D367" s="59">
+      <c r="D367" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="53" customFormat="1">
-      <c r="A368" s="53">
+    <row r="368" spans="1:4" s="50" customFormat="1">
+      <c r="A368" s="50">
         <v>367</v>
       </c>
-      <c r="B368" s="59">
+      <c r="B368" s="56">
         <v>58</v>
       </c>
-      <c r="C368" s="53">
+      <c r="C368" s="50">
         <v>11841</v>
       </c>
-      <c r="D368" s="59">
+      <c r="D368" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="47" customFormat="1">
-      <c r="A369" s="47">
+    <row r="369" spans="1:4" s="45" customFormat="1">
+      <c r="A369" s="45">
         <v>368</v>
       </c>
-      <c r="B369" s="58">
+      <c r="B369" s="55">
         <v>59</v>
       </c>
-      <c r="C369" s="47">
+      <c r="C369" s="45">
         <v>11842</v>
       </c>
-      <c r="D369" s="58">
+      <c r="D369" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="47" customFormat="1">
-      <c r="A370" s="47">
+    <row r="370" spans="1:4" s="45" customFormat="1">
+      <c r="A370" s="45">
         <v>369</v>
       </c>
-      <c r="B370" s="58">
+      <c r="B370" s="55">
         <v>59</v>
       </c>
-      <c r="C370" s="47">
+      <c r="C370" s="45">
         <v>11843</v>
       </c>
-      <c r="D370" s="58">
+      <c r="D370" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="47" customFormat="1">
-      <c r="A371" s="47">
+    <row r="371" spans="1:4" s="45" customFormat="1">
+      <c r="A371" s="45">
         <v>370</v>
       </c>
-      <c r="B371" s="58">
+      <c r="B371" s="55">
         <v>59</v>
       </c>
-      <c r="C371" s="47">
+      <c r="C371" s="45">
         <v>11844</v>
       </c>
-      <c r="D371" s="58">
+      <c r="D371" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="47" customFormat="1">
-      <c r="A372" s="47">
+    <row r="372" spans="1:4" s="45" customFormat="1">
+      <c r="A372" s="45">
         <v>371</v>
       </c>
-      <c r="B372" s="58">
+      <c r="B372" s="55">
         <v>59</v>
       </c>
-      <c r="C372" s="47">
+      <c r="C372" s="45">
         <v>11845</v>
       </c>
-      <c r="D372" s="58">
+      <c r="D372" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="47" customFormat="1">
-      <c r="A373" s="47">
+    <row r="373" spans="1:4" s="45" customFormat="1">
+      <c r="A373" s="45">
         <v>372</v>
       </c>
-      <c r="B373" s="58">
+      <c r="B373" s="55">
         <v>59</v>
       </c>
-      <c r="C373" s="47">
+      <c r="C373" s="45">
         <v>11846</v>
       </c>
-      <c r="D373" s="58">
+      <c r="D373" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="47" customFormat="1">
-      <c r="A374" s="47">
+    <row r="374" spans="1:4" s="45" customFormat="1">
+      <c r="A374" s="45">
         <v>373</v>
       </c>
-      <c r="B374" s="58">
+      <c r="B374" s="55">
         <v>59</v>
       </c>
-      <c r="C374" s="47">
+      <c r="C374" s="45">
         <v>11847</v>
       </c>
-      <c r="D374" s="58">
+      <c r="D374" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="47" customFormat="1">
-      <c r="A375" s="47">
+    <row r="375" spans="1:4" s="45" customFormat="1">
+      <c r="A375" s="45">
         <v>374</v>
       </c>
-      <c r="B375" s="58">
+      <c r="B375" s="55">
         <v>59</v>
       </c>
-      <c r="C375" s="47">
+      <c r="C375" s="45">
         <v>11848</v>
       </c>
-      <c r="D375" s="58">
+      <c r="D375" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="47" customFormat="1">
-      <c r="A376" s="47">
+    <row r="376" spans="1:4" s="45" customFormat="1">
+      <c r="A376" s="45">
         <v>375</v>
       </c>
-      <c r="B376" s="58">
+      <c r="B376" s="55">
         <v>59</v>
       </c>
-      <c r="C376" s="47">
+      <c r="C376" s="45">
         <v>11849</v>
       </c>
-      <c r="D376" s="58">
+      <c r="D376" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="47" customFormat="1">
-      <c r="A377" s="47">
+    <row r="377" spans="1:4" s="45" customFormat="1">
+      <c r="A377" s="45">
         <v>376</v>
       </c>
-      <c r="B377" s="58">
+      <c r="B377" s="55">
         <v>59</v>
       </c>
-      <c r="C377" s="47">
+      <c r="C377" s="45">
         <v>11850</v>
       </c>
-      <c r="D377" s="58">
+      <c r="D377" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="63" customFormat="1">
-      <c r="A378" s="63">
+    <row r="378" spans="1:4" s="57" customFormat="1">
+      <c r="A378" s="57">
         <v>377</v>
       </c>
-      <c r="B378" s="63">
+      <c r="B378" s="57">
         <v>60</v>
       </c>
-      <c r="C378" s="63">
+      <c r="C378" s="57">
         <v>11851</v>
       </c>
-      <c r="D378" s="63">
+      <c r="D378" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="63" customFormat="1">
-      <c r="A379" s="63">
+    <row r="379" spans="1:4" s="57" customFormat="1">
+      <c r="A379" s="57">
         <v>378</v>
       </c>
-      <c r="B379" s="63">
+      <c r="B379" s="57">
         <v>60</v>
       </c>
-      <c r="C379" s="63">
+      <c r="C379" s="57">
         <v>11852</v>
       </c>
-      <c r="D379" s="63">
+      <c r="D379" s="57">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="63" customFormat="1">
-      <c r="A380" s="63">
+    <row r="380" spans="1:4" s="57" customFormat="1">
+      <c r="A380" s="57">
         <v>379</v>
       </c>
-      <c r="B380" s="63">
+      <c r="B380" s="57">
         <v>60</v>
       </c>
-      <c r="C380" s="63">
+      <c r="C380" s="57">
         <v>11853</v>
       </c>
-      <c r="D380" s="63">
+      <c r="D380" s="57">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="63" customFormat="1">
-      <c r="A381" s="63">
+    <row r="381" spans="1:4" s="57" customFormat="1">
+      <c r="A381" s="57">
         <v>380</v>
       </c>
-      <c r="B381" s="63">
+      <c r="B381" s="57">
         <v>60</v>
       </c>
-      <c r="C381" s="63">
+      <c r="C381" s="57">
         <v>11854</v>
       </c>
-      <c r="D381" s="63">
+      <c r="D381" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="63" customFormat="1">
-      <c r="A382" s="63">
+    <row r="382" spans="1:4" s="57" customFormat="1">
+      <c r="A382" s="57">
         <v>381</v>
       </c>
-      <c r="B382" s="63">
+      <c r="B382" s="57">
         <v>60</v>
       </c>
-      <c r="C382" s="63">
+      <c r="C382" s="57">
         <v>11855</v>
       </c>
-      <c r="D382" s="63">
+      <c r="D382" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="63" customFormat="1">
-      <c r="A383" s="63">
+    <row r="383" spans="1:4" s="57" customFormat="1">
+      <c r="A383" s="57">
         <v>382</v>
       </c>
-      <c r="B383" s="63">
+      <c r="B383" s="57">
         <v>60</v>
       </c>
-      <c r="C383" s="63">
+      <c r="C383" s="57">
         <v>11856</v>
       </c>
-      <c r="D383" s="63">
+      <c r="D383" s="57">
         <v>0</v>
       </c>
     </row>
@@ -13987,7 +13980,7 @@
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="63">
+      <c r="C384" s="57">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
@@ -14001,7 +13994,7 @@
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="63">
+      <c r="C385" s="57">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
@@ -14012,13 +14005,13 @@
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="75">
+      <c r="B386" s="66">
         <v>63</v>
       </c>
-      <c r="C386" s="75">
+      <c r="C386" s="66">
         <v>11859</v>
       </c>
-      <c r="D386" s="75">
+      <c r="D386" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14026,13 +14019,13 @@
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="75">
+      <c r="B387" s="66">
         <v>63</v>
       </c>
-      <c r="C387" s="75">
+      <c r="C387" s="66">
         <v>11860</v>
       </c>
-      <c r="D387" s="75">
+      <c r="D387" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14040,13 +14033,13 @@
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="75">
+      <c r="B388" s="66">
         <v>63</v>
       </c>
-      <c r="C388" s="75">
+      <c r="C388" s="66">
         <v>11861</v>
       </c>
-      <c r="D388" s="75">
+      <c r="D388" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14054,13 +14047,13 @@
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="75">
+      <c r="B389" s="66">
         <v>63</v>
       </c>
-      <c r="C389" s="75">
+      <c r="C389" s="66">
         <v>11862</v>
       </c>
-      <c r="D389" s="75">
+      <c r="D389" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14068,13 +14061,13 @@
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="75">
+      <c r="B390" s="66">
         <v>63</v>
       </c>
-      <c r="C390" s="75">
+      <c r="C390" s="66">
         <v>11863</v>
       </c>
-      <c r="D390" s="75">
+      <c r="D390" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14082,13 +14075,13 @@
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="75">
+      <c r="B391" s="66">
         <v>63</v>
       </c>
-      <c r="C391" s="75">
+      <c r="C391" s="66">
         <v>11864</v>
       </c>
-      <c r="D391" s="75">
+      <c r="D391" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14096,13 +14089,13 @@
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="75">
+      <c r="B392" s="66">
         <v>64</v>
       </c>
-      <c r="C392" s="75">
+      <c r="C392" s="66">
         <v>11865</v>
       </c>
-      <c r="D392" s="75">
+      <c r="D392" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14110,13 +14103,13 @@
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="75">
+      <c r="B393" s="66">
         <v>64</v>
       </c>
-      <c r="C393" s="75">
+      <c r="C393" s="66">
         <v>11866</v>
       </c>
-      <c r="D393" s="75">
+      <c r="D393" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14124,13 +14117,13 @@
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="75">
+      <c r="B394" s="66">
         <v>64</v>
       </c>
-      <c r="C394" s="75">
+      <c r="C394" s="66">
         <v>11867</v>
       </c>
-      <c r="D394" s="75">
+      <c r="D394" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14138,13 +14131,13 @@
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="75">
+      <c r="B395" s="66">
         <v>64</v>
       </c>
-      <c r="C395" s="75">
+      <c r="C395" s="66">
         <v>11868</v>
       </c>
-      <c r="D395" s="75">
+      <c r="D395" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14152,13 +14145,13 @@
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="75">
+      <c r="B396" s="66">
         <v>64</v>
       </c>
-      <c r="C396" s="75">
+      <c r="C396" s="66">
         <v>11869</v>
       </c>
-      <c r="D396" s="75">
+      <c r="D396" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14166,13 +14159,13 @@
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="75">
+      <c r="B397" s="66">
         <v>64</v>
       </c>
-      <c r="C397" s="75">
+      <c r="C397" s="66">
         <v>11870</v>
       </c>
-      <c r="D397" s="75">
+      <c r="D397" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14180,13 +14173,13 @@
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="75">
+      <c r="B398" s="66">
         <v>65</v>
       </c>
-      <c r="C398" s="75">
+      <c r="C398" s="66">
         <v>11871</v>
       </c>
-      <c r="D398" s="75">
+      <c r="D398" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14194,13 +14187,13 @@
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="75">
+      <c r="B399" s="66">
         <v>65</v>
       </c>
-      <c r="C399" s="75">
+      <c r="C399" s="66">
         <v>11872</v>
       </c>
-      <c r="D399" s="75">
+      <c r="D399" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14208,13 +14201,13 @@
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="75">
+      <c r="B400" s="66">
         <v>65</v>
       </c>
-      <c r="C400" s="75">
+      <c r="C400" s="66">
         <v>11873</v>
       </c>
-      <c r="D400" s="75">
+      <c r="D400" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14222,13 +14215,13 @@
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="75">
+      <c r="B401" s="66">
         <v>65</v>
       </c>
-      <c r="C401" s="75">
+      <c r="C401" s="66">
         <v>11874</v>
       </c>
-      <c r="D401" s="75">
+      <c r="D401" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14236,13 +14229,13 @@
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="75">
+      <c r="B402" s="66">
         <v>65</v>
       </c>
-      <c r="C402" s="75">
+      <c r="C402" s="66">
         <v>11875</v>
       </c>
-      <c r="D402" s="75">
+      <c r="D402" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14250,13 +14243,13 @@
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="75">
+      <c r="B403" s="66">
         <v>65</v>
       </c>
-      <c r="C403" s="75">
+      <c r="C403" s="66">
         <v>11876</v>
       </c>
-      <c r="D403" s="75">
+      <c r="D403" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14264,13 +14257,13 @@
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="75">
+      <c r="B404" s="66">
         <v>66</v>
       </c>
-      <c r="C404" s="75">
+      <c r="C404" s="66">
         <v>11877</v>
       </c>
-      <c r="D404" s="75">
+      <c r="D404" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14278,13 +14271,13 @@
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="75">
+      <c r="B405" s="66">
         <v>66</v>
       </c>
-      <c r="C405" s="75">
+      <c r="C405" s="66">
         <v>11878</v>
       </c>
-      <c r="D405" s="75">
+      <c r="D405" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14292,13 +14285,13 @@
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="75">
+      <c r="B406" s="66">
         <v>66</v>
       </c>
-      <c r="C406" s="75">
+      <c r="C406" s="66">
         <v>11879</v>
       </c>
-      <c r="D406" s="75">
+      <c r="D406" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14306,13 +14299,13 @@
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="75">
+      <c r="B407" s="66">
         <v>66</v>
       </c>
-      <c r="C407" s="75">
+      <c r="C407" s="66">
         <v>11880</v>
       </c>
-      <c r="D407" s="75">
+      <c r="D407" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14320,13 +14313,13 @@
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="75">
+      <c r="B408" s="66">
         <v>66</v>
       </c>
-      <c r="C408" s="75">
+      <c r="C408" s="66">
         <v>11881</v>
       </c>
-      <c r="D408" s="75">
+      <c r="D408" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14334,13 +14327,13 @@
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="75">
+      <c r="B409" s="66">
         <v>66</v>
       </c>
-      <c r="C409" s="75">
+      <c r="C409" s="66">
         <v>11882</v>
       </c>
-      <c r="D409" s="75">
+      <c r="D409" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14348,13 +14341,13 @@
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="75">
+      <c r="B410" s="66">
         <v>67</v>
       </c>
-      <c r="C410" s="75">
+      <c r="C410" s="66">
         <v>11883</v>
       </c>
-      <c r="D410" s="75">
+      <c r="D410" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14362,13 +14355,13 @@
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="75">
+      <c r="B411" s="66">
         <v>67</v>
       </c>
-      <c r="C411" s="75">
+      <c r="C411" s="66">
         <v>11884</v>
       </c>
-      <c r="D411" s="75">
+      <c r="D411" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14376,13 +14369,13 @@
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="75">
+      <c r="B412" s="66">
         <v>67</v>
       </c>
-      <c r="C412" s="75">
+      <c r="C412" s="66">
         <v>11885</v>
       </c>
-      <c r="D412" s="75">
+      <c r="D412" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14390,13 +14383,13 @@
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="75">
+      <c r="B413" s="66">
         <v>67</v>
       </c>
-      <c r="C413" s="75">
+      <c r="C413" s="66">
         <v>11886</v>
       </c>
-      <c r="D413" s="75">
+      <c r="D413" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14404,13 +14397,13 @@
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="75">
+      <c r="B414" s="66">
         <v>67</v>
       </c>
-      <c r="C414" s="75">
+      <c r="C414" s="66">
         <v>11887</v>
       </c>
-      <c r="D414" s="75">
+      <c r="D414" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14418,13 +14411,13 @@
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="75">
+      <c r="B415" s="66">
         <v>67</v>
       </c>
-      <c r="C415" s="75">
+      <c r="C415" s="66">
         <v>11888</v>
       </c>
-      <c r="D415" s="75">
+      <c r="D415" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14432,13 +14425,13 @@
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="75">
+      <c r="B416" s="66">
         <v>68</v>
       </c>
-      <c r="C416" s="75">
+      <c r="C416" s="66">
         <v>11889</v>
       </c>
-      <c r="D416" s="75">
+      <c r="D416" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14446,13 +14439,13 @@
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="75">
+      <c r="B417" s="66">
         <v>68</v>
       </c>
-      <c r="C417" s="75">
+      <c r="C417" s="66">
         <v>11890</v>
       </c>
-      <c r="D417" s="75">
+      <c r="D417" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14460,13 +14453,13 @@
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="75">
+      <c r="B418" s="66">
         <v>68</v>
       </c>
-      <c r="C418" s="75">
+      <c r="C418" s="66">
         <v>11891</v>
       </c>
-      <c r="D418" s="75">
+      <c r="D418" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14474,13 +14467,13 @@
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="75">
+      <c r="B419" s="66">
         <v>68</v>
       </c>
-      <c r="C419" s="75">
+      <c r="C419" s="66">
         <v>11892</v>
       </c>
-      <c r="D419" s="75">
+      <c r="D419" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14488,13 +14481,13 @@
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="75">
+      <c r="B420" s="66">
         <v>68</v>
       </c>
-      <c r="C420" s="75">
+      <c r="C420" s="66">
         <v>11893</v>
       </c>
-      <c r="D420" s="75">
+      <c r="D420" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14502,13 +14495,13 @@
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="75">
+      <c r="B421" s="66">
         <v>68</v>
       </c>
-      <c r="C421" s="75">
+      <c r="C421" s="66">
         <v>11894</v>
       </c>
-      <c r="D421" s="75">
+      <c r="D421" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14516,13 +14509,13 @@
       <c r="A422" s="13">
         <v>421</v>
       </c>
-      <c r="B422" s="39">
+      <c r="B422" s="37">
         <v>69</v>
       </c>
-      <c r="C422" s="39">
+      <c r="C422" s="37">
         <v>11895</v>
       </c>
-      <c r="D422" s="39">
+      <c r="D422" s="37">
         <v>20</v>
       </c>
     </row>
@@ -14530,13 +14523,13 @@
       <c r="A423" s="13">
         <v>422</v>
       </c>
-      <c r="B423" s="39">
+      <c r="B423" s="37">
         <v>69</v>
       </c>
-      <c r="C423" s="39">
+      <c r="C423" s="37">
         <v>11896</v>
       </c>
-      <c r="D423" s="39">
+      <c r="D423" s="37">
         <v>25</v>
       </c>
     </row>
@@ -14544,13 +14537,13 @@
       <c r="A424" s="13">
         <v>423</v>
       </c>
-      <c r="B424" s="39">
+      <c r="B424" s="37">
         <v>69</v>
       </c>
-      <c r="C424" s="39">
+      <c r="C424" s="37">
         <v>11897</v>
       </c>
-      <c r="D424" s="39">
+      <c r="D424" s="37">
         <v>25</v>
       </c>
     </row>
@@ -14558,13 +14551,13 @@
       <c r="A425" s="13">
         <v>424</v>
       </c>
-      <c r="B425" s="39">
+      <c r="B425" s="37">
         <v>69</v>
       </c>
-      <c r="C425" s="39">
+      <c r="C425" s="37">
         <v>11898</v>
       </c>
-      <c r="D425" s="39">
+      <c r="D425" s="37">
         <v>27</v>
       </c>
     </row>
@@ -14572,13 +14565,13 @@
       <c r="A426" s="13">
         <v>425</v>
       </c>
-      <c r="B426" s="39">
+      <c r="B426" s="37">
         <v>69</v>
       </c>
-      <c r="C426" s="39">
+      <c r="C426" s="37">
         <v>11899</v>
       </c>
-      <c r="D426" s="39">
+      <c r="D426" s="37">
         <v>3</v>
       </c>
     </row>
@@ -14586,13 +14579,13 @@
       <c r="A427" s="13">
         <v>426</v>
       </c>
-      <c r="B427" s="39">
+      <c r="B427" s="37">
         <v>69</v>
       </c>
-      <c r="C427" s="39">
+      <c r="C427" s="37">
         <v>11900</v>
       </c>
-      <c r="D427" s="39">
+      <c r="D427" s="37">
         <v>0</v>
       </c>
     </row>
@@ -14600,13 +14593,13 @@
       <c r="A428" s="13">
         <v>427</v>
       </c>
-      <c r="B428" s="53">
+      <c r="B428" s="50">
         <v>70</v>
       </c>
-      <c r="C428" s="53">
+      <c r="C428" s="50">
         <v>11901</v>
       </c>
-      <c r="D428" s="53">
+      <c r="D428" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14614,13 +14607,13 @@
       <c r="A429" s="13">
         <v>428</v>
       </c>
-      <c r="B429" s="53">
+      <c r="B429" s="50">
         <v>70</v>
       </c>
-      <c r="C429" s="53">
+      <c r="C429" s="50">
         <v>11902</v>
       </c>
-      <c r="D429" s="53">
+      <c r="D429" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14628,13 +14621,13 @@
       <c r="A430" s="13">
         <v>429</v>
       </c>
-      <c r="B430" s="53">
+      <c r="B430" s="50">
         <v>70</v>
       </c>
-      <c r="C430" s="53">
+      <c r="C430" s="50">
         <v>11903</v>
       </c>
-      <c r="D430" s="53">
+      <c r="D430" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14642,13 +14635,13 @@
       <c r="A431" s="13">
         <v>430</v>
       </c>
-      <c r="B431" s="53">
+      <c r="B431" s="50">
         <v>70</v>
       </c>
-      <c r="C431" s="53">
+      <c r="C431" s="50">
         <v>11904</v>
       </c>
-      <c r="D431" s="53">
+      <c r="D431" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14656,13 +14649,13 @@
       <c r="A432" s="13">
         <v>431</v>
       </c>
-      <c r="B432" s="53">
+      <c r="B432" s="50">
         <v>70</v>
       </c>
-      <c r="C432" s="53">
+      <c r="C432" s="50">
         <v>11905</v>
       </c>
-      <c r="D432" s="53">
+      <c r="D432" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14670,13 +14663,13 @@
       <c r="A433" s="13">
         <v>432</v>
       </c>
-      <c r="B433" s="53">
+      <c r="B433" s="50">
         <v>70</v>
       </c>
-      <c r="C433" s="53">
+      <c r="C433" s="50">
         <v>11906</v>
       </c>
-      <c r="D433" s="53">
+      <c r="D433" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14684,13 +14677,13 @@
       <c r="A434" s="13">
         <v>433</v>
       </c>
-      <c r="B434" s="53">
+      <c r="B434" s="50">
         <v>70</v>
       </c>
-      <c r="C434" s="53">
+      <c r="C434" s="50">
         <v>11907</v>
       </c>
-      <c r="D434" s="53">
+      <c r="D434" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14698,13 +14691,13 @@
       <c r="A435" s="13">
         <v>434</v>
       </c>
-      <c r="B435" s="53">
+      <c r="B435" s="50">
         <v>70</v>
       </c>
-      <c r="C435" s="53">
+      <c r="C435" s="50">
         <v>11908</v>
       </c>
-      <c r="D435" s="53">
+      <c r="D435" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14712,13 +14705,13 @@
       <c r="A436" s="13">
         <v>435</v>
       </c>
-      <c r="B436" s="53">
+      <c r="B436" s="50">
         <v>70</v>
       </c>
-      <c r="C436" s="53">
+      <c r="C436" s="50">
         <v>11909</v>
       </c>
-      <c r="D436" s="53">
+      <c r="D436" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14726,13 +14719,13 @@
       <c r="A437" s="13">
         <v>436</v>
       </c>
-      <c r="B437" s="53">
+      <c r="B437" s="50">
         <v>71</v>
       </c>
-      <c r="C437" s="53">
+      <c r="C437" s="50">
         <v>11911</v>
       </c>
-      <c r="D437" s="53">
+      <c r="D437" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14740,13 +14733,13 @@
       <c r="A438" s="13">
         <v>437</v>
       </c>
-      <c r="B438" s="53">
+      <c r="B438" s="50">
         <v>71</v>
       </c>
-      <c r="C438" s="53">
+      <c r="C438" s="50">
         <v>11912</v>
       </c>
-      <c r="D438" s="53">
+      <c r="D438" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14754,13 +14747,13 @@
       <c r="A439" s="13">
         <v>438</v>
       </c>
-      <c r="B439" s="53">
+      <c r="B439" s="50">
         <v>71</v>
       </c>
-      <c r="C439" s="53">
+      <c r="C439" s="50">
         <v>11913</v>
       </c>
-      <c r="D439" s="53">
+      <c r="D439" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14768,13 +14761,13 @@
       <c r="A440" s="13">
         <v>439</v>
       </c>
-      <c r="B440" s="53">
+      <c r="B440" s="50">
         <v>71</v>
       </c>
-      <c r="C440" s="53">
+      <c r="C440" s="50">
         <v>11914</v>
       </c>
-      <c r="D440" s="53">
+      <c r="D440" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14782,13 +14775,13 @@
       <c r="A441" s="13">
         <v>440</v>
       </c>
-      <c r="B441" s="53">
+      <c r="B441" s="50">
         <v>71</v>
       </c>
-      <c r="C441" s="53">
+      <c r="C441" s="50">
         <v>11915</v>
       </c>
-      <c r="D441" s="53">
+      <c r="D441" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14796,13 +14789,13 @@
       <c r="A442" s="13">
         <v>441</v>
       </c>
-      <c r="B442" s="53">
+      <c r="B442" s="50">
         <v>71</v>
       </c>
-      <c r="C442" s="53">
+      <c r="C442" s="50">
         <v>11916</v>
       </c>
-      <c r="D442" s="53">
+      <c r="D442" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14810,13 +14803,13 @@
       <c r="A443" s="13">
         <v>442</v>
       </c>
-      <c r="B443" s="53">
+      <c r="B443" s="50">
         <v>71</v>
       </c>
-      <c r="C443" s="53">
+      <c r="C443" s="50">
         <v>11917</v>
       </c>
-      <c r="D443" s="53">
+      <c r="D443" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14824,13 +14817,13 @@
       <c r="A444" s="13">
         <v>443</v>
       </c>
-      <c r="B444" s="53">
+      <c r="B444" s="50">
         <v>71</v>
       </c>
-      <c r="C444" s="53">
+      <c r="C444" s="50">
         <v>11918</v>
       </c>
-      <c r="D444" s="53">
+      <c r="D444" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14838,13 +14831,13 @@
       <c r="A445" s="13">
         <v>444</v>
       </c>
-      <c r="B445" s="53">
+      <c r="B445" s="50">
         <v>71</v>
       </c>
-      <c r="C445" s="53">
+      <c r="C445" s="50">
         <v>11919</v>
       </c>
-      <c r="D445" s="53">
+      <c r="D445" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14852,13 +14845,13 @@
       <c r="A446" s="13">
         <v>445</v>
       </c>
-      <c r="B446" s="53">
+      <c r="B446" s="50">
         <v>72</v>
       </c>
-      <c r="C446" s="53">
+      <c r="C446" s="50">
         <v>11921</v>
       </c>
-      <c r="D446" s="53">
+      <c r="D446" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14866,13 +14859,13 @@
       <c r="A447" s="13">
         <v>446</v>
       </c>
-      <c r="B447" s="53">
+      <c r="B447" s="50">
         <v>72</v>
       </c>
-      <c r="C447" s="53">
+      <c r="C447" s="50">
         <v>11922</v>
       </c>
-      <c r="D447" s="53">
+      <c r="D447" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14880,13 +14873,13 @@
       <c r="A448" s="13">
         <v>447</v>
       </c>
-      <c r="B448" s="53">
+      <c r="B448" s="50">
         <v>72</v>
       </c>
-      <c r="C448" s="53">
+      <c r="C448" s="50">
         <v>11923</v>
       </c>
-      <c r="D448" s="53">
+      <c r="D448" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14894,13 +14887,13 @@
       <c r="A449" s="13">
         <v>448</v>
       </c>
-      <c r="B449" s="53">
+      <c r="B449" s="50">
         <v>72</v>
       </c>
-      <c r="C449" s="53">
+      <c r="C449" s="50">
         <v>11924</v>
       </c>
-      <c r="D449" s="53">
+      <c r="D449" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14908,13 +14901,13 @@
       <c r="A450" s="13">
         <v>449</v>
       </c>
-      <c r="B450" s="53">
+      <c r="B450" s="50">
         <v>72</v>
       </c>
-      <c r="C450" s="53">
+      <c r="C450" s="50">
         <v>11925</v>
       </c>
-      <c r="D450" s="53">
+      <c r="D450" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14922,13 +14915,13 @@
       <c r="A451" s="13">
         <v>450</v>
       </c>
-      <c r="B451" s="53">
+      <c r="B451" s="50">
         <v>72</v>
       </c>
-      <c r="C451" s="53">
+      <c r="C451" s="50">
         <v>11926</v>
       </c>
-      <c r="D451" s="53">
+      <c r="D451" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14936,13 +14929,13 @@
       <c r="A452" s="13">
         <v>451</v>
       </c>
-      <c r="B452" s="53">
+      <c r="B452" s="50">
         <v>72</v>
       </c>
-      <c r="C452" s="53">
+      <c r="C452" s="50">
         <v>11927</v>
       </c>
-      <c r="D452" s="53">
+      <c r="D452" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14950,13 +14943,13 @@
       <c r="A453" s="13">
         <v>452</v>
       </c>
-      <c r="B453" s="53">
+      <c r="B453" s="50">
         <v>72</v>
       </c>
-      <c r="C453" s="53">
+      <c r="C453" s="50">
         <v>11928</v>
       </c>
-      <c r="D453" s="53">
+      <c r="D453" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14964,13 +14957,13 @@
       <c r="A454" s="13">
         <v>453</v>
       </c>
-      <c r="B454" s="53">
+      <c r="B454" s="50">
         <v>72</v>
       </c>
-      <c r="C454" s="53">
+      <c r="C454" s="50">
         <v>11929</v>
       </c>
-      <c r="D454" s="53">
+      <c r="D454" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14996,14 +14989,14 @@
     <col min="2" max="2" width="19.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -15012,10 +15005,10 @@
       <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17">
@@ -16400,7 +16393,7 @@
         <v>93</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="33"/>
+      <c r="E103" s="32"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="17">
@@ -16413,7 +16406,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="33"/>
+      <c r="E104" s="32"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="17">
@@ -16456,7 +16449,7 @@
         <v>97</v>
       </c>
       <c r="D107" s="13"/>
-      <c r="E107" s="33"/>
+      <c r="E107" s="32"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="17">
@@ -16469,7 +16462,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="33"/>
+      <c r="E108" s="32"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="17">
@@ -18884,13 +18877,13 @@
       <c r="B257" s="13">
         <v>11701</v>
       </c>
-      <c r="C257" s="35" t="s">
+      <c r="C257" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="36" t="s">
+      <c r="D257" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="37" t="s">
+      <c r="E257" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -18901,13 +18894,13 @@
       <c r="B258" s="13">
         <v>11702</v>
       </c>
-      <c r="C258" s="35" t="s">
+      <c r="C258" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="36" t="s">
+      <c r="D258" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="37" t="s">
+      <c r="E258" s="36" t="s">
         <v>390</v>
       </c>
     </row>
@@ -18918,13 +18911,13 @@
       <c r="B259" s="13">
         <v>11703</v>
       </c>
-      <c r="C259" s="35" t="s">
+      <c r="C259" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="36" t="s">
+      <c r="D259" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="37" t="s">
+      <c r="E259" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -18935,13 +18928,13 @@
       <c r="B260" s="13">
         <v>11704</v>
       </c>
-      <c r="C260" s="35" t="s">
+      <c r="C260" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="36" t="s">
+      <c r="D260" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="37" t="s">
+      <c r="E260" s="36" t="s">
         <v>393</v>
       </c>
     </row>
@@ -18952,13 +18945,13 @@
       <c r="B261" s="13">
         <v>11705</v>
       </c>
-      <c r="C261" s="35" t="s">
+      <c r="C261" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="36" t="s">
+      <c r="D261" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="37" t="s">
+      <c r="E261" s="36" t="s">
         <v>395</v>
       </c>
     </row>
@@ -18969,13 +18962,13 @@
       <c r="B262" s="13">
         <v>11706</v>
       </c>
-      <c r="C262" s="35" t="s">
+      <c r="C262" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="36" t="s">
+      <c r="D262" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="37" t="s">
+      <c r="E262" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -18986,13 +18979,13 @@
       <c r="B263" s="13">
         <v>11707</v>
       </c>
-      <c r="C263" s="35" t="s">
+      <c r="C263" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="36" t="s">
+      <c r="D263" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="37" t="s">
+      <c r="E263" s="36" t="s">
         <v>398</v>
       </c>
     </row>
@@ -19003,13 +18996,13 @@
       <c r="B264" s="13">
         <v>11708</v>
       </c>
-      <c r="C264" s="35" t="s">
+      <c r="C264" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="36" t="s">
+      <c r="D264" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="37" t="s">
+      <c r="E264" s="36" t="s">
         <v>400</v>
       </c>
     </row>
@@ -19020,13 +19013,13 @@
       <c r="B265" s="13">
         <v>11709</v>
       </c>
-      <c r="C265" s="35" t="s">
+      <c r="C265" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="36" t="s">
+      <c r="D265" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="37" t="s">
+      <c r="E265" s="36" t="s">
         <v>402</v>
       </c>
     </row>
@@ -19037,13 +19030,13 @@
       <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="40" t="s">
+      <c r="C266" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="40" t="s">
+      <c r="D266" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="41" t="s">
+      <c r="E266" s="39" t="s">
         <v>433</v>
       </c>
     </row>
@@ -19054,13 +19047,13 @@
       <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="40" t="s">
+      <c r="C267" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="40" t="s">
+      <c r="D267" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="41" t="s">
+      <c r="E267" s="39" t="s">
         <v>457</v>
       </c>
     </row>
@@ -19071,13 +19064,13 @@
       <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="40" t="s">
+      <c r="C268" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="40" t="s">
+      <c r="D268" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="41" t="s">
+      <c r="E268" s="39" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19088,13 +19081,13 @@
       <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="40" t="s">
+      <c r="C269" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="40" t="s">
+      <c r="D269" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="41" t="s">
+      <c r="E269" s="39" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19105,13 +19098,13 @@
       <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="40" t="s">
+      <c r="C270" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="40" t="s">
+      <c r="D270" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="41" t="s">
+      <c r="E270" s="39" t="s">
         <v>459</v>
       </c>
     </row>
@@ -19122,13 +19115,13 @@
       <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="40" t="s">
+      <c r="C271" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="40" t="s">
+      <c r="D271" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="41" t="s">
+      <c r="E271" s="39" t="s">
         <v>460</v>
       </c>
     </row>
@@ -19139,13 +19132,13 @@
       <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="40" t="s">
+      <c r="C272" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="40" t="s">
+      <c r="D272" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="41" t="s">
+      <c r="E272" s="39" t="s">
         <v>461</v>
       </c>
     </row>
@@ -19156,13 +19149,13 @@
       <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="40" t="s">
+      <c r="C273" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="40" t="s">
+      <c r="D273" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="41" t="s">
+      <c r="E273" s="39" t="s">
         <v>462</v>
       </c>
     </row>
@@ -19173,13 +19166,13 @@
       <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="40" t="s">
+      <c r="C274" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="40" t="s">
+      <c r="D274" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="41" t="s">
+      <c r="E274" s="39" t="s">
         <v>463</v>
       </c>
     </row>
@@ -19190,13 +19183,13 @@
       <c r="B275" s="13">
         <v>11719</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D275" s="36" t="s">
+      <c r="D275" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E275" s="37" t="s">
+      <c r="E275" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -19207,13 +19200,13 @@
       <c r="B276" s="13">
         <v>11720</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="D276" s="36" t="s">
+      <c r="D276" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="37" t="s">
+      <c r="E276" s="36" t="s">
         <v>390</v>
       </c>
     </row>
@@ -19224,13 +19217,13 @@
       <c r="B277" s="13">
         <v>11721</v>
       </c>
-      <c r="C277" s="36" t="s">
+      <c r="C277" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="D277" s="36" t="s">
+      <c r="D277" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E277" s="37" t="s">
+      <c r="E277" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -19241,13 +19234,13 @@
       <c r="B278" s="13">
         <v>11722</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="C278" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="D278" s="36" t="s">
+      <c r="D278" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E278" s="37" t="s">
+      <c r="E278" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19258,13 +19251,13 @@
       <c r="B279" s="13">
         <v>11723</v>
       </c>
-      <c r="C279" s="36" t="s">
+      <c r="C279" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="D279" s="36" t="s">
+      <c r="D279" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="E279" s="37" t="s">
+      <c r="E279" s="36" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19275,13 +19268,13 @@
       <c r="B280" s="13">
         <v>11724</v>
       </c>
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="D280" s="36" t="s">
+      <c r="D280" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="37" t="s">
+      <c r="E280" s="36" t="s">
         <v>464</v>
       </c>
     </row>
@@ -19292,13 +19285,13 @@
       <c r="B281" s="13">
         <v>11725</v>
       </c>
-      <c r="C281" s="36" t="s">
+      <c r="C281" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="36" t="s">
+      <c r="D281" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="E281" s="37" t="s">
+      <c r="E281" s="36" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19309,13 +19302,13 @@
       <c r="B282" s="13">
         <v>11726</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="D282" s="36" t="s">
+      <c r="D282" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E282" s="37" t="s">
+      <c r="E282" s="36" t="s">
         <v>465</v>
       </c>
     </row>
@@ -19326,13 +19319,13 @@
       <c r="B283" s="13">
         <v>11727</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="D283" s="36" t="s">
+      <c r="D283" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E283" s="37" t="s">
+      <c r="E283" s="36" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19485,7 +19478,7 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="44" t="s">
+      <c r="E292" s="42" t="s">
         <v>485</v>
       </c>
     </row>
@@ -19502,7 +19495,7 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="44" t="s">
+      <c r="E293" s="42" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19519,7 +19512,7 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="44" t="s">
+      <c r="E294" s="42" t="s">
         <v>487</v>
       </c>
     </row>
@@ -19536,7 +19529,7 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="44" t="s">
+      <c r="E295" s="42" t="s">
         <v>488</v>
       </c>
     </row>
@@ -19553,7 +19546,7 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="44" t="s">
+      <c r="E296" s="42" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19567,10 +19560,10 @@
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="45" t="s">
+      <c r="D297" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="44" t="s">
+      <c r="E297" s="42" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19584,10 +19577,10 @@
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="45" t="s">
+      <c r="D298" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="44" t="s">
+      <c r="E298" s="42" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19601,10 +19594,10 @@
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="45" t="s">
+      <c r="D299" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="44" t="s">
+      <c r="E299" s="42" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19621,7 +19614,7 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="44" t="s">
+      <c r="E300" s="42" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19638,7 +19631,7 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="44" t="s">
+      <c r="E301" s="42" t="s">
         <v>575</v>
       </c>
     </row>
@@ -19655,7 +19648,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="44" t="s">
+      <c r="E302" s="42" t="s">
         <v>576</v>
       </c>
     </row>
@@ -19672,7 +19665,7 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="44" t="s">
+      <c r="E303" s="42" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19689,7 +19682,7 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="44" t="s">
+      <c r="E304" s="42" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19717,7 +19710,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="44" t="s">
+      <c r="E306" s="42" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19734,7 +19727,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="44" t="s">
+      <c r="E307" s="42" t="s">
         <v>564</v>
       </c>
     </row>
@@ -19751,7 +19744,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="44" t="s">
+      <c r="E308" s="42" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19768,7 +19761,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="44" t="s">
+      <c r="E309" s="42" t="s">
         <v>356</v>
       </c>
     </row>
@@ -19785,7 +19778,7 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="44" t="s">
+      <c r="E310" s="42" t="s">
         <v>77</v>
       </c>
     </row>
@@ -19802,7 +19795,7 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="44" t="s">
+      <c r="E311" s="42" t="s">
         <v>565</v>
       </c>
     </row>
@@ -19819,7 +19812,7 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="44" t="s">
+      <c r="E312" s="42" t="s">
         <v>361</v>
       </c>
     </row>
@@ -19836,7 +19829,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="44" t="s">
+      <c r="E313" s="42" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19853,7 +19846,7 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="44" t="s">
+      <c r="E314" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -19870,7 +19863,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="44" t="s">
+      <c r="E315" s="42" t="s">
         <v>364</v>
       </c>
     </row>
@@ -19887,7 +19880,7 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="44" t="s">
+      <c r="E316" s="42" t="s">
         <v>566</v>
       </c>
     </row>
@@ -19904,7 +19897,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="44" t="s">
+      <c r="E317" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19921,7 +19914,7 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="44" t="s">
+      <c r="E318" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19938,7 +19931,7 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="44" t="s">
+      <c r="E319" s="42" t="s">
         <v>366</v>
       </c>
     </row>
@@ -19955,7 +19948,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="44" t="s">
+      <c r="E320" s="42" t="s">
         <v>367</v>
       </c>
     </row>
@@ -19972,7 +19965,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="44" t="s">
+      <c r="E321" s="42" t="s">
         <v>368</v>
       </c>
     </row>
@@ -19989,7 +19982,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="44" t="s">
+      <c r="E322" s="42" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20006,7 +19999,7 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="44" t="s">
+      <c r="E323" s="42" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20023,7 +20016,7 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="44" t="s">
+      <c r="E324" s="42" t="s">
         <v>369</v>
       </c>
     </row>
@@ -20040,7 +20033,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="44" t="s">
+      <c r="E325" s="42" t="s">
         <v>370</v>
       </c>
     </row>
@@ -20057,7 +20050,7 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="44" t="s">
+      <c r="E326" s="42" t="s">
         <v>371</v>
       </c>
     </row>
@@ -20074,7 +20067,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="44" t="s">
+      <c r="E327" s="42" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20091,7 +20084,7 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="44" t="s">
+      <c r="E328" s="42" t="s">
         <v>569</v>
       </c>
     </row>
@@ -20108,7 +20101,7 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="44" t="s">
+      <c r="E329" s="42" t="s">
         <v>570</v>
       </c>
     </row>
@@ -20125,7 +20118,7 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="44" t="s">
+      <c r="E330" s="42" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20142,7 +20135,7 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="44" t="s">
+      <c r="E331" s="42" t="s">
         <v>374</v>
       </c>
     </row>
@@ -20159,7 +20152,7 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="44" t="s">
+      <c r="E332" s="42" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20176,7 +20169,7 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="44" t="s">
+      <c r="E333" s="42" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20193,7 +20186,7 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="44" t="s">
+      <c r="E334" s="42" t="s">
         <v>571</v>
       </c>
     </row>
@@ -20210,7 +20203,7 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="44" t="s">
+      <c r="E335" s="42" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20227,7 +20220,7 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="44" t="s">
+      <c r="E336" s="42" t="s">
         <v>377</v>
       </c>
     </row>
@@ -20244,7 +20237,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="44" t="s">
+      <c r="E337" s="42" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20261,7 +20254,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="44" t="s">
+      <c r="E338" s="42" t="s">
         <v>379</v>
       </c>
     </row>
@@ -20278,7 +20271,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="44" t="s">
+      <c r="E339" s="42" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20295,7 +20288,7 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="44" t="s">
+      <c r="E340" s="42" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20312,7 +20305,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="44" t="s">
+      <c r="E341" s="42" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20329,7 +20322,7 @@
       <c r="D342" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E342" s="33" t="s">
+      <c r="E342" s="32" t="s">
         <v>583</v>
       </c>
     </row>
@@ -20346,7 +20339,7 @@
       <c r="D343" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E343" s="33" t="s">
+      <c r="E343" s="32" t="s">
         <v>584</v>
       </c>
     </row>
@@ -20363,7 +20356,7 @@
       <c r="D344" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E344" s="33" t="s">
+      <c r="E344" s="32" t="s">
         <v>585</v>
       </c>
     </row>
@@ -20463,564 +20456,564 @@
         <v>606</v>
       </c>
       <c r="D350" s="13"/>
-      <c r="E350" s="33"/>
-    </row>
-    <row r="351" spans="1:5" s="52" customFormat="1">
+      <c r="E350" s="32"/>
+    </row>
+    <row r="351" spans="1:5" s="49" customFormat="1">
       <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="53" t="s">
+      <c r="C351" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="54" t="s">
+      <c r="D351" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="56" t="s">
+      <c r="E351" s="53" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="52" customFormat="1">
+    <row r="352" spans="1:5" s="49" customFormat="1">
       <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="54" t="s">
+      <c r="C352" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="54" t="s">
+      <c r="D352" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="56" t="s">
+      <c r="E352" s="53" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="52" customFormat="1">
+    <row r="353" spans="1:5" s="49" customFormat="1">
       <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="54" t="s">
+      <c r="C353" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="54" t="s">
+      <c r="D353" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="56" t="s">
+      <c r="E353" s="53" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="52" customFormat="1">
+    <row r="354" spans="1:5" s="49" customFormat="1">
       <c r="A354" s="17">
         <v>353</v>
       </c>
       <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="54" t="s">
+      <c r="C354" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="54" t="s">
+      <c r="D354" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="56" t="s">
+      <c r="E354" s="53" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="52" customFormat="1">
+    <row r="355" spans="1:5" s="49" customFormat="1">
       <c r="A355" s="17">
         <v>354</v>
       </c>
       <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="54" t="s">
+      <c r="C355" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="53" t="s">
+      <c r="D355" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="56" t="s">
+      <c r="E355" s="53" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="52" customFormat="1">
+    <row r="356" spans="1:5" s="49" customFormat="1">
       <c r="A356" s="17">
         <v>355</v>
       </c>
       <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="54" t="s">
+      <c r="C356" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="53" t="s">
+      <c r="D356" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="56" t="s">
+      <c r="E356" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="52" customFormat="1">
+    <row r="357" spans="1:5" s="49" customFormat="1">
       <c r="A357" s="17">
         <v>356</v>
       </c>
       <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="54" t="s">
+      <c r="C357" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="54" t="s">
+      <c r="D357" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="56" t="s">
+      <c r="E357" s="53" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="52" customFormat="1">
+    <row r="358" spans="1:5" s="49" customFormat="1">
       <c r="A358" s="17">
         <v>357</v>
       </c>
       <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="54" t="s">
+      <c r="C358" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="54" t="s">
+      <c r="D358" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="56" t="s">
+      <c r="E358" s="53" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="52" customFormat="1">
+    <row r="359" spans="1:5" s="49" customFormat="1">
       <c r="A359" s="17">
         <v>358</v>
       </c>
       <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="54" t="s">
+      <c r="C359" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="54" t="s">
+      <c r="D359" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="56" t="s">
+      <c r="E359" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="46" customFormat="1">
+    <row r="360" spans="1:5" s="44" customFormat="1">
       <c r="A360" s="17">
         <v>359</v>
       </c>
       <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="55" t="s">
+      <c r="C360" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="55" t="s">
+      <c r="D360" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="57" t="s">
+      <c r="E360" s="54" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="46" customFormat="1">
+    <row r="361" spans="1:5" s="44" customFormat="1">
       <c r="A361" s="17">
         <v>360</v>
       </c>
       <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="55" t="s">
+      <c r="C361" s="52" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="55" t="s">
+      <c r="D361" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="57" t="s">
+      <c r="E361" s="54" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="46" customFormat="1">
+    <row r="362" spans="1:5" s="44" customFormat="1">
       <c r="A362" s="17">
         <v>361</v>
       </c>
       <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="55" t="s">
+      <c r="C362" s="52" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="55" t="s">
+      <c r="D362" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="57" t="s">
+      <c r="E362" s="54" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="46" customFormat="1">
+    <row r="363" spans="1:5" s="44" customFormat="1">
       <c r="A363" s="17">
         <v>362</v>
       </c>
       <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="55" t="s">
+      <c r="C363" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="55" t="s">
+      <c r="D363" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="57" t="s">
+      <c r="E363" s="54" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="46" customFormat="1">
+    <row r="364" spans="1:5" s="44" customFormat="1">
       <c r="A364" s="17">
         <v>363</v>
       </c>
       <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="55" t="s">
+      <c r="C364" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="47" t="s">
+      <c r="D364" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="57" t="s">
+      <c r="E364" s="54" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="46" customFormat="1">
+    <row r="365" spans="1:5" s="44" customFormat="1">
       <c r="A365" s="17">
         <v>364</v>
       </c>
       <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="55" t="s">
+      <c r="C365" s="52" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="47" t="s">
+      <c r="D365" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="57" t="s">
+      <c r="E365" s="54" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="46" customFormat="1">
+    <row r="366" spans="1:5" s="44" customFormat="1">
       <c r="A366" s="17">
         <v>365</v>
       </c>
       <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="55" t="s">
+      <c r="C366" s="52" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="57" t="s">
+      <c r="E366" s="54" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="46" customFormat="1">
+    <row r="367" spans="1:5" s="44" customFormat="1">
       <c r="A367" s="17">
         <v>366</v>
       </c>
       <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="55" t="s">
+      <c r="C367" s="52" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="55" t="s">
+      <c r="D367" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="57" t="s">
+      <c r="E367" s="54" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="46" customFormat="1">
+    <row r="368" spans="1:5" s="44" customFormat="1">
       <c r="A368" s="17">
         <v>367</v>
       </c>
       <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="55" t="s">
+      <c r="C368" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="55" t="s">
+      <c r="D368" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="57" t="s">
+      <c r="E368" s="54" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="52" customFormat="1">
+    <row r="369" spans="1:5" s="49" customFormat="1">
       <c r="A369" s="17">
         <v>368</v>
       </c>
       <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="54" t="s">
+      <c r="C369" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="54" t="s">
+      <c r="D369" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="56" t="s">
+      <c r="E369" s="53" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="52" customFormat="1">
+    <row r="370" spans="1:5" s="49" customFormat="1">
       <c r="A370" s="17">
         <v>369</v>
       </c>
       <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="54" t="s">
+      <c r="C370" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="54" t="s">
+      <c r="D370" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="56" t="s">
+      <c r="E370" s="53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="52" customFormat="1">
+    <row r="371" spans="1:5" s="49" customFormat="1">
       <c r="A371" s="17">
         <v>370</v>
       </c>
       <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="54" t="s">
+      <c r="C371" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="54" t="s">
+      <c r="D371" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="56" t="s">
+      <c r="E371" s="53" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="52" customFormat="1">
+    <row r="372" spans="1:5" s="49" customFormat="1">
       <c r="A372" s="17">
         <v>371</v>
       </c>
       <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="54" t="s">
+      <c r="C372" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="54" t="s">
+      <c r="D372" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="56" t="s">
+      <c r="E372" s="53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="52" customFormat="1">
+    <row r="373" spans="1:5" s="49" customFormat="1">
       <c r="A373" s="17">
         <v>372</v>
       </c>
       <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="54" t="s">
+      <c r="C373" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="53" t="s">
+      <c r="D373" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="56" t="s">
+      <c r="E373" s="53" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="52" customFormat="1">
+    <row r="374" spans="1:5" s="49" customFormat="1">
       <c r="A374" s="17">
         <v>373</v>
       </c>
       <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="54" t="s">
+      <c r="C374" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="53" t="s">
+      <c r="D374" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="56" t="s">
+      <c r="E374" s="53" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="52" customFormat="1">
+    <row r="375" spans="1:5" s="49" customFormat="1">
       <c r="A375" s="17">
         <v>374</v>
       </c>
       <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="54" t="s">
+      <c r="C375" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="54" t="s">
+      <c r="D375" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="56" t="s">
+      <c r="E375" s="53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="52" customFormat="1">
+    <row r="376" spans="1:5" s="49" customFormat="1">
       <c r="A376" s="17">
         <v>375</v>
       </c>
       <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="54" t="s">
+      <c r="C376" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="54" t="s">
+      <c r="D376" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="56" t="s">
+      <c r="E376" s="53" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="52" customFormat="1">
+    <row r="377" spans="1:5" s="49" customFormat="1">
       <c r="A377" s="17">
         <v>376</v>
       </c>
       <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="54" t="s">
+      <c r="C377" s="51" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="54" t="s">
+      <c r="D377" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="56" t="s">
+      <c r="E377" s="53" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="65" customFormat="1">
+    <row r="378" spans="1:5" s="59" customFormat="1">
       <c r="A378" s="17">
         <v>377</v>
       </c>
       <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="63" t="s">
+      <c r="C378" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="63" t="s">
+      <c r="D378" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="66" t="s">
+      <c r="E378" s="60" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="65" customFormat="1">
+    <row r="379" spans="1:5" s="59" customFormat="1">
       <c r="A379" s="17">
         <v>378</v>
       </c>
       <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="67" t="s">
+      <c r="C379" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="67" t="s">
+      <c r="D379" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="66" t="s">
+      <c r="E379" s="60" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="65" customFormat="1">
+    <row r="380" spans="1:5" s="59" customFormat="1">
       <c r="A380" s="17">
         <v>379</v>
       </c>
       <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="67" t="s">
+      <c r="C380" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="63" t="s">
+      <c r="D380" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="66" t="s">
+      <c r="E380" s="60" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="65" customFormat="1">
+    <row r="381" spans="1:5" s="59" customFormat="1">
       <c r="A381" s="17">
         <v>380</v>
       </c>
       <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="67" t="s">
+      <c r="C381" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="67" t="s">
+      <c r="D381" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="66" t="s">
+      <c r="E381" s="60" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="65" customFormat="1">
+    <row r="382" spans="1:5" s="59" customFormat="1">
       <c r="A382" s="17">
         <v>381</v>
       </c>
       <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="67" t="s">
+      <c r="C382" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="67" t="s">
+      <c r="D382" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="66" t="s">
+      <c r="E382" s="60" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="65" customFormat="1">
+    <row r="383" spans="1:5" s="59" customFormat="1">
       <c r="A383" s="17">
         <v>382</v>
       </c>
       <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="67" t="s">
+      <c r="C383" s="61" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="63"/>
-      <c r="E383" s="68"/>
+      <c r="D383" s="57"/>
+      <c r="E383" s="62"/>
     </row>
     <row r="384" spans="1:5" ht="16.5">
       <c r="A384" s="17">
@@ -21032,10 +21025,10 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="45" t="s">
+      <c r="D384" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="44" t="s">
+      <c r="E384" s="42" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21049,10 +21042,10 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="45" t="s">
+      <c r="D385" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="44" t="s">
+      <c r="E385" s="42" t="s">
         <v>677</v>
       </c>
     </row>
@@ -21063,13 +21056,13 @@
       <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="70" t="s">
+      <c r="C386" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="75" t="s">
+      <c r="D386" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="77" t="s">
+      <c r="E386" s="67" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21080,13 +21073,13 @@
       <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="70" t="s">
+      <c r="C387" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="75" t="s">
+      <c r="D387" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="77" t="s">
+      <c r="E387" s="67" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21097,13 +21090,13 @@
       <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="70" t="s">
+      <c r="C388" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="75" t="s">
+      <c r="D388" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="77" t="s">
+      <c r="E388" s="67" t="s">
         <v>355</v>
       </c>
     </row>
@@ -21114,13 +21107,13 @@
       <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="70" t="s">
+      <c r="C389" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="75" t="s">
+      <c r="D389" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="77" t="s">
+      <c r="E389" s="67" t="s">
         <v>356</v>
       </c>
     </row>
@@ -21131,13 +21124,13 @@
       <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="70" t="s">
+      <c r="C390" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="75" t="s">
+      <c r="D390" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="77" t="s">
+      <c r="E390" s="67" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21148,13 +21141,13 @@
       <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="70" t="s">
+      <c r="C391" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="75" t="s">
+      <c r="D391" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="77" t="s">
+      <c r="E391" s="67" t="s">
         <v>565</v>
       </c>
     </row>
@@ -21165,13 +21158,13 @@
       <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="70" t="s">
+      <c r="C392" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="75" t="s">
+      <c r="D392" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="77" t="s">
+      <c r="E392" s="67" t="s">
         <v>361</v>
       </c>
     </row>
@@ -21182,13 +21175,13 @@
       <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="70" t="s">
+      <c r="C393" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="75" t="s">
+      <c r="D393" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="77" t="s">
+      <c r="E393" s="67" t="s">
         <v>362</v>
       </c>
     </row>
@@ -21199,13 +21192,13 @@
       <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="70" t="s">
+      <c r="C394" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="75" t="s">
+      <c r="D394" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="77" t="s">
+      <c r="E394" s="67" t="s">
         <v>363</v>
       </c>
     </row>
@@ -21216,13 +21209,13 @@
       <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="70" t="s">
+      <c r="C395" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="75" t="s">
+      <c r="D395" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="77" t="s">
+      <c r="E395" s="67" t="s">
         <v>364</v>
       </c>
     </row>
@@ -21233,13 +21226,13 @@
       <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="70" t="s">
+      <c r="C396" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="75" t="s">
+      <c r="D396" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="77" t="s">
+      <c r="E396" s="67" t="s">
         <v>566</v>
       </c>
     </row>
@@ -21250,13 +21243,13 @@
       <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="70" t="s">
+      <c r="C397" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="75" t="s">
+      <c r="D397" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="77" t="s">
+      <c r="E397" s="67" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21267,13 +21260,13 @@
       <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="70" t="s">
+      <c r="C398" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="75" t="s">
+      <c r="D398" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="77" t="s">
+      <c r="E398" s="67" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21284,13 +21277,13 @@
       <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="70" t="s">
+      <c r="C399" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="75" t="s">
+      <c r="D399" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="77" t="s">
+      <c r="E399" s="67" t="s">
         <v>366</v>
       </c>
     </row>
@@ -21301,13 +21294,13 @@
       <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="70" t="s">
+      <c r="C400" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="75" t="s">
+      <c r="D400" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="77" t="s">
+      <c r="E400" s="67" t="s">
         <v>367</v>
       </c>
     </row>
@@ -21318,13 +21311,13 @@
       <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="70" t="s">
+      <c r="C401" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="75" t="s">
+      <c r="D401" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="77" t="s">
+      <c r="E401" s="67" t="s">
         <v>368</v>
       </c>
     </row>
@@ -21335,13 +21328,13 @@
       <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="70" t="s">
+      <c r="C402" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="75" t="s">
+      <c r="D402" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="77" t="s">
+      <c r="E402" s="67" t="s">
         <v>567</v>
       </c>
     </row>
@@ -21352,13 +21345,13 @@
       <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="70" t="s">
+      <c r="C403" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="75" t="s">
+      <c r="D403" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="77" t="s">
+      <c r="E403" s="67" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21369,13 +21362,13 @@
       <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="70" t="s">
+      <c r="C404" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="75" t="s">
+      <c r="D404" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="77" t="s">
+      <c r="E404" s="67" t="s">
         <v>369</v>
       </c>
     </row>
@@ -21386,13 +21379,13 @@
       <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="70" t="s">
+      <c r="C405" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="75" t="s">
+      <c r="D405" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="77" t="s">
+      <c r="E405" s="67" t="s">
         <v>370</v>
       </c>
     </row>
@@ -21403,13 +21396,13 @@
       <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="70" t="s">
+      <c r="C406" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="75" t="s">
+      <c r="D406" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="77" t="s">
+      <c r="E406" s="67" t="s">
         <v>371</v>
       </c>
     </row>
@@ -21420,13 +21413,13 @@
       <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="70" t="s">
+      <c r="C407" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="75" t="s">
+      <c r="D407" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="77" t="s">
+      <c r="E407" s="67" t="s">
         <v>372</v>
       </c>
     </row>
@@ -21437,13 +21430,13 @@
       <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="70" t="s">
+      <c r="C408" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="75" t="s">
+      <c r="D408" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="77" t="s">
+      <c r="E408" s="67" t="s">
         <v>569</v>
       </c>
     </row>
@@ -21454,13 +21447,13 @@
       <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="70" t="s">
+      <c r="C409" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="75" t="s">
+      <c r="D409" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="77" t="s">
+      <c r="E409" s="67" t="s">
         <v>570</v>
       </c>
     </row>
@@ -21471,13 +21464,13 @@
       <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="70" t="s">
+      <c r="C410" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="75" t="s">
+      <c r="D410" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="77" t="s">
+      <c r="E410" s="67" t="s">
         <v>373</v>
       </c>
     </row>
@@ -21488,13 +21481,13 @@
       <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="70" t="s">
+      <c r="C411" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="75" t="s">
+      <c r="D411" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="77" t="s">
+      <c r="E411" s="67" t="s">
         <v>374</v>
       </c>
     </row>
@@ -21505,13 +21498,13 @@
       <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="70" t="s">
+      <c r="C412" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="75" t="s">
+      <c r="D412" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="77" t="s">
+      <c r="E412" s="67" t="s">
         <v>375</v>
       </c>
     </row>
@@ -21522,13 +21515,13 @@
       <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="70" t="s">
+      <c r="C413" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="75" t="s">
+      <c r="D413" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="77" t="s">
+      <c r="E413" s="67" t="s">
         <v>376</v>
       </c>
     </row>
@@ -21539,13 +21532,13 @@
       <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="70" t="s">
+      <c r="C414" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="75" t="s">
+      <c r="D414" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="77" t="s">
+      <c r="E414" s="67" t="s">
         <v>571</v>
       </c>
     </row>
@@ -21556,13 +21549,13 @@
       <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="70" t="s">
+      <c r="C415" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="75" t="s">
+      <c r="D415" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="77" t="s">
+      <c r="E415" s="67" t="s">
         <v>572</v>
       </c>
     </row>
@@ -21573,13 +21566,13 @@
       <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="70" t="s">
+      <c r="C416" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="75" t="s">
+      <c r="D416" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="77" t="s">
+      <c r="E416" s="67" t="s">
         <v>377</v>
       </c>
     </row>
@@ -21590,13 +21583,13 @@
       <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="70" t="s">
+      <c r="C417" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="75" t="s">
+      <c r="D417" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="77" t="s">
+      <c r="E417" s="67" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21607,13 +21600,13 @@
       <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="70" t="s">
+      <c r="C418" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="75" t="s">
+      <c r="D418" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="77" t="s">
+      <c r="E418" s="67" t="s">
         <v>379</v>
       </c>
     </row>
@@ -21624,13 +21617,13 @@
       <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="70" t="s">
+      <c r="C419" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="75" t="s">
+      <c r="D419" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="67" t="s">
         <v>380</v>
       </c>
     </row>
@@ -21641,13 +21634,13 @@
       <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="70" t="s">
+      <c r="C420" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="75" t="s">
+      <c r="D420" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="77" t="s">
+      <c r="E420" s="67" t="s">
         <v>573</v>
       </c>
     </row>
@@ -21658,13 +21651,13 @@
       <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="70" t="s">
+      <c r="C421" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="75" t="s">
+      <c r="D421" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="77" t="s">
+      <c r="E421" s="67" t="s">
         <v>574</v>
       </c>
     </row>
@@ -21675,13 +21668,13 @@
       <c r="B422" s="13">
         <v>11895</v>
       </c>
-      <c r="C422" s="40" t="s">
+      <c r="C422" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="39" t="s">
+      <c r="D422" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E422" s="41" t="s">
+      <c r="E422" s="39" t="s">
         <v>686</v>
       </c>
     </row>
@@ -21692,13 +21685,13 @@
       <c r="B423" s="13">
         <v>11896</v>
       </c>
-      <c r="C423" s="40" t="s">
+      <c r="C423" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="D423" s="40" t="s">
+      <c r="D423" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="41" t="s">
+      <c r="E423" s="39" t="s">
         <v>687</v>
       </c>
     </row>
@@ -21709,13 +21702,13 @@
       <c r="B424" s="13">
         <v>11897</v>
       </c>
-      <c r="C424" s="40" t="s">
+      <c r="C424" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="D424" s="39" t="s">
+      <c r="D424" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E424" s="41" t="s">
+      <c r="E424" s="39" t="s">
         <v>688</v>
       </c>
     </row>
@@ -21726,13 +21719,13 @@
       <c r="B425" s="13">
         <v>11898</v>
       </c>
-      <c r="C425" s="40" t="s">
+      <c r="C425" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="D425" s="40" t="s">
+      <c r="D425" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="E425" s="41" t="s">
+      <c r="E425" s="39" t="s">
         <v>689</v>
       </c>
     </row>
@@ -21743,13 +21736,13 @@
       <c r="B426" s="13">
         <v>11899</v>
       </c>
-      <c r="C426" s="40" t="s">
+      <c r="C426" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="D426" s="39" t="s">
+      <c r="D426" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E426" s="41" t="s">
+      <c r="E426" s="39" t="s">
         <v>690</v>
       </c>
     </row>
@@ -21760,24 +21753,24 @@
       <c r="B427" s="13">
         <v>11900</v>
       </c>
-      <c r="C427" s="40" t="s">
+      <c r="C427" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="39"/>
-      <c r="E427" s="82"/>
+      <c r="D427" s="37"/>
+      <c r="E427" s="68"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="17">
         <v>427</v>
       </c>
-      <c r="B428" s="53">
+      <c r="B428" s="50">
         <v>11901</v>
       </c>
-      <c r="C428" s="53"/>
-      <c r="D428" s="53" t="s">
+      <c r="C428" s="50"/>
+      <c r="D428" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E428" s="56" t="s">
+      <c r="E428" s="53" t="s">
         <v>699</v>
       </c>
     </row>
@@ -21785,14 +21778,14 @@
       <c r="A429" s="17">
         <v>428</v>
       </c>
-      <c r="B429" s="53">
+      <c r="B429" s="50">
         <v>11902</v>
       </c>
-      <c r="C429" s="53"/>
-      <c r="D429" s="53" t="s">
+      <c r="C429" s="50"/>
+      <c r="D429" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E429" s="56" t="s">
+      <c r="E429" s="53" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21800,14 +21793,14 @@
       <c r="A430" s="17">
         <v>429</v>
       </c>
-      <c r="B430" s="53">
+      <c r="B430" s="50">
         <v>11903</v>
       </c>
-      <c r="C430" s="53"/>
-      <c r="D430" s="53" t="s">
+      <c r="C430" s="50"/>
+      <c r="D430" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E430" s="56" t="s">
+      <c r="E430" s="53" t="s">
         <v>701</v>
       </c>
     </row>
@@ -21815,14 +21808,14 @@
       <c r="A431" s="17">
         <v>430</v>
       </c>
-      <c r="B431" s="53">
+      <c r="B431" s="50">
         <v>11904</v>
       </c>
-      <c r="C431" s="53"/>
-      <c r="D431" s="54" t="s">
+      <c r="C431" s="50"/>
+      <c r="D431" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E431" s="56" t="s">
+      <c r="E431" s="53" t="s">
         <v>702</v>
       </c>
     </row>
@@ -21830,14 +21823,14 @@
       <c r="A432" s="17">
         <v>431</v>
       </c>
-      <c r="B432" s="53">
+      <c r="B432" s="50">
         <v>11905</v>
       </c>
-      <c r="C432" s="53"/>
-      <c r="D432" s="54" t="s">
+      <c r="C432" s="50"/>
+      <c r="D432" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E432" s="56" t="s">
+      <c r="E432" s="53" t="s">
         <v>703</v>
       </c>
     </row>
@@ -21845,14 +21838,14 @@
       <c r="A433" s="17">
         <v>432</v>
       </c>
-      <c r="B433" s="53">
+      <c r="B433" s="50">
         <v>11906</v>
       </c>
-      <c r="C433" s="53"/>
-      <c r="D433" s="54" t="s">
+      <c r="C433" s="50"/>
+      <c r="D433" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E433" s="56" t="s">
+      <c r="E433" s="53" t="s">
         <v>704</v>
       </c>
     </row>
@@ -21860,14 +21853,14 @@
       <c r="A434" s="17">
         <v>433</v>
       </c>
-      <c r="B434" s="53">
+      <c r="B434" s="50">
         <v>11907</v>
       </c>
-      <c r="C434" s="53"/>
-      <c r="D434" s="54" t="s">
+      <c r="C434" s="50"/>
+      <c r="D434" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E434" s="56" t="s">
+      <c r="E434" s="53" t="s">
         <v>705</v>
       </c>
     </row>
@@ -21875,14 +21868,14 @@
       <c r="A435" s="17">
         <v>434</v>
       </c>
-      <c r="B435" s="53">
+      <c r="B435" s="50">
         <v>11908</v>
       </c>
-      <c r="C435" s="53"/>
-      <c r="D435" s="54" t="s">
+      <c r="C435" s="50"/>
+      <c r="D435" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E435" s="56" t="s">
+      <c r="E435" s="53" t="s">
         <v>706</v>
       </c>
     </row>
@@ -21890,14 +21883,14 @@
       <c r="A436" s="17">
         <v>435</v>
       </c>
-      <c r="B436" s="53">
+      <c r="B436" s="50">
         <v>11909</v>
       </c>
-      <c r="C436" s="53"/>
-      <c r="D436" s="54" t="s">
+      <c r="C436" s="50"/>
+      <c r="D436" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E436" s="56" t="s">
+      <c r="E436" s="53" t="s">
         <v>707</v>
       </c>
     </row>
@@ -21905,14 +21898,14 @@
       <c r="A437" s="17">
         <v>436</v>
       </c>
-      <c r="B437" s="53">
+      <c r="B437" s="50">
         <v>11911</v>
       </c>
-      <c r="C437" s="53"/>
-      <c r="D437" s="53" t="s">
+      <c r="C437" s="50"/>
+      <c r="D437" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E437" s="56" t="s">
+      <c r="E437" s="53" t="s">
         <v>708</v>
       </c>
     </row>
@@ -21920,14 +21913,14 @@
       <c r="A438" s="17">
         <v>437</v>
       </c>
-      <c r="B438" s="53">
+      <c r="B438" s="50">
         <v>11912</v>
       </c>
-      <c r="C438" s="53"/>
-      <c r="D438" s="53" t="s">
+      <c r="C438" s="50"/>
+      <c r="D438" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E438" s="56" t="s">
+      <c r="E438" s="53" t="s">
         <v>709</v>
       </c>
     </row>
@@ -21935,14 +21928,14 @@
       <c r="A439" s="17">
         <v>438</v>
       </c>
-      <c r="B439" s="53">
+      <c r="B439" s="50">
         <v>11913</v>
       </c>
-      <c r="C439" s="53"/>
-      <c r="D439" s="53" t="s">
+      <c r="C439" s="50"/>
+      <c r="D439" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E439" s="56" t="s">
+      <c r="E439" s="53" t="s">
         <v>710</v>
       </c>
     </row>
@@ -21950,14 +21943,14 @@
       <c r="A440" s="17">
         <v>439</v>
       </c>
-      <c r="B440" s="53">
+      <c r="B440" s="50">
         <v>11914</v>
       </c>
-      <c r="C440" s="53"/>
-      <c r="D440" s="54" t="s">
+      <c r="C440" s="50"/>
+      <c r="D440" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E440" s="56" t="s">
+      <c r="E440" s="53" t="s">
         <v>711</v>
       </c>
     </row>
@@ -21965,14 +21958,14 @@
       <c r="A441" s="17">
         <v>440</v>
       </c>
-      <c r="B441" s="53">
+      <c r="B441" s="50">
         <v>11915</v>
       </c>
-      <c r="C441" s="53"/>
-      <c r="D441" s="54" t="s">
+      <c r="C441" s="50"/>
+      <c r="D441" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E441" s="56" t="s">
+      <c r="E441" s="53" t="s">
         <v>712</v>
       </c>
     </row>
@@ -21980,14 +21973,14 @@
       <c r="A442" s="17">
         <v>441</v>
       </c>
-      <c r="B442" s="53">
+      <c r="B442" s="50">
         <v>11916</v>
       </c>
-      <c r="C442" s="53"/>
-      <c r="D442" s="54" t="s">
+      <c r="C442" s="50"/>
+      <c r="D442" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E442" s="56" t="s">
+      <c r="E442" s="53" t="s">
         <v>713</v>
       </c>
     </row>
@@ -21995,14 +21988,14 @@
       <c r="A443" s="17">
         <v>442</v>
       </c>
-      <c r="B443" s="53">
+      <c r="B443" s="50">
         <v>11917</v>
       </c>
-      <c r="C443" s="53"/>
-      <c r="D443" s="54" t="s">
+      <c r="C443" s="50"/>
+      <c r="D443" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E443" s="56" t="s">
+      <c r="E443" s="53" t="s">
         <v>714</v>
       </c>
     </row>
@@ -22010,14 +22003,14 @@
       <c r="A444" s="17">
         <v>443</v>
       </c>
-      <c r="B444" s="53">
+      <c r="B444" s="50">
         <v>11918</v>
       </c>
-      <c r="C444" s="53"/>
-      <c r="D444" s="54" t="s">
+      <c r="C444" s="50"/>
+      <c r="D444" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E444" s="56" t="s">
+      <c r="E444" s="53" t="s">
         <v>715</v>
       </c>
     </row>
@@ -22025,14 +22018,14 @@
       <c r="A445" s="17">
         <v>444</v>
       </c>
-      <c r="B445" s="53">
+      <c r="B445" s="50">
         <v>11919</v>
       </c>
-      <c r="C445" s="53"/>
-      <c r="D445" s="54" t="s">
+      <c r="C445" s="50"/>
+      <c r="D445" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E445" s="56" t="s">
+      <c r="E445" s="53" t="s">
         <v>716</v>
       </c>
     </row>
@@ -22040,14 +22033,14 @@
       <c r="A446" s="17">
         <v>445</v>
       </c>
-      <c r="B446" s="53">
+      <c r="B446" s="50">
         <v>11921</v>
       </c>
-      <c r="C446" s="53"/>
-      <c r="D446" s="53" t="s">
+      <c r="C446" s="50"/>
+      <c r="D446" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E446" s="56" t="s">
+      <c r="E446" s="53" t="s">
         <v>709</v>
       </c>
     </row>
@@ -22055,14 +22048,14 @@
       <c r="A447" s="17">
         <v>446</v>
       </c>
-      <c r="B447" s="53">
+      <c r="B447" s="50">
         <v>11922</v>
       </c>
-      <c r="C447" s="53"/>
-      <c r="D447" s="53" t="s">
+      <c r="C447" s="50"/>
+      <c r="D447" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E447" s="56" t="s">
+      <c r="E447" s="53" t="s">
         <v>717</v>
       </c>
     </row>
@@ -22070,14 +22063,14 @@
       <c r="A448" s="17">
         <v>447</v>
       </c>
-      <c r="B448" s="53">
+      <c r="B448" s="50">
         <v>11923</v>
       </c>
-      <c r="C448" s="53"/>
-      <c r="D448" s="53" t="s">
+      <c r="C448" s="50"/>
+      <c r="D448" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E448" s="56" t="s">
+      <c r="E448" s="53" t="s">
         <v>718</v>
       </c>
     </row>
@@ -22085,14 +22078,14 @@
       <c r="A449" s="17">
         <v>448</v>
       </c>
-      <c r="B449" s="53">
+      <c r="B449" s="50">
         <v>11924</v>
       </c>
-      <c r="C449" s="53"/>
-      <c r="D449" s="54" t="s">
+      <c r="C449" s="50"/>
+      <c r="D449" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E449" s="56" t="s">
+      <c r="E449" s="53" t="s">
         <v>719</v>
       </c>
     </row>
@@ -22100,14 +22093,14 @@
       <c r="A450" s="17">
         <v>449</v>
       </c>
-      <c r="B450" s="53">
+      <c r="B450" s="50">
         <v>11925</v>
       </c>
-      <c r="C450" s="53"/>
-      <c r="D450" s="54" t="s">
+      <c r="C450" s="50"/>
+      <c r="D450" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E450" s="56" t="s">
+      <c r="E450" s="53" t="s">
         <v>720</v>
       </c>
     </row>
@@ -22115,14 +22108,14 @@
       <c r="A451" s="17">
         <v>450</v>
       </c>
-      <c r="B451" s="53">
+      <c r="B451" s="50">
         <v>11926</v>
       </c>
-      <c r="C451" s="53"/>
-      <c r="D451" s="54" t="s">
+      <c r="C451" s="50"/>
+      <c r="D451" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E451" s="56" t="s">
+      <c r="E451" s="53" t="s">
         <v>721</v>
       </c>
     </row>
@@ -22130,14 +22123,14 @@
       <c r="A452" s="17">
         <v>451</v>
       </c>
-      <c r="B452" s="53">
+      <c r="B452" s="50">
         <v>11927</v>
       </c>
-      <c r="C452" s="53"/>
-      <c r="D452" s="54" t="s">
+      <c r="C452" s="50"/>
+      <c r="D452" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E452" s="56" t="s">
+      <c r="E452" s="53" t="s">
         <v>722</v>
       </c>
     </row>
@@ -22145,14 +22138,14 @@
       <c r="A453" s="17">
         <v>452</v>
       </c>
-      <c r="B453" s="53">
+      <c r="B453" s="50">
         <v>11928</v>
       </c>
-      <c r="C453" s="53"/>
-      <c r="D453" s="54" t="s">
+      <c r="C453" s="50"/>
+      <c r="D453" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E453" s="56" t="s">
+      <c r="E453" s="53" t="s">
         <v>723</v>
       </c>
     </row>
@@ -22160,14 +22153,14 @@
       <c r="A454" s="17">
         <v>453</v>
       </c>
-      <c r="B454" s="53">
+      <c r="B454" s="50">
         <v>11929</v>
       </c>
-      <c r="C454" s="53"/>
-      <c r="D454" s="54" t="s">
+      <c r="C454" s="50"/>
+      <c r="D454" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E454" s="56" t="s">
+      <c r="E454" s="53" t="s">
         <v>724</v>
       </c>
     </row>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="award" sheetId="3" r:id="rId4"/>
     <sheet name="award_item" sheetId="7" r:id="rId5"/>
     <sheet name="weight" sheetId="6" r:id="rId6"/>
+    <sheet name="treasury_score|奖励积分" sheetId="9" r:id="rId7"/>
+    <sheet name="all_exchange_data|一键兑换" sheetId="10" r:id="rId8"/>
+    <sheet name="all_powerful|万能兑换" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">weight!$A$1:$D$61</definedName>
@@ -89,8 +92,111 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为空不给排行榜加积分
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数组：随机
+数字：固定值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为空积分翻倍参照base_score;不为空则参照自身（数字，不是表）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+award_rate配套的任务
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="738">
   <si>
     <t>id|</t>
   </si>
@@ -4653,12 +4759,51 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>box_id|宝箱id</t>
+  </si>
+  <si>
+    <t>rank_type|排行榜类型</t>
+  </si>
+  <si>
+    <t>prop_type|积分类型</t>
+  </si>
+  <si>
+    <t>base_score|基础积分</t>
+  </si>
+  <si>
+    <t>treasury_score|额外积分</t>
+  </si>
+  <si>
+    <t>task_id|任务id</t>
+  </si>
+  <si>
+    <t>award_rate|翻倍倍数</t>
+  </si>
+  <si>
+    <t>key|一件兑换key</t>
+  </si>
+  <si>
+    <t>min|最小box_id</t>
+  </si>
+  <si>
+    <t>max|最大box_id</t>
+  </si>
+  <si>
+    <t>|备注</t>
+  </si>
+  <si>
+    <t>价值排序box_id对应的奖励价值小-&gt;大</t>
+  </si>
+  <si>
+    <t>all_powerful_type|万能道具类型</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4765,8 +4910,31 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4833,6 +5001,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4873,7 +5047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5071,6 +5245,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5351,7 +5531,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
@@ -22178,7 +22358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23237,4 +23417,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40.5">
+      <c r="A1" s="72" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27">
+      <c r="A1" s="72" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="73" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>737</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="award" sheetId="3" r:id="rId4"/>
     <sheet name="award_item" sheetId="7" r:id="rId5"/>
     <sheet name="weight" sheetId="6" r:id="rId6"/>
-    <sheet name="treasury_score|奖励积分" sheetId="9" r:id="rId7"/>
-    <sheet name="all_exchange_data|一键兑换" sheetId="10" r:id="rId8"/>
-    <sheet name="all_powerful|万能兑换" sheetId="11" r:id="rId9"/>
+    <sheet name="treasury_score|奖励积分" sheetId="8" r:id="rId7"/>
+    <sheet name="all_exchange_data|一键兑换" sheetId="9" r:id="rId8"/>
+    <sheet name="all_powerful|万能兑换" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">weight!$A$1:$D$61</definedName>
@@ -105,6 +105,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -113,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -128,6 +130,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -136,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -152,6 +156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -160,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -175,6 +181,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -183,6 +190,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
   <si>
     <t>id|</t>
   </si>
@@ -4760,6 +4768,29 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>福袋--正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>box_id|宝箱id</t>
   </si>
   <si>
@@ -4797,6 +4828,307 @@
   </si>
   <si>
     <t>all_powerful_type|万能道具类型</t>
+  </si>
+  <si>
+    <t>茅台抽奖--600-900</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖--大于900</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖--小于600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,3000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果电脑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,150000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,15000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,600000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,65</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4914,11 +5246,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4926,15 +5260,17 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4967,43 +5303,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5149,9 +5467,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5170,86 +5485,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5529,11 +5849,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5554,7 +5874,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6770,7 +7090,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6826,7 +7146,7 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>479</v>
       </c>
       <c r="C43" s="18">
@@ -6938,7 +7258,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6970,7 +7290,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -7002,7 +7322,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -7034,7 +7354,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -7066,7 +7386,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -7098,7 +7418,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -7130,7 +7450,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -7442,13 +7762,13 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="71">
+      <c r="C64" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="50">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7474,13 +7794,13 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="71">
+      <c r="C65" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="71">
+      <c r="D65" s="50">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7506,13 +7826,13 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C66" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="71">
+      <c r="D66" s="50">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7538,13 +7858,13 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="50">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7570,13 +7890,13 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C68" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="50">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7602,13 +7922,13 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="71">
+      <c r="C69" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="71">
+      <c r="D69" s="50">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7634,13 +7954,13 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="50">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="50">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -7739,6 +8059,174 @@
         <v>72</v>
       </c>
       <c r="L73" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="49" customFormat="1">
+      <c r="A74" s="49">
+        <v>73</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="C74" s="49">
+        <v>1612828800</v>
+      </c>
+      <c r="D74" s="49">
+        <v>1613404799</v>
+      </c>
+      <c r="E74" s="52">
+        <v>68</v>
+      </c>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="49">
+        <v>73</v>
+      </c>
+      <c r="L74" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="63" customFormat="1">
+      <c r="A75" s="63">
+        <v>74</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="C75" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D75" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E75" s="65">
+        <v>69</v>
+      </c>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63">
+        <v>74</v>
+      </c>
+      <c r="L75" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="63" customFormat="1">
+      <c r="A76" s="63">
+        <v>75</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="C76" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D76" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E76" s="65">
+        <v>69</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="63">
+        <v>75</v>
+      </c>
+      <c r="L76" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="63" customFormat="1">
+      <c r="A77" s="63">
+        <v>76</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C77" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D77" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E77" s="65">
+        <v>69</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63">
+        <v>76</v>
+      </c>
+      <c r="L77" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="71">
+        <v>77</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="C78" s="71">
+        <v>1613433600</v>
+      </c>
+      <c r="D78" s="71">
+        <v>1614009599</v>
+      </c>
+      <c r="E78" s="73">
+        <v>70</v>
+      </c>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="71">
+        <v>77</v>
+      </c>
+      <c r="L78" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="71">
+        <v>78</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="C79" s="71">
+        <v>1613433600</v>
+      </c>
+      <c r="D79" s="71">
+        <v>1614009599</v>
+      </c>
+      <c r="E79" s="73">
+        <v>71</v>
+      </c>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="71">
+        <v>77</v>
+      </c>
+      <c r="L79" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7753,11 +8241,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66:D68"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8263,7 +8751,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -8291,7 +8779,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -8305,7 +8793,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="40" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -8319,7 +8807,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="40" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -8333,7 +8821,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -8445,7 +8933,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="43" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8459,7 +8947,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="43" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8473,7 +8961,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="43" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8494,228 +8982,284 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="47" customFormat="1">
-      <c r="A53" s="47">
+    <row r="53" spans="1:4" s="17" customFormat="1">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="17">
         <v>52</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="47" customFormat="1">
-      <c r="A54" s="47">
+    <row r="54" spans="1:4" s="17" customFormat="1">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="17">
         <v>53</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="47" customFormat="1">
-      <c r="A55" s="47">
+    <row r="55" spans="1:4" s="17" customFormat="1">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="17">
         <v>54</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="47">
+    <row r="56" spans="1:4" s="17" customFormat="1">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="17">
         <v>55</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" s="17" customFormat="1">
       <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" s="17" customFormat="1">
       <c r="A58" s="17">
         <v>57</v>
       </c>
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" s="17" customFormat="1">
       <c r="A59" s="17">
         <v>58</v>
       </c>
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" s="17" customFormat="1">
       <c r="A60" s="17">
         <v>59</v>
       </c>
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" s="17" customFormat="1">
       <c r="A61" s="17">
         <v>60</v>
       </c>
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" s="17" customFormat="1">
       <c r="A62" s="17">
         <v>61</v>
       </c>
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" s="17" customFormat="1">
       <c r="A63" s="17">
         <v>62</v>
       </c>
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" s="17" customFormat="1">
       <c r="A64" s="17">
         <v>63</v>
       </c>
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="65">
+      <c r="D64" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" s="17" customFormat="1">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" s="17" customFormat="1">
       <c r="A66" s="17">
         <v>65</v>
       </c>
       <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D66" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" s="17" customFormat="1">
       <c r="A67" s="17">
         <v>66</v>
       </c>
       <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D67" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" s="17" customFormat="1">
       <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="D68" s="70">
+      <c r="D68" s="18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="44">
+        <v>68</v>
+      </c>
+      <c r="B69" s="44">
+        <v>68</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="D69" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="17" customFormat="1">
+      <c r="A70" s="62">
+        <v>69</v>
+      </c>
+      <c r="B70" s="62">
+        <v>69</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>747</v>
+      </c>
+      <c r="D70" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="70">
+        <v>70</v>
+      </c>
+      <c r="B71" s="70">
+        <v>70</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>757</v>
+      </c>
+      <c r="D71" s="71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="70">
+        <v>71</v>
+      </c>
+      <c r="B72" s="70">
+        <v>71</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="71">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8770,13 +9314,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B448" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E444" sqref="E444"/>
+      <selection pane="bottomRight" activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13691,1460 +14235,2062 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="55" customFormat="1">
-      <c r="A351" s="55">
+    <row r="351" spans="1:4" s="51" customFormat="1">
+      <c r="A351" s="51">
         <v>350</v>
       </c>
-      <c r="B351" s="55">
+      <c r="B351" s="51">
         <v>57</v>
       </c>
-      <c r="C351" s="55">
+      <c r="C351" s="51">
         <v>11824</v>
       </c>
-      <c r="D351" s="55">
+      <c r="D351" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="55" customFormat="1">
-      <c r="A352" s="55">
+    <row r="352" spans="1:4" s="51" customFormat="1">
+      <c r="A352" s="51">
         <v>351</v>
       </c>
-      <c r="B352" s="55">
+      <c r="B352" s="51">
         <v>57</v>
       </c>
-      <c r="C352" s="55">
+      <c r="C352" s="51">
         <v>11825</v>
       </c>
-      <c r="D352" s="55">
+      <c r="D352" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="55" customFormat="1">
-      <c r="A353" s="55">
+    <row r="353" spans="1:4" s="51" customFormat="1">
+      <c r="A353" s="51">
         <v>352</v>
       </c>
-      <c r="B353" s="55">
+      <c r="B353" s="51">
         <v>57</v>
       </c>
-      <c r="C353" s="55">
+      <c r="C353" s="51">
         <v>11826</v>
       </c>
-      <c r="D353" s="55">
+      <c r="D353" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="55" customFormat="1">
-      <c r="A354" s="55">
+    <row r="354" spans="1:4" s="51" customFormat="1">
+      <c r="A354" s="51">
         <v>353</v>
       </c>
-      <c r="B354" s="55">
+      <c r="B354" s="51">
         <v>57</v>
       </c>
-      <c r="C354" s="55">
+      <c r="C354" s="51">
         <v>11827</v>
       </c>
-      <c r="D354" s="55">
+      <c r="D354" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="55" customFormat="1">
-      <c r="A355" s="55">
+    <row r="355" spans="1:4" s="51" customFormat="1">
+      <c r="A355" s="51">
         <v>354</v>
       </c>
-      <c r="B355" s="55">
+      <c r="B355" s="51">
         <v>57</v>
       </c>
-      <c r="C355" s="55">
+      <c r="C355" s="51">
         <v>11828</v>
       </c>
-      <c r="D355" s="55">
+      <c r="D355" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="55" customFormat="1">
-      <c r="A356" s="55">
+    <row r="356" spans="1:4" s="51" customFormat="1">
+      <c r="A356" s="51">
         <v>355</v>
       </c>
-      <c r="B356" s="55">
+      <c r="B356" s="51">
         <v>57</v>
       </c>
-      <c r="C356" s="55">
+      <c r="C356" s="51">
         <v>11829</v>
       </c>
-      <c r="D356" s="55">
+      <c r="D356" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="55" customFormat="1">
-      <c r="A357" s="55">
+    <row r="357" spans="1:4" s="51" customFormat="1">
+      <c r="A357" s="51">
         <v>356</v>
       </c>
-      <c r="B357" s="55">
+      <c r="B357" s="51">
         <v>57</v>
       </c>
-      <c r="C357" s="55">
+      <c r="C357" s="51">
         <v>11830</v>
       </c>
-      <c r="D357" s="55">
+      <c r="D357" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="55" customFormat="1">
-      <c r="A358" s="55">
+    <row r="358" spans="1:4" s="51" customFormat="1">
+      <c r="A358" s="51">
         <v>357</v>
       </c>
-      <c r="B358" s="55">
+      <c r="B358" s="51">
         <v>57</v>
       </c>
-      <c r="C358" s="55">
+      <c r="C358" s="51">
         <v>11831</v>
       </c>
-      <c r="D358" s="55">
+      <c r="D358" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="55" customFormat="1">
-      <c r="A359" s="55">
+    <row r="359" spans="1:4" s="51" customFormat="1">
+      <c r="A359" s="51">
         <v>358</v>
       </c>
-      <c r="B359" s="55">
+      <c r="B359" s="51">
         <v>57</v>
       </c>
-      <c r="C359" s="55">
+      <c r="C359" s="51">
         <v>11832</v>
       </c>
-      <c r="D359" s="55">
+      <c r="D359" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="50" customFormat="1">
-      <c r="A360" s="50">
+    <row r="360" spans="1:4" s="13" customFormat="1">
+      <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="56">
+      <c r="B360" s="51">
         <v>58</v>
       </c>
-      <c r="C360" s="50">
+      <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="56">
+      <c r="D360" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="50" customFormat="1">
-      <c r="A361" s="50">
+    <row r="361" spans="1:4" s="13" customFormat="1">
+      <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="56">
+      <c r="B361" s="51">
         <v>58</v>
       </c>
-      <c r="C361" s="50">
+      <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="56">
+      <c r="D361" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="50" customFormat="1">
-      <c r="A362" s="50">
+    <row r="362" spans="1:4" s="13" customFormat="1">
+      <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="56">
+      <c r="B362" s="51">
         <v>58</v>
       </c>
-      <c r="C362" s="50">
+      <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="56">
+      <c r="D362" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="50" customFormat="1">
-      <c r="A363" s="50">
+    <row r="363" spans="1:4" s="13" customFormat="1">
+      <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="56">
+      <c r="B363" s="51">
         <v>58</v>
       </c>
-      <c r="C363" s="50">
+      <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="56">
+      <c r="D363" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="50" customFormat="1">
-      <c r="A364" s="50">
+    <row r="364" spans="1:4" s="13" customFormat="1">
+      <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="56">
+      <c r="B364" s="51">
         <v>58</v>
       </c>
-      <c r="C364" s="50">
+      <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="56">
+      <c r="D364" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="50" customFormat="1">
-      <c r="A365" s="50">
+    <row r="365" spans="1:4" s="13" customFormat="1">
+      <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="56">
+      <c r="B365" s="51">
         <v>58</v>
       </c>
-      <c r="C365" s="50">
+      <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="56">
+      <c r="D365" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="50" customFormat="1">
-      <c r="A366" s="50">
+    <row r="366" spans="1:4" s="13" customFormat="1">
+      <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="56">
+      <c r="B366" s="51">
         <v>58</v>
       </c>
-      <c r="C366" s="50">
+      <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="56">
+      <c r="D366" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="50" customFormat="1">
-      <c r="A367" s="50">
+    <row r="367" spans="1:4" s="13" customFormat="1">
+      <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="56">
+      <c r="B367" s="51">
         <v>58</v>
       </c>
-      <c r="C367" s="50">
+      <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="56">
+      <c r="D367" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="50" customFormat="1">
-      <c r="A368" s="50">
+    <row r="368" spans="1:4" s="13" customFormat="1">
+      <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="56">
+      <c r="B368" s="51">
         <v>58</v>
       </c>
-      <c r="C368" s="50">
+      <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="56">
+      <c r="D368" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="45" customFormat="1">
-      <c r="A369" s="45">
+    <row r="369" spans="1:4" s="13" customFormat="1">
+      <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="55">
+      <c r="B369" s="51">
         <v>59</v>
       </c>
-      <c r="C369" s="45">
+      <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="55">
+      <c r="D369" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="45" customFormat="1">
-      <c r="A370" s="45">
+    <row r="370" spans="1:4" s="13" customFormat="1">
+      <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="55">
+      <c r="B370" s="51">
         <v>59</v>
       </c>
-      <c r="C370" s="45">
+      <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="55">
+      <c r="D370" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="45" customFormat="1">
-      <c r="A371" s="45">
+    <row r="371" spans="1:4" s="13" customFormat="1">
+      <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="55">
+      <c r="B371" s="51">
         <v>59</v>
       </c>
-      <c r="C371" s="45">
+      <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="55">
+      <c r="D371" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="45" customFormat="1">
-      <c r="A372" s="45">
+    <row r="372" spans="1:4" s="13" customFormat="1">
+      <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="55">
+      <c r="B372" s="51">
         <v>59</v>
       </c>
-      <c r="C372" s="45">
+      <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="55">
+      <c r="D372" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="45" customFormat="1">
-      <c r="A373" s="45">
+    <row r="373" spans="1:4" s="13" customFormat="1">
+      <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="55">
+      <c r="B373" s="51">
         <v>59</v>
       </c>
-      <c r="C373" s="45">
+      <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="55">
+      <c r="D373" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="45" customFormat="1">
-      <c r="A374" s="45">
+    <row r="374" spans="1:4" s="13" customFormat="1">
+      <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="55">
+      <c r="B374" s="51">
         <v>59</v>
       </c>
-      <c r="C374" s="45">
+      <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="55">
+      <c r="D374" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="45" customFormat="1">
-      <c r="A375" s="45">
+    <row r="375" spans="1:4" s="13" customFormat="1">
+      <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="55">
+      <c r="B375" s="51">
         <v>59</v>
       </c>
-      <c r="C375" s="45">
+      <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="55">
+      <c r="D375" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="45" customFormat="1">
-      <c r="A376" s="45">
+    <row r="376" spans="1:4" s="13" customFormat="1">
+      <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="55">
+      <c r="B376" s="51">
         <v>59</v>
       </c>
-      <c r="C376" s="45">
+      <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="55">
+      <c r="D376" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="45" customFormat="1">
-      <c r="A377" s="45">
+    <row r="377" spans="1:4" s="13" customFormat="1">
+      <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="55">
+      <c r="B377" s="51">
         <v>59</v>
       </c>
-      <c r="C377" s="45">
+      <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="55">
+      <c r="D377" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="57" customFormat="1">
-      <c r="A378" s="57">
+    <row r="378" spans="1:4" s="13" customFormat="1">
+      <c r="A378" s="13">
         <v>377</v>
       </c>
-      <c r="B378" s="57">
+      <c r="B378" s="13">
         <v>60</v>
       </c>
-      <c r="C378" s="57">
+      <c r="C378" s="13">
         <v>11851</v>
       </c>
-      <c r="D378" s="57">
+      <c r="D378" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="57" customFormat="1">
-      <c r="A379" s="57">
+    <row r="379" spans="1:4" s="13" customFormat="1">
+      <c r="A379" s="13">
         <v>378</v>
       </c>
-      <c r="B379" s="57">
+      <c r="B379" s="13">
         <v>60</v>
       </c>
-      <c r="C379" s="57">
+      <c r="C379" s="13">
         <v>11852</v>
       </c>
-      <c r="D379" s="57">
+      <c r="D379" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="57" customFormat="1">
-      <c r="A380" s="57">
+    <row r="380" spans="1:4" s="13" customFormat="1">
+      <c r="A380" s="13">
         <v>379</v>
       </c>
-      <c r="B380" s="57">
+      <c r="B380" s="13">
         <v>60</v>
       </c>
-      <c r="C380" s="57">
+      <c r="C380" s="13">
         <v>11853</v>
       </c>
-      <c r="D380" s="57">
+      <c r="D380" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="57" customFormat="1">
-      <c r="A381" s="57">
+    <row r="381" spans="1:4" s="13" customFormat="1">
+      <c r="A381" s="13">
         <v>380</v>
       </c>
-      <c r="B381" s="57">
+      <c r="B381" s="13">
         <v>60</v>
       </c>
-      <c r="C381" s="57">
+      <c r="C381" s="13">
         <v>11854</v>
       </c>
-      <c r="D381" s="57">
+      <c r="D381" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="57" customFormat="1">
-      <c r="A382" s="57">
+    <row r="382" spans="1:4" s="13" customFormat="1">
+      <c r="A382" s="13">
         <v>381</v>
       </c>
-      <c r="B382" s="57">
+      <c r="B382" s="13">
         <v>60</v>
       </c>
-      <c r="C382" s="57">
+      <c r="C382" s="13">
         <v>11855</v>
       </c>
-      <c r="D382" s="57">
+      <c r="D382" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="57" customFormat="1">
-      <c r="A383" s="57">
+    <row r="383" spans="1:4" s="13" customFormat="1">
+      <c r="A383" s="13">
         <v>382</v>
       </c>
-      <c r="B383" s="57">
+      <c r="B383" s="13">
         <v>60</v>
       </c>
-      <c r="C383" s="57">
+      <c r="C383" s="13">
         <v>11856</v>
       </c>
-      <c r="D383" s="57">
+      <c r="D383" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" s="13" customFormat="1">
       <c r="A384" s="13">
         <v>383</v>
       </c>
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="57">
+      <c r="C384" s="13">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" s="13" customFormat="1">
       <c r="A385" s="13">
         <v>384</v>
       </c>
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="57">
+      <c r="C385" s="13">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" s="13" customFormat="1">
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="66">
+      <c r="B386" s="13">
         <v>63</v>
       </c>
-      <c r="C386" s="66">
+      <c r="C386" s="13">
         <v>11859</v>
       </c>
-      <c r="D386" s="66">
+      <c r="D386" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" s="13" customFormat="1">
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="66">
+      <c r="B387" s="13">
         <v>63</v>
       </c>
-      <c r="C387" s="66">
+      <c r="C387" s="13">
         <v>11860</v>
       </c>
-      <c r="D387" s="66">
+      <c r="D387" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" s="13" customFormat="1">
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="66">
+      <c r="B388" s="13">
         <v>63</v>
       </c>
-      <c r="C388" s="66">
+      <c r="C388" s="13">
         <v>11861</v>
       </c>
-      <c r="D388" s="66">
+      <c r="D388" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" s="13" customFormat="1">
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="66">
+      <c r="B389" s="13">
         <v>63</v>
       </c>
-      <c r="C389" s="66">
+      <c r="C389" s="13">
         <v>11862</v>
       </c>
-      <c r="D389" s="66">
+      <c r="D389" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" s="13" customFormat="1">
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="66">
+      <c r="B390" s="13">
         <v>63</v>
       </c>
-      <c r="C390" s="66">
+      <c r="C390" s="13">
         <v>11863</v>
       </c>
-      <c r="D390" s="66">
+      <c r="D390" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" s="13" customFormat="1">
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="66">
+      <c r="B391" s="13">
         <v>63</v>
       </c>
-      <c r="C391" s="66">
+      <c r="C391" s="13">
         <v>11864</v>
       </c>
-      <c r="D391" s="66">
+      <c r="D391" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" s="13" customFormat="1">
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="66">
+      <c r="B392" s="13">
         <v>64</v>
       </c>
-      <c r="C392" s="66">
+      <c r="C392" s="13">
         <v>11865</v>
       </c>
-      <c r="D392" s="66">
+      <c r="D392" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" s="13" customFormat="1">
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="66">
+      <c r="B393" s="13">
         <v>64</v>
       </c>
-      <c r="C393" s="66">
+      <c r="C393" s="13">
         <v>11866</v>
       </c>
-      <c r="D393" s="66">
+      <c r="D393" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" s="13" customFormat="1">
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="66">
+      <c r="B394" s="13">
         <v>64</v>
       </c>
-      <c r="C394" s="66">
+      <c r="C394" s="13">
         <v>11867</v>
       </c>
-      <c r="D394" s="66">
+      <c r="D394" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" s="13" customFormat="1">
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="66">
+      <c r="B395" s="13">
         <v>64</v>
       </c>
-      <c r="C395" s="66">
+      <c r="C395" s="13">
         <v>11868</v>
       </c>
-      <c r="D395" s="66">
+      <c r="D395" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" s="13" customFormat="1">
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="66">
+      <c r="B396" s="13">
         <v>64</v>
       </c>
-      <c r="C396" s="66">
+      <c r="C396" s="13">
         <v>11869</v>
       </c>
-      <c r="D396" s="66">
+      <c r="D396" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" s="13" customFormat="1">
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="66">
+      <c r="B397" s="13">
         <v>64</v>
       </c>
-      <c r="C397" s="66">
+      <c r="C397" s="13">
         <v>11870</v>
       </c>
-      <c r="D397" s="66">
+      <c r="D397" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" s="13" customFormat="1">
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="66">
+      <c r="B398" s="13">
         <v>65</v>
       </c>
-      <c r="C398" s="66">
+      <c r="C398" s="13">
         <v>11871</v>
       </c>
-      <c r="D398" s="66">
+      <c r="D398" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" s="13" customFormat="1">
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="66">
+      <c r="B399" s="13">
         <v>65</v>
       </c>
-      <c r="C399" s="66">
+      <c r="C399" s="13">
         <v>11872</v>
       </c>
-      <c r="D399" s="66">
+      <c r="D399" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" s="13" customFormat="1">
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="66">
+      <c r="B400" s="13">
         <v>65</v>
       </c>
-      <c r="C400" s="66">
+      <c r="C400" s="13">
         <v>11873</v>
       </c>
-      <c r="D400" s="66">
+      <c r="D400" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" s="13" customFormat="1">
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="66">
+      <c r="B401" s="13">
         <v>65</v>
       </c>
-      <c r="C401" s="66">
+      <c r="C401" s="13">
         <v>11874</v>
       </c>
-      <c r="D401" s="66">
+      <c r="D401" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" s="13" customFormat="1">
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="66">
+      <c r="B402" s="13">
         <v>65</v>
       </c>
-      <c r="C402" s="66">
+      <c r="C402" s="13">
         <v>11875</v>
       </c>
-      <c r="D402" s="66">
+      <c r="D402" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" s="13" customFormat="1">
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="66">
+      <c r="B403" s="13">
         <v>65</v>
       </c>
-      <c r="C403" s="66">
+      <c r="C403" s="13">
         <v>11876</v>
       </c>
-      <c r="D403" s="66">
+      <c r="D403" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" s="13" customFormat="1">
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="66">
+      <c r="B404" s="13">
         <v>66</v>
       </c>
-      <c r="C404" s="66">
+      <c r="C404" s="13">
         <v>11877</v>
       </c>
-      <c r="D404" s="66">
+      <c r="D404" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" s="13" customFormat="1">
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="66">
+      <c r="B405" s="13">
         <v>66</v>
       </c>
-      <c r="C405" s="66">
+      <c r="C405" s="13">
         <v>11878</v>
       </c>
-      <c r="D405" s="66">
+      <c r="D405" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" s="13" customFormat="1">
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="66">
+      <c r="B406" s="13">
         <v>66</v>
       </c>
-      <c r="C406" s="66">
+      <c r="C406" s="13">
         <v>11879</v>
       </c>
-      <c r="D406" s="66">
+      <c r="D406" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" s="13" customFormat="1">
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="66">
+      <c r="B407" s="13">
         <v>66</v>
       </c>
-      <c r="C407" s="66">
+      <c r="C407" s="13">
         <v>11880</v>
       </c>
-      <c r="D407" s="66">
+      <c r="D407" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" s="13" customFormat="1">
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="66">
+      <c r="B408" s="13">
         <v>66</v>
       </c>
-      <c r="C408" s="66">
+      <c r="C408" s="13">
         <v>11881</v>
       </c>
-      <c r="D408" s="66">
+      <c r="D408" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" s="13" customFormat="1">
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="66">
+      <c r="B409" s="13">
         <v>66</v>
       </c>
-      <c r="C409" s="66">
+      <c r="C409" s="13">
         <v>11882</v>
       </c>
-      <c r="D409" s="66">
+      <c r="D409" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" s="13" customFormat="1">
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="66">
+      <c r="B410" s="13">
         <v>67</v>
       </c>
-      <c r="C410" s="66">
+      <c r="C410" s="13">
         <v>11883</v>
       </c>
-      <c r="D410" s="66">
+      <c r="D410" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" s="13" customFormat="1">
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="66">
+      <c r="B411" s="13">
         <v>67</v>
       </c>
-      <c r="C411" s="66">
+      <c r="C411" s="13">
         <v>11884</v>
       </c>
-      <c r="D411" s="66">
+      <c r="D411" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" s="13" customFormat="1">
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="66">
+      <c r="B412" s="13">
         <v>67</v>
       </c>
-      <c r="C412" s="66">
+      <c r="C412" s="13">
         <v>11885</v>
       </c>
-      <c r="D412" s="66">
+      <c r="D412" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" s="13" customFormat="1">
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="66">
+      <c r="B413" s="13">
         <v>67</v>
       </c>
-      <c r="C413" s="66">
+      <c r="C413" s="13">
         <v>11886</v>
       </c>
-      <c r="D413" s="66">
+      <c r="D413" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" s="13" customFormat="1">
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="66">
+      <c r="B414" s="13">
         <v>67</v>
       </c>
-      <c r="C414" s="66">
+      <c r="C414" s="13">
         <v>11887</v>
       </c>
-      <c r="D414" s="66">
+      <c r="D414" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" s="13" customFormat="1">
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="66">
+      <c r="B415" s="13">
         <v>67</v>
       </c>
-      <c r="C415" s="66">
+      <c r="C415" s="13">
         <v>11888</v>
       </c>
-      <c r="D415" s="66">
+      <c r="D415" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" s="13" customFormat="1">
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="66">
+      <c r="B416" s="13">
         <v>68</v>
       </c>
-      <c r="C416" s="66">
+      <c r="C416" s="13">
         <v>11889</v>
       </c>
-      <c r="D416" s="66">
+      <c r="D416" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" s="13" customFormat="1">
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="66">
+      <c r="B417" s="13">
         <v>68</v>
       </c>
-      <c r="C417" s="66">
+      <c r="C417" s="13">
         <v>11890</v>
       </c>
-      <c r="D417" s="66">
+      <c r="D417" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" s="13" customFormat="1">
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="66">
+      <c r="B418" s="13">
         <v>68</v>
       </c>
-      <c r="C418" s="66">
+      <c r="C418" s="13">
         <v>11891</v>
       </c>
-      <c r="D418" s="66">
+      <c r="D418" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" s="13" customFormat="1">
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="66">
+      <c r="B419" s="13">
         <v>68</v>
       </c>
-      <c r="C419" s="66">
+      <c r="C419" s="13">
         <v>11892</v>
       </c>
-      <c r="D419" s="66">
+      <c r="D419" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" s="13" customFormat="1">
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="66">
+      <c r="B420" s="13">
         <v>68</v>
       </c>
-      <c r="C420" s="66">
+      <c r="C420" s="13">
         <v>11893</v>
       </c>
-      <c r="D420" s="66">
+      <c r="D420" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" s="13" customFormat="1">
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="66">
+      <c r="B421" s="13">
         <v>68</v>
       </c>
-      <c r="C421" s="66">
+      <c r="C421" s="13">
         <v>11894</v>
       </c>
-      <c r="D421" s="66">
+      <c r="D421" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" s="13" customFormat="1">
       <c r="A422" s="13">
         <v>421</v>
       </c>
-      <c r="B422" s="37">
+      <c r="B422" s="13">
         <v>69</v>
       </c>
-      <c r="C422" s="37">
+      <c r="C422" s="13">
         <v>11895</v>
       </c>
-      <c r="D422" s="37">
+      <c r="D422" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" s="13" customFormat="1">
       <c r="A423" s="13">
         <v>422</v>
       </c>
-      <c r="B423" s="37">
+      <c r="B423" s="13">
         <v>69</v>
       </c>
-      <c r="C423" s="37">
+      <c r="C423" s="13">
         <v>11896</v>
       </c>
-      <c r="D423" s="37">
+      <c r="D423" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" s="13" customFormat="1">
       <c r="A424" s="13">
         <v>423</v>
       </c>
-      <c r="B424" s="37">
+      <c r="B424" s="13">
         <v>69</v>
       </c>
-      <c r="C424" s="37">
+      <c r="C424" s="13">
         <v>11897</v>
       </c>
-      <c r="D424" s="37">
+      <c r="D424" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" s="13" customFormat="1">
       <c r="A425" s="13">
         <v>424</v>
       </c>
-      <c r="B425" s="37">
+      <c r="B425" s="13">
         <v>69</v>
       </c>
-      <c r="C425" s="37">
+      <c r="C425" s="13">
         <v>11898</v>
       </c>
-      <c r="D425" s="37">
+      <c r="D425" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" s="13" customFormat="1">
       <c r="A426" s="13">
         <v>425</v>
       </c>
-      <c r="B426" s="37">
+      <c r="B426" s="13">
         <v>69</v>
       </c>
-      <c r="C426" s="37">
+      <c r="C426" s="13">
         <v>11899</v>
       </c>
-      <c r="D426" s="37">
+      <c r="D426" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" s="13" customFormat="1">
       <c r="A427" s="13">
         <v>426</v>
       </c>
-      <c r="B427" s="37">
+      <c r="B427" s="13">
         <v>69</v>
       </c>
-      <c r="C427" s="37">
+      <c r="C427" s="13">
         <v>11900</v>
       </c>
-      <c r="D427" s="37">
+      <c r="D427" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" s="13" customFormat="1">
       <c r="A428" s="13">
         <v>427</v>
       </c>
-      <c r="B428" s="50">
+      <c r="B428" s="13">
         <v>70</v>
       </c>
-      <c r="C428" s="50">
+      <c r="C428" s="13">
         <v>11901</v>
       </c>
-      <c r="D428" s="50">
+      <c r="D428" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" s="13" customFormat="1">
       <c r="A429" s="13">
         <v>428</v>
       </c>
-      <c r="B429" s="50">
+      <c r="B429" s="13">
         <v>70</v>
       </c>
-      <c r="C429" s="50">
+      <c r="C429" s="13">
         <v>11902</v>
       </c>
-      <c r="D429" s="50">
+      <c r="D429" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" s="13" customFormat="1">
       <c r="A430" s="13">
         <v>429</v>
       </c>
-      <c r="B430" s="50">
+      <c r="B430" s="13">
         <v>70</v>
       </c>
-      <c r="C430" s="50">
+      <c r="C430" s="13">
         <v>11903</v>
       </c>
-      <c r="D430" s="50">
+      <c r="D430" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" s="13" customFormat="1">
       <c r="A431" s="13">
         <v>430</v>
       </c>
-      <c r="B431" s="50">
+      <c r="B431" s="13">
         <v>70</v>
       </c>
-      <c r="C431" s="50">
+      <c r="C431" s="13">
         <v>11904</v>
       </c>
-      <c r="D431" s="50">
+      <c r="D431" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" s="13" customFormat="1">
       <c r="A432" s="13">
         <v>431</v>
       </c>
-      <c r="B432" s="50">
+      <c r="B432" s="13">
         <v>70</v>
       </c>
-      <c r="C432" s="50">
+      <c r="C432" s="13">
         <v>11905</v>
       </c>
-      <c r="D432" s="50">
+      <c r="D432" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" s="13" customFormat="1">
       <c r="A433" s="13">
         <v>432</v>
       </c>
-      <c r="B433" s="50">
+      <c r="B433" s="13">
         <v>70</v>
       </c>
-      <c r="C433" s="50">
+      <c r="C433" s="13">
         <v>11906</v>
       </c>
-      <c r="D433" s="50">
+      <c r="D433" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" s="13" customFormat="1">
       <c r="A434" s="13">
         <v>433</v>
       </c>
-      <c r="B434" s="50">
+      <c r="B434" s="13">
         <v>70</v>
       </c>
-      <c r="C434" s="50">
+      <c r="C434" s="13">
         <v>11907</v>
       </c>
-      <c r="D434" s="50">
+      <c r="D434" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" s="13" customFormat="1">
       <c r="A435" s="13">
         <v>434</v>
       </c>
-      <c r="B435" s="50">
+      <c r="B435" s="13">
         <v>70</v>
       </c>
-      <c r="C435" s="50">
+      <c r="C435" s="13">
         <v>11908</v>
       </c>
-      <c r="D435" s="50">
+      <c r="D435" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" s="13" customFormat="1">
       <c r="A436" s="13">
         <v>435</v>
       </c>
-      <c r="B436" s="50">
+      <c r="B436" s="13">
         <v>70</v>
       </c>
-      <c r="C436" s="50">
+      <c r="C436" s="13">
         <v>11909</v>
       </c>
-      <c r="D436" s="50">
+      <c r="D436" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" s="13" customFormat="1">
       <c r="A437" s="13">
         <v>436</v>
       </c>
-      <c r="B437" s="50">
+      <c r="B437" s="13">
         <v>71</v>
       </c>
-      <c r="C437" s="50">
+      <c r="C437" s="13">
         <v>11911</v>
       </c>
-      <c r="D437" s="50">
+      <c r="D437" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" s="13" customFormat="1">
       <c r="A438" s="13">
         <v>437</v>
       </c>
-      <c r="B438" s="50">
+      <c r="B438" s="13">
         <v>71</v>
       </c>
-      <c r="C438" s="50">
+      <c r="C438" s="13">
         <v>11912</v>
       </c>
-      <c r="D438" s="50">
+      <c r="D438" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" s="13" customFormat="1">
       <c r="A439" s="13">
         <v>438</v>
       </c>
-      <c r="B439" s="50">
+      <c r="B439" s="13">
         <v>71</v>
       </c>
-      <c r="C439" s="50">
+      <c r="C439" s="13">
         <v>11913</v>
       </c>
-      <c r="D439" s="50">
+      <c r="D439" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" s="13" customFormat="1">
       <c r="A440" s="13">
         <v>439</v>
       </c>
-      <c r="B440" s="50">
+      <c r="B440" s="13">
         <v>71</v>
       </c>
-      <c r="C440" s="50">
+      <c r="C440" s="13">
         <v>11914</v>
       </c>
-      <c r="D440" s="50">
+      <c r="D440" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" s="13" customFormat="1">
       <c r="A441" s="13">
         <v>440</v>
       </c>
-      <c r="B441" s="50">
+      <c r="B441" s="13">
         <v>71</v>
       </c>
-      <c r="C441" s="50">
+      <c r="C441" s="13">
         <v>11915</v>
       </c>
-      <c r="D441" s="50">
+      <c r="D441" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" s="13" customFormat="1">
       <c r="A442" s="13">
         <v>441</v>
       </c>
-      <c r="B442" s="50">
+      <c r="B442" s="13">
         <v>71</v>
       </c>
-      <c r="C442" s="50">
+      <c r="C442" s="13">
         <v>11916</v>
       </c>
-      <c r="D442" s="50">
+      <c r="D442" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" s="13" customFormat="1">
       <c r="A443" s="13">
         <v>442</v>
       </c>
-      <c r="B443" s="50">
+      <c r="B443" s="13">
         <v>71</v>
       </c>
-      <c r="C443" s="50">
+      <c r="C443" s="13">
         <v>11917</v>
       </c>
-      <c r="D443" s="50">
+      <c r="D443" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" s="13" customFormat="1">
       <c r="A444" s="13">
         <v>443</v>
       </c>
-      <c r="B444" s="50">
+      <c r="B444" s="13">
         <v>71</v>
       </c>
-      <c r="C444" s="50">
+      <c r="C444" s="13">
         <v>11918</v>
       </c>
-      <c r="D444" s="50">
+      <c r="D444" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" s="13" customFormat="1">
       <c r="A445" s="13">
         <v>444</v>
       </c>
-      <c r="B445" s="50">
+      <c r="B445" s="13">
         <v>71</v>
       </c>
-      <c r="C445" s="50">
+      <c r="C445" s="13">
         <v>11919</v>
       </c>
-      <c r="D445" s="50">
+      <c r="D445" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" s="13" customFormat="1">
       <c r="A446" s="13">
         <v>445</v>
       </c>
-      <c r="B446" s="50">
+      <c r="B446" s="13">
         <v>72</v>
       </c>
-      <c r="C446" s="50">
+      <c r="C446" s="13">
         <v>11921</v>
       </c>
-      <c r="D446" s="50">
+      <c r="D446" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" s="13" customFormat="1">
       <c r="A447" s="13">
         <v>446</v>
       </c>
-      <c r="B447" s="50">
+      <c r="B447" s="13">
         <v>72</v>
       </c>
-      <c r="C447" s="50">
+      <c r="C447" s="13">
         <v>11922</v>
       </c>
-      <c r="D447" s="50">
+      <c r="D447" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" s="13" customFormat="1">
       <c r="A448" s="13">
         <v>447</v>
       </c>
-      <c r="B448" s="50">
+      <c r="B448" s="13">
         <v>72</v>
       </c>
-      <c r="C448" s="50">
+      <c r="C448" s="13">
         <v>11923</v>
       </c>
-      <c r="D448" s="50">
+      <c r="D448" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" s="13" customFormat="1">
       <c r="A449" s="13">
         <v>448</v>
       </c>
-      <c r="B449" s="50">
+      <c r="B449" s="13">
         <v>72</v>
       </c>
-      <c r="C449" s="50">
+      <c r="C449" s="13">
         <v>11924</v>
       </c>
-      <c r="D449" s="50">
+      <c r="D449" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" s="13" customFormat="1">
       <c r="A450" s="13">
         <v>449</v>
       </c>
-      <c r="B450" s="50">
+      <c r="B450" s="13">
         <v>72</v>
       </c>
-      <c r="C450" s="50">
+      <c r="C450" s="13">
         <v>11925</v>
       </c>
-      <c r="D450" s="50">
+      <c r="D450" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" s="13" customFormat="1">
       <c r="A451" s="13">
         <v>450</v>
       </c>
-      <c r="B451" s="50">
+      <c r="B451" s="13">
         <v>72</v>
       </c>
-      <c r="C451" s="50">
+      <c r="C451" s="13">
         <v>11926</v>
       </c>
-      <c r="D451" s="50">
+      <c r="D451" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" s="13" customFormat="1">
       <c r="A452" s="13">
         <v>451</v>
       </c>
-      <c r="B452" s="50">
+      <c r="B452" s="13">
         <v>72</v>
       </c>
-      <c r="C452" s="50">
+      <c r="C452" s="13">
         <v>11927</v>
       </c>
-      <c r="D452" s="50">
+      <c r="D452" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" s="13" customFormat="1">
       <c r="A453" s="13">
         <v>452</v>
       </c>
-      <c r="B453" s="50">
+      <c r="B453" s="13">
         <v>72</v>
       </c>
-      <c r="C453" s="50">
+      <c r="C453" s="13">
         <v>11928</v>
       </c>
-      <c r="D453" s="50">
+      <c r="D453" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" s="13" customFormat="1">
       <c r="A454" s="13">
         <v>453</v>
       </c>
-      <c r="B454" s="50">
+      <c r="B454" s="13">
         <v>72</v>
       </c>
-      <c r="C454" s="50">
+      <c r="C454" s="13">
         <v>11929</v>
       </c>
-      <c r="D454" s="50">
+      <c r="D454" s="13">
         <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="13">
+        <v>454</v>
+      </c>
+      <c r="B455" s="45">
+        <v>73</v>
+      </c>
+      <c r="C455" s="45">
+        <v>11930</v>
+      </c>
+      <c r="D455" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="13">
+        <v>455</v>
+      </c>
+      <c r="B456" s="45">
+        <v>73</v>
+      </c>
+      <c r="C456" s="45">
+        <v>11931</v>
+      </c>
+      <c r="D456" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="13">
+        <v>456</v>
+      </c>
+      <c r="B457" s="45">
+        <v>73</v>
+      </c>
+      <c r="C457" s="45">
+        <v>11932</v>
+      </c>
+      <c r="D457" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="13">
+        <v>457</v>
+      </c>
+      <c r="B458" s="45">
+        <v>73</v>
+      </c>
+      <c r="C458" s="45">
+        <v>11933</v>
+      </c>
+      <c r="D458" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" s="13" customFormat="1">
+      <c r="A459" s="13">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>74</v>
+      </c>
+      <c r="C459" s="57">
+        <v>11934</v>
+      </c>
+      <c r="D459" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" s="13" customFormat="1">
+      <c r="A460" s="13">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>74</v>
+      </c>
+      <c r="C460" s="57">
+        <v>11935</v>
+      </c>
+      <c r="D460" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" s="13" customFormat="1">
+      <c r="A461" s="13">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>74</v>
+      </c>
+      <c r="C461" s="57">
+        <v>11936</v>
+      </c>
+      <c r="D461" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" s="13" customFormat="1">
+      <c r="A462" s="13">
+        <v>461</v>
+      </c>
+      <c r="B462" s="57">
+        <v>74</v>
+      </c>
+      <c r="C462" s="57">
+        <v>11937</v>
+      </c>
+      <c r="D462" s="57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="13">
+        <v>462</v>
+      </c>
+      <c r="B463" s="57">
+        <v>74</v>
+      </c>
+      <c r="C463" s="57">
+        <v>11938</v>
+      </c>
+      <c r="D463" s="57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="13">
+        <v>463</v>
+      </c>
+      <c r="B464" s="57">
+        <v>74</v>
+      </c>
+      <c r="C464" s="57">
+        <v>11939</v>
+      </c>
+      <c r="D464" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="13">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>74</v>
+      </c>
+      <c r="C465" s="57">
+        <v>11940</v>
+      </c>
+      <c r="D465" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="13">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>74</v>
+      </c>
+      <c r="C466" s="57">
+        <v>11941</v>
+      </c>
+      <c r="D466" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="13">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>75</v>
+      </c>
+      <c r="C467" s="57">
+        <v>11942</v>
+      </c>
+      <c r="D467" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="13">
+        <v>467</v>
+      </c>
+      <c r="B468" s="57">
+        <v>75</v>
+      </c>
+      <c r="C468" s="57">
+        <v>11943</v>
+      </c>
+      <c r="D468" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="13">
+        <v>468</v>
+      </c>
+      <c r="B469" s="57">
+        <v>75</v>
+      </c>
+      <c r="C469" s="57">
+        <v>11944</v>
+      </c>
+      <c r="D469" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="13">
+        <v>469</v>
+      </c>
+      <c r="B470" s="57">
+        <v>75</v>
+      </c>
+      <c r="C470" s="57">
+        <v>11945</v>
+      </c>
+      <c r="D470" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="13">
+        <v>470</v>
+      </c>
+      <c r="B471" s="57">
+        <v>75</v>
+      </c>
+      <c r="C471" s="57">
+        <v>11946</v>
+      </c>
+      <c r="D471" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="13">
+        <v>471</v>
+      </c>
+      <c r="B472" s="57">
+        <v>75</v>
+      </c>
+      <c r="C472" s="57">
+        <v>11947</v>
+      </c>
+      <c r="D472" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="13">
+        <v>472</v>
+      </c>
+      <c r="B473" s="57">
+        <v>75</v>
+      </c>
+      <c r="C473" s="57">
+        <v>11948</v>
+      </c>
+      <c r="D473" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="13">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>75</v>
+      </c>
+      <c r="C474" s="57">
+        <v>11949</v>
+      </c>
+      <c r="D474" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="13">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>76</v>
+      </c>
+      <c r="C475" s="57">
+        <v>11950</v>
+      </c>
+      <c r="D475" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="13">
+        <v>475</v>
+      </c>
+      <c r="B476" s="57">
+        <v>76</v>
+      </c>
+      <c r="C476" s="57">
+        <v>11951</v>
+      </c>
+      <c r="D476" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="13">
+        <v>476</v>
+      </c>
+      <c r="B477" s="57">
+        <v>76</v>
+      </c>
+      <c r="C477" s="57">
+        <v>11952</v>
+      </c>
+      <c r="D477" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="13">
+        <v>477</v>
+      </c>
+      <c r="B478" s="57">
+        <v>76</v>
+      </c>
+      <c r="C478" s="57">
+        <v>11953</v>
+      </c>
+      <c r="D478" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="13">
+        <v>478</v>
+      </c>
+      <c r="B479" s="57">
+        <v>76</v>
+      </c>
+      <c r="C479" s="57">
+        <v>11954</v>
+      </c>
+      <c r="D479" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="13">
+        <v>479</v>
+      </c>
+      <c r="B480" s="57">
+        <v>76</v>
+      </c>
+      <c r="C480" s="57">
+        <v>11955</v>
+      </c>
+      <c r="D480" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="13">
+        <v>480</v>
+      </c>
+      <c r="B481" s="57">
+        <v>76</v>
+      </c>
+      <c r="C481" s="57">
+        <v>11956</v>
+      </c>
+      <c r="D481" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="13">
+        <v>481</v>
+      </c>
+      <c r="B482" s="57">
+        <v>76</v>
+      </c>
+      <c r="C482" s="57">
+        <v>11957</v>
+      </c>
+      <c r="D482" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="13">
+        <v>482</v>
+      </c>
+      <c r="B483" s="66">
+        <v>77</v>
+      </c>
+      <c r="C483" s="66">
+        <v>11958</v>
+      </c>
+      <c r="D483" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="13">
+        <v>483</v>
+      </c>
+      <c r="B484" s="66">
+        <v>77</v>
+      </c>
+      <c r="C484" s="66">
+        <v>11959</v>
+      </c>
+      <c r="D484" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="13">
+        <v>484</v>
+      </c>
+      <c r="B485" s="66">
+        <v>77</v>
+      </c>
+      <c r="C485" s="66">
+        <v>11960</v>
+      </c>
+      <c r="D485" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="13">
+        <v>485</v>
+      </c>
+      <c r="B486" s="66">
+        <v>77</v>
+      </c>
+      <c r="C486" s="66">
+        <v>11961</v>
+      </c>
+      <c r="D486" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="13">
+        <v>486</v>
+      </c>
+      <c r="B487" s="66">
+        <v>77</v>
+      </c>
+      <c r="C487" s="66">
+        <v>11962</v>
+      </c>
+      <c r="D487" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="13">
+        <v>487</v>
+      </c>
+      <c r="B488" s="66">
+        <v>77</v>
+      </c>
+      <c r="C488" s="66">
+        <v>11963</v>
+      </c>
+      <c r="D488" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="13">
+        <v>488</v>
+      </c>
+      <c r="B489" s="66">
+        <v>77</v>
+      </c>
+      <c r="C489" s="66">
+        <v>11964</v>
+      </c>
+      <c r="D489" s="66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="13">
+        <v>489</v>
+      </c>
+      <c r="B490" s="66">
+        <v>77</v>
+      </c>
+      <c r="C490" s="66">
+        <v>11965</v>
+      </c>
+      <c r="D490" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="13">
+        <v>490</v>
+      </c>
+      <c r="B491" s="66">
+        <v>77</v>
+      </c>
+      <c r="C491" s="66">
+        <v>11966</v>
+      </c>
+      <c r="D491" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="13">
+        <v>491</v>
+      </c>
+      <c r="B492" s="66">
+        <v>77</v>
+      </c>
+      <c r="C492" s="66">
+        <v>11967</v>
+      </c>
+      <c r="D492" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="13">
+        <v>492</v>
+      </c>
+      <c r="B493" s="66">
+        <v>77</v>
+      </c>
+      <c r="C493" s="66">
+        <v>11968</v>
+      </c>
+      <c r="D493" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="13">
+        <v>493</v>
+      </c>
+      <c r="B494" s="66">
+        <v>77</v>
+      </c>
+      <c r="C494" s="66">
+        <v>11969</v>
+      </c>
+      <c r="D494" s="66">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="13">
+        <v>494</v>
+      </c>
+      <c r="B495" s="66">
+        <v>77</v>
+      </c>
+      <c r="C495" s="66">
+        <v>11970</v>
+      </c>
+      <c r="D495" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="13">
+        <v>495</v>
+      </c>
+      <c r="B496" s="66">
+        <v>77</v>
+      </c>
+      <c r="C496" s="66">
+        <v>11971</v>
+      </c>
+      <c r="D496" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="13">
+        <v>496</v>
+      </c>
+      <c r="B497" s="66">
+        <v>77</v>
+      </c>
+      <c r="C497" s="66">
+        <v>11972</v>
+      </c>
+      <c r="D497" s="66">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -15156,11 +16302,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15173,10 +16319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -19210,13 +20356,13 @@
       <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="38" t="s">
+      <c r="C266" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="38" t="s">
+      <c r="D266" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="39" t="s">
+      <c r="E266" s="38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -19227,13 +20373,13 @@
       <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="38" t="s">
+      <c r="C267" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="38" t="s">
+      <c r="D267" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="39" t="s">
+      <c r="E267" s="38" t="s">
         <v>457</v>
       </c>
     </row>
@@ -19244,13 +20390,13 @@
       <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="38" t="s">
+      <c r="C268" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="38" t="s">
+      <c r="D268" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="39" t="s">
+      <c r="E268" s="38" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19261,13 +20407,13 @@
       <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="38" t="s">
+      <c r="C269" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="38" t="s">
+      <c r="D269" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="39" t="s">
+      <c r="E269" s="38" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19278,13 +20424,13 @@
       <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="38" t="s">
+      <c r="C270" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="38" t="s">
+      <c r="D270" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="39" t="s">
+      <c r="E270" s="38" t="s">
         <v>459</v>
       </c>
     </row>
@@ -19295,13 +20441,13 @@
       <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="38" t="s">
+      <c r="C271" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="38" t="s">
+      <c r="D271" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="39" t="s">
+      <c r="E271" s="38" t="s">
         <v>460</v>
       </c>
     </row>
@@ -19312,13 +20458,13 @@
       <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="38" t="s">
+      <c r="C272" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="38" t="s">
+      <c r="D272" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="39" t="s">
+      <c r="E272" s="38" t="s">
         <v>461</v>
       </c>
     </row>
@@ -19329,13 +20475,13 @@
       <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="38" t="s">
+      <c r="C273" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="38" t="s">
+      <c r="D273" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="39" t="s">
+      <c r="E273" s="38" t="s">
         <v>462</v>
       </c>
     </row>
@@ -19346,13 +20492,13 @@
       <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="38" t="s">
+      <c r="C274" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="38" t="s">
+      <c r="D274" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="39" t="s">
+      <c r="E274" s="38" t="s">
         <v>463</v>
       </c>
     </row>
@@ -19658,7 +20804,7 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="42" t="s">
+      <c r="E292" s="41" t="s">
         <v>485</v>
       </c>
     </row>
@@ -19675,7 +20821,7 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="42" t="s">
+      <c r="E293" s="41" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19692,7 +20838,7 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="42" t="s">
+      <c r="E294" s="41" t="s">
         <v>487</v>
       </c>
     </row>
@@ -19709,7 +20855,7 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="42" t="s">
+      <c r="E295" s="41" t="s">
         <v>488</v>
       </c>
     </row>
@@ -19726,7 +20872,7 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="42" t="s">
+      <c r="E296" s="41" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19740,10 +20886,10 @@
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="43" t="s">
+      <c r="D297" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="42" t="s">
+      <c r="E297" s="41" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19757,10 +20903,10 @@
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="43" t="s">
+      <c r="D298" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="42" t="s">
+      <c r="E298" s="41" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19774,10 +20920,10 @@
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="42" t="s">
+      <c r="E299" s="41" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19794,7 +20940,7 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="42" t="s">
+      <c r="E300" s="41" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19811,7 +20957,7 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="42" t="s">
+      <c r="E301" s="41" t="s">
         <v>575</v>
       </c>
     </row>
@@ -19828,7 +20974,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="42" t="s">
+      <c r="E302" s="41" t="s">
         <v>576</v>
       </c>
     </row>
@@ -19845,7 +20991,7 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="42" t="s">
+      <c r="E303" s="41" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19862,7 +21008,7 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="42" t="s">
+      <c r="E304" s="41" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19890,7 +21036,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="42" t="s">
+      <c r="E306" s="41" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19907,7 +21053,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="42" t="s">
+      <c r="E307" s="41" t="s">
         <v>564</v>
       </c>
     </row>
@@ -19924,7 +21070,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="42" t="s">
+      <c r="E308" s="41" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19941,7 +21087,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="42" t="s">
+      <c r="E309" s="41" t="s">
         <v>356</v>
       </c>
     </row>
@@ -19958,7 +21104,7 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="42" t="s">
+      <c r="E310" s="41" t="s">
         <v>77</v>
       </c>
     </row>
@@ -19975,7 +21121,7 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="42" t="s">
+      <c r="E311" s="41" t="s">
         <v>565</v>
       </c>
     </row>
@@ -19992,7 +21138,7 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="42" t="s">
+      <c r="E312" s="41" t="s">
         <v>361</v>
       </c>
     </row>
@@ -20009,7 +21155,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="42" t="s">
+      <c r="E313" s="41" t="s">
         <v>362</v>
       </c>
     </row>
@@ -20026,7 +21172,7 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="42" t="s">
+      <c r="E314" s="41" t="s">
         <v>363</v>
       </c>
     </row>
@@ -20043,7 +21189,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="42" t="s">
+      <c r="E315" s="41" t="s">
         <v>364</v>
       </c>
     </row>
@@ -20060,7 +21206,7 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="42" t="s">
+      <c r="E316" s="41" t="s">
         <v>566</v>
       </c>
     </row>
@@ -20077,7 +21223,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="42" t="s">
+      <c r="E317" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -20094,7 +21240,7 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="42" t="s">
+      <c r="E318" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -20111,7 +21257,7 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="42" t="s">
+      <c r="E319" s="41" t="s">
         <v>366</v>
       </c>
     </row>
@@ -20128,7 +21274,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="42" t="s">
+      <c r="E320" s="41" t="s">
         <v>367</v>
       </c>
     </row>
@@ -20145,7 +21291,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="42" t="s">
+      <c r="E321" s="41" t="s">
         <v>368</v>
       </c>
     </row>
@@ -20162,7 +21308,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="42" t="s">
+      <c r="E322" s="41" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20179,7 +21325,7 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="42" t="s">
+      <c r="E323" s="41" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20196,7 +21342,7 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="42" t="s">
+      <c r="E324" s="41" t="s">
         <v>369</v>
       </c>
     </row>
@@ -20213,7 +21359,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="42" t="s">
+      <c r="E325" s="41" t="s">
         <v>370</v>
       </c>
     </row>
@@ -20230,7 +21376,7 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="42" t="s">
+      <c r="E326" s="41" t="s">
         <v>371</v>
       </c>
     </row>
@@ -20247,7 +21393,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="42" t="s">
+      <c r="E327" s="41" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20264,7 +21410,7 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="42" t="s">
+      <c r="E328" s="41" t="s">
         <v>569</v>
       </c>
     </row>
@@ -20281,7 +21427,7 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="42" t="s">
+      <c r="E329" s="41" t="s">
         <v>570</v>
       </c>
     </row>
@@ -20298,7 +21444,7 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="42" t="s">
+      <c r="E330" s="41" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20315,7 +21461,7 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="42" t="s">
+      <c r="E331" s="41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -20332,7 +21478,7 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="42" t="s">
+      <c r="E332" s="41" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20349,7 +21495,7 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="42" t="s">
+      <c r="E333" s="41" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20366,7 +21512,7 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="42" t="s">
+      <c r="E334" s="41" t="s">
         <v>571</v>
       </c>
     </row>
@@ -20383,7 +21529,7 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="42" t="s">
+      <c r="E335" s="41" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20400,7 +21546,7 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="42" t="s">
+      <c r="E336" s="41" t="s">
         <v>377</v>
       </c>
     </row>
@@ -20417,7 +21563,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="42" t="s">
+      <c r="E337" s="41" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20434,7 +21580,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="42" t="s">
+      <c r="E338" s="41" t="s">
         <v>379</v>
       </c>
     </row>
@@ -20451,7 +21597,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="42" t="s">
+      <c r="E339" s="41" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20468,7 +21614,7 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="42" t="s">
+      <c r="E340" s="41" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20485,7 +21631,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="42" t="s">
+      <c r="E341" s="41" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20638,564 +21784,564 @@
       <c r="D350" s="13"/>
       <c r="E350" s="32"/>
     </row>
-    <row r="351" spans="1:5" s="49" customFormat="1">
+    <row r="351" spans="1:5" s="17" customFormat="1">
       <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="50" t="s">
+      <c r="C351" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="51" t="s">
+      <c r="D351" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="53" t="s">
+      <c r="E351" s="21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="49" customFormat="1">
+    <row r="352" spans="1:5" s="17" customFormat="1">
       <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="51" t="s">
+      <c r="C352" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="51" t="s">
+      <c r="D352" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="53" t="s">
+      <c r="E352" s="21" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="49" customFormat="1">
+    <row r="353" spans="1:5" s="17" customFormat="1">
       <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="51" t="s">
+      <c r="C353" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="51" t="s">
+      <c r="D353" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="53" t="s">
+      <c r="E353" s="21" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="49" customFormat="1">
+    <row r="354" spans="1:5" s="17" customFormat="1">
       <c r="A354" s="17">
         <v>353</v>
       </c>
       <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="51" t="s">
+      <c r="C354" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="51" t="s">
+      <c r="D354" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="53" t="s">
+      <c r="E354" s="21" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="49" customFormat="1">
+    <row r="355" spans="1:5" s="17" customFormat="1">
       <c r="A355" s="17">
         <v>354</v>
       </c>
       <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="51" t="s">
+      <c r="C355" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="50" t="s">
+      <c r="D355" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="53" t="s">
+      <c r="E355" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="49" customFormat="1">
+    <row r="356" spans="1:5" s="17" customFormat="1">
       <c r="A356" s="17">
         <v>355</v>
       </c>
       <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="51" t="s">
+      <c r="C356" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="50" t="s">
+      <c r="D356" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="53" t="s">
+      <c r="E356" s="21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="49" customFormat="1">
+    <row r="357" spans="1:5" s="17" customFormat="1">
       <c r="A357" s="17">
         <v>356</v>
       </c>
       <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="51" t="s">
+      <c r="C357" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="51" t="s">
+      <c r="D357" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="53" t="s">
+      <c r="E357" s="21" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="49" customFormat="1">
+    <row r="358" spans="1:5" s="17" customFormat="1">
       <c r="A358" s="17">
         <v>357</v>
       </c>
       <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="51" t="s">
+      <c r="C358" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="51" t="s">
+      <c r="D358" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="53" t="s">
+      <c r="E358" s="21" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="49" customFormat="1">
+    <row r="359" spans="1:5" s="17" customFormat="1">
       <c r="A359" s="17">
         <v>358</v>
       </c>
       <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="51" t="s">
+      <c r="C359" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="51" t="s">
+      <c r="D359" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="53" t="s">
+      <c r="E359" s="21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="44" customFormat="1">
+    <row r="360" spans="1:5" s="17" customFormat="1">
       <c r="A360" s="17">
         <v>359</v>
       </c>
       <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="52" t="s">
+      <c r="C360" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="52" t="s">
+      <c r="D360" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="54" t="s">
+      <c r="E360" s="21" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="44" customFormat="1">
+    <row r="361" spans="1:5" s="17" customFormat="1">
       <c r="A361" s="17">
         <v>360</v>
       </c>
       <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="52" t="s">
+      <c r="C361" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="52" t="s">
+      <c r="D361" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="54" t="s">
+      <c r="E361" s="21" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="44" customFormat="1">
+    <row r="362" spans="1:5" s="17" customFormat="1">
       <c r="A362" s="17">
         <v>361</v>
       </c>
       <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="52" t="s">
+      <c r="C362" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="52" t="s">
+      <c r="D362" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="54" t="s">
+      <c r="E362" s="21" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="44" customFormat="1">
+    <row r="363" spans="1:5" s="17" customFormat="1">
       <c r="A363" s="17">
         <v>362</v>
       </c>
       <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="52" t="s">
+      <c r="C363" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="52" t="s">
+      <c r="D363" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="54" t="s">
+      <c r="E363" s="21" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="44" customFormat="1">
+    <row r="364" spans="1:5" s="17" customFormat="1">
       <c r="A364" s="17">
         <v>363</v>
       </c>
       <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="52" t="s">
+      <c r="C364" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="45" t="s">
+      <c r="D364" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="54" t="s">
+      <c r="E364" s="21" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="44" customFormat="1">
+    <row r="365" spans="1:5" s="17" customFormat="1">
       <c r="A365" s="17">
         <v>364</v>
       </c>
       <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="52" t="s">
+      <c r="C365" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="45" t="s">
+      <c r="D365" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="54" t="s">
+      <c r="E365" s="21" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="44" customFormat="1">
+    <row r="366" spans="1:5" s="17" customFormat="1">
       <c r="A366" s="17">
         <v>365</v>
       </c>
       <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="52" t="s">
+      <c r="C366" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="52" t="s">
+      <c r="D366" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="54" t="s">
+      <c r="E366" s="21" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="44" customFormat="1">
+    <row r="367" spans="1:5" s="17" customFormat="1">
       <c r="A367" s="17">
         <v>366</v>
       </c>
       <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="52" t="s">
+      <c r="C367" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="52" t="s">
+      <c r="D367" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="54" t="s">
+      <c r="E367" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="44" customFormat="1">
+    <row r="368" spans="1:5" s="17" customFormat="1">
       <c r="A368" s="17">
         <v>367</v>
       </c>
       <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="52" t="s">
+      <c r="C368" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="52" t="s">
+      <c r="D368" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="54" t="s">
+      <c r="E368" s="21" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="49" customFormat="1">
+    <row r="369" spans="1:5" s="17" customFormat="1">
       <c r="A369" s="17">
         <v>368</v>
       </c>
       <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="51" t="s">
+      <c r="C369" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="51" t="s">
+      <c r="D369" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="53" t="s">
+      <c r="E369" s="21" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="49" customFormat="1">
+    <row r="370" spans="1:5" s="17" customFormat="1">
       <c r="A370" s="17">
         <v>369</v>
       </c>
       <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="51" t="s">
+      <c r="C370" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="51" t="s">
+      <c r="D370" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="53" t="s">
+      <c r="E370" s="21" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="49" customFormat="1">
+    <row r="371" spans="1:5" s="17" customFormat="1">
       <c r="A371" s="17">
         <v>370</v>
       </c>
       <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="51" t="s">
+      <c r="C371" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="51" t="s">
+      <c r="D371" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="53" t="s">
+      <c r="E371" s="21" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="49" customFormat="1">
+    <row r="372" spans="1:5" s="17" customFormat="1">
       <c r="A372" s="17">
         <v>371</v>
       </c>
       <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="51" t="s">
+      <c r="C372" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="51" t="s">
+      <c r="D372" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="53" t="s">
+      <c r="E372" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="49" customFormat="1">
+    <row r="373" spans="1:5" s="17" customFormat="1">
       <c r="A373" s="17">
         <v>372</v>
       </c>
       <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="51" t="s">
+      <c r="C373" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="50" t="s">
+      <c r="D373" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="53" t="s">
+      <c r="E373" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="49" customFormat="1">
+    <row r="374" spans="1:5" s="17" customFormat="1">
       <c r="A374" s="17">
         <v>373</v>
       </c>
       <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="51" t="s">
+      <c r="C374" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="50" t="s">
+      <c r="D374" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="53" t="s">
+      <c r="E374" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="49" customFormat="1">
+    <row r="375" spans="1:5" s="17" customFormat="1">
       <c r="A375" s="17">
         <v>374</v>
       </c>
       <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="51" t="s">
+      <c r="C375" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="51" t="s">
+      <c r="D375" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="53" t="s">
+      <c r="E375" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="49" customFormat="1">
+    <row r="376" spans="1:5" s="17" customFormat="1">
       <c r="A376" s="17">
         <v>375</v>
       </c>
       <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="51" t="s">
+      <c r="C376" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="51" t="s">
+      <c r="D376" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="53" t="s">
+      <c r="E376" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="49" customFormat="1">
+    <row r="377" spans="1:5" s="17" customFormat="1">
       <c r="A377" s="17">
         <v>376</v>
       </c>
       <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="51" t="s">
+      <c r="C377" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="51" t="s">
+      <c r="D377" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="53" t="s">
+      <c r="E377" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="59" customFormat="1">
+    <row r="378" spans="1:5" s="17" customFormat="1">
       <c r="A378" s="17">
         <v>377</v>
       </c>
       <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="57" t="s">
+      <c r="C378" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="57" t="s">
+      <c r="D378" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="60" t="s">
+      <c r="E378" s="21" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="59" customFormat="1">
+    <row r="379" spans="1:5" s="17" customFormat="1">
       <c r="A379" s="17">
         <v>378</v>
       </c>
       <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="61" t="s">
+      <c r="C379" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="61" t="s">
+      <c r="D379" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="60" t="s">
+      <c r="E379" s="21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="59" customFormat="1">
+    <row r="380" spans="1:5" s="17" customFormat="1">
       <c r="A380" s="17">
         <v>379</v>
       </c>
       <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="61" t="s">
+      <c r="C380" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="57" t="s">
+      <c r="D380" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="60" t="s">
+      <c r="E380" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="59" customFormat="1">
+    <row r="381" spans="1:5" s="17" customFormat="1">
       <c r="A381" s="17">
         <v>380</v>
       </c>
       <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="61" t="s">
+      <c r="C381" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="61" t="s">
+      <c r="D381" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="60" t="s">
+      <c r="E381" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="59" customFormat="1">
+    <row r="382" spans="1:5" s="17" customFormat="1">
       <c r="A382" s="17">
         <v>381</v>
       </c>
       <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="61" t="s">
+      <c r="C382" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="61" t="s">
+      <c r="D382" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="60" t="s">
+      <c r="E382" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="59" customFormat="1">
+    <row r="383" spans="1:5" s="17" customFormat="1">
       <c r="A383" s="17">
         <v>382</v>
       </c>
       <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="61" t="s">
+      <c r="C383" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="57"/>
-      <c r="E383" s="62"/>
-    </row>
-    <row r="384" spans="1:5" ht="16.5">
+      <c r="D383" s="13"/>
+      <c r="E383" s="32"/>
+    </row>
+    <row r="384" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A384" s="17">
         <v>383</v>
       </c>
@@ -21205,14 +22351,14 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="43" t="s">
+      <c r="D384" s="53" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="42" t="s">
+      <c r="E384" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="16.5">
+    <row r="385" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A385" s="17">
         <v>384</v>
       </c>
@@ -21222,1126 +22368,1755 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="43" t="s">
+      <c r="D385" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="42" t="s">
+      <c r="E385" s="21" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" s="17" customFormat="1">
       <c r="A386" s="17">
         <v>385</v>
       </c>
       <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="64" t="s">
+      <c r="C386" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="66" t="s">
+      <c r="D386" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="67" t="s">
+      <c r="E386" s="21" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" s="17" customFormat="1">
       <c r="A387" s="17">
         <v>386</v>
       </c>
       <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="64" t="s">
+      <c r="C387" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="66" t="s">
+      <c r="D387" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="67" t="s">
+      <c r="E387" s="21" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" s="17" customFormat="1">
       <c r="A388" s="17">
         <v>387</v>
       </c>
       <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="64" t="s">
+      <c r="C388" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="66" t="s">
+      <c r="D388" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="67" t="s">
+      <c r="E388" s="21" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" s="17" customFormat="1">
       <c r="A389" s="17">
         <v>388</v>
       </c>
       <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="64" t="s">
+      <c r="C389" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="66" t="s">
+      <c r="D389" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="67" t="s">
+      <c r="E389" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" s="17" customFormat="1">
       <c r="A390" s="17">
         <v>389</v>
       </c>
       <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="64" t="s">
+      <c r="C390" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="66" t="s">
+      <c r="D390" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="67" t="s">
+      <c r="E390" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" s="17" customFormat="1">
       <c r="A391" s="17">
         <v>390</v>
       </c>
       <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="64" t="s">
+      <c r="C391" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="66" t="s">
+      <c r="D391" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="67" t="s">
+      <c r="E391" s="21" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" s="17" customFormat="1">
       <c r="A392" s="17">
         <v>391</v>
       </c>
       <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="64" t="s">
+      <c r="C392" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="66" t="s">
+      <c r="D392" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="67" t="s">
+      <c r="E392" s="21" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" s="17" customFormat="1">
       <c r="A393" s="17">
         <v>392</v>
       </c>
       <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="64" t="s">
+      <c r="C393" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="66" t="s">
+      <c r="D393" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="67" t="s">
+      <c r="E393" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" s="17" customFormat="1">
       <c r="A394" s="17">
         <v>393</v>
       </c>
       <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="64" t="s">
+      <c r="C394" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="66" t="s">
+      <c r="D394" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="67" t="s">
+      <c r="E394" s="21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" s="17" customFormat="1">
       <c r="A395" s="17">
         <v>394</v>
       </c>
       <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="64" t="s">
+      <c r="C395" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="66" t="s">
+      <c r="D395" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="67" t="s">
+      <c r="E395" s="21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" s="17" customFormat="1">
       <c r="A396" s="17">
         <v>395</v>
       </c>
       <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="64" t="s">
+      <c r="C396" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="66" t="s">
+      <c r="D396" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="67" t="s">
+      <c r="E396" s="21" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" s="17" customFormat="1">
       <c r="A397" s="17">
         <v>396</v>
       </c>
       <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="64" t="s">
+      <c r="C397" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="66" t="s">
+      <c r="D397" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="67" t="s">
+      <c r="E397" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" s="17" customFormat="1">
       <c r="A398" s="17">
         <v>397</v>
       </c>
       <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="64" t="s">
+      <c r="C398" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="66" t="s">
+      <c r="D398" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="67" t="s">
+      <c r="E398" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" s="17" customFormat="1">
       <c r="A399" s="17">
         <v>398</v>
       </c>
       <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="64" t="s">
+      <c r="C399" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="66" t="s">
+      <c r="D399" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="67" t="s">
+      <c r="E399" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" s="17" customFormat="1">
       <c r="A400" s="17">
         <v>399</v>
       </c>
       <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="64" t="s">
+      <c r="C400" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="66" t="s">
+      <c r="D400" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="67" t="s">
+      <c r="E400" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" s="17" customFormat="1">
       <c r="A401" s="17">
         <v>400</v>
       </c>
       <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="64" t="s">
+      <c r="C401" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="66" t="s">
+      <c r="D401" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="67" t="s">
+      <c r="E401" s="21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" s="17" customFormat="1">
       <c r="A402" s="17">
         <v>401</v>
       </c>
       <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="64" t="s">
+      <c r="C402" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="66" t="s">
+      <c r="D402" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="67" t="s">
+      <c r="E402" s="21" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" s="17" customFormat="1">
       <c r="A403" s="17">
         <v>402</v>
       </c>
       <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="64" t="s">
+      <c r="C403" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="66" t="s">
+      <c r="D403" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="67" t="s">
+      <c r="E403" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" s="17" customFormat="1">
       <c r="A404" s="17">
         <v>403</v>
       </c>
       <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="64" t="s">
+      <c r="C404" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="66" t="s">
+      <c r="D404" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="67" t="s">
+      <c r="E404" s="21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" s="17" customFormat="1">
       <c r="A405" s="17">
         <v>404</v>
       </c>
       <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="64" t="s">
+      <c r="C405" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="66" t="s">
+      <c r="D405" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="67" t="s">
+      <c r="E405" s="21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" s="17" customFormat="1">
       <c r="A406" s="17">
         <v>405</v>
       </c>
       <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="64" t="s">
+      <c r="C406" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="66" t="s">
+      <c r="D406" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="67" t="s">
+      <c r="E406" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" s="17" customFormat="1">
       <c r="A407" s="17">
         <v>406</v>
       </c>
       <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="64" t="s">
+      <c r="C407" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="66" t="s">
+      <c r="D407" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="67" t="s">
+      <c r="E407" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" s="17" customFormat="1">
       <c r="A408" s="17">
         <v>407</v>
       </c>
       <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="64" t="s">
+      <c r="C408" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="66" t="s">
+      <c r="D408" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="67" t="s">
+      <c r="E408" s="21" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" s="17" customFormat="1">
       <c r="A409" s="17">
         <v>408</v>
       </c>
       <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="64" t="s">
+      <c r="C409" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="66" t="s">
+      <c r="D409" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="67" t="s">
+      <c r="E409" s="21" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" s="17" customFormat="1">
       <c r="A410" s="17">
         <v>409</v>
       </c>
       <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="64" t="s">
+      <c r="C410" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="66" t="s">
+      <c r="D410" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="67" t="s">
+      <c r="E410" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" s="17" customFormat="1">
       <c r="A411" s="17">
         <v>410</v>
       </c>
       <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="64" t="s">
+      <c r="C411" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="66" t="s">
+      <c r="D411" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="67" t="s">
+      <c r="E411" s="21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" s="17" customFormat="1">
       <c r="A412" s="17">
         <v>411</v>
       </c>
       <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="64" t="s">
+      <c r="C412" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="66" t="s">
+      <c r="D412" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="67" t="s">
+      <c r="E412" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" s="17" customFormat="1">
       <c r="A413" s="17">
         <v>412</v>
       </c>
       <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="64" t="s">
+      <c r="C413" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="66" t="s">
+      <c r="D413" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="67" t="s">
+      <c r="E413" s="21" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" s="17" customFormat="1">
       <c r="A414" s="17">
         <v>413</v>
       </c>
       <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="64" t="s">
+      <c r="C414" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="66" t="s">
+      <c r="D414" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="67" t="s">
+      <c r="E414" s="21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" s="17" customFormat="1">
       <c r="A415" s="17">
         <v>414</v>
       </c>
       <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="64" t="s">
+      <c r="C415" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="66" t="s">
+      <c r="D415" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="67" t="s">
+      <c r="E415" s="21" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" s="17" customFormat="1">
       <c r="A416" s="17">
         <v>415</v>
       </c>
       <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="64" t="s">
+      <c r="C416" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="66" t="s">
+      <c r="D416" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="67" t="s">
+      <c r="E416" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" s="17" customFormat="1">
       <c r="A417" s="17">
         <v>416</v>
       </c>
       <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="64" t="s">
+      <c r="C417" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="66" t="s">
+      <c r="D417" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="67" t="s">
+      <c r="E417" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" s="17" customFormat="1">
       <c r="A418" s="17">
         <v>417</v>
       </c>
       <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="64" t="s">
+      <c r="C418" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="66" t="s">
+      <c r="D418" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="67" t="s">
+      <c r="E418" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" s="17" customFormat="1">
       <c r="A419" s="17">
         <v>418</v>
       </c>
       <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="64" t="s">
+      <c r="C419" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="66" t="s">
+      <c r="D419" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="67" t="s">
+      <c r="E419" s="21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" s="17" customFormat="1">
       <c r="A420" s="17">
         <v>419</v>
       </c>
       <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="64" t="s">
+      <c r="C420" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="66" t="s">
+      <c r="D420" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="67" t="s">
+      <c r="E420" s="21" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" s="17" customFormat="1">
       <c r="A421" s="17">
         <v>420</v>
       </c>
       <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="64" t="s">
+      <c r="C421" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="66" t="s">
+      <c r="D421" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="67" t="s">
+      <c r="E421" s="21" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" s="17" customFormat="1">
       <c r="A422" s="17">
         <v>421</v>
       </c>
       <c r="B422" s="13">
         <v>11895</v>
       </c>
-      <c r="C422" s="38" t="s">
+      <c r="C422" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="37" t="s">
+      <c r="D422" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E422" s="39" t="s">
+      <c r="E422" s="21" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" s="17" customFormat="1">
       <c r="A423" s="17">
         <v>422</v>
       </c>
       <c r="B423" s="13">
         <v>11896</v>
       </c>
-      <c r="C423" s="38" t="s">
+      <c r="C423" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="D423" s="38" t="s">
+      <c r="D423" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="39" t="s">
+      <c r="E423" s="21" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" s="17" customFormat="1">
       <c r="A424" s="17">
         <v>423</v>
       </c>
       <c r="B424" s="13">
         <v>11897</v>
       </c>
-      <c r="C424" s="38" t="s">
+      <c r="C424" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="D424" s="37" t="s">
+      <c r="D424" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E424" s="39" t="s">
+      <c r="E424" s="21" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" s="17" customFormat="1">
       <c r="A425" s="17">
         <v>424</v>
       </c>
       <c r="B425" s="13">
         <v>11898</v>
       </c>
-      <c r="C425" s="38" t="s">
+      <c r="C425" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="D425" s="38" t="s">
+      <c r="D425" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E425" s="39" t="s">
+      <c r="E425" s="21" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" s="17" customFormat="1">
       <c r="A426" s="17">
         <v>425</v>
       </c>
       <c r="B426" s="13">
         <v>11899</v>
       </c>
-      <c r="C426" s="38" t="s">
+      <c r="C426" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="D426" s="37" t="s">
+      <c r="D426" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E426" s="39" t="s">
+      <c r="E426" s="21" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" s="17" customFormat="1">
       <c r="A427" s="17">
         <v>426</v>
       </c>
       <c r="B427" s="13">
         <v>11900</v>
       </c>
-      <c r="C427" s="38" t="s">
+      <c r="C427" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="37"/>
-      <c r="E427" s="68"/>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="D427" s="13"/>
+      <c r="E427" s="32"/>
+    </row>
+    <row r="428" spans="1:5" s="17" customFormat="1">
       <c r="A428" s="17">
         <v>427</v>
       </c>
-      <c r="B428" s="50">
+      <c r="B428" s="13">
         <v>11901</v>
       </c>
-      <c r="C428" s="50"/>
-      <c r="D428" s="50" t="s">
+      <c r="C428" s="13"/>
+      <c r="D428" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E428" s="53" t="s">
+      <c r="E428" s="21" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" s="17" customFormat="1">
       <c r="A429" s="17">
         <v>428</v>
       </c>
-      <c r="B429" s="50">
+      <c r="B429" s="13">
         <v>11902</v>
       </c>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50" t="s">
+      <c r="C429" s="13"/>
+      <c r="D429" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E429" s="53" t="s">
+      <c r="E429" s="21" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" s="17" customFormat="1">
       <c r="A430" s="17">
         <v>429</v>
       </c>
-      <c r="B430" s="50">
+      <c r="B430" s="13">
         <v>11903</v>
       </c>
-      <c r="C430" s="50"/>
-      <c r="D430" s="50" t="s">
+      <c r="C430" s="13"/>
+      <c r="D430" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E430" s="53" t="s">
+      <c r="E430" s="21" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" s="17" customFormat="1">
       <c r="A431" s="17">
         <v>430</v>
       </c>
-      <c r="B431" s="50">
+      <c r="B431" s="13">
         <v>11904</v>
       </c>
-      <c r="C431" s="50"/>
-      <c r="D431" s="51" t="s">
+      <c r="C431" s="13"/>
+      <c r="D431" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E431" s="53" t="s">
+      <c r="E431" s="21" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" s="17" customFormat="1">
       <c r="A432" s="17">
         <v>431</v>
       </c>
-      <c r="B432" s="50">
+      <c r="B432" s="13">
         <v>11905</v>
       </c>
-      <c r="C432" s="50"/>
-      <c r="D432" s="51" t="s">
+      <c r="C432" s="13"/>
+      <c r="D432" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E432" s="53" t="s">
+      <c r="E432" s="21" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" s="17" customFormat="1">
       <c r="A433" s="17">
         <v>432</v>
       </c>
-      <c r="B433" s="50">
+      <c r="B433" s="13">
         <v>11906</v>
       </c>
-      <c r="C433" s="50"/>
-      <c r="D433" s="51" t="s">
+      <c r="C433" s="13"/>
+      <c r="D433" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E433" s="53" t="s">
+      <c r="E433" s="21" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" s="17" customFormat="1">
       <c r="A434" s="17">
         <v>433</v>
       </c>
-      <c r="B434" s="50">
+      <c r="B434" s="13">
         <v>11907</v>
       </c>
-      <c r="C434" s="50"/>
-      <c r="D434" s="51" t="s">
+      <c r="C434" s="13"/>
+      <c r="D434" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E434" s="53" t="s">
+      <c r="E434" s="21" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" s="17" customFormat="1">
       <c r="A435" s="17">
         <v>434</v>
       </c>
-      <c r="B435" s="50">
+      <c r="B435" s="13">
         <v>11908</v>
       </c>
-      <c r="C435" s="50"/>
-      <c r="D435" s="51" t="s">
+      <c r="C435" s="13"/>
+      <c r="D435" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E435" s="53" t="s">
+      <c r="E435" s="21" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" s="17" customFormat="1">
       <c r="A436" s="17">
         <v>435</v>
       </c>
-      <c r="B436" s="50">
+      <c r="B436" s="13">
         <v>11909</v>
       </c>
-      <c r="C436" s="50"/>
-      <c r="D436" s="51" t="s">
+      <c r="C436" s="13"/>
+      <c r="D436" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E436" s="53" t="s">
+      <c r="E436" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" s="17" customFormat="1">
       <c r="A437" s="17">
         <v>436</v>
       </c>
-      <c r="B437" s="50">
+      <c r="B437" s="13">
         <v>11911</v>
       </c>
-      <c r="C437" s="50"/>
-      <c r="D437" s="50" t="s">
+      <c r="C437" s="13"/>
+      <c r="D437" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E437" s="53" t="s">
+      <c r="E437" s="21" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" s="17" customFormat="1">
       <c r="A438" s="17">
         <v>437</v>
       </c>
-      <c r="B438" s="50">
+      <c r="B438" s="13">
         <v>11912</v>
       </c>
-      <c r="C438" s="50"/>
-      <c r="D438" s="50" t="s">
+      <c r="C438" s="13"/>
+      <c r="D438" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E438" s="53" t="s">
+      <c r="E438" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" s="17" customFormat="1">
       <c r="A439" s="17">
         <v>438</v>
       </c>
-      <c r="B439" s="50">
+      <c r="B439" s="13">
         <v>11913</v>
       </c>
-      <c r="C439" s="50"/>
-      <c r="D439" s="50" t="s">
+      <c r="C439" s="13"/>
+      <c r="D439" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E439" s="53" t="s">
+      <c r="E439" s="21" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" s="17" customFormat="1">
       <c r="A440" s="17">
         <v>439</v>
       </c>
-      <c r="B440" s="50">
+      <c r="B440" s="13">
         <v>11914</v>
       </c>
-      <c r="C440" s="50"/>
-      <c r="D440" s="51" t="s">
+      <c r="C440" s="13"/>
+      <c r="D440" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E440" s="53" t="s">
+      <c r="E440" s="21" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" s="17" customFormat="1">
       <c r="A441" s="17">
         <v>440</v>
       </c>
-      <c r="B441" s="50">
+      <c r="B441" s="13">
         <v>11915</v>
       </c>
-      <c r="C441" s="50"/>
-      <c r="D441" s="51" t="s">
+      <c r="C441" s="13"/>
+      <c r="D441" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E441" s="53" t="s">
+      <c r="E441" s="21" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" s="17" customFormat="1">
       <c r="A442" s="17">
         <v>441</v>
       </c>
-      <c r="B442" s="50">
+      <c r="B442" s="13">
         <v>11916</v>
       </c>
-      <c r="C442" s="50"/>
-      <c r="D442" s="51" t="s">
+      <c r="C442" s="13"/>
+      <c r="D442" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E442" s="53" t="s">
+      <c r="E442" s="21" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" s="17" customFormat="1">
       <c r="A443" s="17">
         <v>442</v>
       </c>
-      <c r="B443" s="50">
+      <c r="B443" s="13">
         <v>11917</v>
       </c>
-      <c r="C443" s="50"/>
-      <c r="D443" s="51" t="s">
+      <c r="C443" s="13"/>
+      <c r="D443" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E443" s="53" t="s">
+      <c r="E443" s="21" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" s="17" customFormat="1">
       <c r="A444" s="17">
         <v>443</v>
       </c>
-      <c r="B444" s="50">
+      <c r="B444" s="13">
         <v>11918</v>
       </c>
-      <c r="C444" s="50"/>
-      <c r="D444" s="51" t="s">
+      <c r="C444" s="13"/>
+      <c r="D444" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E444" s="53" t="s">
+      <c r="E444" s="21" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" s="17" customFormat="1">
       <c r="A445" s="17">
         <v>444</v>
       </c>
-      <c r="B445" s="50">
+      <c r="B445" s="13">
         <v>11919</v>
       </c>
-      <c r="C445" s="50"/>
-      <c r="D445" s="51" t="s">
+      <c r="C445" s="13"/>
+      <c r="D445" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E445" s="53" t="s">
+      <c r="E445" s="21" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" s="17" customFormat="1">
       <c r="A446" s="17">
         <v>445</v>
       </c>
-      <c r="B446" s="50">
+      <c r="B446" s="13">
         <v>11921</v>
       </c>
-      <c r="C446" s="50"/>
-      <c r="D446" s="50" t="s">
+      <c r="C446" s="13"/>
+      <c r="D446" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E446" s="53" t="s">
+      <c r="E446" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" s="17" customFormat="1">
       <c r="A447" s="17">
         <v>446</v>
       </c>
-      <c r="B447" s="50">
+      <c r="B447" s="13">
         <v>11922</v>
       </c>
-      <c r="C447" s="50"/>
-      <c r="D447" s="50" t="s">
+      <c r="C447" s="13"/>
+      <c r="D447" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E447" s="53" t="s">
+      <c r="E447" s="21" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" s="17" customFormat="1">
       <c r="A448" s="17">
         <v>447</v>
       </c>
-      <c r="B448" s="50">
+      <c r="B448" s="13">
         <v>11923</v>
       </c>
-      <c r="C448" s="50"/>
-      <c r="D448" s="50" t="s">
+      <c r="C448" s="13"/>
+      <c r="D448" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E448" s="53" t="s">
+      <c r="E448" s="21" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" s="17" customFormat="1">
       <c r="A449" s="17">
         <v>448</v>
       </c>
-      <c r="B449" s="50">
+      <c r="B449" s="13">
         <v>11924</v>
       </c>
-      <c r="C449" s="50"/>
-      <c r="D449" s="51" t="s">
+      <c r="C449" s="13"/>
+      <c r="D449" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E449" s="53" t="s">
+      <c r="E449" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" s="17" customFormat="1">
       <c r="A450" s="17">
         <v>449</v>
       </c>
-      <c r="B450" s="50">
+      <c r="B450" s="13">
         <v>11925</v>
       </c>
-      <c r="C450" s="50"/>
-      <c r="D450" s="51" t="s">
+      <c r="C450" s="13"/>
+      <c r="D450" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E450" s="53" t="s">
+      <c r="E450" s="21" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" s="17" customFormat="1">
       <c r="A451" s="17">
         <v>450</v>
       </c>
-      <c r="B451" s="50">
+      <c r="B451" s="13">
         <v>11926</v>
       </c>
-      <c r="C451" s="50"/>
-      <c r="D451" s="51" t="s">
-        <v>601</v>
-      </c>
-      <c r="E451" s="53" t="s">
+      <c r="C451" s="13"/>
+      <c r="D451" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="E451" s="21" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" s="17" customFormat="1">
       <c r="A452" s="17">
         <v>451</v>
       </c>
-      <c r="B452" s="50">
+      <c r="B452" s="13">
         <v>11927</v>
       </c>
-      <c r="C452" s="50"/>
-      <c r="D452" s="51" t="s">
+      <c r="C452" s="13"/>
+      <c r="D452" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E452" s="53" t="s">
+      <c r="E452" s="21" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" s="17" customFormat="1">
       <c r="A453" s="17">
         <v>452</v>
       </c>
-      <c r="B453" s="50">
+      <c r="B453" s="13">
         <v>11928</v>
       </c>
-      <c r="C453" s="50"/>
-      <c r="D453" s="51" t="s">
+      <c r="C453" s="13"/>
+      <c r="D453" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E453" s="53" t="s">
+      <c r="E453" s="21" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" s="17" customFormat="1">
       <c r="A454" s="17">
         <v>453</v>
       </c>
-      <c r="B454" s="50">
+      <c r="B454" s="13">
         <v>11929</v>
       </c>
-      <c r="C454" s="50"/>
-      <c r="D454" s="51" t="s">
+      <c r="C454" s="13"/>
+      <c r="D454" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E454" s="53" t="s">
+      <c r="E454" s="21" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="16.5">
+      <c r="A455" s="17">
+        <v>454</v>
+      </c>
+      <c r="B455" s="45">
+        <v>11930</v>
+      </c>
+      <c r="C455" s="45"/>
+      <c r="D455" s="54" t="s">
+        <v>727</v>
+      </c>
+      <c r="E455" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="16.5">
+      <c r="A456" s="17">
+        <v>455</v>
+      </c>
+      <c r="B456" s="45">
+        <v>11931</v>
+      </c>
+      <c r="C456" s="45"/>
+      <c r="D456" s="54" t="s">
+        <v>728</v>
+      </c>
+      <c r="E456" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="16.5">
+      <c r="A457" s="17">
+        <v>456</v>
+      </c>
+      <c r="B457" s="45">
+        <v>11932</v>
+      </c>
+      <c r="C457" s="45"/>
+      <c r="D457" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="E457" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="16.5">
+      <c r="A458" s="17">
+        <v>457</v>
+      </c>
+      <c r="B458" s="45">
+        <v>11933</v>
+      </c>
+      <c r="C458" s="45"/>
+      <c r="D458" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="E458" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="17" customFormat="1">
+      <c r="A459" s="17">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>11934</v>
+      </c>
+      <c r="C459" s="57"/>
+      <c r="D459" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="E459" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" s="17" customFormat="1">
+      <c r="A460" s="17">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>11935</v>
+      </c>
+      <c r="C460" s="57"/>
+      <c r="D460" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E460" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A461" s="17">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>11936</v>
+      </c>
+      <c r="C461" s="57"/>
+      <c r="D461" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E461" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A462" s="17">
+        <v>461</v>
+      </c>
+      <c r="B462" s="57">
+        <v>11937</v>
+      </c>
+      <c r="C462" s="57"/>
+      <c r="D462" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E462" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="16.5">
+      <c r="A463" s="17">
+        <v>462</v>
+      </c>
+      <c r="B463" s="57">
+        <v>11938</v>
+      </c>
+      <c r="C463" s="57"/>
+      <c r="D463" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E463" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="17">
+        <v>463</v>
+      </c>
+      <c r="B464" s="57">
+        <v>11939</v>
+      </c>
+      <c r="C464" s="57"/>
+      <c r="D464" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E464" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="17">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>11940</v>
+      </c>
+      <c r="C465" s="57"/>
+      <c r="D465" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E465" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="17">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>11941</v>
+      </c>
+      <c r="C466" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D466" s="57"/>
+      <c r="E466" s="61"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="17">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>11942</v>
+      </c>
+      <c r="C467" s="57"/>
+      <c r="D467" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E467" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="17">
+        <v>467</v>
+      </c>
+      <c r="B468" s="57">
+        <v>11943</v>
+      </c>
+      <c r="C468" s="57"/>
+      <c r="D468" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E468" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="16.5">
+      <c r="A469" s="17">
+        <v>468</v>
+      </c>
+      <c r="B469" s="57">
+        <v>11944</v>
+      </c>
+      <c r="C469" s="57"/>
+      <c r="D469" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E469" s="58" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="16.5">
+      <c r="A470" s="17">
+        <v>469</v>
+      </c>
+      <c r="B470" s="57">
+        <v>11945</v>
+      </c>
+      <c r="C470" s="57"/>
+      <c r="D470" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E470" s="58" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="16.5">
+      <c r="A471" s="17">
+        <v>470</v>
+      </c>
+      <c r="B471" s="57">
+        <v>11946</v>
+      </c>
+      <c r="C471" s="57"/>
+      <c r="D471" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E471" s="58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="17">
+        <v>471</v>
+      </c>
+      <c r="B472" s="57">
+        <v>11947</v>
+      </c>
+      <c r="C472" s="57"/>
+      <c r="D472" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E472" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="17">
+        <v>472</v>
+      </c>
+      <c r="B473" s="57">
+        <v>11948</v>
+      </c>
+      <c r="C473" s="57"/>
+      <c r="D473" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E473" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="17">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>11949</v>
+      </c>
+      <c r="C474" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D474" s="57"/>
+      <c r="E474" s="61"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="17">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>11950</v>
+      </c>
+      <c r="C475" s="57"/>
+      <c r="D475" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E475" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="17">
+        <v>475</v>
+      </c>
+      <c r="B476" s="57">
+        <v>11951</v>
+      </c>
+      <c r="C476" s="57"/>
+      <c r="D476" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E476" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="16.5">
+      <c r="A477" s="17">
+        <v>476</v>
+      </c>
+      <c r="B477" s="57">
+        <v>11952</v>
+      </c>
+      <c r="C477" s="57"/>
+      <c r="D477" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E477" s="58" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="16.5">
+      <c r="A478" s="17">
+        <v>477</v>
+      </c>
+      <c r="B478" s="57">
+        <v>11953</v>
+      </c>
+      <c r="C478" s="57"/>
+      <c r="D478" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E478" s="58" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="16.5">
+      <c r="A479" s="17">
+        <v>478</v>
+      </c>
+      <c r="B479" s="57">
+        <v>11954</v>
+      </c>
+      <c r="C479" s="57"/>
+      <c r="D479" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E479" s="58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="17">
+        <v>479</v>
+      </c>
+      <c r="B480" s="57">
+        <v>11955</v>
+      </c>
+      <c r="C480" s="57"/>
+      <c r="D480" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E480" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="17">
+        <v>480</v>
+      </c>
+      <c r="B481" s="57">
+        <v>11956</v>
+      </c>
+      <c r="C481" s="57"/>
+      <c r="D481" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E481" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="17">
+        <v>481</v>
+      </c>
+      <c r="B482" s="57">
+        <v>11957</v>
+      </c>
+      <c r="C482" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D482" s="57"/>
+      <c r="E482" s="61"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="17">
+        <v>482</v>
+      </c>
+      <c r="B483" s="66">
+        <v>11958</v>
+      </c>
+      <c r="C483" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="D483" s="66"/>
+      <c r="E483" s="68"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="17">
+        <v>483</v>
+      </c>
+      <c r="B484" s="66">
+        <v>11959</v>
+      </c>
+      <c r="C484" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="D484" s="66"/>
+      <c r="E484" s="68"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="17">
+        <v>484</v>
+      </c>
+      <c r="B485" s="66">
+        <v>11960</v>
+      </c>
+      <c r="C485" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="D485" s="66"/>
+      <c r="E485" s="68"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="17">
+        <v>485</v>
+      </c>
+      <c r="B486" s="66">
+        <v>11961</v>
+      </c>
+      <c r="C486" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="D486" s="66"/>
+      <c r="E486" s="68"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="17">
+        <v>486</v>
+      </c>
+      <c r="B487" s="66">
+        <v>11962</v>
+      </c>
+      <c r="C487" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="D487" s="66"/>
+      <c r="E487" s="68"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="17">
+        <v>487</v>
+      </c>
+      <c r="B488" s="66">
+        <v>11963</v>
+      </c>
+      <c r="C488" s="66"/>
+      <c r="D488" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E488" s="69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="17">
+        <v>488</v>
+      </c>
+      <c r="B489" s="66">
+        <v>11964</v>
+      </c>
+      <c r="C489" s="66"/>
+      <c r="D489" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E489" s="69" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="17">
+        <v>489</v>
+      </c>
+      <c r="B490" s="66">
+        <v>11965</v>
+      </c>
+      <c r="C490" s="66"/>
+      <c r="D490" s="67" t="s">
+        <v>774</v>
+      </c>
+      <c r="E490" s="69" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="17">
+        <v>490</v>
+      </c>
+      <c r="B491" s="66">
+        <v>11966</v>
+      </c>
+      <c r="C491" s="66"/>
+      <c r="D491" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E491" s="69" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="17">
+        <v>491</v>
+      </c>
+      <c r="B492" s="66">
+        <v>11967</v>
+      </c>
+      <c r="C492" s="66"/>
+      <c r="D492" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="E492" s="69" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="17">
+        <v>492</v>
+      </c>
+      <c r="B493" s="66">
+        <v>11968</v>
+      </c>
+      <c r="C493" s="66"/>
+      <c r="D493" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="E493" s="69" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="17">
+        <v>493</v>
+      </c>
+      <c r="B494" s="66">
+        <v>11969</v>
+      </c>
+      <c r="C494" s="66"/>
+      <c r="D494" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E494" s="69" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="17">
+        <v>494</v>
+      </c>
+      <c r="B495" s="66">
+        <v>11970</v>
+      </c>
+      <c r="C495" s="66"/>
+      <c r="D495" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E495" s="69" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="17">
+        <v>495</v>
+      </c>
+      <c r="B496" s="66">
+        <v>11971</v>
+      </c>
+      <c r="C496" s="66"/>
+      <c r="D496" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E496" s="69" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="17">
+        <v>496</v>
+      </c>
+      <c r="B497" s="66">
+        <v>11972</v>
+      </c>
+      <c r="C497" s="66"/>
+      <c r="D497" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="E497" s="69" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -22357,8 +24132,8 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23424,32 +25199,32 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
-      <c r="A1" s="72" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>726</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>727</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>728</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>729</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>730</v>
-      </c>
-      <c r="G1" s="72" t="s">
+      <c r="A1" s="55" t="s">
         <v>731</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -23464,32 +25239,31 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
-      <c r="A1" s="72" t="s">
-        <v>732</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>733</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>734</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>735</v>
+      <c r="A1" s="55" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="D2" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -23502,8 +25276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23513,11 +25287,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>737</v>
+      <c r="A1" s="56" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="778">
   <si>
     <t>id|</t>
   </si>
@@ -4948,23 +4948,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>纯棉毛巾</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5128,6 +5111,10 @@
   </si>
   <si>
     <t>50,65</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8179,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="72" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C78" s="71">
         <v>1613433600</v>
@@ -8207,7 +8194,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C79" s="71">
         <v>1613433600</v>
@@ -16305,8 +16292,8 @@
   <dimension ref="A1:F497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
+      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E486" sqref="E486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23439,7 +23426,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -23710,7 +23697,7 @@
         <v>748</v>
       </c>
       <c r="E469" s="58" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -23740,7 +23727,7 @@
         <v>748</v>
       </c>
       <c r="E471" s="58" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -23828,7 +23815,7 @@
         <v>748</v>
       </c>
       <c r="E477" s="58" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
@@ -23858,7 +23845,7 @@
         <v>748</v>
       </c>
       <c r="E479" s="58" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -23950,11 +23937,13 @@
       <c r="B486" s="66">
         <v>11961</v>
       </c>
-      <c r="C486" s="67" t="s">
-        <v>761</v>
-      </c>
-      <c r="D486" s="66"/>
-      <c r="E486" s="68"/>
+      <c r="C486" s="67"/>
+      <c r="D486" s="66" t="s">
+        <v>768</v>
+      </c>
+      <c r="E486" s="68" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="17">
@@ -23964,7 +23953,7 @@
         <v>11962</v>
       </c>
       <c r="C487" s="67" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D487" s="66"/>
       <c r="E487" s="68"/>
@@ -23981,7 +23970,7 @@
         <v>42</v>
       </c>
       <c r="E488" s="69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -23996,7 +23985,7 @@
         <v>161</v>
       </c>
       <c r="E489" s="69" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -24008,10 +23997,10 @@
       </c>
       <c r="C490" s="66"/>
       <c r="D490" s="67" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E490" s="69" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -24026,7 +24015,7 @@
         <v>42</v>
       </c>
       <c r="E491" s="69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -24038,10 +24027,10 @@
       </c>
       <c r="C492" s="66"/>
       <c r="D492" s="66" t="s">
+        <v>766</v>
+      </c>
+      <c r="E492" s="69" t="s">
         <v>767</v>
-      </c>
-      <c r="E492" s="69" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -24053,10 +24042,10 @@
       </c>
       <c r="C493" s="66"/>
       <c r="D493" s="66" t="s">
+        <v>768</v>
+      </c>
+      <c r="E493" s="69" t="s">
         <v>769</v>
-      </c>
-      <c r="E493" s="69" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -24071,7 +24060,7 @@
         <v>30</v>
       </c>
       <c r="E494" s="69" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -24086,7 +24075,7 @@
         <v>42</v>
       </c>
       <c r="E495" s="69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -24101,7 +24090,7 @@
         <v>161</v>
       </c>
       <c r="E496" s="69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -24113,10 +24102,10 @@
       </c>
       <c r="C497" s="66"/>
       <c r="D497" s="66" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E497" s="69" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="791">
   <si>
     <t>id|</t>
   </si>
@@ -4848,20 +4848,225 @@
     <t>prop_xnsmt_mtsp</t>
   </si>
   <si>
-    <t>茅台酒</t>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果电脑</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,150000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,15000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,600000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包稀有宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包史诗宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包传说宝箱</t>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>10000,30000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4878,7 +5083,65 @@
       </rPr>
       <t>0,100</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4895,223 +5158,19 @@
       </rPr>
       <t>000,3000</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,10000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果电脑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00京东卡</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚果大礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯棉毛巾</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,150000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,40</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,40000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,40000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,40</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,15000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,600000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神送礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>50,65</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5000,5000</t>
@@ -5257,7 +5316,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5290,25 +5349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5352,7 +5399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5475,21 +5522,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5497,67 +5534,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5836,11 +5839,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5861,7 +5864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7752,10 +7755,10 @@
       <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="46">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7784,10 +7787,10 @@
       <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="46">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7816,10 +7819,10 @@
       <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="46">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7848,10 +7851,10 @@
       <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="46">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7880,10 +7883,10 @@
       <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="46">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7912,10 +7915,10 @@
       <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="46">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7944,10 +7947,10 @@
       <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="46">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="46">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -8049,173 +8052,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="49" customFormat="1">
-      <c r="A74" s="49">
+    <row r="74" spans="1:12" s="18" customFormat="1">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="28">
         <v>68</v>
       </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="49">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18">
         <v>73</v>
       </c>
-      <c r="L74" s="49">
+      <c r="L74" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="63" customFormat="1">
-      <c r="A75" s="63">
+    <row r="75" spans="1:12" s="18" customFormat="1">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D75" s="63">
+      <c r="D75" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="28">
         <v>69</v>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="63">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="18">
         <v>74</v>
       </c>
-      <c r="L75" s="63">
+      <c r="L75" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="63" customFormat="1">
-      <c r="A76" s="63">
+    <row r="76" spans="1:12" s="18" customFormat="1">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="C76" s="63">
+      <c r="C76" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="28">
         <v>69</v>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="63">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="18">
         <v>75</v>
       </c>
-      <c r="L76" s="63">
+      <c r="L76" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="63" customFormat="1">
-      <c r="A77" s="63">
+    <row r="77" spans="1:12" s="18" customFormat="1">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="C77" s="63">
+      <c r="C77" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D77" s="63">
+      <c r="D77" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="28">
         <v>69</v>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="63">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="18">
         <v>76</v>
       </c>
-      <c r="L77" s="63">
+      <c r="L77" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="71">
+    <row r="78" spans="1:12" s="18" customFormat="1">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78" s="72" t="s">
-        <v>774</v>
-      </c>
-      <c r="C78" s="71">
+      <c r="B78" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="C78" s="18">
         <v>1613433600</v>
       </c>
-      <c r="D78" s="71">
+      <c r="D78" s="18">
         <v>1614009599</v>
       </c>
-      <c r="E78" s="73">
+      <c r="E78" s="28">
         <v>70</v>
       </c>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="71">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="18">
         <v>77</v>
       </c>
-      <c r="L78" s="71">
+      <c r="L78" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="71">
+    <row r="79" spans="1:12" s="18" customFormat="1">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79" s="72" t="s">
-        <v>774</v>
-      </c>
-      <c r="C79" s="71">
+      <c r="B79" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="C79" s="18">
         <v>1613433600</v>
       </c>
-      <c r="D79" s="71">
+      <c r="D79" s="18">
         <v>1614009599</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="28">
         <v>71</v>
       </c>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="71">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="18">
         <v>77</v>
       </c>
-      <c r="L79" s="71">
+      <c r="L79" s="18">
         <v>1</v>
       </c>
+    </row>
+    <row r="80" spans="1:12" s="18" customFormat="1">
+      <c r="A80" s="51">
+        <v>79</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="C80" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D80" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E80" s="52">
+        <v>72</v>
+      </c>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="51">
+        <v>78</v>
+      </c>
+      <c r="L80" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="18" customFormat="1">
+      <c r="A81" s="51">
+        <v>80</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>767</v>
+      </c>
+      <c r="C81" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D81" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E81" s="52">
+        <v>73</v>
+      </c>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="51">
+        <v>79</v>
+      </c>
+      <c r="L81" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="18" customFormat="1">
+      <c r="A82" s="51">
+        <v>81</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="C82" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D82" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E82" s="52">
+        <v>74</v>
+      </c>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="51">
+        <v>80</v>
+      </c>
+      <c r="L82" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="D83" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8228,11 +8318,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9194,59 +9284,101 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="44">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="44">
+      <c r="B69" s="17">
         <v>68</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1">
-      <c r="A70" s="62">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="17">
         <v>69</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="70">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="70">
+      <c r="B71" s="17">
         <v>70</v>
       </c>
-      <c r="C71" s="71" t="s">
-        <v>757</v>
-      </c>
-      <c r="D71" s="71">
+      <c r="C71" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D71" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="70">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="70">
+      <c r="B72" s="17">
         <v>71</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="71">
+      <c r="D72" s="18">
         <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17">
+        <v>72</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>769</v>
+      </c>
+      <c r="D73" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17">
+        <v>73</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="D74" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17">
+        <v>74</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>771</v>
+      </c>
+      <c r="D75" s="51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9301,13 +9433,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B448" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B478" sqref="B478"/>
+      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13806,13 +13938,13 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="13">
         <v>49</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="13">
         <v>11794</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13820,13 +13952,13 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="13">
         <v>49</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="13">
         <v>11795</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13834,13 +13966,13 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="13">
         <v>49</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="13">
         <v>11796</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13848,13 +13980,13 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="13">
         <v>50</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="13">
         <v>11797</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13862,13 +13994,13 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="13">
         <v>50</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="13">
         <v>11798</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13876,13 +14008,13 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="13">
         <v>50</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="13">
         <v>11799</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13890,13 +14022,13 @@
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="13">
         <v>50</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="13">
         <v>11800</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13904,13 +14036,13 @@
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="13">
         <v>50</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="13">
         <v>11801</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13918,13 +14050,13 @@
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="13">
         <v>50</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="13">
         <v>11802</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13932,13 +14064,13 @@
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="13">
         <v>51</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="13">
         <v>11803</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13946,13 +14078,13 @@
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="13">
         <v>51</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="13">
         <v>11804</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13960,13 +14092,13 @@
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="13">
         <v>51</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="13">
         <v>11805</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13974,13 +14106,13 @@
       <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="13">
         <v>51</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="13">
         <v>11806</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13988,13 +14120,13 @@
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="13">
         <v>51</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="13">
         <v>11807</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14002,13 +14134,13 @@
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="13">
         <v>51</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="13">
         <v>11808</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14016,13 +14148,13 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="13">
         <v>52</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="13">
         <v>11809</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14030,13 +14162,13 @@
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="13">
         <v>52</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="13">
         <v>11810</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14044,13 +14176,13 @@
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="13">
         <v>52</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="13">
         <v>11811</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14058,13 +14190,13 @@
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="13">
         <v>52</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="13">
         <v>11812</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="13">
         <v>400</v>
       </c>
     </row>
@@ -14072,13 +14204,13 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="13">
         <v>52</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="13">
         <v>11813</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14086,13 +14218,13 @@
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="13">
         <v>52</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="13">
         <v>11814</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14222,129 +14354,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="51" customFormat="1">
-      <c r="A351" s="51">
+    <row r="351" spans="1:4" s="47" customFormat="1">
+      <c r="A351" s="47">
         <v>350</v>
       </c>
-      <c r="B351" s="51">
+      <c r="B351" s="47">
         <v>57</v>
       </c>
-      <c r="C351" s="51">
+      <c r="C351" s="47">
         <v>11824</v>
       </c>
-      <c r="D351" s="51">
+      <c r="D351" s="47">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="51" customFormat="1">
-      <c r="A352" s="51">
+    <row r="352" spans="1:4" s="47" customFormat="1">
+      <c r="A352" s="47">
         <v>351</v>
       </c>
-      <c r="B352" s="51">
+      <c r="B352" s="47">
         <v>57</v>
       </c>
-      <c r="C352" s="51">
+      <c r="C352" s="47">
         <v>11825</v>
       </c>
-      <c r="D352" s="51">
+      <c r="D352" s="47">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="51" customFormat="1">
-      <c r="A353" s="51">
+    <row r="353" spans="1:4" s="47" customFormat="1">
+      <c r="A353" s="47">
         <v>352</v>
       </c>
-      <c r="B353" s="51">
+      <c r="B353" s="47">
         <v>57</v>
       </c>
-      <c r="C353" s="51">
+      <c r="C353" s="47">
         <v>11826</v>
       </c>
-      <c r="D353" s="51">
+      <c r="D353" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="51" customFormat="1">
-      <c r="A354" s="51">
+    <row r="354" spans="1:4" s="47" customFormat="1">
+      <c r="A354" s="47">
         <v>353</v>
       </c>
-      <c r="B354" s="51">
+      <c r="B354" s="47">
         <v>57</v>
       </c>
-      <c r="C354" s="51">
+      <c r="C354" s="47">
         <v>11827</v>
       </c>
-      <c r="D354" s="51">
+      <c r="D354" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="51" customFormat="1">
-      <c r="A355" s="51">
+    <row r="355" spans="1:4" s="47" customFormat="1">
+      <c r="A355" s="47">
         <v>354</v>
       </c>
-      <c r="B355" s="51">
+      <c r="B355" s="47">
         <v>57</v>
       </c>
-      <c r="C355" s="51">
+      <c r="C355" s="47">
         <v>11828</v>
       </c>
-      <c r="D355" s="51">
+      <c r="D355" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="51" customFormat="1">
-      <c r="A356" s="51">
+    <row r="356" spans="1:4" s="47" customFormat="1">
+      <c r="A356" s="47">
         <v>355</v>
       </c>
-      <c r="B356" s="51">
+      <c r="B356" s="47">
         <v>57</v>
       </c>
-      <c r="C356" s="51">
+      <c r="C356" s="47">
         <v>11829</v>
       </c>
-      <c r="D356" s="51">
+      <c r="D356" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="51" customFormat="1">
-      <c r="A357" s="51">
+    <row r="357" spans="1:4" s="47" customFormat="1">
+      <c r="A357" s="47">
         <v>356</v>
       </c>
-      <c r="B357" s="51">
+      <c r="B357" s="47">
         <v>57</v>
       </c>
-      <c r="C357" s="51">
+      <c r="C357" s="47">
         <v>11830</v>
       </c>
-      <c r="D357" s="51">
+      <c r="D357" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="51" customFormat="1">
-      <c r="A358" s="51">
+    <row r="358" spans="1:4" s="47" customFormat="1">
+      <c r="A358" s="47">
         <v>357</v>
       </c>
-      <c r="B358" s="51">
+      <c r="B358" s="47">
         <v>57</v>
       </c>
-      <c r="C358" s="51">
+      <c r="C358" s="47">
         <v>11831</v>
       </c>
-      <c r="D358" s="51">
+      <c r="D358" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="51" customFormat="1">
-      <c r="A359" s="51">
+    <row r="359" spans="1:4" s="47" customFormat="1">
+      <c r="A359" s="47">
         <v>358</v>
       </c>
-      <c r="B359" s="51">
+      <c r="B359" s="47">
         <v>57</v>
       </c>
-      <c r="C359" s="51">
+      <c r="C359" s="47">
         <v>11832</v>
       </c>
-      <c r="D359" s="51">
+      <c r="D359" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14352,13 +14484,13 @@
       <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="51">
+      <c r="B360" s="47">
         <v>58</v>
       </c>
       <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="51">
+      <c r="D360" s="47">
         <v>20</v>
       </c>
     </row>
@@ -14366,13 +14498,13 @@
       <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="51">
+      <c r="B361" s="47">
         <v>58</v>
       </c>
       <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="51">
+      <c r="D361" s="47">
         <v>25</v>
       </c>
     </row>
@@ -14380,13 +14512,13 @@
       <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="51">
+      <c r="B362" s="47">
         <v>58</v>
       </c>
       <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="51">
+      <c r="D362" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14394,13 +14526,13 @@
       <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="51">
+      <c r="B363" s="47">
         <v>58</v>
       </c>
       <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="51">
+      <c r="D363" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14408,13 +14540,13 @@
       <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="51">
+      <c r="B364" s="47">
         <v>58</v>
       </c>
       <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="51">
+      <c r="D364" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14422,13 +14554,13 @@
       <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="51">
+      <c r="B365" s="47">
         <v>58</v>
       </c>
       <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="51">
+      <c r="D365" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14436,13 +14568,13 @@
       <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="51">
+      <c r="B366" s="47">
         <v>58</v>
       </c>
       <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="51">
+      <c r="D366" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14450,13 +14582,13 @@
       <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="51">
+      <c r="B367" s="47">
         <v>58</v>
       </c>
       <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="51">
+      <c r="D367" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14464,13 +14596,13 @@
       <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="51">
+      <c r="B368" s="47">
         <v>58</v>
       </c>
       <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="51">
+      <c r="D368" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14478,13 +14610,13 @@
       <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="51">
+      <c r="B369" s="47">
         <v>59</v>
       </c>
       <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="51">
+      <c r="D369" s="47">
         <v>20</v>
       </c>
     </row>
@@ -14492,13 +14624,13 @@
       <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="51">
+      <c r="B370" s="47">
         <v>59</v>
       </c>
       <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="51">
+      <c r="D370" s="47">
         <v>25</v>
       </c>
     </row>
@@ -14506,13 +14638,13 @@
       <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="51">
+      <c r="B371" s="47">
         <v>59</v>
       </c>
       <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="51">
+      <c r="D371" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14520,13 +14652,13 @@
       <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="51">
+      <c r="B372" s="47">
         <v>59</v>
       </c>
       <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="51">
+      <c r="D372" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14534,13 +14666,13 @@
       <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="51">
+      <c r="B373" s="47">
         <v>59</v>
       </c>
       <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="51">
+      <c r="D373" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14548,13 +14680,13 @@
       <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="51">
+      <c r="B374" s="47">
         <v>59</v>
       </c>
       <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="51">
+      <c r="D374" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14562,13 +14694,13 @@
       <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="51">
+      <c r="B375" s="47">
         <v>59</v>
       </c>
       <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="51">
+      <c r="D375" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14576,13 +14708,13 @@
       <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="51">
+      <c r="B376" s="47">
         <v>59</v>
       </c>
       <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="51">
+      <c r="D376" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14590,13 +14722,13 @@
       <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="51">
+      <c r="B377" s="47">
         <v>59</v>
       </c>
       <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="51">
+      <c r="D377" s="47">
         <v>5</v>
       </c>
     </row>
@@ -15682,13 +15814,13 @@
       <c r="A455" s="13">
         <v>454</v>
       </c>
-      <c r="B455" s="45">
+      <c r="B455" s="13">
         <v>73</v>
       </c>
-      <c r="C455" s="45">
+      <c r="C455" s="13">
         <v>11930</v>
       </c>
-      <c r="D455" s="45">
+      <c r="D455" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15696,13 +15828,13 @@
       <c r="A456" s="13">
         <v>455</v>
       </c>
-      <c r="B456" s="45">
+      <c r="B456" s="13">
         <v>73</v>
       </c>
-      <c r="C456" s="45">
+      <c r="C456" s="13">
         <v>11931</v>
       </c>
-      <c r="D456" s="45">
+      <c r="D456" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15710,13 +15842,13 @@
       <c r="A457" s="13">
         <v>456</v>
       </c>
-      <c r="B457" s="45">
+      <c r="B457" s="13">
         <v>73</v>
       </c>
-      <c r="C457" s="45">
+      <c r="C457" s="13">
         <v>11932</v>
       </c>
-      <c r="D457" s="45">
+      <c r="D457" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15724,13 +15856,13 @@
       <c r="A458" s="13">
         <v>457</v>
       </c>
-      <c r="B458" s="45">
+      <c r="B458" s="13">
         <v>73</v>
       </c>
-      <c r="C458" s="45">
+      <c r="C458" s="13">
         <v>11933</v>
       </c>
-      <c r="D458" s="45">
+      <c r="D458" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15738,13 +15870,13 @@
       <c r="A459" s="13">
         <v>458</v>
       </c>
-      <c r="B459" s="57">
+      <c r="B459" s="13">
         <v>74</v>
       </c>
-      <c r="C459" s="57">
+      <c r="C459" s="13">
         <v>11934</v>
       </c>
-      <c r="D459" s="57">
+      <c r="D459" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15752,13 +15884,13 @@
       <c r="A460" s="13">
         <v>459</v>
       </c>
-      <c r="B460" s="57">
+      <c r="B460" s="13">
         <v>74</v>
       </c>
-      <c r="C460" s="57">
+      <c r="C460" s="13">
         <v>11935</v>
       </c>
-      <c r="D460" s="57">
+      <c r="D460" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15766,13 +15898,13 @@
       <c r="A461" s="13">
         <v>460</v>
       </c>
-      <c r="B461" s="57">
+      <c r="B461" s="13">
         <v>74</v>
       </c>
-      <c r="C461" s="57">
+      <c r="C461" s="13">
         <v>11936</v>
       </c>
-      <c r="D461" s="57">
+      <c r="D461" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15780,13 +15912,13 @@
       <c r="A462" s="13">
         <v>461</v>
       </c>
-      <c r="B462" s="57">
+      <c r="B462" s="13">
         <v>74</v>
       </c>
-      <c r="C462" s="57">
+      <c r="C462" s="13">
         <v>11937</v>
       </c>
-      <c r="D462" s="57">
+      <c r="D462" s="13">
         <v>25</v>
       </c>
     </row>
@@ -15794,13 +15926,13 @@
       <c r="A463" s="13">
         <v>462</v>
       </c>
-      <c r="B463" s="57">
+      <c r="B463" s="13">
         <v>74</v>
       </c>
-      <c r="C463" s="57">
+      <c r="C463" s="13">
         <v>11938</v>
       </c>
-      <c r="D463" s="57">
+      <c r="D463" s="13">
         <v>45</v>
       </c>
     </row>
@@ -15808,13 +15940,13 @@
       <c r="A464" s="13">
         <v>463</v>
       </c>
-      <c r="B464" s="57">
+      <c r="B464" s="13">
         <v>74</v>
       </c>
-      <c r="C464" s="57">
+      <c r="C464" s="13">
         <v>11939</v>
       </c>
-      <c r="D464" s="57">
+      <c r="D464" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15822,13 +15954,13 @@
       <c r="A465" s="13">
         <v>464</v>
       </c>
-      <c r="B465" s="57">
+      <c r="B465" s="13">
         <v>74</v>
       </c>
-      <c r="C465" s="57">
+      <c r="C465" s="13">
         <v>11940</v>
       </c>
-      <c r="D465" s="57">
+      <c r="D465" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15836,13 +15968,13 @@
       <c r="A466" s="13">
         <v>465</v>
       </c>
-      <c r="B466" s="57">
+      <c r="B466" s="13">
         <v>74</v>
       </c>
-      <c r="C466" s="57">
+      <c r="C466" s="13">
         <v>11941</v>
       </c>
-      <c r="D466" s="57">
+      <c r="D466" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15850,13 +15982,13 @@
       <c r="A467" s="13">
         <v>466</v>
       </c>
-      <c r="B467" s="57">
+      <c r="B467" s="13">
         <v>75</v>
       </c>
-      <c r="C467" s="57">
+      <c r="C467" s="13">
         <v>11942</v>
       </c>
-      <c r="D467" s="57">
+      <c r="D467" s="13">
         <v>5</v>
       </c>
     </row>
@@ -15864,13 +15996,13 @@
       <c r="A468" s="13">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="13">
         <v>75</v>
       </c>
-      <c r="C468" s="57">
+      <c r="C468" s="13">
         <v>11943</v>
       </c>
-      <c r="D468" s="57">
+      <c r="D468" s="13">
         <v>5</v>
       </c>
     </row>
@@ -15878,13 +16010,13 @@
       <c r="A469" s="13">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="13">
         <v>75</v>
       </c>
-      <c r="C469" s="57">
+      <c r="C469" s="13">
         <v>11944</v>
       </c>
-      <c r="D469" s="57">
+      <c r="D469" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15892,13 +16024,13 @@
       <c r="A470" s="13">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="13">
         <v>75</v>
       </c>
-      <c r="C470" s="57">
+      <c r="C470" s="13">
         <v>11945</v>
       </c>
-      <c r="D470" s="57">
+      <c r="D470" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15906,13 +16038,13 @@
       <c r="A471" s="13">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="13">
         <v>75</v>
       </c>
-      <c r="C471" s="57">
+      <c r="C471" s="13">
         <v>11946</v>
       </c>
-      <c r="D471" s="57">
+      <c r="D471" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15920,13 +16052,13 @@
       <c r="A472" s="13">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="13">
         <v>75</v>
       </c>
-      <c r="C472" s="57">
+      <c r="C472" s="13">
         <v>11947</v>
       </c>
-      <c r="D472" s="57">
+      <c r="D472" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15934,13 +16066,13 @@
       <c r="A473" s="13">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="13">
         <v>75</v>
       </c>
-      <c r="C473" s="57">
+      <c r="C473" s="13">
         <v>11948</v>
       </c>
-      <c r="D473" s="57">
+      <c r="D473" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15948,13 +16080,13 @@
       <c r="A474" s="13">
         <v>473</v>
       </c>
-      <c r="B474" s="57">
+      <c r="B474" s="13">
         <v>75</v>
       </c>
-      <c r="C474" s="57">
+      <c r="C474" s="13">
         <v>11949</v>
       </c>
-      <c r="D474" s="57">
+      <c r="D474" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15962,13 +16094,13 @@
       <c r="A475" s="13">
         <v>474</v>
       </c>
-      <c r="B475" s="57">
+      <c r="B475" s="13">
         <v>76</v>
       </c>
-      <c r="C475" s="57">
+      <c r="C475" s="13">
         <v>11950</v>
       </c>
-      <c r="D475" s="57">
+      <c r="D475" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15976,13 +16108,13 @@
       <c r="A476" s="13">
         <v>475</v>
       </c>
-      <c r="B476" s="57">
+      <c r="B476" s="13">
         <v>76</v>
       </c>
-      <c r="C476" s="57">
+      <c r="C476" s="13">
         <v>11951</v>
       </c>
-      <c r="D476" s="57">
+      <c r="D476" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15990,13 +16122,13 @@
       <c r="A477" s="13">
         <v>476</v>
       </c>
-      <c r="B477" s="57">
+      <c r="B477" s="13">
         <v>76</v>
       </c>
-      <c r="C477" s="57">
+      <c r="C477" s="13">
         <v>11952</v>
       </c>
-      <c r="D477" s="57">
+      <c r="D477" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16004,13 +16136,13 @@
       <c r="A478" s="13">
         <v>477</v>
       </c>
-      <c r="B478" s="57">
+      <c r="B478" s="13">
         <v>76</v>
       </c>
-      <c r="C478" s="57">
+      <c r="C478" s="13">
         <v>11953</v>
       </c>
-      <c r="D478" s="57">
+      <c r="D478" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16018,13 +16150,13 @@
       <c r="A479" s="13">
         <v>478</v>
       </c>
-      <c r="B479" s="57">
+      <c r="B479" s="13">
         <v>76</v>
       </c>
-      <c r="C479" s="57">
+      <c r="C479" s="13">
         <v>11954</v>
       </c>
-      <c r="D479" s="57">
+      <c r="D479" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16032,13 +16164,13 @@
       <c r="A480" s="13">
         <v>479</v>
       </c>
-      <c r="B480" s="57">
+      <c r="B480" s="13">
         <v>76</v>
       </c>
-      <c r="C480" s="57">
+      <c r="C480" s="13">
         <v>11955</v>
       </c>
-      <c r="D480" s="57">
+      <c r="D480" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16046,13 +16178,13 @@
       <c r="A481" s="13">
         <v>480</v>
       </c>
-      <c r="B481" s="57">
+      <c r="B481" s="13">
         <v>76</v>
       </c>
-      <c r="C481" s="57">
+      <c r="C481" s="13">
         <v>11956</v>
       </c>
-      <c r="D481" s="57">
+      <c r="D481" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16060,13 +16192,13 @@
       <c r="A482" s="13">
         <v>481</v>
       </c>
-      <c r="B482" s="57">
+      <c r="B482" s="13">
         <v>76</v>
       </c>
-      <c r="C482" s="57">
+      <c r="C482" s="13">
         <v>11957</v>
       </c>
-      <c r="D482" s="57">
+      <c r="D482" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16074,13 +16206,13 @@
       <c r="A483" s="13">
         <v>482</v>
       </c>
-      <c r="B483" s="66">
+      <c r="B483" s="13">
         <v>77</v>
       </c>
-      <c r="C483" s="66">
+      <c r="C483" s="13">
         <v>11958</v>
       </c>
-      <c r="D483" s="66">
+      <c r="D483" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16088,13 +16220,13 @@
       <c r="A484" s="13">
         <v>483</v>
       </c>
-      <c r="B484" s="66">
+      <c r="B484" s="13">
         <v>77</v>
       </c>
-      <c r="C484" s="66">
+      <c r="C484" s="13">
         <v>11959</v>
       </c>
-      <c r="D484" s="66">
+      <c r="D484" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16102,13 +16234,13 @@
       <c r="A485" s="13">
         <v>484</v>
       </c>
-      <c r="B485" s="66">
+      <c r="B485" s="13">
         <v>77</v>
       </c>
-      <c r="C485" s="66">
+      <c r="C485" s="13">
         <v>11960</v>
       </c>
-      <c r="D485" s="66">
+      <c r="D485" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16116,13 +16248,13 @@
       <c r="A486" s="13">
         <v>485</v>
       </c>
-      <c r="B486" s="66">
+      <c r="B486" s="13">
         <v>77</v>
       </c>
-      <c r="C486" s="66">
+      <c r="C486" s="13">
         <v>11961</v>
       </c>
-      <c r="D486" s="66">
+      <c r="D486" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16130,13 +16262,13 @@
       <c r="A487" s="13">
         <v>486</v>
       </c>
-      <c r="B487" s="66">
+      <c r="B487" s="13">
         <v>77</v>
       </c>
-      <c r="C487" s="66">
+      <c r="C487" s="13">
         <v>11962</v>
       </c>
-      <c r="D487" s="66">
+      <c r="D487" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16144,13 +16276,13 @@
       <c r="A488" s="13">
         <v>487</v>
       </c>
-      <c r="B488" s="66">
+      <c r="B488" s="13">
         <v>77</v>
       </c>
-      <c r="C488" s="66">
+      <c r="C488" s="13">
         <v>11963</v>
       </c>
-      <c r="D488" s="66">
+      <c r="D488" s="13">
         <v>30</v>
       </c>
     </row>
@@ -16158,13 +16290,13 @@
       <c r="A489" s="13">
         <v>488</v>
       </c>
-      <c r="B489" s="66">
+      <c r="B489" s="13">
         <v>77</v>
       </c>
-      <c r="C489" s="66">
+      <c r="C489" s="13">
         <v>11964</v>
       </c>
-      <c r="D489" s="66">
+      <c r="D489" s="13">
         <v>100</v>
       </c>
     </row>
@@ -16172,13 +16304,13 @@
       <c r="A490" s="13">
         <v>489</v>
       </c>
-      <c r="B490" s="66">
+      <c r="B490" s="13">
         <v>77</v>
       </c>
-      <c r="C490" s="66">
+      <c r="C490" s="13">
         <v>11965</v>
       </c>
-      <c r="D490" s="66">
+      <c r="D490" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16186,13 +16318,13 @@
       <c r="A491" s="13">
         <v>490</v>
       </c>
-      <c r="B491" s="66">
+      <c r="B491" s="13">
         <v>77</v>
       </c>
-      <c r="C491" s="66">
+      <c r="C491" s="13">
         <v>11966</v>
       </c>
-      <c r="D491" s="66">
+      <c r="D491" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16200,13 +16332,13 @@
       <c r="A492" s="13">
         <v>491</v>
       </c>
-      <c r="B492" s="66">
+      <c r="B492" s="13">
         <v>77</v>
       </c>
-      <c r="C492" s="66">
+      <c r="C492" s="13">
         <v>11967</v>
       </c>
-      <c r="D492" s="66">
+      <c r="D492" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16214,13 +16346,13 @@
       <c r="A493" s="13">
         <v>492</v>
       </c>
-      <c r="B493" s="66">
+      <c r="B493" s="13">
         <v>77</v>
       </c>
-      <c r="C493" s="66">
+      <c r="C493" s="13">
         <v>11968</v>
       </c>
-      <c r="D493" s="66">
+      <c r="D493" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16228,13 +16360,13 @@
       <c r="A494" s="13">
         <v>493</v>
       </c>
-      <c r="B494" s="66">
+      <c r="B494" s="13">
         <v>77</v>
       </c>
-      <c r="C494" s="66">
+      <c r="C494" s="13">
         <v>11969</v>
       </c>
-      <c r="D494" s="66">
+      <c r="D494" s="13">
         <v>1599</v>
       </c>
     </row>
@@ -16242,13 +16374,13 @@
       <c r="A495" s="13">
         <v>494</v>
       </c>
-      <c r="B495" s="66">
+      <c r="B495" s="13">
         <v>77</v>
       </c>
-      <c r="C495" s="66">
+      <c r="C495" s="13">
         <v>11970</v>
       </c>
-      <c r="D495" s="66">
+      <c r="D495" s="13">
         <v>1900</v>
       </c>
     </row>
@@ -16256,13 +16388,13 @@
       <c r="A496" s="13">
         <v>495</v>
       </c>
-      <c r="B496" s="66">
+      <c r="B496" s="13">
         <v>77</v>
       </c>
-      <c r="C496" s="66">
+      <c r="C496" s="13">
         <v>11971</v>
       </c>
-      <c r="D496" s="66">
+      <c r="D496" s="13">
         <v>1900</v>
       </c>
     </row>
@@ -16270,14 +16402,392 @@
       <c r="A497" s="13">
         <v>496</v>
       </c>
-      <c r="B497" s="66">
+      <c r="B497" s="13">
         <v>77</v>
       </c>
-      <c r="C497" s="66">
+      <c r="C497" s="13">
         <v>11972</v>
       </c>
-      <c r="D497" s="66">
+      <c r="D497" s="13">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="13">
+        <v>497</v>
+      </c>
+      <c r="B498" s="55">
+        <v>78</v>
+      </c>
+      <c r="C498" s="55">
+        <v>11973</v>
+      </c>
+      <c r="D498" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="13">
+        <v>498</v>
+      </c>
+      <c r="B499" s="55">
+        <v>78</v>
+      </c>
+      <c r="C499" s="55">
+        <v>11974</v>
+      </c>
+      <c r="D499" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="13">
+        <v>499</v>
+      </c>
+      <c r="B500" s="55">
+        <v>78</v>
+      </c>
+      <c r="C500" s="55">
+        <v>11975</v>
+      </c>
+      <c r="D500" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="13">
+        <v>500</v>
+      </c>
+      <c r="B501" s="55">
+        <v>78</v>
+      </c>
+      <c r="C501" s="55">
+        <v>11976</v>
+      </c>
+      <c r="D501" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="13">
+        <v>501</v>
+      </c>
+      <c r="B502" s="55">
+        <v>78</v>
+      </c>
+      <c r="C502" s="55">
+        <v>11977</v>
+      </c>
+      <c r="D502" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="13">
+        <v>502</v>
+      </c>
+      <c r="B503" s="55">
+        <v>78</v>
+      </c>
+      <c r="C503" s="55">
+        <v>11978</v>
+      </c>
+      <c r="D503" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="13">
+        <v>503</v>
+      </c>
+      <c r="B504" s="55">
+        <v>78</v>
+      </c>
+      <c r="C504" s="55">
+        <v>11979</v>
+      </c>
+      <c r="D504" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="13">
+        <v>504</v>
+      </c>
+      <c r="B505" s="55">
+        <v>78</v>
+      </c>
+      <c r="C505" s="55">
+        <v>11980</v>
+      </c>
+      <c r="D505" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="13">
+        <v>505</v>
+      </c>
+      <c r="B506" s="55">
+        <v>78</v>
+      </c>
+      <c r="C506" s="55">
+        <v>11981</v>
+      </c>
+      <c r="D506" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="13">
+        <v>506</v>
+      </c>
+      <c r="B507" s="55">
+        <v>79</v>
+      </c>
+      <c r="C507" s="55">
+        <v>11982</v>
+      </c>
+      <c r="D507" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="13">
+        <v>507</v>
+      </c>
+      <c r="B508" s="55">
+        <v>79</v>
+      </c>
+      <c r="C508" s="55">
+        <v>11983</v>
+      </c>
+      <c r="D508" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="13">
+        <v>508</v>
+      </c>
+      <c r="B509" s="55">
+        <v>79</v>
+      </c>
+      <c r="C509" s="55">
+        <v>11984</v>
+      </c>
+      <c r="D509" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="13">
+        <v>509</v>
+      </c>
+      <c r="B510" s="55">
+        <v>79</v>
+      </c>
+      <c r="C510" s="55">
+        <v>11985</v>
+      </c>
+      <c r="D510" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="13">
+        <v>510</v>
+      </c>
+      <c r="B511" s="55">
+        <v>79</v>
+      </c>
+      <c r="C511" s="55">
+        <v>11986</v>
+      </c>
+      <c r="D511" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="13">
+        <v>511</v>
+      </c>
+      <c r="B512" s="55">
+        <v>79</v>
+      </c>
+      <c r="C512" s="55">
+        <v>11987</v>
+      </c>
+      <c r="D512" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="13">
+        <v>512</v>
+      </c>
+      <c r="B513" s="55">
+        <v>79</v>
+      </c>
+      <c r="C513" s="55">
+        <v>11988</v>
+      </c>
+      <c r="D513" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="13">
+        <v>513</v>
+      </c>
+      <c r="B514" s="55">
+        <v>79</v>
+      </c>
+      <c r="C514" s="55">
+        <v>11989</v>
+      </c>
+      <c r="D514" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="13">
+        <v>514</v>
+      </c>
+      <c r="B515" s="55">
+        <v>79</v>
+      </c>
+      <c r="C515" s="55">
+        <v>11990</v>
+      </c>
+      <c r="D515" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="13">
+        <v>515</v>
+      </c>
+      <c r="B516" s="55">
+        <v>80</v>
+      </c>
+      <c r="C516" s="55">
+        <v>11991</v>
+      </c>
+      <c r="D516" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="13">
+        <v>516</v>
+      </c>
+      <c r="B517" s="55">
+        <v>80</v>
+      </c>
+      <c r="C517" s="55">
+        <v>11992</v>
+      </c>
+      <c r="D517" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="13">
+        <v>517</v>
+      </c>
+      <c r="B518" s="55">
+        <v>80</v>
+      </c>
+      <c r="C518" s="55">
+        <v>11993</v>
+      </c>
+      <c r="D518" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="13">
+        <v>518</v>
+      </c>
+      <c r="B519" s="55">
+        <v>80</v>
+      </c>
+      <c r="C519" s="55">
+        <v>11994</v>
+      </c>
+      <c r="D519" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="13">
+        <v>519</v>
+      </c>
+      <c r="B520" s="55">
+        <v>80</v>
+      </c>
+      <c r="C520" s="55">
+        <v>11995</v>
+      </c>
+      <c r="D520" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="13">
+        <v>520</v>
+      </c>
+      <c r="B521" s="55">
+        <v>80</v>
+      </c>
+      <c r="C521" s="55">
+        <v>11996</v>
+      </c>
+      <c r="D521" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="13">
+        <v>521</v>
+      </c>
+      <c r="B522" s="55">
+        <v>80</v>
+      </c>
+      <c r="C522" s="55">
+        <v>11997</v>
+      </c>
+      <c r="D522" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="13">
+        <v>522</v>
+      </c>
+      <c r="B523" s="55">
+        <v>80</v>
+      </c>
+      <c r="C523" s="55">
+        <v>11998</v>
+      </c>
+      <c r="D523" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="13">
+        <v>523</v>
+      </c>
+      <c r="B524" s="55">
+        <v>80</v>
+      </c>
+      <c r="C524" s="55">
+        <v>11999</v>
+      </c>
+      <c r="D524" s="55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -16289,11 +16799,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F497"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E486" sqref="E486"/>
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16306,10 +16816,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -22338,7 +22848,7 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="53" t="s">
+      <c r="D384" s="48" t="s">
         <v>675</v>
       </c>
       <c r="E384" s="21" t="s">
@@ -22355,7 +22865,7 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="53" t="s">
+      <c r="D385" s="48" t="s">
         <v>676</v>
       </c>
       <c r="E385" s="21" t="s">
@@ -23426,7 +23936,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -23481,14 +23991,14 @@
       <c r="A455" s="17">
         <v>454</v>
       </c>
-      <c r="B455" s="45">
+      <c r="B455" s="13">
         <v>11930</v>
       </c>
-      <c r="C455" s="45"/>
+      <c r="C455" s="13"/>
       <c r="D455" s="54" t="s">
         <v>727</v>
       </c>
-      <c r="E455" s="46" t="s">
+      <c r="E455" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23496,14 +24006,14 @@
       <c r="A456" s="17">
         <v>455</v>
       </c>
-      <c r="B456" s="45">
+      <c r="B456" s="13">
         <v>11931</v>
       </c>
-      <c r="C456" s="45"/>
+      <c r="C456" s="13"/>
       <c r="D456" s="54" t="s">
         <v>728</v>
       </c>
-      <c r="E456" s="46" t="s">
+      <c r="E456" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23511,14 +24021,14 @@
       <c r="A457" s="17">
         <v>456</v>
       </c>
-      <c r="B457" s="45">
+      <c r="B457" s="13">
         <v>11932</v>
       </c>
-      <c r="C457" s="45"/>
+      <c r="C457" s="13"/>
       <c r="D457" s="54" t="s">
         <v>729</v>
       </c>
-      <c r="E457" s="46" t="s">
+      <c r="E457" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23526,14 +24036,14 @@
       <c r="A458" s="17">
         <v>457</v>
       </c>
-      <c r="B458" s="45">
+      <c r="B458" s="13">
         <v>11933</v>
       </c>
-      <c r="C458" s="45"/>
+      <c r="C458" s="13"/>
       <c r="D458" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="E458" s="46" t="s">
+      <c r="E458" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23541,571 +24051,976 @@
       <c r="A459" s="17">
         <v>458</v>
       </c>
-      <c r="B459" s="57">
+      <c r="B459" s="13">
         <v>11934</v>
       </c>
-      <c r="C459" s="57"/>
-      <c r="D459" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="E459" s="58" t="s">
-        <v>750</v>
+      <c r="C459" s="13"/>
+      <c r="D459" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E459" s="21" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="17" customFormat="1">
       <c r="A460" s="17">
         <v>459</v>
       </c>
-      <c r="B460" s="57">
+      <c r="B460" s="13">
         <v>11935</v>
       </c>
-      <c r="C460" s="57"/>
-      <c r="D460" s="59" t="s">
+      <c r="C460" s="13"/>
+      <c r="D460" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E460" s="58" t="s">
-        <v>756</v>
+      <c r="E460" s="21" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A461" s="17">
         <v>460</v>
       </c>
-      <c r="B461" s="57">
+      <c r="B461" s="13">
         <v>11936</v>
       </c>
-      <c r="C461" s="57"/>
-      <c r="D461" s="60" t="s">
+      <c r="C461" s="13"/>
+      <c r="D461" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E461" s="58" t="s">
-        <v>751</v>
+      <c r="E461" s="21" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A462" s="17">
         <v>461</v>
       </c>
-      <c r="B462" s="57">
+      <c r="B462" s="13">
         <v>11937</v>
       </c>
-      <c r="C462" s="57"/>
-      <c r="D462" s="60" t="s">
+      <c r="C462" s="13"/>
+      <c r="D462" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E462" s="58" t="s">
-        <v>752</v>
+      <c r="E462" s="21" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="16.5">
       <c r="A463" s="17">
         <v>462</v>
       </c>
-      <c r="B463" s="57">
+      <c r="B463" s="13">
         <v>11938</v>
       </c>
-      <c r="C463" s="57"/>
-      <c r="D463" s="60" t="s">
+      <c r="C463" s="13"/>
+      <c r="D463" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E463" s="58" t="s">
-        <v>753</v>
+      <c r="E463" s="21" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="17">
         <v>463</v>
       </c>
-      <c r="B464" s="57">
+      <c r="B464" s="13">
         <v>11939</v>
       </c>
-      <c r="C464" s="57"/>
-      <c r="D464" s="59" t="s">
+      <c r="C464" s="13"/>
+      <c r="D464" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E464" s="58" t="s">
-        <v>754</v>
+      <c r="E464" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="17">
         <v>464</v>
       </c>
-      <c r="B465" s="57">
+      <c r="B465" s="13">
         <v>11940</v>
       </c>
-      <c r="C465" s="57"/>
-      <c r="D465" s="59" t="s">
+      <c r="C465" s="13"/>
+      <c r="D465" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E465" s="58" t="s">
-        <v>755</v>
+      <c r="E465" s="21" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="17">
         <v>465</v>
       </c>
-      <c r="B466" s="57">
+      <c r="B466" s="13">
         <v>11941</v>
       </c>
-      <c r="C466" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D466" s="57"/>
-      <c r="E466" s="61"/>
+      <c r="C466" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D466" s="13"/>
+      <c r="E466" s="32"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="17">
         <v>466</v>
       </c>
-      <c r="B467" s="57">
+      <c r="B467" s="13">
         <v>11942</v>
       </c>
-      <c r="C467" s="57"/>
-      <c r="D467" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="E467" s="58" t="s">
-        <v>750</v>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E467" s="21" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="17">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="13">
         <v>11943</v>
       </c>
-      <c r="C468" s="57"/>
-      <c r="D468" s="59" t="s">
+      <c r="C468" s="13"/>
+      <c r="D468" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E468" s="58" t="s">
-        <v>756</v>
+      <c r="E468" s="21" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="16.5">
       <c r="A469" s="17">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="13">
         <v>11944</v>
       </c>
-      <c r="C469" s="57"/>
-      <c r="D469" s="60" t="s">
+      <c r="C469" s="13"/>
+      <c r="D469" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E469" s="58" t="s">
-        <v>775</v>
+      <c r="E469" s="21" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
       <c r="A470" s="17">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="13">
         <v>11945</v>
       </c>
-      <c r="C470" s="57"/>
-      <c r="D470" s="60" t="s">
+      <c r="C470" s="13"/>
+      <c r="D470" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E470" s="58" t="s">
-        <v>645</v>
+      <c r="E470" s="21" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
       <c r="A471" s="17">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="13">
         <v>11946</v>
       </c>
-      <c r="C471" s="57"/>
-      <c r="D471" s="60" t="s">
+      <c r="C471" s="13"/>
+      <c r="D471" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E471" s="58" t="s">
-        <v>776</v>
+      <c r="E471" s="21" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="17">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="13">
         <v>11947</v>
       </c>
-      <c r="C472" s="57"/>
-      <c r="D472" s="59" t="s">
+      <c r="C472" s="13"/>
+      <c r="D472" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E472" s="58" t="s">
-        <v>754</v>
+      <c r="E472" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="17">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="13">
         <v>11948</v>
       </c>
-      <c r="C473" s="57"/>
-      <c r="D473" s="59" t="s">
+      <c r="C473" s="13"/>
+      <c r="D473" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E473" s="58" t="s">
-        <v>755</v>
+      <c r="E473" s="21" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="17">
         <v>473</v>
       </c>
-      <c r="B474" s="57">
+      <c r="B474" s="13">
         <v>11949</v>
       </c>
-      <c r="C474" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D474" s="57"/>
-      <c r="E474" s="61"/>
+      <c r="C474" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="D474" s="13"/>
+      <c r="E474" s="32"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="17">
         <v>474</v>
       </c>
-      <c r="B475" s="57">
+      <c r="B475" s="13">
         <v>11950</v>
       </c>
-      <c r="C475" s="57"/>
-      <c r="D475" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="E475" s="58" t="s">
-        <v>750</v>
+      <c r="C475" s="13"/>
+      <c r="D475" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E475" s="21" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="17">
         <v>475</v>
       </c>
-      <c r="B476" s="57">
+      <c r="B476" s="13">
         <v>11951</v>
       </c>
-      <c r="C476" s="57"/>
-      <c r="D476" s="59" t="s">
+      <c r="C476" s="13"/>
+      <c r="D476" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E476" s="58" t="s">
-        <v>756</v>
+      <c r="E476" s="21" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="16.5">
       <c r="A477" s="17">
         <v>476</v>
       </c>
-      <c r="B477" s="57">
+      <c r="B477" s="13">
         <v>11952</v>
       </c>
-      <c r="C477" s="57"/>
-      <c r="D477" s="60" t="s">
+      <c r="C477" s="13"/>
+      <c r="D477" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E477" s="58" t="s">
-        <v>775</v>
+      <c r="E477" s="21" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
       <c r="A478" s="17">
         <v>477</v>
       </c>
-      <c r="B478" s="57">
+      <c r="B478" s="13">
         <v>11953</v>
       </c>
-      <c r="C478" s="57"/>
-      <c r="D478" s="60" t="s">
+      <c r="C478" s="13"/>
+      <c r="D478" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E478" s="58" t="s">
-        <v>645</v>
+      <c r="E478" s="21" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
       <c r="A479" s="17">
         <v>478</v>
       </c>
-      <c r="B479" s="57">
+      <c r="B479" s="13">
         <v>11954</v>
       </c>
-      <c r="C479" s="57"/>
-      <c r="D479" s="60" t="s">
+      <c r="C479" s="13"/>
+      <c r="D479" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E479" s="58" t="s">
-        <v>776</v>
+      <c r="E479" s="21" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="17">
         <v>479</v>
       </c>
-      <c r="B480" s="57">
+      <c r="B480" s="13">
         <v>11955</v>
       </c>
-      <c r="C480" s="57"/>
-      <c r="D480" s="59" t="s">
+      <c r="C480" s="13"/>
+      <c r="D480" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E480" s="58" t="s">
-        <v>754</v>
+      <c r="E480" s="21" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="17">
         <v>480</v>
       </c>
-      <c r="B481" s="57">
+      <c r="B481" s="13">
         <v>11956</v>
       </c>
-      <c r="C481" s="57"/>
-      <c r="D481" s="59" t="s">
+      <c r="C481" s="13"/>
+      <c r="D481" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E481" s="58" t="s">
-        <v>755</v>
+      <c r="E481" s="21" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="17">
         <v>481</v>
       </c>
-      <c r="B482" s="57">
+      <c r="B482" s="13">
         <v>11957</v>
       </c>
-      <c r="C482" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D482" s="57"/>
-      <c r="E482" s="61"/>
+      <c r="C482" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="D482" s="13"/>
+      <c r="E482" s="32"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="17">
         <v>482</v>
       </c>
-      <c r="B483" s="66">
+      <c r="B483" s="13">
         <v>11958</v>
       </c>
-      <c r="C483" s="67" t="s">
-        <v>758</v>
-      </c>
-      <c r="D483" s="66"/>
-      <c r="E483" s="68"/>
+      <c r="C483" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D483" s="13"/>
+      <c r="E483" s="32"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="17">
         <v>483</v>
       </c>
-      <c r="B484" s="66">
+      <c r="B484" s="13">
         <v>11959</v>
       </c>
-      <c r="C484" s="67" t="s">
-        <v>759</v>
-      </c>
-      <c r="D484" s="66"/>
-      <c r="E484" s="68"/>
+      <c r="C484" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D484" s="13"/>
+      <c r="E484" s="32"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="17">
         <v>484</v>
       </c>
-      <c r="B485" s="66">
+      <c r="B485" s="13">
         <v>11960</v>
       </c>
-      <c r="C485" s="67" t="s">
-        <v>760</v>
-      </c>
-      <c r="D485" s="66"/>
-      <c r="E485" s="68"/>
+      <c r="C485" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="D485" s="13"/>
+      <c r="E485" s="32"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="17">
         <v>485</v>
       </c>
-      <c r="B486" s="66">
+      <c r="B486" s="13">
         <v>11961</v>
       </c>
-      <c r="C486" s="67"/>
-      <c r="D486" s="66" t="s">
-        <v>768</v>
-      </c>
-      <c r="E486" s="68" t="s">
-        <v>777</v>
+      <c r="C486" s="15"/>
+      <c r="D486" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E486" s="32" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="17">
         <v>486</v>
       </c>
-      <c r="B487" s="66">
+      <c r="B487" s="13">
         <v>11962</v>
       </c>
-      <c r="C487" s="67" t="s">
-        <v>761</v>
-      </c>
-      <c r="D487" s="66"/>
-      <c r="E487" s="68"/>
+      <c r="C487" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D487" s="13"/>
+      <c r="E487" s="32"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="17">
         <v>487</v>
       </c>
-      <c r="B488" s="66">
+      <c r="B488" s="13">
         <v>11963</v>
       </c>
-      <c r="C488" s="66"/>
-      <c r="D488" s="66" t="s">
+      <c r="C488" s="13"/>
+      <c r="D488" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E488" s="69" t="s">
-        <v>772</v>
+      <c r="E488" s="21" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="17">
         <v>488</v>
       </c>
-      <c r="B489" s="66">
+      <c r="B489" s="13">
         <v>11964</v>
       </c>
-      <c r="C489" s="66"/>
-      <c r="D489" s="67" t="s">
+      <c r="C489" s="13"/>
+      <c r="D489" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E489" s="69" t="s">
-        <v>762</v>
+      <c r="E489" s="21" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="17">
         <v>489</v>
       </c>
-      <c r="B490" s="66">
+      <c r="B490" s="13">
         <v>11965</v>
       </c>
-      <c r="C490" s="66"/>
-      <c r="D490" s="67" t="s">
-        <v>773</v>
-      </c>
-      <c r="E490" s="69" t="s">
-        <v>764</v>
+      <c r="C490" s="13"/>
+      <c r="D490" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="E490" s="21" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="17">
         <v>490</v>
       </c>
-      <c r="B491" s="66">
+      <c r="B491" s="13">
         <v>11966</v>
       </c>
-      <c r="C491" s="66"/>
-      <c r="D491" s="66" t="s">
+      <c r="C491" s="13"/>
+      <c r="D491" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="69" t="s">
-        <v>765</v>
+      <c r="E491" s="21" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="17">
         <v>491</v>
       </c>
-      <c r="B492" s="66">
+      <c r="B492" s="13">
         <v>11967</v>
       </c>
-      <c r="C492" s="66"/>
-      <c r="D492" s="66" t="s">
-        <v>766</v>
-      </c>
-      <c r="E492" s="69" t="s">
-        <v>767</v>
+      <c r="C492" s="13"/>
+      <c r="D492" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="E492" s="21" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="17">
         <v>492</v>
       </c>
-      <c r="B493" s="66">
+      <c r="B493" s="13">
         <v>11968</v>
       </c>
-      <c r="C493" s="66"/>
-      <c r="D493" s="66" t="s">
-        <v>768</v>
-      </c>
-      <c r="E493" s="69" t="s">
-        <v>769</v>
+      <c r="C493" s="13"/>
+      <c r="D493" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E493" s="21" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="17">
         <v>493</v>
       </c>
-      <c r="B494" s="66">
+      <c r="B494" s="13">
         <v>11969</v>
       </c>
-      <c r="C494" s="66"/>
-      <c r="D494" s="66" t="s">
+      <c r="C494" s="13"/>
+      <c r="D494" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E494" s="69" t="s">
-        <v>770</v>
+      <c r="E494" s="21" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="17">
         <v>494</v>
       </c>
-      <c r="B495" s="66">
+      <c r="B495" s="13">
         <v>11970</v>
       </c>
-      <c r="C495" s="66"/>
-      <c r="D495" s="66" t="s">
+      <c r="C495" s="13"/>
+      <c r="D495" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E495" s="69" t="s">
-        <v>771</v>
+      <c r="E495" s="21" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="17">
         <v>495</v>
       </c>
-      <c r="B496" s="66">
+      <c r="B496" s="13">
         <v>11971</v>
       </c>
-      <c r="C496" s="66"/>
-      <c r="D496" s="67" t="s">
+      <c r="C496" s="13"/>
+      <c r="D496" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E496" s="69" t="s">
-        <v>771</v>
+      <c r="E496" s="21" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="17">
         <v>496</v>
       </c>
-      <c r="B497" s="66">
+      <c r="B497" s="13">
         <v>11972</v>
       </c>
-      <c r="C497" s="66"/>
-      <c r="D497" s="66" t="s">
-        <v>768</v>
-      </c>
-      <c r="E497" s="69" t="s">
-        <v>770</v>
+      <c r="C497" s="13"/>
+      <c r="D497" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E497" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="53">
+        <v>497</v>
+      </c>
+      <c r="B498" s="55">
+        <v>11973</v>
+      </c>
+      <c r="C498" s="55"/>
+      <c r="D498" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E498" s="56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="53">
+        <v>498</v>
+      </c>
+      <c r="B499" s="55">
+        <v>11974</v>
+      </c>
+      <c r="C499" s="55"/>
+      <c r="D499" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E499" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="53">
+        <v>499</v>
+      </c>
+      <c r="B500" s="55">
+        <v>11975</v>
+      </c>
+      <c r="C500" s="55"/>
+      <c r="D500" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E500" s="56" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="53">
+        <v>500</v>
+      </c>
+      <c r="B501" s="55">
+        <v>11976</v>
+      </c>
+      <c r="C501" s="55"/>
+      <c r="D501" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E501" s="56" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="53">
+        <v>501</v>
+      </c>
+      <c r="B502" s="55">
+        <v>11977</v>
+      </c>
+      <c r="C502" s="55"/>
+      <c r="D502" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E502" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="53">
+        <v>502</v>
+      </c>
+      <c r="B503" s="55">
+        <v>11978</v>
+      </c>
+      <c r="C503" s="55"/>
+      <c r="D503" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E503" s="56" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="53">
+        <v>503</v>
+      </c>
+      <c r="B504" s="55">
+        <v>11979</v>
+      </c>
+      <c r="C504" s="55"/>
+      <c r="D504" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E504" s="56" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="53">
+        <v>504</v>
+      </c>
+      <c r="B505" s="55">
+        <v>11980</v>
+      </c>
+      <c r="C505" s="55"/>
+      <c r="D505" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E505" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="53">
+        <v>505</v>
+      </c>
+      <c r="B506" s="55">
+        <v>11981</v>
+      </c>
+      <c r="C506" s="55"/>
+      <c r="D506" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E506" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="53">
+        <v>506</v>
+      </c>
+      <c r="B507" s="55">
+        <v>11982</v>
+      </c>
+      <c r="C507" s="55"/>
+      <c r="D507" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E507" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="53">
+        <v>507</v>
+      </c>
+      <c r="B508" s="55">
+        <v>11983</v>
+      </c>
+      <c r="C508" s="55"/>
+      <c r="D508" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E508" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="53">
+        <v>508</v>
+      </c>
+      <c r="B509" s="55">
+        <v>11984</v>
+      </c>
+      <c r="C509" s="55"/>
+      <c r="D509" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E509" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="53">
+        <v>509</v>
+      </c>
+      <c r="B510" s="55">
+        <v>11985</v>
+      </c>
+      <c r="C510" s="55"/>
+      <c r="D510" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E510" s="56" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="53">
+        <v>510</v>
+      </c>
+      <c r="B511" s="55">
+        <v>11986</v>
+      </c>
+      <c r="C511" s="55"/>
+      <c r="D511" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E511" s="56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="53">
+        <v>511</v>
+      </c>
+      <c r="B512" s="55">
+        <v>11987</v>
+      </c>
+      <c r="C512" s="55"/>
+      <c r="D512" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E512" s="56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="53">
+        <v>512</v>
+      </c>
+      <c r="B513" s="55">
+        <v>11988</v>
+      </c>
+      <c r="C513" s="55"/>
+      <c r="D513" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E513" s="56" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="53">
+        <v>513</v>
+      </c>
+      <c r="B514" s="55">
+        <v>11989</v>
+      </c>
+      <c r="C514" s="55"/>
+      <c r="D514" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E514" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="53">
+        <v>514</v>
+      </c>
+      <c r="B515" s="55">
+        <v>11990</v>
+      </c>
+      <c r="C515" s="55"/>
+      <c r="D515" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E515" s="56" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="53">
+        <v>515</v>
+      </c>
+      <c r="B516" s="55">
+        <v>11991</v>
+      </c>
+      <c r="C516" s="55"/>
+      <c r="D516" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E516" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="53">
+        <v>516</v>
+      </c>
+      <c r="B517" s="55">
+        <v>11992</v>
+      </c>
+      <c r="C517" s="55"/>
+      <c r="D517" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E517" s="56" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="53">
+        <v>517</v>
+      </c>
+      <c r="B518" s="55">
+        <v>11993</v>
+      </c>
+      <c r="C518" s="55"/>
+      <c r="D518" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E518" s="56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="53">
+        <v>518</v>
+      </c>
+      <c r="B519" s="55">
+        <v>11994</v>
+      </c>
+      <c r="C519" s="55"/>
+      <c r="D519" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E519" s="56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="53">
+        <v>519</v>
+      </c>
+      <c r="B520" s="55">
+        <v>11995</v>
+      </c>
+      <c r="C520" s="55"/>
+      <c r="D520" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E520" s="56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="53">
+        <v>520</v>
+      </c>
+      <c r="B521" s="55">
+        <v>11996</v>
+      </c>
+      <c r="C521" s="55"/>
+      <c r="D521" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E521" s="56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="53">
+        <v>521</v>
+      </c>
+      <c r="B522" s="55">
+        <v>11997</v>
+      </c>
+      <c r="C522" s="55"/>
+      <c r="D522" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E522" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="53">
+        <v>522</v>
+      </c>
+      <c r="B523" s="55">
+        <v>11998</v>
+      </c>
+      <c r="C523" s="55"/>
+      <c r="D523" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E523" s="56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="53">
+        <v>523</v>
+      </c>
+      <c r="B524" s="55">
+        <v>11999</v>
+      </c>
+      <c r="C524" s="55"/>
+      <c r="D524" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E524" s="56" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -24121,7 +25036,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -25194,25 +26109,25 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>737</v>
       </c>
     </row>
@@ -25237,16 +26152,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>740</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>741</v>
       </c>
     </row>
@@ -25276,10 +26191,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>743</v>
       </c>
     </row>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="817">
   <si>
     <t>id|</t>
   </si>
@@ -5173,8 +5173,173 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>新人限时福利-15元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-50元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-10元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-30元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8888,18888</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,10</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>5000,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-优惠券礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_5_coupon</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_30box</t>
   </si>
 </sst>
 </file>
@@ -5839,11 +6004,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8305,7 +8470,119 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="D83" s="18"/>
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D83" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E83" s="4">
+        <v>75</v>
+      </c>
+      <c r="K83" s="6">
+        <v>81</v>
+      </c>
+      <c r="L83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="18">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E84" s="4">
+        <v>76</v>
+      </c>
+      <c r="K84" s="6">
+        <v>82</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="18">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E85" s="4">
+        <v>77</v>
+      </c>
+      <c r="K85" s="6">
+        <v>83</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D86" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E86" s="4">
+        <v>78</v>
+      </c>
+      <c r="K86" s="6">
+        <v>84</v>
+      </c>
+      <c r="L86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D87" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E87" s="4">
+        <v>79</v>
+      </c>
+      <c r="K87" s="6">
+        <v>85</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8318,11 +8595,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9378,6 +9655,76 @@
         <v>771</v>
       </c>
       <c r="D75" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="17">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17">
+        <v>75</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="17">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17">
+        <v>76</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17">
+        <v>77</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17">
+        <v>79</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="D80" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9433,13 +9780,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
+      <selection pane="bottomRight" activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16790,6 +17137,76 @@
         <v>5</v>
       </c>
     </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1">
+        <v>81</v>
+      </c>
+      <c r="C525" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D525" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1">
+        <v>82</v>
+      </c>
+      <c r="C526" s="1">
+        <v>12001</v>
+      </c>
+      <c r="D526" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1">
+        <v>83</v>
+      </c>
+      <c r="C527" s="1">
+        <v>12002</v>
+      </c>
+      <c r="D527" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1">
+        <v>84</v>
+      </c>
+      <c r="C528" s="1">
+        <v>12003</v>
+      </c>
+      <c r="D528" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1">
+        <v>85</v>
+      </c>
+      <c r="C529" s="1">
+        <v>12004</v>
+      </c>
+      <c r="D529" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16799,11 +17216,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F524"/>
+  <dimension ref="A1:F534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G489" sqref="G489"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -24452,7 +24869,7 @@
         <v>760</v>
       </c>
       <c r="E486" s="32" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -24926,7 +25343,7 @@
         <v>11993</v>
       </c>
       <c r="C518" s="55"/>
-      <c r="D518" s="55" t="s">
+      <c r="D518" s="57" t="s">
         <v>513</v>
       </c>
       <c r="E518" s="56" t="s">
@@ -25021,6 +25438,146 @@
       </c>
       <c r="E524" s="56" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="53">
+        <v>524</v>
+      </c>
+      <c r="B525" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E525" s="41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="53">
+        <v>525</v>
+      </c>
+      <c r="B526" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E526" s="41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="53">
+        <v>526</v>
+      </c>
+      <c r="B527" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E527" s="41" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="53">
+        <v>527</v>
+      </c>
+      <c r="B528" s="13">
+        <v>12001</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E528" s="41" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="53">
+        <v>528</v>
+      </c>
+      <c r="B529" s="13">
+        <v>12001</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E529" s="41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="53">
+        <v>529</v>
+      </c>
+      <c r="B530" s="13">
+        <v>12002</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E530" s="41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="53">
+        <v>530</v>
+      </c>
+      <c r="B531" s="13">
+        <v>12002</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E531" s="41" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="53">
+        <v>531</v>
+      </c>
+      <c r="B532" s="13">
+        <v>12003</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E532" s="41" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="53">
+        <v>532</v>
+      </c>
+      <c r="B533" s="13">
+        <v>12003</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E533" s="41" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="53">
+        <v>533</v>
+      </c>
+      <c r="B534" s="13">
+        <v>12004</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E534" s="41" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="823">
   <si>
     <t>id|</t>
   </si>
@@ -5340,6 +5340,29 @@
   </si>
   <si>
     <t>obj_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>桃花礼包抽奖（转盘）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6004,11 +6027,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8386,86 +8409,86 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="18" customFormat="1">
-      <c r="A80" s="51">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="28">
         <v>72</v>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="51">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="18">
         <v>78</v>
       </c>
-      <c r="L80" s="51">
+      <c r="L80" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="18" customFormat="1">
-      <c r="A81" s="51">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="28">
         <v>73</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="51">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="18">
         <v>79</v>
       </c>
-      <c r="L81" s="51">
+      <c r="L81" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="18" customFormat="1">
-      <c r="A82" s="51">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="28">
         <v>74</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="51">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="18">
         <v>80</v>
       </c>
-      <c r="L82" s="51">
+      <c r="L82" s="18">
         <v>1</v>
       </c>
     </row>
@@ -8581,6 +8604,34 @@
         <v>85</v>
       </c>
       <c r="L87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="51" customFormat="1">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="57" t="s">
+        <v>817</v>
+      </c>
+      <c r="C88" s="55">
+        <v>1615852800</v>
+      </c>
+      <c r="D88" s="55">
+        <v>1616428799</v>
+      </c>
+      <c r="E88" s="52">
+        <v>80</v>
+      </c>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="51">
+        <v>86</v>
+      </c>
+      <c r="L88" s="51">
         <v>1</v>
       </c>
     </row>
@@ -8595,11 +8646,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9623,10 +9674,10 @@
       <c r="B73" s="17">
         <v>72</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9637,10 +9688,10 @@
       <c r="B74" s="17">
         <v>73</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9651,10 +9702,10 @@
       <c r="B75" s="17">
         <v>74</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9725,6 +9776,20 @@
         <v>811</v>
       </c>
       <c r="D80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17">
+        <v>80</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="D81" s="51">
         <v>1</v>
       </c>
     </row>
@@ -9780,13 +9845,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E529"/>
+  <dimension ref="A1:E534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C529" sqref="C529"/>
+      <selection pane="bottomRight" activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16763,13 +16828,13 @@
       <c r="A498" s="13">
         <v>497</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="13">
         <v>78</v>
       </c>
-      <c r="C498" s="55">
+      <c r="C498" s="13">
         <v>11973</v>
       </c>
-      <c r="D498" s="55">
+      <c r="D498" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16777,13 +16842,13 @@
       <c r="A499" s="13">
         <v>498</v>
       </c>
-      <c r="B499" s="55">
+      <c r="B499" s="13">
         <v>78</v>
       </c>
-      <c r="C499" s="55">
+      <c r="C499" s="13">
         <v>11974</v>
       </c>
-      <c r="D499" s="55">
+      <c r="D499" s="13">
         <v>25</v>
       </c>
     </row>
@@ -16791,13 +16856,13 @@
       <c r="A500" s="13">
         <v>499</v>
       </c>
-      <c r="B500" s="55">
+      <c r="B500" s="13">
         <v>78</v>
       </c>
-      <c r="C500" s="55">
+      <c r="C500" s="13">
         <v>11975</v>
       </c>
-      <c r="D500" s="55">
+      <c r="D500" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16805,13 +16870,13 @@
       <c r="A501" s="13">
         <v>500</v>
       </c>
-      <c r="B501" s="55">
+      <c r="B501" s="13">
         <v>78</v>
       </c>
-      <c r="C501" s="55">
+      <c r="C501" s="13">
         <v>11976</v>
       </c>
-      <c r="D501" s="55">
+      <c r="D501" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16819,13 +16884,13 @@
       <c r="A502" s="13">
         <v>501</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="13">
         <v>78</v>
       </c>
-      <c r="C502" s="55">
+      <c r="C502" s="13">
         <v>11977</v>
       </c>
-      <c r="D502" s="55">
+      <c r="D502" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16833,13 +16898,13 @@
       <c r="A503" s="13">
         <v>502</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="13">
         <v>78</v>
       </c>
-      <c r="C503" s="55">
+      <c r="C503" s="13">
         <v>11978</v>
       </c>
-      <c r="D503" s="55">
+      <c r="D503" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16847,13 +16912,13 @@
       <c r="A504" s="13">
         <v>503</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="13">
         <v>78</v>
       </c>
-      <c r="C504" s="55">
+      <c r="C504" s="13">
         <v>11979</v>
       </c>
-      <c r="D504" s="55">
+      <c r="D504" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16861,13 +16926,13 @@
       <c r="A505" s="13">
         <v>504</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="13">
         <v>78</v>
       </c>
-      <c r="C505" s="55">
+      <c r="C505" s="13">
         <v>11980</v>
       </c>
-      <c r="D505" s="55">
+      <c r="D505" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16875,13 +16940,13 @@
       <c r="A506" s="13">
         <v>505</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="13">
         <v>78</v>
       </c>
-      <c r="C506" s="55">
+      <c r="C506" s="13">
         <v>11981</v>
       </c>
-      <c r="D506" s="55">
+      <c r="D506" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16889,13 +16954,13 @@
       <c r="A507" s="13">
         <v>506</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="13">
         <v>79</v>
       </c>
-      <c r="C507" s="55">
+      <c r="C507" s="13">
         <v>11982</v>
       </c>
-      <c r="D507" s="55">
+      <c r="D507" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16903,13 +16968,13 @@
       <c r="A508" s="13">
         <v>507</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="13">
         <v>79</v>
       </c>
-      <c r="C508" s="55">
+      <c r="C508" s="13">
         <v>11983</v>
       </c>
-      <c r="D508" s="55">
+      <c r="D508" s="13">
         <v>25</v>
       </c>
     </row>
@@ -16917,13 +16982,13 @@
       <c r="A509" s="13">
         <v>508</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="13">
         <v>79</v>
       </c>
-      <c r="C509" s="55">
+      <c r="C509" s="13">
         <v>11984</v>
       </c>
-      <c r="D509" s="55">
+      <c r="D509" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16931,13 +16996,13 @@
       <c r="A510" s="13">
         <v>509</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="13">
         <v>79</v>
       </c>
-      <c r="C510" s="55">
+      <c r="C510" s="13">
         <v>11985</v>
       </c>
-      <c r="D510" s="55">
+      <c r="D510" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16945,13 +17010,13 @@
       <c r="A511" s="13">
         <v>510</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="13">
         <v>79</v>
       </c>
-      <c r="C511" s="55">
+      <c r="C511" s="13">
         <v>11986</v>
       </c>
-      <c r="D511" s="55">
+      <c r="D511" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16959,13 +17024,13 @@
       <c r="A512" s="13">
         <v>511</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="13">
         <v>79</v>
       </c>
-      <c r="C512" s="55">
+      <c r="C512" s="13">
         <v>11987</v>
       </c>
-      <c r="D512" s="55">
+      <c r="D512" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16973,13 +17038,13 @@
       <c r="A513" s="13">
         <v>512</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="13">
         <v>79</v>
       </c>
-      <c r="C513" s="55">
+      <c r="C513" s="13">
         <v>11988</v>
       </c>
-      <c r="D513" s="55">
+      <c r="D513" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16987,13 +17052,13 @@
       <c r="A514" s="13">
         <v>513</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="13">
         <v>79</v>
       </c>
-      <c r="C514" s="55">
+      <c r="C514" s="13">
         <v>11989</v>
       </c>
-      <c r="D514" s="55">
+      <c r="D514" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17001,13 +17066,13 @@
       <c r="A515" s="13">
         <v>514</v>
       </c>
-      <c r="B515" s="55">
+      <c r="B515" s="13">
         <v>79</v>
       </c>
-      <c r="C515" s="55">
+      <c r="C515" s="13">
         <v>11990</v>
       </c>
-      <c r="D515" s="55">
+      <c r="D515" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17015,13 +17080,13 @@
       <c r="A516" s="13">
         <v>515</v>
       </c>
-      <c r="B516" s="55">
+      <c r="B516" s="13">
         <v>80</v>
       </c>
-      <c r="C516" s="55">
+      <c r="C516" s="13">
         <v>11991</v>
       </c>
-      <c r="D516" s="55">
+      <c r="D516" s="13">
         <v>20</v>
       </c>
     </row>
@@ -17029,13 +17094,13 @@
       <c r="A517" s="13">
         <v>516</v>
       </c>
-      <c r="B517" s="55">
+      <c r="B517" s="13">
         <v>80</v>
       </c>
-      <c r="C517" s="55">
+      <c r="C517" s="13">
         <v>11992</v>
       </c>
-      <c r="D517" s="55">
+      <c r="D517" s="13">
         <v>25</v>
       </c>
     </row>
@@ -17043,13 +17108,13 @@
       <c r="A518" s="13">
         <v>517</v>
       </c>
-      <c r="B518" s="55">
+      <c r="B518" s="13">
         <v>80</v>
       </c>
-      <c r="C518" s="55">
+      <c r="C518" s="13">
         <v>11993</v>
       </c>
-      <c r="D518" s="55">
+      <c r="D518" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17057,13 +17122,13 @@
       <c r="A519" s="13">
         <v>518</v>
       </c>
-      <c r="B519" s="55">
+      <c r="B519" s="13">
         <v>80</v>
       </c>
-      <c r="C519" s="55">
+      <c r="C519" s="13">
         <v>11994</v>
       </c>
-      <c r="D519" s="55">
+      <c r="D519" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17071,13 +17136,13 @@
       <c r="A520" s="13">
         <v>519</v>
       </c>
-      <c r="B520" s="55">
+      <c r="B520" s="13">
         <v>80</v>
       </c>
-      <c r="C520" s="55">
+      <c r="C520" s="13">
         <v>11995</v>
       </c>
-      <c r="D520" s="55">
+      <c r="D520" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17085,13 +17150,13 @@
       <c r="A521" s="13">
         <v>520</v>
       </c>
-      <c r="B521" s="55">
+      <c r="B521" s="13">
         <v>80</v>
       </c>
-      <c r="C521" s="55">
+      <c r="C521" s="13">
         <v>11996</v>
       </c>
-      <c r="D521" s="55">
+      <c r="D521" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17099,13 +17164,13 @@
       <c r="A522" s="13">
         <v>521</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="13">
         <v>80</v>
       </c>
-      <c r="C522" s="55">
+      <c r="C522" s="13">
         <v>11997</v>
       </c>
-      <c r="D522" s="55">
+      <c r="D522" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17113,13 +17178,13 @@
       <c r="A523" s="13">
         <v>522</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="13">
         <v>80</v>
       </c>
-      <c r="C523" s="55">
+      <c r="C523" s="13">
         <v>11998</v>
       </c>
-      <c r="D523" s="55">
+      <c r="D523" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17127,18 +17192,18 @@
       <c r="A524" s="13">
         <v>523</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="13">
         <v>80</v>
       </c>
-      <c r="C524" s="55">
+      <c r="C524" s="13">
         <v>11999</v>
       </c>
-      <c r="D524" s="55">
+      <c r="D524" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="1">
+      <c r="A525" s="13">
         <v>524</v>
       </c>
       <c r="B525" s="1">
@@ -17152,7 +17217,7 @@
       </c>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="1">
+      <c r="A526" s="13">
         <v>525</v>
       </c>
       <c r="B526" s="1">
@@ -17166,7 +17231,7 @@
       </c>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="1">
+      <c r="A527" s="13">
         <v>526</v>
       </c>
       <c r="B527" s="1">
@@ -17180,7 +17245,7 @@
       </c>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="1">
+      <c r="A528" s="13">
         <v>527</v>
       </c>
       <c r="B528" s="1">
@@ -17194,7 +17259,7 @@
       </c>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="1">
+      <c r="A529" s="13">
         <v>528</v>
       </c>
       <c r="B529" s="1">
@@ -17204,6 +17269,76 @@
         <v>12004</v>
       </c>
       <c r="D529" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="13">
+        <v>529</v>
+      </c>
+      <c r="B530" s="55">
+        <v>86</v>
+      </c>
+      <c r="C530" s="55">
+        <v>12005</v>
+      </c>
+      <c r="D530" s="55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="13">
+        <v>530</v>
+      </c>
+      <c r="B531" s="55">
+        <v>86</v>
+      </c>
+      <c r="C531" s="55">
+        <v>12006</v>
+      </c>
+      <c r="D531" s="55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="13">
+        <v>531</v>
+      </c>
+      <c r="B532" s="55">
+        <v>86</v>
+      </c>
+      <c r="C532" s="55">
+        <v>12007</v>
+      </c>
+      <c r="D532" s="55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="13">
+        <v>532</v>
+      </c>
+      <c r="B533" s="55">
+        <v>86</v>
+      </c>
+      <c r="C533" s="55">
+        <v>12008</v>
+      </c>
+      <c r="D533" s="55">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="13">
+        <v>533</v>
+      </c>
+      <c r="B534" s="55">
+        <v>86</v>
+      </c>
+      <c r="C534" s="55">
+        <v>12009</v>
+      </c>
+      <c r="D534" s="55">
         <v>1</v>
       </c>
     </row>
@@ -17216,11 +17351,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F534"/>
+  <dimension ref="A1:F539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25036,548 +25171,633 @@
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="53">
+      <c r="A498" s="17">
         <v>497</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="13">
         <v>11973</v>
       </c>
-      <c r="C498" s="55"/>
-      <c r="D498" s="55" t="s">
+      <c r="C498" s="13"/>
+      <c r="D498" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E498" s="56" t="s">
+      <c r="E498" s="21" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="53">
+      <c r="A499" s="17">
         <v>498</v>
       </c>
-      <c r="B499" s="55">
+      <c r="B499" s="13">
         <v>11974</v>
       </c>
-      <c r="C499" s="55"/>
-      <c r="D499" s="55" t="s">
+      <c r="C499" s="13"/>
+      <c r="D499" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E499" s="56" t="s">
+      <c r="E499" s="21" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="53">
+      <c r="A500" s="17">
         <v>499</v>
       </c>
-      <c r="B500" s="55">
+      <c r="B500" s="13">
         <v>11975</v>
       </c>
-      <c r="C500" s="55"/>
-      <c r="D500" s="55" t="s">
+      <c r="C500" s="13"/>
+      <c r="D500" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E500" s="56" t="s">
+      <c r="E500" s="21" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="53">
+      <c r="A501" s="17">
         <v>500</v>
       </c>
-      <c r="B501" s="55">
+      <c r="B501" s="13">
         <v>11976</v>
       </c>
-      <c r="C501" s="55"/>
-      <c r="D501" s="57" t="s">
+      <c r="C501" s="13"/>
+      <c r="D501" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E501" s="56" t="s">
+      <c r="E501" s="21" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="53">
+      <c r="A502" s="17">
         <v>501</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="13">
         <v>11977</v>
       </c>
-      <c r="C502" s="55"/>
-      <c r="D502" s="57" t="s">
+      <c r="C502" s="13"/>
+      <c r="D502" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E502" s="56" t="s">
+      <c r="E502" s="21" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="53">
+      <c r="A503" s="17">
         <v>502</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="13">
         <v>11978</v>
       </c>
-      <c r="C503" s="55"/>
-      <c r="D503" s="57" t="s">
+      <c r="C503" s="13"/>
+      <c r="D503" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E503" s="56" t="s">
+      <c r="E503" s="21" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="504" spans="1:5">
-      <c r="A504" s="53">
+      <c r="A504" s="17">
         <v>503</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="13">
         <v>11979</v>
       </c>
-      <c r="C504" s="55"/>
-      <c r="D504" s="57" t="s">
+      <c r="C504" s="13"/>
+      <c r="D504" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E504" s="56" t="s">
+      <c r="E504" s="21" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="505" spans="1:5">
-      <c r="A505" s="53">
+      <c r="A505" s="17">
         <v>504</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="13">
         <v>11980</v>
       </c>
-      <c r="C505" s="55"/>
-      <c r="D505" s="57" t="s">
+      <c r="C505" s="13"/>
+      <c r="D505" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E505" s="56" t="s">
+      <c r="E505" s="21" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="53">
+      <c r="A506" s="17">
         <v>505</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="13">
         <v>11981</v>
       </c>
-      <c r="C506" s="55"/>
-      <c r="D506" s="57" t="s">
+      <c r="C506" s="13"/>
+      <c r="D506" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E506" s="56" t="s">
+      <c r="E506" s="21" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="53">
+      <c r="A507" s="17">
         <v>506</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="13">
         <v>11982</v>
       </c>
-      <c r="C507" s="55"/>
-      <c r="D507" s="55" t="s">
+      <c r="C507" s="13"/>
+      <c r="D507" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E507" s="56" t="s">
+      <c r="E507" s="21" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="508" spans="1:5">
-      <c r="A508" s="53">
+      <c r="A508" s="17">
         <v>507</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="13">
         <v>11983</v>
       </c>
-      <c r="C508" s="55"/>
-      <c r="D508" s="55" t="s">
+      <c r="C508" s="13"/>
+      <c r="D508" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E508" s="56" t="s">
+      <c r="E508" s="21" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="53">
+      <c r="A509" s="17">
         <v>508</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="13">
         <v>11984</v>
       </c>
-      <c r="C509" s="55"/>
-      <c r="D509" s="55" t="s">
+      <c r="C509" s="13"/>
+      <c r="D509" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E509" s="56" t="s">
+      <c r="E509" s="21" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="53">
+      <c r="A510" s="17">
         <v>509</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="13">
         <v>11985</v>
       </c>
-      <c r="C510" s="55"/>
-      <c r="D510" s="57" t="s">
+      <c r="C510" s="13"/>
+      <c r="D510" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E510" s="56" t="s">
+      <c r="E510" s="21" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="53">
+      <c r="A511" s="17">
         <v>510</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="13">
         <v>11986</v>
       </c>
-      <c r="C511" s="55"/>
-      <c r="D511" s="57" t="s">
+      <c r="C511" s="13"/>
+      <c r="D511" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E511" s="56" t="s">
+      <c r="E511" s="21" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="53">
+      <c r="A512" s="17">
         <v>511</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="13">
         <v>11987</v>
       </c>
-      <c r="C512" s="55"/>
-      <c r="D512" s="57" t="s">
+      <c r="C512" s="13"/>
+      <c r="D512" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E512" s="56" t="s">
+      <c r="E512" s="21" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="53">
+      <c r="A513" s="17">
         <v>512</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="13">
         <v>11988</v>
       </c>
-      <c r="C513" s="55"/>
-      <c r="D513" s="57" t="s">
+      <c r="C513" s="13"/>
+      <c r="D513" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E513" s="56" t="s">
+      <c r="E513" s="21" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="53">
+      <c r="A514" s="17">
         <v>513</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="13">
         <v>11989</v>
       </c>
-      <c r="C514" s="55"/>
-      <c r="D514" s="57" t="s">
+      <c r="C514" s="13"/>
+      <c r="D514" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E514" s="56" t="s">
+      <c r="E514" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="53">
+      <c r="A515" s="17">
         <v>514</v>
       </c>
-      <c r="B515" s="55">
+      <c r="B515" s="13">
         <v>11990</v>
       </c>
-      <c r="C515" s="55"/>
-      <c r="D515" s="57" t="s">
+      <c r="C515" s="13"/>
+      <c r="D515" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E515" s="56" t="s">
+      <c r="E515" s="21" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="53">
+      <c r="A516" s="17">
         <v>515</v>
       </c>
-      <c r="B516" s="55">
+      <c r="B516" s="13">
         <v>11991</v>
       </c>
-      <c r="C516" s="55"/>
-      <c r="D516" s="55" t="s">
+      <c r="C516" s="13"/>
+      <c r="D516" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E516" s="56" t="s">
+      <c r="E516" s="21" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="517" spans="1:5">
-      <c r="A517" s="53">
+      <c r="A517" s="17">
         <v>516</v>
       </c>
-      <c r="B517" s="55">
+      <c r="B517" s="13">
         <v>11992</v>
       </c>
-      <c r="C517" s="55"/>
-      <c r="D517" s="55" t="s">
+      <c r="C517" s="13"/>
+      <c r="D517" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E517" s="56" t="s">
+      <c r="E517" s="21" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="53">
+      <c r="A518" s="17">
         <v>517</v>
       </c>
-      <c r="B518" s="55">
+      <c r="B518" s="13">
         <v>11993</v>
       </c>
-      <c r="C518" s="55"/>
-      <c r="D518" s="57" t="s">
+      <c r="C518" s="13"/>
+      <c r="D518" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E518" s="56" t="s">
+      <c r="E518" s="21" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="53">
+      <c r="A519" s="17">
         <v>518</v>
       </c>
-      <c r="B519" s="55">
+      <c r="B519" s="13">
         <v>11994</v>
       </c>
-      <c r="C519" s="55"/>
-      <c r="D519" s="57" t="s">
+      <c r="C519" s="13"/>
+      <c r="D519" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E519" s="56" t="s">
+      <c r="E519" s="21" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="53">
+      <c r="A520" s="17">
         <v>519</v>
       </c>
-      <c r="B520" s="55">
+      <c r="B520" s="13">
         <v>11995</v>
       </c>
-      <c r="C520" s="55"/>
-      <c r="D520" s="57" t="s">
+      <c r="C520" s="13"/>
+      <c r="D520" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E520" s="56" t="s">
+      <c r="E520" s="21" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="53">
+      <c r="A521" s="17">
         <v>520</v>
       </c>
-      <c r="B521" s="55">
+      <c r="B521" s="13">
         <v>11996</v>
       </c>
-      <c r="C521" s="55"/>
-      <c r="D521" s="57" t="s">
+      <c r="C521" s="13"/>
+      <c r="D521" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E521" s="56" t="s">
+      <c r="E521" s="21" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="53">
+      <c r="A522" s="17">
         <v>521</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="13">
         <v>11997</v>
       </c>
-      <c r="C522" s="55"/>
-      <c r="D522" s="57" t="s">
+      <c r="C522" s="13"/>
+      <c r="D522" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E522" s="56" t="s">
+      <c r="E522" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="53">
+      <c r="A523" s="17">
         <v>522</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="13">
         <v>11998</v>
       </c>
-      <c r="C523" s="55"/>
-      <c r="D523" s="57" t="s">
+      <c r="C523" s="13"/>
+      <c r="D523" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E523" s="56" t="s">
+      <c r="E523" s="21" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="524" spans="1:5">
-      <c r="A524" s="53">
+      <c r="A524" s="17">
         <v>523</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="13">
         <v>11999</v>
       </c>
-      <c r="C524" s="55"/>
-      <c r="D524" s="57" t="s">
+      <c r="C524" s="13"/>
+      <c r="D524" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E524" s="56" t="s">
+      <c r="E524" s="21" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="53">
+      <c r="A525" s="17">
         <v>524</v>
       </c>
       <c r="B525" s="13">
         <v>12000</v>
       </c>
-      <c r="D525" s="3" t="s">
+      <c r="C525" s="13"/>
+      <c r="D525" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E525" s="41" t="s">
+      <c r="E525" s="21" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="53">
+      <c r="A526" s="17">
         <v>525</v>
       </c>
       <c r="B526" s="13">
         <v>12000</v>
       </c>
-      <c r="D526" s="3" t="s">
+      <c r="C526" s="13"/>
+      <c r="D526" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="E526" s="41" t="s">
+      <c r="E526" s="21" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="53">
+      <c r="A527" s="17">
         <v>526</v>
       </c>
       <c r="B527" s="13">
         <v>12000</v>
       </c>
-      <c r="D527" s="3" t="s">
+      <c r="C527" s="13"/>
+      <c r="D527" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E527" s="41" t="s">
+      <c r="E527" s="21" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="528" spans="1:5">
-      <c r="A528" s="53">
+      <c r="A528" s="17">
         <v>527</v>
       </c>
       <c r="B528" s="13">
         <v>12001</v>
       </c>
-      <c r="D528" s="3" t="s">
+      <c r="C528" s="13"/>
+      <c r="D528" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="E528" s="41" t="s">
+      <c r="E528" s="21" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="53">
+      <c r="A529" s="17">
         <v>528</v>
       </c>
       <c r="B529" s="13">
         <v>12001</v>
       </c>
-      <c r="D529" s="3" t="s">
+      <c r="C529" s="13"/>
+      <c r="D529" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="E529" s="41" t="s">
+      <c r="E529" s="21" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="53">
+      <c r="A530" s="17">
         <v>529</v>
       </c>
       <c r="B530" s="13">
         <v>12002</v>
       </c>
-      <c r="D530" s="3" t="s">
+      <c r="C530" s="13"/>
+      <c r="D530" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E530" s="41" t="s">
+      <c r="E530" s="21" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="53">
+      <c r="A531" s="17">
         <v>530</v>
       </c>
       <c r="B531" s="13">
         <v>12002</v>
       </c>
-      <c r="D531" s="3" t="s">
+      <c r="C531" s="13"/>
+      <c r="D531" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="E531" s="41" t="s">
+      <c r="E531" s="21" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="532" spans="1:5">
-      <c r="A532" s="53">
+      <c r="A532" s="17">
         <v>531</v>
       </c>
       <c r="B532" s="13">
         <v>12003</v>
       </c>
-      <c r="D532" s="3" t="s">
+      <c r="C532" s="13"/>
+      <c r="D532" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E532" s="41" t="s">
+      <c r="E532" s="21" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="53">
+      <c r="A533" s="17">
         <v>532</v>
       </c>
       <c r="B533" s="13">
         <v>12003</v>
       </c>
-      <c r="D533" s="3" t="s">
+      <c r="C533" s="13"/>
+      <c r="D533" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="E533" s="41" t="s">
+      <c r="E533" s="21" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="53">
+      <c r="A534" s="17">
         <v>533</v>
       </c>
       <c r="B534" s="13">
         <v>12004</v>
       </c>
-      <c r="D534" s="3" t="s">
+      <c r="C534" s="13"/>
+      <c r="D534" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="E534" s="41" t="s">
+      <c r="E534" s="21" t="s">
         <v>801</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="17">
+        <v>534</v>
+      </c>
+      <c r="B535" s="55">
+        <v>12005</v>
+      </c>
+      <c r="C535" s="55"/>
+      <c r="D535" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E535" s="56" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="17">
+        <v>535</v>
+      </c>
+      <c r="B536" s="55">
+        <v>12006</v>
+      </c>
+      <c r="C536" s="55"/>
+      <c r="D536" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="E536" s="56" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="17">
+        <v>536</v>
+      </c>
+      <c r="B537" s="55">
+        <v>12007</v>
+      </c>
+      <c r="C537" s="55"/>
+      <c r="D537" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E537" s="56" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="17">
+        <v>537</v>
+      </c>
+      <c r="B538" s="55">
+        <v>12008</v>
+      </c>
+      <c r="C538" s="55"/>
+      <c r="D538" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="E538" s="56" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="17">
+        <v>538</v>
+      </c>
+      <c r="B539" s="55">
+        <v>12009</v>
+      </c>
+      <c r="C539" s="55"/>
+      <c r="D539" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="E539" s="56" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="874">
   <si>
     <t>id|</t>
   </si>
@@ -5363,6 +5363,686 @@
   <si>
     <t>1000,1000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈福好礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO手机</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子手表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>双肩背包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用油</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型护颈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,1000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,500000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,100000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,100000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_v0_down</t>
+  </si>
+  <si>
+    <t>box_exchange_v0_down</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_v0_up</t>
+  </si>
+  <si>
+    <t>box_exchange_v0_up</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=21</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>prop_grade</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.1,1.3,1.5</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltqf_001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltqf_012_fqdr_rank</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5504,7 +6184,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5544,6 +6224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5587,7 +6273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5750,6 +6436,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6027,11 +6727,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8632,6 +9332,29 @@
         <v>86</v>
       </c>
       <c r="L88" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="18">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1617667200</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1618243199</v>
+      </c>
+      <c r="E89" s="4">
+        <v>81</v>
+      </c>
+      <c r="K89" s="6">
+        <v>87</v>
+      </c>
+      <c r="L89" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8646,11 +9369,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9791,6 +10514,20 @@
       </c>
       <c r="D81" s="51">
         <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="17">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17">
+        <v>81</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="D82" s="6">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -9845,13 +10582,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E534"/>
+  <dimension ref="A1:E549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B506" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B528" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C539" sqref="C539"/>
+      <selection pane="bottomRight" activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -17342,6 +18079,216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="13">
+        <v>534</v>
+      </c>
+      <c r="B535" s="1">
+        <v>87</v>
+      </c>
+      <c r="C535" s="59">
+        <v>12011</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="13">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1">
+        <v>87</v>
+      </c>
+      <c r="C536" s="59">
+        <v>12012</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="13">
+        <v>536</v>
+      </c>
+      <c r="B537" s="1">
+        <v>87</v>
+      </c>
+      <c r="C537" s="59">
+        <v>12013</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="13">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1">
+        <v>87</v>
+      </c>
+      <c r="C538" s="59">
+        <v>12014</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="13">
+        <v>538</v>
+      </c>
+      <c r="B539" s="1">
+        <v>87</v>
+      </c>
+      <c r="C539" s="59">
+        <v>12015</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="13">
+        <v>539</v>
+      </c>
+      <c r="B540" s="1">
+        <v>87</v>
+      </c>
+      <c r="C540" s="59">
+        <v>12016</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="13">
+        <v>540</v>
+      </c>
+      <c r="B541" s="1">
+        <v>87</v>
+      </c>
+      <c r="C541" s="59">
+        <v>12017</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="13">
+        <v>541</v>
+      </c>
+      <c r="B542" s="1">
+        <v>87</v>
+      </c>
+      <c r="C542" s="59">
+        <v>12018</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="13">
+        <v>542</v>
+      </c>
+      <c r="B543" s="1">
+        <v>87</v>
+      </c>
+      <c r="C543" s="59">
+        <v>12019</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="13">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1">
+        <v>87</v>
+      </c>
+      <c r="C544" s="59">
+        <v>12020</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="13">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1">
+        <v>87</v>
+      </c>
+      <c r="C545" s="59">
+        <v>12021</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="13">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1">
+        <v>87</v>
+      </c>
+      <c r="C546" s="59">
+        <v>12022</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="13">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1">
+        <v>87</v>
+      </c>
+      <c r="C547" s="59">
+        <v>12023</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="13">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1">
+        <v>87</v>
+      </c>
+      <c r="C548" s="59">
+        <v>12024</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="13">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1">
+        <v>87</v>
+      </c>
+      <c r="C549" s="59">
+        <v>12025</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17351,11 +18298,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F539"/>
+  <dimension ref="A1:F554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C552" sqref="C552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25800,6 +26747,231 @@
         <v>822</v>
       </c>
     </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="58">
+        <v>539</v>
+      </c>
+      <c r="B540" s="59">
+        <v>12011</v>
+      </c>
+      <c r="C540" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="D540" s="59"/>
+      <c r="E540" s="60" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="58">
+        <v>540</v>
+      </c>
+      <c r="B541" s="59">
+        <v>12012</v>
+      </c>
+      <c r="C541" s="59" t="s">
+        <v>826</v>
+      </c>
+      <c r="D541" s="59"/>
+      <c r="E541" s="60" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="58">
+        <v>541</v>
+      </c>
+      <c r="B542" s="59">
+        <v>12013</v>
+      </c>
+      <c r="C542" s="59" t="s">
+        <v>827</v>
+      </c>
+      <c r="D542" s="59"/>
+      <c r="E542" s="61" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="58">
+        <v>542</v>
+      </c>
+      <c r="B543" s="59">
+        <v>12014</v>
+      </c>
+      <c r="C543" s="59" t="s">
+        <v>828</v>
+      </c>
+      <c r="D543" s="59"/>
+      <c r="E543" s="61" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="58">
+        <v>543</v>
+      </c>
+      <c r="B544" s="59">
+        <v>12015</v>
+      </c>
+      <c r="C544" s="59" t="s">
+        <v>829</v>
+      </c>
+      <c r="D544" s="59"/>
+      <c r="E544" s="61" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="58">
+        <v>544</v>
+      </c>
+      <c r="B545" s="59">
+        <v>12016</v>
+      </c>
+      <c r="C545" s="59"/>
+      <c r="D545" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="E545" s="61" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="58">
+        <v>545</v>
+      </c>
+      <c r="B546" s="59">
+        <v>12017</v>
+      </c>
+      <c r="C546" s="59"/>
+      <c r="D546" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="E546" s="60" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="58">
+        <v>546</v>
+      </c>
+      <c r="B547" s="59">
+        <v>12018</v>
+      </c>
+      <c r="C547" s="59"/>
+      <c r="D547" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="E547" s="60" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="58">
+        <v>547</v>
+      </c>
+      <c r="B548" s="59">
+        <v>12019</v>
+      </c>
+      <c r="C548" s="59"/>
+      <c r="D548" s="62" t="s">
+        <v>601</v>
+      </c>
+      <c r="E548" s="60" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="58">
+        <v>548</v>
+      </c>
+      <c r="B549" s="59">
+        <v>12020</v>
+      </c>
+      <c r="C549" s="59"/>
+      <c r="D549" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="E549" s="60" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="58">
+        <v>549</v>
+      </c>
+      <c r="B550" s="59">
+        <v>12021</v>
+      </c>
+      <c r="C550" s="59"/>
+      <c r="D550" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="E550" s="60" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="58">
+        <v>550</v>
+      </c>
+      <c r="B551" s="59">
+        <v>12022</v>
+      </c>
+      <c r="C551" s="59"/>
+      <c r="D551" s="62" t="s">
+        <v>847</v>
+      </c>
+      <c r="E551" s="60" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="58">
+        <v>551</v>
+      </c>
+      <c r="B552" s="59">
+        <v>12023</v>
+      </c>
+      <c r="C552" s="59"/>
+      <c r="D552" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="E552" s="60" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="58">
+        <v>552</v>
+      </c>
+      <c r="B553" s="59">
+        <v>12024</v>
+      </c>
+      <c r="C553" s="59"/>
+      <c r="D553" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="E553" s="60" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="58">
+        <v>553</v>
+      </c>
+      <c r="B554" s="59">
+        <v>12025</v>
+      </c>
+      <c r="C554" s="59"/>
+      <c r="D554" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="E554" s="60" t="s">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25813,14 +26985,14 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26679,108 +27851,438 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="C62" s="5"/>
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="58">
+        <v>21</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>851</v>
+      </c>
+      <c r="D62" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="C63" s="5"/>
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="58">
+        <v>22</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>851</v>
+      </c>
+      <c r="D63" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="3:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="58">
+        <v>23</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D64" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="58">
+        <v>24</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D65" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="58">
+        <v>25</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D66" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="58">
+        <v>26</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D67" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="58">
+        <v>27</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D68" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="58">
+        <v>28</v>
+      </c>
+      <c r="C69" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D69" s="58">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="58">
+        <v>29</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D70" s="58">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="58">
+        <v>30</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D71" s="58">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="58">
+        <v>31</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D72" s="58">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="58">
+        <v>32</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D73" s="58">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="58">
+        <v>33</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D74" s="58">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="58">
+        <v>34</v>
+      </c>
+      <c r="C75" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D75" s="58">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="58">
+        <v>35</v>
+      </c>
+      <c r="C76" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="D76" s="58">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="58">
+        <v>21</v>
+      </c>
+      <c r="C77" s="63" t="s">
+        <v>853</v>
+      </c>
+      <c r="D77" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="58">
+        <v>22</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>853</v>
+      </c>
+      <c r="D78" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="58">
+        <v>23</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D79" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="58">
+        <v>24</v>
+      </c>
+      <c r="C80" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D80" s="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="58">
+        <v>25</v>
+      </c>
+      <c r="C81" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D81" s="58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="58">
+        <v>26</v>
+      </c>
+      <c r="C82" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D82" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="58">
+        <v>27</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D83" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="58">
+        <v>28</v>
+      </c>
+      <c r="C84" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D84" s="58">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="58">
+        <v>29</v>
+      </c>
+      <c r="C85" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D85" s="58">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="58">
+        <v>30</v>
+      </c>
+      <c r="C86" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D86" s="58">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="58">
+        <v>31</v>
+      </c>
+      <c r="C87" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D87" s="58">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="58">
+        <v>32</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D88" s="58">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="58">
+        <v>33</v>
+      </c>
+      <c r="C89" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D89" s="58">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="58">
+        <v>34</v>
+      </c>
+      <c r="C90" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D90" s="58">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="58">
+        <v>35</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="D91" s="58">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="1:4">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="1:4">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="1:4">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:4">
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="3:3">
@@ -26877,13 +28379,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="49" t="s">
@@ -26906,6 +28415,26 @@
       </c>
       <c r="G1" s="49" t="s">
         <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1000479</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +28449,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26943,6 +28472,15 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
       <c r="D2" t="s">
         <v>742</v>
       </c>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +90,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="764">
   <si>
     <t>id|</t>
   </si>
@@ -5305,14 +5310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5330,13 +5329,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5356,150 +5355,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -5510,8 +5365,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5520,7 +5388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5532,7 +5400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5544,13 +5412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5560,176 +5428,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5763,251 +5463,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
@@ -6015,7 +5473,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6031,10 +5489,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6140,7 +5598,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6163,62 +5621,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6476,18 +5890,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6507,7 +5920,7 @@
     <col min="18" max="16384" width="11" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" customHeight="1" spans="1:12">
+    <row r="1" spans="1:17" ht="40.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6545,7 +5958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:17">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6571,7 +5984,7 @@
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
     </row>
-    <row r="3" ht="16.5" spans="1:17">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6597,7 +6010,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" ht="16.5" spans="1:17">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6623,7 +6036,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:17">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6647,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:17">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6673,7 +6086,7 @@
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" ht="16.5" spans="1:17">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6699,7 +6112,7 @@
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" ht="16.5" spans="1:17">
+    <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6731,7 +6144,7 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" ht="16.5" spans="1:17">
+    <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -6763,7 +6176,7 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" ht="16.5" spans="1:17">
+    <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -6795,7 +6208,7 @@
       <c r="P10" s="51"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" ht="16.5" spans="1:17">
+    <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -6827,7 +6240,7 @@
       <c r="P11" s="51"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" ht="16.5" spans="1:17">
+    <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -6853,7 +6266,7 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" ht="16.5" spans="1:17">
+    <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -6879,7 +6292,7 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" s="39" customFormat="1" ht="16.5" spans="1:15">
+    <row r="14" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -6908,7 +6321,7 @@
       </c>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" s="39" customFormat="1" ht="16.5" spans="1:15">
+    <row r="15" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -6937,7 +6350,7 @@
       </c>
       <c r="O15" s="52"/>
     </row>
-    <row r="16" s="39" customFormat="1" ht="16.5" spans="1:15">
+    <row r="16" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -6966,7 +6379,7 @@
       </c>
       <c r="O16" s="52"/>
     </row>
-    <row r="17" s="39" customFormat="1" ht="16.5" spans="1:15">
+    <row r="17" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -6995,7 +6408,7 @@
       </c>
       <c r="O17" s="52"/>
     </row>
-    <row r="18" s="39" customFormat="1" spans="1:12">
+    <row r="18" spans="1:17" s="39" customFormat="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -7023,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="39" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -7052,7 +6465,7 @@
       </c>
       <c r="O19" s="52"/>
     </row>
-    <row r="20" s="39" customFormat="1" spans="1:12">
+    <row r="20" spans="1:17" s="39" customFormat="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -7084,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="39" customFormat="1" ht="16.5" spans="1:17">
+    <row r="21" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -7118,7 +6531,7 @@
       <c r="P21" s="52"/>
       <c r="Q21" s="52"/>
     </row>
-    <row r="22" s="39" customFormat="1" ht="16.5" spans="1:17">
+    <row r="22" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -7152,7 +6565,7 @@
       <c r="P22" s="52"/>
       <c r="Q22" s="52"/>
     </row>
-    <row r="23" s="39" customFormat="1" ht="16.5" spans="1:17">
+    <row r="23" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -7186,7 +6599,7 @@
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
     </row>
-    <row r="24" s="39" customFormat="1" ht="16.5" spans="1:17">
+    <row r="24" spans="1:17" s="39" customFormat="1" ht="16.5">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -7220,7 +6633,7 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
     </row>
-    <row r="25" s="39" customFormat="1" spans="1:12">
+    <row r="25" spans="1:17" s="39" customFormat="1">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -7252,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="39" customFormat="1" spans="1:12">
+    <row r="26" spans="1:17" s="39" customFormat="1">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -7284,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="39" customFormat="1" spans="1:12">
+    <row r="27" spans="1:17" s="39" customFormat="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -7316,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="39" customFormat="1" spans="1:12">
+    <row r="28" spans="1:17" s="39" customFormat="1">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -7348,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="39" customFormat="1" spans="1:12">
+    <row r="29" spans="1:17" s="39" customFormat="1">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -7380,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="39" customFormat="1" spans="1:12">
+    <row r="30" spans="1:17" s="39" customFormat="1">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -7412,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="39" customFormat="1" spans="1:12">
+    <row r="31" spans="1:17" s="39" customFormat="1">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -7444,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="39" customFormat="1" spans="1:12">
+    <row r="32" spans="1:17" s="39" customFormat="1">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -7476,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="39" customFormat="1" spans="1:12">
+    <row r="33" spans="1:12" s="39" customFormat="1">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -7508,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="39" customFormat="1" spans="1:12">
+    <row r="34" spans="1:12" s="39" customFormat="1">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -7540,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="39" customFormat="1" spans="1:12">
+    <row r="35" spans="1:12" s="39" customFormat="1">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -7572,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="39" customFormat="1" spans="1:12">
+    <row r="36" spans="1:12" s="39" customFormat="1">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -7604,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="39" customFormat="1" spans="1:12">
+    <row r="37" spans="1:12" s="39" customFormat="1">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -7636,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="39" customFormat="1" spans="1:12">
+    <row r="38" spans="1:12" s="39" customFormat="1">
       <c r="A38" s="39">
         <v>37</v>
       </c>
@@ -7664,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="39" customFormat="1" spans="1:12">
+    <row r="39" spans="1:12" s="39" customFormat="1">
       <c r="A39" s="39">
         <v>38</v>
       </c>
@@ -7692,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" s="39" customFormat="1" spans="1:12">
+    <row r="40" spans="1:12" s="39" customFormat="1">
       <c r="A40" s="39">
         <v>39</v>
       </c>
@@ -7720,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="39" customFormat="1" spans="1:12">
+    <row r="41" spans="1:12" s="39" customFormat="1">
       <c r="A41" s="39">
         <v>40</v>
       </c>
@@ -7748,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="39" customFormat="1" spans="1:12">
+    <row r="42" spans="1:12" s="39" customFormat="1">
       <c r="A42" s="39">
         <v>41</v>
       </c>
@@ -7776,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="39" customFormat="1" spans="1:12">
+    <row r="43" spans="1:12" s="39" customFormat="1">
       <c r="A43" s="39">
         <v>42</v>
       </c>
@@ -7804,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="39" customFormat="1" spans="1:12">
+    <row r="44" spans="1:12" s="39" customFormat="1">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -7832,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="39" customFormat="1" spans="1:12">
+    <row r="45" spans="1:12" s="39" customFormat="1">
       <c r="A45" s="39">
         <v>44</v>
       </c>
@@ -7860,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="39" customFormat="1" spans="1:12">
+    <row r="46" spans="1:12" s="39" customFormat="1">
       <c r="A46" s="39">
         <v>45</v>
       </c>
@@ -7888,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="39" customFormat="1" spans="1:12">
+    <row r="47" spans="1:12" s="39" customFormat="1">
       <c r="A47" s="39">
         <v>46</v>
       </c>
@@ -7920,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="39" customFormat="1" spans="1:12">
+    <row r="48" spans="1:12" s="39" customFormat="1">
       <c r="A48" s="39">
         <v>47</v>
       </c>
@@ -7952,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="39" customFormat="1" spans="1:12">
+    <row r="49" spans="1:12" s="39" customFormat="1">
       <c r="A49" s="39">
         <v>48</v>
       </c>
@@ -7984,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="39" customFormat="1" spans="1:12">
+    <row r="50" spans="1:12" s="39" customFormat="1">
       <c r="A50" s="39">
         <v>49</v>
       </c>
@@ -8016,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="39" customFormat="1" spans="1:12">
+    <row r="51" spans="1:12" s="39" customFormat="1">
       <c r="A51" s="39">
         <v>50</v>
       </c>
@@ -8048,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="39" customFormat="1" spans="1:12">
+    <row r="52" spans="1:12" s="39" customFormat="1">
       <c r="A52" s="39">
         <v>51</v>
       </c>
@@ -8080,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="39" customFormat="1" spans="1:12">
+    <row r="53" spans="1:12" s="39" customFormat="1">
       <c r="A53" s="39">
         <v>52</v>
       </c>
@@ -8112,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="39" customFormat="1" spans="1:12">
+    <row r="54" spans="1:12" s="39" customFormat="1">
       <c r="A54" s="39">
         <v>53</v>
       </c>
@@ -8140,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" s="39" customFormat="1" spans="1:12">
+    <row r="55" spans="1:12" s="39" customFormat="1">
       <c r="A55" s="39">
         <v>54</v>
       </c>
@@ -8168,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="39" customFormat="1" spans="1:12">
+    <row r="56" spans="1:12" s="39" customFormat="1">
       <c r="A56" s="39">
         <v>55</v>
       </c>
@@ -8196,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="39" customFormat="1" spans="1:12">
+    <row r="57" spans="1:12" s="39" customFormat="1">
       <c r="A57" s="39">
         <v>56</v>
       </c>
@@ -8224,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="39" customFormat="1" spans="1:12">
+    <row r="58" spans="1:12" s="39" customFormat="1">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -8252,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="39" customFormat="1" spans="1:12">
+    <row r="59" spans="1:12" s="39" customFormat="1">
       <c r="A59" s="39">
         <v>58</v>
       </c>
@@ -8280,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="39" customFormat="1" spans="1:12">
+    <row r="60" spans="1:12" s="39" customFormat="1">
       <c r="A60" s="39">
         <v>59</v>
       </c>
@@ -8308,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="39" customFormat="1" spans="1:12">
+    <row r="61" spans="1:12" s="39" customFormat="1">
       <c r="A61" s="39">
         <v>60</v>
       </c>
@@ -8336,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="39" customFormat="1" spans="1:12">
+    <row r="62" spans="1:12" s="39" customFormat="1">
       <c r="A62" s="39">
         <v>61</v>
       </c>
@@ -8364,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="39" customFormat="1" spans="1:12">
+    <row r="63" spans="1:12" s="39" customFormat="1">
       <c r="A63" s="39">
         <v>62</v>
       </c>
@@ -8392,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" s="39" customFormat="1" spans="1:12">
+    <row r="64" spans="1:12" s="39" customFormat="1">
       <c r="A64" s="39">
         <v>63</v>
       </c>
@@ -8424,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="39" customFormat="1" spans="1:12">
+    <row r="65" spans="1:12" s="39" customFormat="1">
       <c r="A65" s="39">
         <v>64</v>
       </c>
@@ -8456,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" s="39" customFormat="1" spans="1:12">
+    <row r="66" spans="1:12" s="39" customFormat="1">
       <c r="A66" s="39">
         <v>65</v>
       </c>
@@ -8488,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" s="39" customFormat="1" spans="1:12">
+    <row r="67" spans="1:12" s="39" customFormat="1">
       <c r="A67" s="39">
         <v>66</v>
       </c>
@@ -8520,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="39" customFormat="1" spans="1:12">
+    <row r="68" spans="1:12" s="39" customFormat="1">
       <c r="A68" s="39">
         <v>67</v>
       </c>
@@ -8552,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="39" customFormat="1" spans="1:12">
+    <row r="69" spans="1:12" s="39" customFormat="1">
       <c r="A69" s="39">
         <v>68</v>
       </c>
@@ -8584,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" s="39" customFormat="1" spans="1:12">
+    <row r="70" spans="1:12" s="39" customFormat="1">
       <c r="A70" s="39">
         <v>69</v>
       </c>
@@ -8612,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" s="39" customFormat="1" spans="1:12">
+    <row r="71" spans="1:12" s="39" customFormat="1">
       <c r="A71" s="39">
         <v>70</v>
       </c>
@@ -8640,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" s="39" customFormat="1" spans="1:12">
+    <row r="72" spans="1:12" s="39" customFormat="1">
       <c r="A72" s="39">
         <v>71</v>
       </c>
@@ -8668,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" s="39" customFormat="1" spans="1:12">
+    <row r="73" spans="1:12" s="39" customFormat="1">
       <c r="A73" s="39">
         <v>72</v>
       </c>
@@ -8696,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" s="39" customFormat="1" spans="1:12">
+    <row r="74" spans="1:12" s="39" customFormat="1">
       <c r="A74" s="39">
         <v>73</v>
       </c>
@@ -8724,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" s="39" customFormat="1" spans="1:12">
+    <row r="75" spans="1:12" s="39" customFormat="1">
       <c r="A75" s="39">
         <v>74</v>
       </c>
@@ -8752,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" s="39" customFormat="1" spans="1:12">
+    <row r="76" spans="1:12" s="39" customFormat="1">
       <c r="A76" s="39">
         <v>75</v>
       </c>
@@ -8780,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" s="39" customFormat="1" spans="1:12">
+    <row r="77" spans="1:12" s="39" customFormat="1">
       <c r="A77" s="39">
         <v>76</v>
       </c>
@@ -8808,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" s="39" customFormat="1" spans="1:12">
+    <row r="78" spans="1:12" s="39" customFormat="1">
       <c r="A78" s="39">
         <v>77</v>
       </c>
@@ -8836,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" s="39" customFormat="1" spans="1:12">
+    <row r="79" spans="1:12" s="39" customFormat="1">
       <c r="A79" s="39">
         <v>78</v>
       </c>
@@ -8864,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" s="39" customFormat="1" spans="1:12">
+    <row r="80" spans="1:12" s="39" customFormat="1">
       <c r="A80" s="39">
         <v>79</v>
       </c>
@@ -8892,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" s="39" customFormat="1" spans="1:12">
+    <row r="81" spans="1:12" s="39" customFormat="1">
       <c r="A81" s="39">
         <v>80</v>
       </c>
@@ -8920,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" s="39" customFormat="1" spans="1:12">
+    <row r="82" spans="1:12" s="39" customFormat="1">
       <c r="A82" s="39">
         <v>81</v>
       </c>
@@ -9063,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" s="46" customFormat="1" spans="1:12">
+    <row r="88" spans="1:12" s="46" customFormat="1">
       <c r="A88" s="39">
         <v>87</v>
       </c>
@@ -9071,10 +8484,10 @@
         <v>95</v>
       </c>
       <c r="C88" s="29">
-        <v>1615852800</v>
+        <v>1627948800</v>
       </c>
       <c r="D88" s="29">
-        <v>1616428799</v>
+        <v>1628524799</v>
       </c>
       <c r="E88" s="53">
         <v>80</v>
@@ -9088,7 +8501,7 @@
         <v>86</v>
       </c>
       <c r="L88" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -9460,25 +8873,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="36.75" style="38" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="38" customWidth="1"/>
@@ -9624,7 +9035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:4">
+    <row r="11" spans="1:4" s="7" customFormat="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -9652,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:4">
+    <row r="13" spans="1:4" s="7" customFormat="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -9666,7 +9077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:4">
+    <row r="14" spans="1:4" s="7" customFormat="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -9680,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:4">
+    <row r="15" spans="1:4" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -9694,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:4">
+    <row r="16" spans="1:4" s="7" customFormat="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -9708,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:4">
+    <row r="17" spans="1:4" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -9722,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:4">
+    <row r="18" spans="1:4" s="7" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -9736,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:4">
+    <row r="19" spans="1:4" s="7" customFormat="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -9750,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:4">
+    <row r="20" spans="1:4" s="7" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -9764,7 +9175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:4">
+    <row r="21" spans="1:4" s="7" customFormat="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -9778,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:4">
+    <row r="22" spans="1:4" s="7" customFormat="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -9792,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:4">
+    <row r="23" spans="1:4" s="7" customFormat="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -9806,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:4">
+    <row r="24" spans="1:4" s="7" customFormat="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -9820,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:4">
+    <row r="25" spans="1:4" s="7" customFormat="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -9834,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:4">
+    <row r="26" spans="1:4" s="7" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -9848,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:4">
+    <row r="27" spans="1:4" s="7" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -9862,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:4">
+    <row r="28" spans="1:4" s="7" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -9876,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:4">
+    <row r="29" spans="1:4" s="7" customFormat="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -9890,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:4">
+    <row r="30" spans="1:4" s="7" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -9904,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:4">
+    <row r="31" spans="1:4" s="7" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -9918,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:4">
+    <row r="32" spans="1:4" s="7" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -9932,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:4">
+    <row r="33" spans="1:4" s="7" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -9946,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:4">
+    <row r="34" spans="1:4" s="7" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -9960,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:4">
+    <row r="35" spans="1:4" s="7" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -10072,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:4">
+    <row r="43" spans="1:4" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -10086,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:4">
+    <row r="44" spans="1:4" s="7" customFormat="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -10100,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:4">
+    <row r="45" spans="1:4" s="7" customFormat="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -10114,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:4">
+    <row r="46" spans="1:4" s="7" customFormat="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -10128,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:4">
+    <row r="47" spans="1:4" s="7" customFormat="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -10142,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:4">
+    <row r="48" spans="1:4" s="7" customFormat="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -10156,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" ht="16.5" spans="1:4">
+    <row r="49" spans="1:4" s="7" customFormat="1" ht="16.5">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -10170,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" ht="16.5" spans="1:4">
+    <row r="50" spans="1:4" s="7" customFormat="1" ht="16.5">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -10184,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" ht="16.5" spans="1:4">
+    <row r="51" spans="1:4" s="7" customFormat="1" ht="16.5">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -10198,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:4">
+    <row r="52" spans="1:4" s="7" customFormat="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -10212,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" spans="1:4">
+    <row r="53" spans="1:4" s="7" customFormat="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -10226,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" spans="1:4">
+    <row r="54" spans="1:4" s="7" customFormat="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -10240,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:4">
+    <row r="55" spans="1:4" s="7" customFormat="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -10254,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" spans="1:4">
+    <row r="56" spans="1:4" s="7" customFormat="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -10268,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" spans="1:4">
+    <row r="57" spans="1:4" s="7" customFormat="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -10282,7 +9693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" spans="1:4">
+    <row r="58" spans="1:4" s="7" customFormat="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -10296,7 +9707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" spans="1:4">
+    <row r="59" spans="1:4" s="7" customFormat="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -10310,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" spans="1:4">
+    <row r="60" spans="1:4" s="7" customFormat="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -10324,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" spans="1:4">
+    <row r="61" spans="1:4" s="7" customFormat="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -10338,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" spans="1:4">
+    <row r="62" spans="1:4" s="7" customFormat="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -10352,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" spans="1:4">
+    <row r="63" spans="1:4" s="7" customFormat="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -10366,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" spans="1:4">
+    <row r="64" spans="1:4" s="7" customFormat="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -10380,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:4">
+    <row r="65" spans="1:4" s="7" customFormat="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -10394,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" spans="1:4">
+    <row r="66" spans="1:4" s="7" customFormat="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -10408,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" spans="1:4">
+    <row r="67" spans="1:4" s="7" customFormat="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -10422,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" spans="1:4">
+    <row r="68" spans="1:4" s="7" customFormat="1">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -10450,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="1" spans="1:4">
+    <row r="70" spans="1:4" s="7" customFormat="1">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -10632,7 +10043,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:4">
+    <row r="83" spans="1:4" ht="16.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10759,21 +10170,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
@@ -10802,25 +10212,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B612" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B516" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D639" sqref="D639"/>
+      <selection pane="bottomRight" activeCell="B530" sqref="B530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
     <col min="2" max="2" width="31.75" style="4" customWidth="1"/>
@@ -10831,7 +10239,7 @@
     <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
@@ -10846,7 +10254,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -10860,7 +10268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -10874,7 +10282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -10888,7 +10296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -10902,7 +10310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -10916,7 +10324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -10930,7 +10338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -10944,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -10958,7 +10366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -10972,7 +10380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -10986,7 +10394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -11000,7 +10408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -11014,7 +10422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -11028,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -11042,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -12078,7 +11486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" s="8" customFormat="1" spans="1:4">
+    <row r="90" spans="1:4" s="8" customFormat="1">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -12092,7 +11500,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="91" s="8" customFormat="1" spans="1:4">
+    <row r="91" spans="1:4" s="8" customFormat="1">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -12106,7 +11514,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="92" s="8" customFormat="1" spans="1:4">
+    <row r="92" spans="1:4" s="8" customFormat="1">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -12120,7 +11528,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:4">
+    <row r="93" spans="1:4" s="8" customFormat="1">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -12134,7 +11542,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:4">
+    <row r="94" spans="1:4" s="8" customFormat="1">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -12148,7 +11556,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" spans="1:4">
+    <row r="95" spans="1:4" s="8" customFormat="1">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -12162,7 +11570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:4">
+    <row r="96" spans="1:4" s="8" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -12176,7 +11584,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" spans="1:4">
+    <row r="97" spans="1:4" s="8" customFormat="1">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -12190,7 +11598,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="98" s="8" customFormat="1" spans="1:4">
+    <row r="98" spans="1:4" s="8" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -12204,7 +11612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" s="8" customFormat="1" spans="1:4">
+    <row r="99" spans="1:4" s="8" customFormat="1">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -12218,7 +11626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" s="8" customFormat="1" spans="1:4">
+    <row r="100" spans="1:4" s="8" customFormat="1">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -12232,7 +11640,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" s="8" customFormat="1" spans="1:4">
+    <row r="101" spans="1:4" s="8" customFormat="1">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -12246,7 +11654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" s="8" customFormat="1" spans="1:4">
+    <row r="102" spans="1:4" s="8" customFormat="1">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -12260,7 +11668,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" s="8" customFormat="1" spans="1:4">
+    <row r="103" spans="1:4" s="8" customFormat="1">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -12274,7 +11682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" s="8" customFormat="1" spans="1:4">
+    <row r="104" spans="1:4" s="8" customFormat="1">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -12288,7 +11696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" s="8" customFormat="1" spans="1:4">
+    <row r="105" spans="1:4" s="8" customFormat="1">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -12302,7 +11710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" s="8" customFormat="1" spans="1:4">
+    <row r="106" spans="1:4" s="8" customFormat="1">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -12316,7 +11724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" s="8" customFormat="1" spans="1:4">
+    <row r="107" spans="1:4" s="8" customFormat="1">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -12330,7 +11738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" s="8" customFormat="1" spans="1:4">
+    <row r="108" spans="1:4" s="8" customFormat="1">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -12512,7 +11920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" s="8" customFormat="1" spans="1:4">
+    <row r="121" spans="1:4" s="8" customFormat="1">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -12526,7 +11934,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="122" s="8" customFormat="1" spans="1:4">
+    <row r="122" spans="1:4" s="8" customFormat="1">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -12540,7 +11948,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="123" s="8" customFormat="1" spans="1:4">
+    <row r="123" spans="1:4" s="8" customFormat="1">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -12554,7 +11962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" s="8" customFormat="1" spans="1:4">
+    <row r="124" spans="1:4" s="8" customFormat="1">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -12568,7 +11976,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" s="8" customFormat="1" spans="1:4">
+    <row r="125" spans="1:4" s="8" customFormat="1">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -12582,7 +11990,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="126" s="8" customFormat="1" spans="1:4">
+    <row r="126" spans="1:4" s="8" customFormat="1">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -12596,7 +12004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" s="8" customFormat="1" spans="1:4">
+    <row r="127" spans="1:4" s="8" customFormat="1">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -12610,7 +12018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" s="8" customFormat="1" spans="1:4">
+    <row r="128" spans="1:4" s="8" customFormat="1">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -12624,7 +12032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" s="8" customFormat="1" spans="1:4">
+    <row r="129" spans="1:4" s="8" customFormat="1">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -12638,7 +12046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" s="8" customFormat="1" spans="1:4">
+    <row r="130" spans="1:4" s="8" customFormat="1">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -12652,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" s="8" customFormat="1" spans="1:4">
+    <row r="131" spans="1:4" s="8" customFormat="1">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -12666,7 +12074,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" s="8" customFormat="1" spans="1:4">
+    <row r="132" spans="1:4" s="8" customFormat="1">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -12680,7 +12088,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="133" s="8" customFormat="1" spans="1:4">
+    <row r="133" spans="1:4" s="8" customFormat="1">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -12694,7 +12102,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" s="8" customFormat="1" spans="1:4">
+    <row r="134" spans="1:4" s="8" customFormat="1">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -12708,7 +12116,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="135" s="8" customFormat="1" spans="1:4">
+    <row r="135" spans="1:4" s="8" customFormat="1">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -12722,7 +12130,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="136" s="8" customFormat="1" spans="1:4">
+    <row r="136" spans="1:4" s="8" customFormat="1">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -12736,7 +12144,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" s="8" customFormat="1" spans="1:4">
+    <row r="137" spans="1:4" s="8" customFormat="1">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -12750,7 +12158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="138" s="8" customFormat="1" spans="1:4">
+    <row r="138" spans="1:4" s="8" customFormat="1">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -12764,7 +12172,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="139" s="8" customFormat="1" spans="1:4">
+    <row r="139" spans="1:4" s="8" customFormat="1">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -12778,7 +12186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" s="8" customFormat="1" spans="1:4">
+    <row r="140" spans="1:4" s="8" customFormat="1">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -12792,7 +12200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" s="8" customFormat="1" spans="1:4">
+    <row r="141" spans="1:4" s="8" customFormat="1">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -12806,7 +12214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" s="8" customFormat="1" spans="1:4">
+    <row r="142" spans="1:4" s="8" customFormat="1">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -12820,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" s="8" customFormat="1" spans="1:4">
+    <row r="143" spans="1:4" s="8" customFormat="1">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -12834,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" s="8" customFormat="1" spans="1:4">
+    <row r="144" spans="1:4" s="8" customFormat="1">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -12848,7 +12256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" s="8" customFormat="1" spans="1:4">
+    <row r="145" spans="1:4" s="8" customFormat="1">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -12988,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" s="8" customFormat="1" spans="1:4">
+    <row r="155" spans="1:4" s="8" customFormat="1">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -13002,7 +12410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" s="8" customFormat="1" spans="1:4">
+    <row r="156" spans="1:4" s="8" customFormat="1">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -13016,7 +12424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" s="8" customFormat="1" spans="1:4">
+    <row r="157" spans="1:4" s="8" customFormat="1">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -13030,7 +12438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" s="8" customFormat="1" spans="1:4">
+    <row r="158" spans="1:4" s="8" customFormat="1">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -13044,7 +12452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" s="8" customFormat="1" spans="1:4">
+    <row r="159" spans="1:4" s="8" customFormat="1">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -13058,7 +12466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" s="8" customFormat="1" spans="1:4">
+    <row r="160" spans="1:4" s="8" customFormat="1">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -13072,7 +12480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" s="8" customFormat="1" spans="1:4">
+    <row r="161" spans="1:4" s="8" customFormat="1">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -13086,7 +12494,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" s="8" customFormat="1" spans="1:4">
+    <row r="162" spans="1:4" s="8" customFormat="1">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -13100,7 +12508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="163" s="8" customFormat="1" spans="1:4">
+    <row r="163" spans="1:4" s="8" customFormat="1">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -13114,7 +12522,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" s="8" customFormat="1" spans="1:4">
+    <row r="164" spans="1:4" s="8" customFormat="1">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -13128,7 +12536,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="165" s="8" customFormat="1" spans="1:4">
+    <row r="165" spans="1:4" s="8" customFormat="1">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -13142,7 +12550,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" s="8" customFormat="1" spans="1:4">
+    <row r="166" spans="1:4" s="8" customFormat="1">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -13156,7 +12564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="167" s="8" customFormat="1" spans="1:4">
+    <row r="167" spans="1:4" s="8" customFormat="1">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -13170,7 +12578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" s="8" customFormat="1" spans="1:4">
+    <row r="168" spans="1:4" s="8" customFormat="1">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -13184,7 +12592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" s="8" customFormat="1" spans="1:4">
+    <row r="169" spans="1:4" s="8" customFormat="1">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -13198,7 +12606,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" s="8" customFormat="1" spans="1:4">
+    <row r="170" spans="1:4" s="8" customFormat="1">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -13212,7 +12620,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" s="8" customFormat="1" spans="1:4">
+    <row r="171" spans="1:4" s="8" customFormat="1">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -13226,7 +12634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" s="8" customFormat="1" spans="1:4">
+    <row r="172" spans="1:4" s="8" customFormat="1">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -13240,7 +12648,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" s="8" customFormat="1" spans="1:4">
+    <row r="173" spans="1:4" s="8" customFormat="1">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -13254,7 +12662,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="174" s="8" customFormat="1" spans="1:4">
+    <row r="174" spans="1:4" s="8" customFormat="1">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -13268,7 +12676,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="175" s="8" customFormat="1" spans="1:4">
+    <row r="175" spans="1:4" s="8" customFormat="1">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -13282,7 +12690,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" s="8" customFormat="1" spans="1:4">
+    <row r="176" spans="1:4" s="8" customFormat="1">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -13296,7 +12704,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" s="8" customFormat="1" spans="1:4">
+    <row r="177" spans="1:4" s="8" customFormat="1">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -13310,7 +12718,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="178" s="8" customFormat="1" spans="1:4">
+    <row r="178" spans="1:4" s="8" customFormat="1">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -13324,7 +12732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="179" s="8" customFormat="1" spans="1:4">
+    <row r="179" spans="1:4" s="8" customFormat="1">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -13338,7 +12746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="180" s="8" customFormat="1" spans="1:4">
+    <row r="180" spans="1:4" s="8" customFormat="1">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -13352,7 +12760,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" s="8" customFormat="1" spans="1:4">
+    <row r="181" spans="1:4" s="8" customFormat="1">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -13366,7 +12774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" s="8" customFormat="1" spans="1:4">
+    <row r="182" spans="1:4" s="8" customFormat="1">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -13380,7 +12788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" s="8" customFormat="1" spans="1:4">
+    <row r="183" spans="1:4" s="8" customFormat="1">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -13394,7 +12802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" s="8" customFormat="1" spans="1:4">
+    <row r="184" spans="1:4" s="8" customFormat="1">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -13408,7 +12816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" s="8" customFormat="1" spans="1:4">
+    <row r="185" spans="1:4" s="8" customFormat="1">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -13422,7 +12830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" s="8" customFormat="1" spans="1:4">
+    <row r="186" spans="1:4" s="8" customFormat="1">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -13436,7 +12844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" s="8" customFormat="1" spans="1:4">
+    <row r="187" spans="1:4" s="8" customFormat="1">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -13450,7 +12858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" s="8" customFormat="1" spans="1:4">
+    <row r="188" spans="1:4" s="8" customFormat="1">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -13464,7 +12872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" s="8" customFormat="1" spans="1:4">
+    <row r="189" spans="1:4" s="8" customFormat="1">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -13478,7 +12886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" s="8" customFormat="1" spans="1:4">
+    <row r="190" spans="1:4" s="8" customFormat="1">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -13492,7 +12900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" s="8" customFormat="1" spans="1:4">
+    <row r="191" spans="1:4" s="8" customFormat="1">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -13506,7 +12914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" s="8" customFormat="1" spans="1:4">
+    <row r="192" spans="1:4" s="8" customFormat="1">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -13520,7 +12928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" s="8" customFormat="1" spans="1:4">
+    <row r="193" spans="1:4" s="8" customFormat="1">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -13534,7 +12942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" s="8" customFormat="1" spans="1:4">
+    <row r="194" spans="1:4" s="8" customFormat="1">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -13548,7 +12956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" s="8" customFormat="1" spans="1:4">
+    <row r="195" spans="1:4" s="8" customFormat="1">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -13562,7 +12970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" s="8" customFormat="1" spans="1:4">
+    <row r="196" spans="1:4" s="8" customFormat="1">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -13576,7 +12984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" s="8" customFormat="1" spans="1:4">
+    <row r="197" spans="1:4" s="8" customFormat="1">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -13590,7 +12998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" s="8" customFormat="1" spans="1:4">
+    <row r="198" spans="1:4" s="8" customFormat="1">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -13604,7 +13012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" s="8" customFormat="1" spans="1:4">
+    <row r="199" spans="1:4" s="8" customFormat="1">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -13618,7 +13026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" s="8" customFormat="1" spans="1:4">
+    <row r="200" spans="1:4" s="8" customFormat="1">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -13632,7 +13040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" s="8" customFormat="1" spans="1:4">
+    <row r="201" spans="1:4" s="8" customFormat="1">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -13646,7 +13054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" s="8" customFormat="1" spans="1:4">
+    <row r="202" spans="1:4" s="8" customFormat="1">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -13660,7 +13068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" s="8" customFormat="1" spans="1:4">
+    <row r="203" spans="1:4" s="8" customFormat="1">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -13674,7 +13082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" s="8" customFormat="1" spans="1:4">
+    <row r="204" spans="1:4" s="8" customFormat="1">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -13688,7 +13096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" s="8" customFormat="1" spans="1:4">
+    <row r="205" spans="1:4" s="8" customFormat="1">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -13702,7 +13110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" s="8" customFormat="1" spans="1:4">
+    <row r="206" spans="1:4" s="8" customFormat="1">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -13716,7 +13124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" s="8" customFormat="1" spans="1:4">
+    <row r="207" spans="1:4" s="8" customFormat="1">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -13730,7 +13138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" s="8" customFormat="1" spans="1:4">
+    <row r="208" spans="1:4" s="8" customFormat="1">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -13744,7 +13152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" s="8" customFormat="1" spans="1:4">
+    <row r="209" spans="1:4" s="8" customFormat="1">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -13758,7 +13166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" s="8" customFormat="1" spans="1:4">
+    <row r="210" spans="1:4" s="8" customFormat="1">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -13772,7 +13180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" s="8" customFormat="1" spans="1:4">
+    <row r="211" spans="1:4" s="8" customFormat="1">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -13786,7 +13194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" s="8" customFormat="1" spans="1:4">
+    <row r="212" spans="1:4" s="8" customFormat="1">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -13800,7 +13208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" s="8" customFormat="1" spans="1:4">
+    <row r="213" spans="1:4" s="8" customFormat="1">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -13814,7 +13222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" s="8" customFormat="1" spans="1:4">
+    <row r="214" spans="1:4" s="8" customFormat="1">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -13828,7 +13236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" s="8" customFormat="1" spans="1:4">
+    <row r="215" spans="1:4" s="8" customFormat="1">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -13842,7 +13250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" s="8" customFormat="1" spans="1:4">
+    <row r="216" spans="1:4" s="8" customFormat="1">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -13856,7 +13264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" s="8" customFormat="1" spans="1:4">
+    <row r="217" spans="1:4" s="8" customFormat="1">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -13870,7 +13278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" s="8" customFormat="1" spans="1:4">
+    <row r="218" spans="1:4" s="8" customFormat="1">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -13884,7 +13292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="219" s="8" customFormat="1" spans="1:4">
+    <row r="219" spans="1:4" s="8" customFormat="1">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -13898,7 +13306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" s="8" customFormat="1" spans="1:4">
+    <row r="220" spans="1:4" s="8" customFormat="1">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -15606,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" s="8" customFormat="1" spans="1:4">
+    <row r="342" spans="1:4" s="8" customFormat="1">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -15620,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" s="8" customFormat="1" spans="1:4">
+    <row r="343" spans="1:4" s="8" customFormat="1">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -15634,7 +15042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" s="8" customFormat="1" spans="1:4">
+    <row r="344" spans="1:4" s="8" customFormat="1">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -15648,7 +15056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" s="8" customFormat="1" spans="1:4">
+    <row r="345" spans="1:4" s="8" customFormat="1">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -15662,7 +15070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" s="8" customFormat="1" spans="1:4">
+    <row r="346" spans="1:4" s="8" customFormat="1">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -15676,7 +15084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" s="8" customFormat="1" spans="1:4">
+    <row r="347" spans="1:4" s="8" customFormat="1">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -15690,7 +15098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" s="8" customFormat="1" spans="1:4">
+    <row r="348" spans="1:4" s="8" customFormat="1">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -15704,7 +15112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" s="8" customFormat="1" spans="1:4">
+    <row r="349" spans="1:4" s="8" customFormat="1">
       <c r="A349" s="8">
         <v>348</v>
       </c>
@@ -15718,7 +15126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" s="8" customFormat="1" spans="1:4">
+    <row r="350" spans="1:4" s="8" customFormat="1">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -15732,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" s="36" customFormat="1" spans="1:4">
+    <row r="351" spans="1:4" s="36" customFormat="1">
       <c r="A351" s="36">
         <v>350</v>
       </c>
@@ -15746,7 +15154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" s="36" customFormat="1" spans="1:4">
+    <row r="352" spans="1:4" s="36" customFormat="1">
       <c r="A352" s="36">
         <v>351</v>
       </c>
@@ -15760,7 +15168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" s="36" customFormat="1" spans="1:4">
+    <row r="353" spans="1:4" s="36" customFormat="1">
       <c r="A353" s="36">
         <v>352</v>
       </c>
@@ -15774,7 +15182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" s="36" customFormat="1" spans="1:4">
+    <row r="354" spans="1:4" s="36" customFormat="1">
       <c r="A354" s="36">
         <v>353</v>
       </c>
@@ -15788,7 +15196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" s="36" customFormat="1" spans="1:4">
+    <row r="355" spans="1:4" s="36" customFormat="1">
       <c r="A355" s="36">
         <v>354</v>
       </c>
@@ -15802,7 +15210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" s="36" customFormat="1" spans="1:4">
+    <row r="356" spans="1:4" s="36" customFormat="1">
       <c r="A356" s="36">
         <v>355</v>
       </c>
@@ -15816,7 +15224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" s="36" customFormat="1" spans="1:4">
+    <row r="357" spans="1:4" s="36" customFormat="1">
       <c r="A357" s="36">
         <v>356</v>
       </c>
@@ -15830,7 +15238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" s="36" customFormat="1" spans="1:4">
+    <row r="358" spans="1:4" s="36" customFormat="1">
       <c r="A358" s="36">
         <v>357</v>
       </c>
@@ -15844,7 +15252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" s="36" customFormat="1" spans="1:4">
+    <row r="359" spans="1:4" s="36" customFormat="1">
       <c r="A359" s="36">
         <v>358</v>
       </c>
@@ -15858,7 +15266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" s="8" customFormat="1" spans="1:4">
+    <row r="360" spans="1:4" s="8" customFormat="1">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -15872,7 +15280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" s="8" customFormat="1" spans="1:4">
+    <row r="361" spans="1:4" s="8" customFormat="1">
       <c r="A361" s="8">
         <v>360</v>
       </c>
@@ -15886,7 +15294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" s="8" customFormat="1" spans="1:4">
+    <row r="362" spans="1:4" s="8" customFormat="1">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -15900,7 +15308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" s="8" customFormat="1" spans="1:4">
+    <row r="363" spans="1:4" s="8" customFormat="1">
       <c r="A363" s="8">
         <v>362</v>
       </c>
@@ -15914,7 +15322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" s="8" customFormat="1" spans="1:4">
+    <row r="364" spans="1:4" s="8" customFormat="1">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -15928,7 +15336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" s="8" customFormat="1" spans="1:4">
+    <row r="365" spans="1:4" s="8" customFormat="1">
       <c r="A365" s="8">
         <v>364</v>
       </c>
@@ -15942,7 +15350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" s="8" customFormat="1" spans="1:4">
+    <row r="366" spans="1:4" s="8" customFormat="1">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -15956,7 +15364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" s="8" customFormat="1" spans="1:4">
+    <row r="367" spans="1:4" s="8" customFormat="1">
       <c r="A367" s="8">
         <v>366</v>
       </c>
@@ -15970,7 +15378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" s="8" customFormat="1" spans="1:4">
+    <row r="368" spans="1:4" s="8" customFormat="1">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -15984,7 +15392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" s="8" customFormat="1" spans="1:4">
+    <row r="369" spans="1:4" s="8" customFormat="1">
       <c r="A369" s="8">
         <v>368</v>
       </c>
@@ -15998,7 +15406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" s="8" customFormat="1" spans="1:4">
+    <row r="370" spans="1:4" s="8" customFormat="1">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -16012,7 +15420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" s="8" customFormat="1" spans="1:4">
+    <row r="371" spans="1:4" s="8" customFormat="1">
       <c r="A371" s="8">
         <v>370</v>
       </c>
@@ -16026,7 +15434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" s="8" customFormat="1" spans="1:4">
+    <row r="372" spans="1:4" s="8" customFormat="1">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -16040,7 +15448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" s="8" customFormat="1" spans="1:4">
+    <row r="373" spans="1:4" s="8" customFormat="1">
       <c r="A373" s="8">
         <v>372</v>
       </c>
@@ -16054,7 +15462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" s="8" customFormat="1" spans="1:4">
+    <row r="374" spans="1:4" s="8" customFormat="1">
       <c r="A374" s="8">
         <v>373</v>
       </c>
@@ -16068,7 +15476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" s="8" customFormat="1" spans="1:4">
+    <row r="375" spans="1:4" s="8" customFormat="1">
       <c r="A375" s="8">
         <v>374</v>
       </c>
@@ -16082,7 +15490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" s="8" customFormat="1" spans="1:4">
+    <row r="376" spans="1:4" s="8" customFormat="1">
       <c r="A376" s="8">
         <v>375</v>
       </c>
@@ -16096,7 +15504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" s="8" customFormat="1" spans="1:4">
+    <row r="377" spans="1:4" s="8" customFormat="1">
       <c r="A377" s="8">
         <v>376</v>
       </c>
@@ -16110,7 +15518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" s="8" customFormat="1" spans="1:4">
+    <row r="378" spans="1:4" s="8" customFormat="1">
       <c r="A378" s="8">
         <v>377</v>
       </c>
@@ -16124,7 +15532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" s="8" customFormat="1" spans="1:4">
+    <row r="379" spans="1:4" s="8" customFormat="1">
       <c r="A379" s="8">
         <v>378</v>
       </c>
@@ -16138,7 +15546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" s="8" customFormat="1" spans="1:4">
+    <row r="380" spans="1:4" s="8" customFormat="1">
       <c r="A380" s="8">
         <v>379</v>
       </c>
@@ -16152,7 +15560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" s="8" customFormat="1" spans="1:4">
+    <row r="381" spans="1:4" s="8" customFormat="1">
       <c r="A381" s="8">
         <v>380</v>
       </c>
@@ -16166,7 +15574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" s="8" customFormat="1" spans="1:4">
+    <row r="382" spans="1:4" s="8" customFormat="1">
       <c r="A382" s="8">
         <v>381</v>
       </c>
@@ -16180,7 +15588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" s="8" customFormat="1" spans="1:4">
+    <row r="383" spans="1:4" s="8" customFormat="1">
       <c r="A383" s="8">
         <v>382</v>
       </c>
@@ -16194,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" s="8" customFormat="1" spans="1:4">
+    <row r="384" spans="1:4" s="8" customFormat="1">
       <c r="A384" s="8">
         <v>383</v>
       </c>
@@ -16208,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" s="8" customFormat="1" spans="1:4">
+    <row r="385" spans="1:4" s="8" customFormat="1">
       <c r="A385" s="8">
         <v>384</v>
       </c>
@@ -16222,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" s="8" customFormat="1" spans="1:4">
+    <row r="386" spans="1:4" s="8" customFormat="1">
       <c r="A386" s="8">
         <v>385</v>
       </c>
@@ -16236,7 +15644,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="387" s="8" customFormat="1" spans="1:4">
+    <row r="387" spans="1:4" s="8" customFormat="1">
       <c r="A387" s="8">
         <v>386</v>
       </c>
@@ -16250,7 +15658,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="388" s="8" customFormat="1" spans="1:4">
+    <row r="388" spans="1:4" s="8" customFormat="1">
       <c r="A388" s="8">
         <v>387</v>
       </c>
@@ -16264,7 +15672,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="389" s="8" customFormat="1" spans="1:4">
+    <row r="389" spans="1:4" s="8" customFormat="1">
       <c r="A389" s="8">
         <v>388</v>
       </c>
@@ -16278,7 +15686,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" s="8" customFormat="1" spans="1:4">
+    <row r="390" spans="1:4" s="8" customFormat="1">
       <c r="A390" s="8">
         <v>389</v>
       </c>
@@ -16292,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" s="8" customFormat="1" spans="1:4">
+    <row r="391" spans="1:4" s="8" customFormat="1">
       <c r="A391" s="8">
         <v>390</v>
       </c>
@@ -16306,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" s="8" customFormat="1" spans="1:4">
+    <row r="392" spans="1:4" s="8" customFormat="1">
       <c r="A392" s="8">
         <v>391</v>
       </c>
@@ -16320,7 +15728,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="393" s="8" customFormat="1" spans="1:4">
+    <row r="393" spans="1:4" s="8" customFormat="1">
       <c r="A393" s="8">
         <v>392</v>
       </c>
@@ -16334,7 +15742,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="394" s="8" customFormat="1" spans="1:4">
+    <row r="394" spans="1:4" s="8" customFormat="1">
       <c r="A394" s="8">
         <v>393</v>
       </c>
@@ -16348,7 +15756,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="395" s="8" customFormat="1" spans="1:4">
+    <row r="395" spans="1:4" s="8" customFormat="1">
       <c r="A395" s="8">
         <v>394</v>
       </c>
@@ -16362,7 +15770,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="396" s="8" customFormat="1" spans="1:4">
+    <row r="396" spans="1:4" s="8" customFormat="1">
       <c r="A396" s="8">
         <v>395</v>
       </c>
@@ -16376,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" s="8" customFormat="1" spans="1:4">
+    <row r="397" spans="1:4" s="8" customFormat="1">
       <c r="A397" s="8">
         <v>396</v>
       </c>
@@ -16390,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" s="8" customFormat="1" spans="1:4">
+    <row r="398" spans="1:4" s="8" customFormat="1">
       <c r="A398" s="8">
         <v>397</v>
       </c>
@@ -16404,7 +15812,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="399" s="8" customFormat="1" spans="1:4">
+    <row r="399" spans="1:4" s="8" customFormat="1">
       <c r="A399" s="8">
         <v>398</v>
       </c>
@@ -16418,7 +15826,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="400" s="8" customFormat="1" spans="1:4">
+    <row r="400" spans="1:4" s="8" customFormat="1">
       <c r="A400" s="8">
         <v>399</v>
       </c>
@@ -16432,7 +15840,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="401" s="8" customFormat="1" spans="1:4">
+    <row r="401" spans="1:4" s="8" customFormat="1">
       <c r="A401" s="8">
         <v>400</v>
       </c>
@@ -16446,7 +15854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" s="8" customFormat="1" spans="1:4">
+    <row r="402" spans="1:4" s="8" customFormat="1">
       <c r="A402" s="8">
         <v>401</v>
       </c>
@@ -16460,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" s="8" customFormat="1" spans="1:4">
+    <row r="403" spans="1:4" s="8" customFormat="1">
       <c r="A403" s="8">
         <v>402</v>
       </c>
@@ -16474,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" s="8" customFormat="1" spans="1:4">
+    <row r="404" spans="1:4" s="8" customFormat="1">
       <c r="A404" s="8">
         <v>403</v>
       </c>
@@ -16488,7 +15896,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="405" s="8" customFormat="1" spans="1:4">
+    <row r="405" spans="1:4" s="8" customFormat="1">
       <c r="A405" s="8">
         <v>404</v>
       </c>
@@ -16502,7 +15910,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="406" s="8" customFormat="1" spans="1:4">
+    <row r="406" spans="1:4" s="8" customFormat="1">
       <c r="A406" s="8">
         <v>405</v>
       </c>
@@ -16516,7 +15924,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="407" s="8" customFormat="1" spans="1:4">
+    <row r="407" spans="1:4" s="8" customFormat="1">
       <c r="A407" s="8">
         <v>406</v>
       </c>
@@ -16530,7 +15938,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="408" s="8" customFormat="1" spans="1:4">
+    <row r="408" spans="1:4" s="8" customFormat="1">
       <c r="A408" s="8">
         <v>407</v>
       </c>
@@ -16544,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" s="8" customFormat="1" spans="1:4">
+    <row r="409" spans="1:4" s="8" customFormat="1">
       <c r="A409" s="8">
         <v>408</v>
       </c>
@@ -16558,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" s="8" customFormat="1" spans="1:4">
+    <row r="410" spans="1:4" s="8" customFormat="1">
       <c r="A410" s="8">
         <v>409</v>
       </c>
@@ -16572,7 +15980,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="411" s="8" customFormat="1" spans="1:4">
+    <row r="411" spans="1:4" s="8" customFormat="1">
       <c r="A411" s="8">
         <v>410</v>
       </c>
@@ -16586,7 +15994,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="412" s="8" customFormat="1" spans="1:4">
+    <row r="412" spans="1:4" s="8" customFormat="1">
       <c r="A412" s="8">
         <v>411</v>
       </c>
@@ -16600,7 +16008,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="413" s="8" customFormat="1" spans="1:4">
+    <row r="413" spans="1:4" s="8" customFormat="1">
       <c r="A413" s="8">
         <v>412</v>
       </c>
@@ -16614,7 +16022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="414" s="8" customFormat="1" spans="1:4">
+    <row r="414" spans="1:4" s="8" customFormat="1">
       <c r="A414" s="8">
         <v>413</v>
       </c>
@@ -16628,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" s="8" customFormat="1" spans="1:4">
+    <row r="415" spans="1:4" s="8" customFormat="1">
       <c r="A415" s="8">
         <v>414</v>
       </c>
@@ -16642,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" s="8" customFormat="1" spans="1:4">
+    <row r="416" spans="1:4" s="8" customFormat="1">
       <c r="A416" s="8">
         <v>415</v>
       </c>
@@ -16656,7 +16064,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="417" s="8" customFormat="1" spans="1:4">
+    <row r="417" spans="1:4" s="8" customFormat="1">
       <c r="A417" s="8">
         <v>416</v>
       </c>
@@ -16670,7 +16078,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="418" s="8" customFormat="1" spans="1:4">
+    <row r="418" spans="1:4" s="8" customFormat="1">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -16684,7 +16092,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="419" s="8" customFormat="1" spans="1:4">
+    <row r="419" spans="1:4" s="8" customFormat="1">
       <c r="A419" s="8">
         <v>418</v>
       </c>
@@ -16698,7 +16106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="420" s="8" customFormat="1" spans="1:4">
+    <row r="420" spans="1:4" s="8" customFormat="1">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -16712,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" s="8" customFormat="1" spans="1:4">
+    <row r="421" spans="1:4" s="8" customFormat="1">
       <c r="A421" s="8">
         <v>420</v>
       </c>
@@ -16726,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" s="8" customFormat="1" spans="1:4">
+    <row r="422" spans="1:4" s="8" customFormat="1">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -16740,7 +16148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" s="8" customFormat="1" spans="1:4">
+    <row r="423" spans="1:4" s="8" customFormat="1">
       <c r="A423" s="8">
         <v>422</v>
       </c>
@@ -16754,7 +16162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" s="8" customFormat="1" spans="1:4">
+    <row r="424" spans="1:4" s="8" customFormat="1">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -16768,7 +16176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" s="8" customFormat="1" spans="1:4">
+    <row r="425" spans="1:4" s="8" customFormat="1">
       <c r="A425" s="8">
         <v>424</v>
       </c>
@@ -16782,7 +16190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="426" s="8" customFormat="1" spans="1:4">
+    <row r="426" spans="1:4" s="8" customFormat="1">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -16796,7 +16204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" s="8" customFormat="1" spans="1:4">
+    <row r="427" spans="1:4" s="8" customFormat="1">
       <c r="A427" s="8">
         <v>426</v>
       </c>
@@ -16810,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" s="8" customFormat="1" spans="1:4">
+    <row r="428" spans="1:4" s="8" customFormat="1">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -16824,7 +16232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" s="8" customFormat="1" spans="1:4">
+    <row r="429" spans="1:4" s="8" customFormat="1">
       <c r="A429" s="8">
         <v>428</v>
       </c>
@@ -16838,7 +16246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" s="8" customFormat="1" spans="1:4">
+    <row r="430" spans="1:4" s="8" customFormat="1">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -16852,7 +16260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" s="8" customFormat="1" spans="1:4">
+    <row r="431" spans="1:4" s="8" customFormat="1">
       <c r="A431" s="8">
         <v>430</v>
       </c>
@@ -16866,7 +16274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" s="8" customFormat="1" spans="1:4">
+    <row r="432" spans="1:4" s="8" customFormat="1">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -16880,7 +16288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" s="8" customFormat="1" spans="1:4">
+    <row r="433" spans="1:4" s="8" customFormat="1">
       <c r="A433" s="8">
         <v>432</v>
       </c>
@@ -16894,7 +16302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" s="8" customFormat="1" spans="1:4">
+    <row r="434" spans="1:4" s="8" customFormat="1">
       <c r="A434" s="8">
         <v>433</v>
       </c>
@@ -16908,7 +16316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" s="8" customFormat="1" spans="1:4">
+    <row r="435" spans="1:4" s="8" customFormat="1">
       <c r="A435" s="8">
         <v>434</v>
       </c>
@@ -16922,7 +16330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" s="8" customFormat="1" spans="1:4">
+    <row r="436" spans="1:4" s="8" customFormat="1">
       <c r="A436" s="8">
         <v>435</v>
       </c>
@@ -16936,7 +16344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" s="8" customFormat="1" spans="1:4">
+    <row r="437" spans="1:4" s="8" customFormat="1">
       <c r="A437" s="8">
         <v>436</v>
       </c>
@@ -16950,7 +16358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" s="8" customFormat="1" spans="1:4">
+    <row r="438" spans="1:4" s="8" customFormat="1">
       <c r="A438" s="8">
         <v>437</v>
       </c>
@@ -16964,7 +16372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" s="8" customFormat="1" spans="1:4">
+    <row r="439" spans="1:4" s="8" customFormat="1">
       <c r="A439" s="8">
         <v>438</v>
       </c>
@@ -16978,7 +16386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" s="8" customFormat="1" spans="1:4">
+    <row r="440" spans="1:4" s="8" customFormat="1">
       <c r="A440" s="8">
         <v>439</v>
       </c>
@@ -16992,7 +16400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" s="8" customFormat="1" spans="1:4">
+    <row r="441" spans="1:4" s="8" customFormat="1">
       <c r="A441" s="8">
         <v>440</v>
       </c>
@@ -17006,7 +16414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" s="8" customFormat="1" spans="1:4">
+    <row r="442" spans="1:4" s="8" customFormat="1">
       <c r="A442" s="8">
         <v>441</v>
       </c>
@@ -17020,7 +16428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" s="8" customFormat="1" spans="1:4">
+    <row r="443" spans="1:4" s="8" customFormat="1">
       <c r="A443" s="8">
         <v>442</v>
       </c>
@@ -17034,7 +16442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" s="8" customFormat="1" spans="1:4">
+    <row r="444" spans="1:4" s="8" customFormat="1">
       <c r="A444" s="8">
         <v>443</v>
       </c>
@@ -17048,7 +16456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" s="8" customFormat="1" spans="1:4">
+    <row r="445" spans="1:4" s="8" customFormat="1">
       <c r="A445" s="8">
         <v>444</v>
       </c>
@@ -17062,7 +16470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" s="8" customFormat="1" spans="1:4">
+    <row r="446" spans="1:4" s="8" customFormat="1">
       <c r="A446" s="8">
         <v>445</v>
       </c>
@@ -17076,7 +16484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" s="8" customFormat="1" spans="1:4">
+    <row r="447" spans="1:4" s="8" customFormat="1">
       <c r="A447" s="8">
         <v>446</v>
       </c>
@@ -17090,7 +16498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" s="8" customFormat="1" spans="1:4">
+    <row r="448" spans="1:4" s="8" customFormat="1">
       <c r="A448" s="8">
         <v>447</v>
       </c>
@@ -17104,7 +16512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" s="8" customFormat="1" spans="1:4">
+    <row r="449" spans="1:4" s="8" customFormat="1">
       <c r="A449" s="8">
         <v>448</v>
       </c>
@@ -17118,7 +16526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" s="8" customFormat="1" spans="1:4">
+    <row r="450" spans="1:4" s="8" customFormat="1">
       <c r="A450" s="8">
         <v>449</v>
       </c>
@@ -17132,7 +16540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" s="8" customFormat="1" spans="1:4">
+    <row r="451" spans="1:4" s="8" customFormat="1">
       <c r="A451" s="8">
         <v>450</v>
       </c>
@@ -17146,7 +16554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" s="8" customFormat="1" spans="1:4">
+    <row r="452" spans="1:4" s="8" customFormat="1">
       <c r="A452" s="8">
         <v>451</v>
       </c>
@@ -17160,7 +16568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" s="8" customFormat="1" spans="1:4">
+    <row r="453" spans="1:4" s="8" customFormat="1">
       <c r="A453" s="8">
         <v>452</v>
       </c>
@@ -17174,7 +16582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" s="8" customFormat="1" spans="1:4">
+    <row r="454" spans="1:4" s="8" customFormat="1">
       <c r="A454" s="8">
         <v>453</v>
       </c>
@@ -17244,7 +16652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" s="8" customFormat="1" spans="1:4">
+    <row r="459" spans="1:4" s="8" customFormat="1">
       <c r="A459" s="8">
         <v>458</v>
       </c>
@@ -17258,7 +16666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" s="8" customFormat="1" spans="1:4">
+    <row r="460" spans="1:4" s="8" customFormat="1">
       <c r="A460" s="8">
         <v>459</v>
       </c>
@@ -17272,7 +16680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" s="8" customFormat="1" spans="1:4">
+    <row r="461" spans="1:4" s="8" customFormat="1">
       <c r="A461" s="8">
         <v>460</v>
       </c>
@@ -17286,7 +16694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" s="8" customFormat="1" spans="1:4">
+    <row r="462" spans="1:4" s="8" customFormat="1">
       <c r="A462" s="8">
         <v>461</v>
       </c>
@@ -19765,24 +19173,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B629" sqref="B629:B643"/>
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B539" sqref="B539"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="8" customWidth="1"/>
@@ -19791,7 +19197,7 @@
     <col min="5" max="5" width="22.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6" ht="27">
       <c r="A1" s="10" t="s">
         <v>206</v>
       </c>
@@ -19809,7 +19215,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -19823,7 +19229,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -19837,7 +19243,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -19851,7 +19257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -19865,7 +19271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -19879,7 +19285,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -19893,7 +19299,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -19907,7 +19313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -19921,7 +19327,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -19935,7 +19341,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -19949,7 +19355,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -19963,7 +19369,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -19977,7 +19383,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -19989,7 +19395,7 @@
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -20001,7 +19407,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -20012,7 +19418,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -20023,7 +19429,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -20153,7 +19559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -20164,7 +19570,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -20175,7 +19581,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -20186,7 +19592,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -20197,7 +19603,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -20208,7 +19614,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -20219,7 +19625,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -20230,7 +19636,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -20241,7 +19647,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -20560,7 +19966,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:5">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -20571,7 +19977,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:5">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -20582,7 +19988,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:5">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -20691,7 +20097,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:5">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -20702,7 +20108,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:5">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -20713,7 +20119,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:5">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -20822,7 +20228,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:5">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -20833,7 +20239,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:5">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -20844,7 +20250,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:5">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -20953,7 +20359,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:5">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -20964,7 +20370,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:5">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -20975,7 +20381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:5">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -24349,7 +23755,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="297" ht="16.5" spans="1:5">
+    <row r="297" spans="1:5" ht="16.5">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -24366,7 +23772,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="298" ht="16.5" spans="1:5">
+    <row r="298" spans="1:5" ht="16.5">
       <c r="A298" s="7">
         <v>297</v>
       </c>
@@ -24383,7 +23789,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="299" ht="16.5" spans="1:5">
+    <row r="299" spans="1:5" ht="16.5">
       <c r="A299" s="7">
         <v>298</v>
       </c>
@@ -24485,7 +23891,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:5">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -25108,7 +24514,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="342" s="7" customFormat="1" spans="1:5">
+    <row r="342" spans="1:5" s="7" customFormat="1">
       <c r="A342" s="7">
         <v>341</v>
       </c>
@@ -25125,7 +24531,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="343" s="7" customFormat="1" spans="1:5">
+    <row r="343" spans="1:5" s="7" customFormat="1">
       <c r="A343" s="7">
         <v>342</v>
       </c>
@@ -25142,7 +24548,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="344" s="7" customFormat="1" spans="1:5">
+    <row r="344" spans="1:5" s="7" customFormat="1">
       <c r="A344" s="7">
         <v>343</v>
       </c>
@@ -25159,7 +24565,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="345" s="7" customFormat="1" spans="1:5">
+    <row r="345" spans="1:5" s="7" customFormat="1">
       <c r="A345" s="7">
         <v>344</v>
       </c>
@@ -25176,7 +24582,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="346" s="7" customFormat="1" spans="1:5">
+    <row r="346" spans="1:5" s="7" customFormat="1">
       <c r="A346" s="7">
         <v>345</v>
       </c>
@@ -25193,7 +24599,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="347" s="7" customFormat="1" spans="1:5">
+    <row r="347" spans="1:5" s="7" customFormat="1">
       <c r="A347" s="7">
         <v>346</v>
       </c>
@@ -25210,7 +24616,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="348" s="7" customFormat="1" spans="1:5">
+    <row r="348" spans="1:5" s="7" customFormat="1">
       <c r="A348" s="7">
         <v>347</v>
       </c>
@@ -25227,7 +24633,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="349" s="7" customFormat="1" spans="1:5">
+    <row r="349" spans="1:5" s="7" customFormat="1">
       <c r="A349" s="7">
         <v>348</v>
       </c>
@@ -25244,7 +24650,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="350" s="7" customFormat="1" spans="1:5">
+    <row r="350" spans="1:5" s="7" customFormat="1">
       <c r="A350" s="7">
         <v>349</v>
       </c>
@@ -25257,7 +24663,7 @@
       <c r="D350" s="8"/>
       <c r="E350" s="17"/>
     </row>
-    <row r="351" s="7" customFormat="1" spans="1:5">
+    <row r="351" spans="1:5" s="7" customFormat="1">
       <c r="A351" s="7">
         <v>350</v>
       </c>
@@ -25274,7 +24680,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="352" s="7" customFormat="1" spans="1:5">
+    <row r="352" spans="1:5" s="7" customFormat="1">
       <c r="A352" s="7">
         <v>351</v>
       </c>
@@ -25291,7 +24697,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="353" s="7" customFormat="1" spans="1:5">
+    <row r="353" spans="1:5" s="7" customFormat="1">
       <c r="A353" s="7">
         <v>352</v>
       </c>
@@ -25308,7 +24714,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="354" s="7" customFormat="1" spans="1:5">
+    <row r="354" spans="1:5" s="7" customFormat="1">
       <c r="A354" s="7">
         <v>353</v>
       </c>
@@ -25325,7 +24731,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="355" s="7" customFormat="1" spans="1:5">
+    <row r="355" spans="1:5" s="7" customFormat="1">
       <c r="A355" s="7">
         <v>354</v>
       </c>
@@ -25342,7 +24748,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="356" s="7" customFormat="1" spans="1:5">
+    <row r="356" spans="1:5" s="7" customFormat="1">
       <c r="A356" s="7">
         <v>355</v>
       </c>
@@ -25359,7 +24765,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="357" s="7" customFormat="1" spans="1:5">
+    <row r="357" spans="1:5" s="7" customFormat="1">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -25376,7 +24782,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="358" s="7" customFormat="1" spans="1:5">
+    <row r="358" spans="1:5" s="7" customFormat="1">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -25393,7 +24799,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="359" s="7" customFormat="1" spans="1:5">
+    <row r="359" spans="1:5" s="7" customFormat="1">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -25410,7 +24816,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="360" s="7" customFormat="1" spans="1:5">
+    <row r="360" spans="1:5" s="7" customFormat="1">
       <c r="A360" s="7">
         <v>359</v>
       </c>
@@ -25427,7 +24833,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="361" s="7" customFormat="1" spans="1:5">
+    <row r="361" spans="1:5" s="7" customFormat="1">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -25444,7 +24850,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="362" s="7" customFormat="1" spans="1:5">
+    <row r="362" spans="1:5" s="7" customFormat="1">
       <c r="A362" s="7">
         <v>361</v>
       </c>
@@ -25461,7 +24867,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="363" s="7" customFormat="1" spans="1:5">
+    <row r="363" spans="1:5" s="7" customFormat="1">
       <c r="A363" s="7">
         <v>362</v>
       </c>
@@ -25478,7 +24884,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="364" s="7" customFormat="1" spans="1:5">
+    <row r="364" spans="1:5" s="7" customFormat="1">
       <c r="A364" s="7">
         <v>363</v>
       </c>
@@ -25495,7 +24901,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="365" s="7" customFormat="1" spans="1:5">
+    <row r="365" spans="1:5" s="7" customFormat="1">
       <c r="A365" s="7">
         <v>364</v>
       </c>
@@ -25512,7 +24918,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="366" s="7" customFormat="1" spans="1:5">
+    <row r="366" spans="1:5" s="7" customFormat="1">
       <c r="A366" s="7">
         <v>365</v>
       </c>
@@ -25529,7 +24935,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="367" s="7" customFormat="1" spans="1:5">
+    <row r="367" spans="1:5" s="7" customFormat="1">
       <c r="A367" s="7">
         <v>366</v>
       </c>
@@ -25546,7 +24952,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="368" s="7" customFormat="1" spans="1:5">
+    <row r="368" spans="1:5" s="7" customFormat="1">
       <c r="A368" s="7">
         <v>367</v>
       </c>
@@ -25563,7 +24969,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="369" s="7" customFormat="1" spans="1:5">
+    <row r="369" spans="1:5" s="7" customFormat="1">
       <c r="A369" s="7">
         <v>368</v>
       </c>
@@ -25580,7 +24986,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="370" s="7" customFormat="1" spans="1:5">
+    <row r="370" spans="1:5" s="7" customFormat="1">
       <c r="A370" s="7">
         <v>369</v>
       </c>
@@ -25597,7 +25003,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="371" s="7" customFormat="1" spans="1:5">
+    <row r="371" spans="1:5" s="7" customFormat="1">
       <c r="A371" s="7">
         <v>370</v>
       </c>
@@ -25614,7 +25020,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="372" s="7" customFormat="1" spans="1:5">
+    <row r="372" spans="1:5" s="7" customFormat="1">
       <c r="A372" s="7">
         <v>371</v>
       </c>
@@ -25631,7 +25037,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="373" s="7" customFormat="1" spans="1:5">
+    <row r="373" spans="1:5" s="7" customFormat="1">
       <c r="A373" s="7">
         <v>372</v>
       </c>
@@ -25648,7 +25054,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="374" s="7" customFormat="1" spans="1:5">
+    <row r="374" spans="1:5" s="7" customFormat="1">
       <c r="A374" s="7">
         <v>373</v>
       </c>
@@ -25665,7 +25071,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="375" s="7" customFormat="1" spans="1:5">
+    <row r="375" spans="1:5" s="7" customFormat="1">
       <c r="A375" s="7">
         <v>374</v>
       </c>
@@ -25682,7 +25088,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="376" s="7" customFormat="1" spans="1:5">
+    <row r="376" spans="1:5" s="7" customFormat="1">
       <c r="A376" s="7">
         <v>375</v>
       </c>
@@ -25699,7 +25105,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="377" s="7" customFormat="1" spans="1:5">
+    <row r="377" spans="1:5" s="7" customFormat="1">
       <c r="A377" s="7">
         <v>376</v>
       </c>
@@ -25716,7 +25122,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="378" s="7" customFormat="1" spans="1:5">
+    <row r="378" spans="1:5" s="7" customFormat="1">
       <c r="A378" s="7">
         <v>377</v>
       </c>
@@ -25733,7 +25139,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="379" s="7" customFormat="1" spans="1:5">
+    <row r="379" spans="1:5" s="7" customFormat="1">
       <c r="A379" s="7">
         <v>378</v>
       </c>
@@ -25750,7 +25156,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="380" s="7" customFormat="1" spans="1:5">
+    <row r="380" spans="1:5" s="7" customFormat="1">
       <c r="A380" s="7">
         <v>379</v>
       </c>
@@ -25767,7 +25173,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="381" s="7" customFormat="1" spans="1:5">
+    <row r="381" spans="1:5" s="7" customFormat="1">
       <c r="A381" s="7">
         <v>380</v>
       </c>
@@ -25784,7 +25190,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="382" s="7" customFormat="1" spans="1:5">
+    <row r="382" spans="1:5" s="7" customFormat="1">
       <c r="A382" s="7">
         <v>381</v>
       </c>
@@ -25801,7 +25207,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="383" s="7" customFormat="1" spans="1:5">
+    <row r="383" spans="1:5" s="7" customFormat="1">
       <c r="A383" s="7">
         <v>382</v>
       </c>
@@ -25814,7 +25220,7 @@
       <c r="D383" s="8"/>
       <c r="E383" s="17"/>
     </row>
-    <row r="384" s="7" customFormat="1" ht="16.5" spans="1:5">
+    <row r="384" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A384" s="7">
         <v>383</v>
       </c>
@@ -25831,7 +25237,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="385" s="7" customFormat="1" ht="16.5" spans="1:5">
+    <row r="385" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A385" s="7">
         <v>384</v>
       </c>
@@ -25848,7 +25254,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="386" s="7" customFormat="1" spans="1:5">
+    <row r="386" spans="1:5" s="7" customFormat="1">
       <c r="A386" s="7">
         <v>385</v>
       </c>
@@ -25865,7 +25271,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="387" s="7" customFormat="1" spans="1:5">
+    <row r="387" spans="1:5" s="7" customFormat="1">
       <c r="A387" s="7">
         <v>386</v>
       </c>
@@ -25882,7 +25288,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="388" s="7" customFormat="1" spans="1:5">
+    <row r="388" spans="1:5" s="7" customFormat="1">
       <c r="A388" s="7">
         <v>387</v>
       </c>
@@ -25899,7 +25305,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="389" s="7" customFormat="1" spans="1:5">
+    <row r="389" spans="1:5" s="7" customFormat="1">
       <c r="A389" s="7">
         <v>388</v>
       </c>
@@ -25916,7 +25322,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="390" s="7" customFormat="1" spans="1:5">
+    <row r="390" spans="1:5" s="7" customFormat="1">
       <c r="A390" s="7">
         <v>389</v>
       </c>
@@ -25933,7 +25339,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="391" s="7" customFormat="1" spans="1:5">
+    <row r="391" spans="1:5" s="7" customFormat="1">
       <c r="A391" s="7">
         <v>390</v>
       </c>
@@ -25950,7 +25356,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="392" s="7" customFormat="1" spans="1:5">
+    <row r="392" spans="1:5" s="7" customFormat="1">
       <c r="A392" s="7">
         <v>391</v>
       </c>
@@ -25967,7 +25373,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="393" s="7" customFormat="1" spans="1:5">
+    <row r="393" spans="1:5" s="7" customFormat="1">
       <c r="A393" s="7">
         <v>392</v>
       </c>
@@ -25984,7 +25390,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="394" s="7" customFormat="1" spans="1:5">
+    <row r="394" spans="1:5" s="7" customFormat="1">
       <c r="A394" s="7">
         <v>393</v>
       </c>
@@ -26001,7 +25407,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="395" s="7" customFormat="1" spans="1:5">
+    <row r="395" spans="1:5" s="7" customFormat="1">
       <c r="A395" s="7">
         <v>394</v>
       </c>
@@ -26018,7 +25424,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="396" s="7" customFormat="1" spans="1:5">
+    <row r="396" spans="1:5" s="7" customFormat="1">
       <c r="A396" s="7">
         <v>395</v>
       </c>
@@ -26035,7 +25441,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="397" s="7" customFormat="1" spans="1:5">
+    <row r="397" spans="1:5" s="7" customFormat="1">
       <c r="A397" s="7">
         <v>396</v>
       </c>
@@ -26052,7 +25458,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="398" s="7" customFormat="1" spans="1:5">
+    <row r="398" spans="1:5" s="7" customFormat="1">
       <c r="A398" s="7">
         <v>397</v>
       </c>
@@ -26069,7 +25475,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="399" s="7" customFormat="1" spans="1:5">
+    <row r="399" spans="1:5" s="7" customFormat="1">
       <c r="A399" s="7">
         <v>398</v>
       </c>
@@ -26086,7 +25492,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="400" s="7" customFormat="1" spans="1:5">
+    <row r="400" spans="1:5" s="7" customFormat="1">
       <c r="A400" s="7">
         <v>399</v>
       </c>
@@ -26103,7 +25509,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="401" s="7" customFormat="1" spans="1:5">
+    <row r="401" spans="1:5" s="7" customFormat="1">
       <c r="A401" s="7">
         <v>400</v>
       </c>
@@ -26120,7 +25526,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="402" s="7" customFormat="1" spans="1:5">
+    <row r="402" spans="1:5" s="7" customFormat="1">
       <c r="A402" s="7">
         <v>401</v>
       </c>
@@ -26137,7 +25543,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="403" s="7" customFormat="1" spans="1:5">
+    <row r="403" spans="1:5" s="7" customFormat="1">
       <c r="A403" s="7">
         <v>402</v>
       </c>
@@ -26154,7 +25560,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="404" s="7" customFormat="1" spans="1:5">
+    <row r="404" spans="1:5" s="7" customFormat="1">
       <c r="A404" s="7">
         <v>403</v>
       </c>
@@ -26171,7 +25577,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="405" s="7" customFormat="1" spans="1:5">
+    <row r="405" spans="1:5" s="7" customFormat="1">
       <c r="A405" s="7">
         <v>404</v>
       </c>
@@ -26188,7 +25594,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="406" s="7" customFormat="1" spans="1:5">
+    <row r="406" spans="1:5" s="7" customFormat="1">
       <c r="A406" s="7">
         <v>405</v>
       </c>
@@ -26205,7 +25611,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="407" s="7" customFormat="1" spans="1:5">
+    <row r="407" spans="1:5" s="7" customFormat="1">
       <c r="A407" s="7">
         <v>406</v>
       </c>
@@ -26222,7 +25628,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="408" s="7" customFormat="1" spans="1:5">
+    <row r="408" spans="1:5" s="7" customFormat="1">
       <c r="A408" s="7">
         <v>407</v>
       </c>
@@ -26239,7 +25645,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="409" s="7" customFormat="1" spans="1:5">
+    <row r="409" spans="1:5" s="7" customFormat="1">
       <c r="A409" s="7">
         <v>408</v>
       </c>
@@ -26256,7 +25662,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="410" s="7" customFormat="1" spans="1:5">
+    <row r="410" spans="1:5" s="7" customFormat="1">
       <c r="A410" s="7">
         <v>409</v>
       </c>
@@ -26273,7 +25679,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="411" s="7" customFormat="1" spans="1:5">
+    <row r="411" spans="1:5" s="7" customFormat="1">
       <c r="A411" s="7">
         <v>410</v>
       </c>
@@ -26290,7 +25696,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="412" s="7" customFormat="1" spans="1:5">
+    <row r="412" spans="1:5" s="7" customFormat="1">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -26307,7 +25713,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="413" s="7" customFormat="1" spans="1:5">
+    <row r="413" spans="1:5" s="7" customFormat="1">
       <c r="A413" s="7">
         <v>412</v>
       </c>
@@ -26324,7 +25730,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="414" s="7" customFormat="1" spans="1:5">
+    <row r="414" spans="1:5" s="7" customFormat="1">
       <c r="A414" s="7">
         <v>413</v>
       </c>
@@ -26341,7 +25747,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="415" s="7" customFormat="1" spans="1:5">
+    <row r="415" spans="1:5" s="7" customFormat="1">
       <c r="A415" s="7">
         <v>414</v>
       </c>
@@ -26358,7 +25764,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="416" s="7" customFormat="1" spans="1:5">
+    <row r="416" spans="1:5" s="7" customFormat="1">
       <c r="A416" s="7">
         <v>415</v>
       </c>
@@ -26375,7 +25781,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="417" s="7" customFormat="1" spans="1:5">
+    <row r="417" spans="1:5" s="7" customFormat="1">
       <c r="A417" s="7">
         <v>416</v>
       </c>
@@ -26392,7 +25798,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="418" s="7" customFormat="1" spans="1:5">
+    <row r="418" spans="1:5" s="7" customFormat="1">
       <c r="A418" s="7">
         <v>417</v>
       </c>
@@ -26409,7 +25815,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="419" s="7" customFormat="1" spans="1:5">
+    <row r="419" spans="1:5" s="7" customFormat="1">
       <c r="A419" s="7">
         <v>418</v>
       </c>
@@ -26426,7 +25832,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="420" s="7" customFormat="1" spans="1:5">
+    <row r="420" spans="1:5" s="7" customFormat="1">
       <c r="A420" s="7">
         <v>419</v>
       </c>
@@ -26443,7 +25849,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="421" s="7" customFormat="1" spans="1:5">
+    <row r="421" spans="1:5" s="7" customFormat="1">
       <c r="A421" s="7">
         <v>420</v>
       </c>
@@ -26460,7 +25866,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="422" s="7" customFormat="1" spans="1:5">
+    <row r="422" spans="1:5" s="7" customFormat="1">
       <c r="A422" s="7">
         <v>421</v>
       </c>
@@ -26477,7 +25883,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="423" s="7" customFormat="1" spans="1:5">
+    <row r="423" spans="1:5" s="7" customFormat="1">
       <c r="A423" s="7">
         <v>422</v>
       </c>
@@ -26494,7 +25900,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="424" s="7" customFormat="1" spans="1:5">
+    <row r="424" spans="1:5" s="7" customFormat="1">
       <c r="A424" s="7">
         <v>423</v>
       </c>
@@ -26511,7 +25917,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="425" s="7" customFormat="1" spans="1:5">
+    <row r="425" spans="1:5" s="7" customFormat="1">
       <c r="A425" s="7">
         <v>424</v>
       </c>
@@ -26528,7 +25934,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="426" s="7" customFormat="1" spans="1:5">
+    <row r="426" spans="1:5" s="7" customFormat="1">
       <c r="A426" s="7">
         <v>425</v>
       </c>
@@ -26545,7 +25951,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="427" s="7" customFormat="1" spans="1:5">
+    <row r="427" spans="1:5" s="7" customFormat="1">
       <c r="A427" s="7">
         <v>426</v>
       </c>
@@ -26558,7 +25964,7 @@
       <c r="D427" s="8"/>
       <c r="E427" s="17"/>
     </row>
-    <row r="428" s="7" customFormat="1" spans="1:5">
+    <row r="428" spans="1:5" s="7" customFormat="1">
       <c r="A428" s="7">
         <v>427</v>
       </c>
@@ -26573,7 +25979,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="429" s="7" customFormat="1" spans="1:5">
+    <row r="429" spans="1:5" s="7" customFormat="1">
       <c r="A429" s="7">
         <v>428</v>
       </c>
@@ -26588,7 +25994,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="430" s="7" customFormat="1" spans="1:5">
+    <row r="430" spans="1:5" s="7" customFormat="1">
       <c r="A430" s="7">
         <v>429</v>
       </c>
@@ -26603,7 +26009,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="431" s="7" customFormat="1" spans="1:5">
+    <row r="431" spans="1:5" s="7" customFormat="1">
       <c r="A431" s="7">
         <v>430</v>
       </c>
@@ -26618,7 +26024,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="432" s="7" customFormat="1" spans="1:5">
+    <row r="432" spans="1:5" s="7" customFormat="1">
       <c r="A432" s="7">
         <v>431</v>
       </c>
@@ -26633,7 +26039,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="433" s="7" customFormat="1" spans="1:5">
+    <row r="433" spans="1:5" s="7" customFormat="1">
       <c r="A433" s="7">
         <v>432</v>
       </c>
@@ -26648,7 +26054,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="434" s="7" customFormat="1" spans="1:5">
+    <row r="434" spans="1:5" s="7" customFormat="1">
       <c r="A434" s="7">
         <v>433</v>
       </c>
@@ -26663,7 +26069,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="435" s="7" customFormat="1" spans="1:5">
+    <row r="435" spans="1:5" s="7" customFormat="1">
       <c r="A435" s="7">
         <v>434</v>
       </c>
@@ -26678,7 +26084,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="436" s="7" customFormat="1" spans="1:5">
+    <row r="436" spans="1:5" s="7" customFormat="1">
       <c r="A436" s="7">
         <v>435</v>
       </c>
@@ -26693,7 +26099,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="437" s="7" customFormat="1" spans="1:5">
+    <row r="437" spans="1:5" s="7" customFormat="1">
       <c r="A437" s="7">
         <v>436</v>
       </c>
@@ -26708,7 +26114,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="438" s="7" customFormat="1" spans="1:5">
+    <row r="438" spans="1:5" s="7" customFormat="1">
       <c r="A438" s="7">
         <v>437</v>
       </c>
@@ -26723,7 +26129,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="439" s="7" customFormat="1" spans="1:5">
+    <row r="439" spans="1:5" s="7" customFormat="1">
       <c r="A439" s="7">
         <v>438</v>
       </c>
@@ -26738,7 +26144,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="440" s="7" customFormat="1" spans="1:5">
+    <row r="440" spans="1:5" s="7" customFormat="1">
       <c r="A440" s="7">
         <v>439</v>
       </c>
@@ -26753,7 +26159,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="441" s="7" customFormat="1" spans="1:5">
+    <row r="441" spans="1:5" s="7" customFormat="1">
       <c r="A441" s="7">
         <v>440</v>
       </c>
@@ -26768,7 +26174,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="442" s="7" customFormat="1" spans="1:5">
+    <row r="442" spans="1:5" s="7" customFormat="1">
       <c r="A442" s="7">
         <v>441</v>
       </c>
@@ -26783,7 +26189,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="443" s="7" customFormat="1" spans="1:5">
+    <row r="443" spans="1:5" s="7" customFormat="1">
       <c r="A443" s="7">
         <v>442</v>
       </c>
@@ -26798,7 +26204,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="444" s="7" customFormat="1" spans="1:5">
+    <row r="444" spans="1:5" s="7" customFormat="1">
       <c r="A444" s="7">
         <v>443</v>
       </c>
@@ -26813,7 +26219,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="445" s="7" customFormat="1" spans="1:5">
+    <row r="445" spans="1:5" s="7" customFormat="1">
       <c r="A445" s="7">
         <v>444</v>
       </c>
@@ -26828,7 +26234,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="446" s="7" customFormat="1" spans="1:5">
+    <row r="446" spans="1:5" s="7" customFormat="1">
       <c r="A446" s="7">
         <v>445</v>
       </c>
@@ -26843,7 +26249,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="447" s="7" customFormat="1" spans="1:5">
+    <row r="447" spans="1:5" s="7" customFormat="1">
       <c r="A447" s="7">
         <v>446</v>
       </c>
@@ -26858,7 +26264,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="448" s="7" customFormat="1" spans="1:5">
+    <row r="448" spans="1:5" s="7" customFormat="1">
       <c r="A448" s="7">
         <v>447</v>
       </c>
@@ -26873,7 +26279,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="449" s="7" customFormat="1" spans="1:5">
+    <row r="449" spans="1:5" s="7" customFormat="1">
       <c r="A449" s="7">
         <v>448</v>
       </c>
@@ -26888,7 +26294,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="450" s="7" customFormat="1" spans="1:5">
+    <row r="450" spans="1:5" s="7" customFormat="1">
       <c r="A450" s="7">
         <v>449</v>
       </c>
@@ -26903,7 +26309,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="451" s="7" customFormat="1" spans="1:5">
+    <row r="451" spans="1:5" s="7" customFormat="1">
       <c r="A451" s="7">
         <v>450</v>
       </c>
@@ -26918,7 +26324,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="452" s="7" customFormat="1" spans="1:5">
+    <row r="452" spans="1:5" s="7" customFormat="1">
       <c r="A452" s="7">
         <v>451</v>
       </c>
@@ -26933,7 +26339,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="453" s="7" customFormat="1" spans="1:5">
+    <row r="453" spans="1:5" s="7" customFormat="1">
       <c r="A453" s="7">
         <v>452</v>
       </c>
@@ -26948,7 +26354,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="454" s="7" customFormat="1" spans="1:5">
+    <row r="454" spans="1:5" s="7" customFormat="1">
       <c r="A454" s="7">
         <v>453</v>
       </c>
@@ -26963,7 +26369,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="455" ht="16.5" spans="1:5">
+    <row r="455" spans="1:5" ht="16.5">
       <c r="A455" s="7">
         <v>454</v>
       </c>
@@ -26978,7 +26384,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="456" ht="16.5" spans="1:5">
+    <row r="456" spans="1:5" ht="16.5">
       <c r="A456" s="7">
         <v>455</v>
       </c>
@@ -26993,7 +26399,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="457" ht="16.5" spans="1:5">
+    <row r="457" spans="1:5" ht="16.5">
       <c r="A457" s="7">
         <v>456</v>
       </c>
@@ -27008,7 +26414,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="458" ht="16.5" spans="1:5">
+    <row r="458" spans="1:5" ht="16.5">
       <c r="A458" s="7">
         <v>457</v>
       </c>
@@ -27023,7 +26429,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="459" s="7" customFormat="1" spans="1:5">
+    <row r="459" spans="1:5" s="7" customFormat="1">
       <c r="A459" s="7">
         <v>458</v>
       </c>
@@ -27038,7 +26444,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="460" s="7" customFormat="1" spans="1:5">
+    <row r="460" spans="1:5" s="7" customFormat="1">
       <c r="A460" s="7">
         <v>459</v>
       </c>
@@ -27053,7 +26459,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="461" s="7" customFormat="1" ht="16.5" spans="1:5">
+    <row r="461" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A461" s="7">
         <v>460</v>
       </c>
@@ -27068,7 +26474,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="462" s="7" customFormat="1" ht="16.5" spans="1:5">
+    <row r="462" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A462" s="7">
         <v>461</v>
       </c>
@@ -27083,7 +26489,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="463" ht="16.5" spans="1:5">
+    <row r="463" spans="1:5" ht="16.5">
       <c r="A463" s="7">
         <v>462</v>
       </c>
@@ -27171,7 +26577,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="469" ht="16.5" spans="1:5">
+    <row r="469" spans="1:5" ht="16.5">
       <c r="A469" s="7">
         <v>468</v>
       </c>
@@ -27186,7 +26592,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="470" ht="16.5" spans="1:5">
+    <row r="470" spans="1:5" ht="16.5">
       <c r="A470" s="7">
         <v>469</v>
       </c>
@@ -27201,7 +26607,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="471" ht="16.5" spans="1:5">
+    <row r="471" spans="1:5" ht="16.5">
       <c r="A471" s="7">
         <v>470</v>
       </c>
@@ -27289,7 +26695,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="477" ht="16.5" spans="1:5">
+    <row r="477" spans="1:5" ht="16.5">
       <c r="A477" s="7">
         <v>476</v>
       </c>
@@ -27304,7 +26710,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="478" ht="16.5" spans="1:5">
+    <row r="478" spans="1:5" ht="16.5">
       <c r="A478" s="7">
         <v>477</v>
       </c>
@@ -27319,7 +26725,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="479" ht="16.5" spans="1:5">
+    <row r="479" spans="1:5" ht="16.5">
       <c r="A479" s="7">
         <v>478</v>
       </c>
@@ -29696,31 +29102,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
@@ -30994,19 +30398,19 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="1:4">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="1:4">
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="1:4">
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="1:4">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:4">
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="3:3">
@@ -31094,25 +30498,22 @@
       <c r="C124" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D91"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
@@ -31121,7 +30522,7 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:7">
+    <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="2" t="s">
         <v>731</v>
       </c>
@@ -31164,7 +30565,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>90</v>
       </c>
@@ -31178,7 +30579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>91</v>
       </c>
@@ -31192,7 +30593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>92</v>
       </c>
@@ -31206,7 +30607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>96</v>
       </c>
@@ -31220,7 +30621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>97</v>
       </c>
@@ -31234,7 +30635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>98</v>
       </c>
@@ -31248,7 +30649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>101</v>
       </c>
@@ -31262,7 +30663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>102</v>
       </c>
@@ -31276,7 +30677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>103</v>
       </c>
@@ -31291,27 +30692,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="2" t="s">
         <v>744</v>
       </c>
@@ -31339,7 +30739,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>750</v>
       </c>
@@ -31350,7 +30750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>751</v>
       </c>
@@ -31361,7 +30761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>752</v>
       </c>
@@ -31372,7 +30772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>753</v>
       </c>
@@ -31383,7 +30783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>754</v>
       </c>
@@ -31394,7 +30794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>755</v>
       </c>
@@ -31405,7 +30805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>756</v>
       </c>
@@ -31416,7 +30816,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>757</v>
       </c>
@@ -31427,7 +30827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>758</v>
       </c>
@@ -31438,7 +30838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>759</v>
       </c>
@@ -31449,7 +30849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>760</v>
       </c>
@@ -31460,7 +30860,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>761</v>
       </c>
@@ -31471,7 +30871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>762</v>
       </c>
@@ -31483,21 +30883,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -31512,7 +30911,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="822">
   <si>
     <t>id|</t>
   </si>
@@ -5310,6 +5310,480 @@
   </si>
   <si>
     <t>Iphone12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xxl_card_chip_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xxl_card_chip_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,150000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,12</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,4</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,250</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,25</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,400000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,300</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,300</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,38</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,11</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ylb_xybx</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cylb_ssbx</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cylb_csbx</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈福赠礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苹果1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3pro</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板电脑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐12瓶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽纸5包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,500000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,100000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,80000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyqf_qfzl_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyqf_qfzl_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyqf_qfzl_3</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_xiyou</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_shishi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_chuanshuo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲嘴烧30袋</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5482,7 +5956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5639,6 +6113,13 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5916,11 +6397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8682,7 +9163,7 @@
         <v>91</v>
       </c>
       <c r="L95" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -8705,7 +9186,7 @@
         <v>92</v>
       </c>
       <c r="L96" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -8728,7 +9209,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -8751,7 +9232,7 @@
         <v>93</v>
       </c>
       <c r="L98" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -8774,7 +9255,7 @@
         <v>93</v>
       </c>
       <c r="L99" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -8843,7 +9324,7 @@
         <v>96</v>
       </c>
       <c r="L102" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -8866,7 +9347,7 @@
         <v>96</v>
       </c>
       <c r="L103" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -8889,6 +9370,144 @@
         <v>96</v>
       </c>
       <c r="L104" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="39">
+        <v>104</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="C105" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D105" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E105" s="14">
+        <v>91</v>
+      </c>
+      <c r="K105" s="38">
+        <v>97</v>
+      </c>
+      <c r="L105" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="39">
+        <v>105</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="C106" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D106" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E106" s="14">
+        <v>92</v>
+      </c>
+      <c r="K106" s="38">
+        <v>98</v>
+      </c>
+      <c r="L106" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="39">
+        <v>106</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="C107" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D107" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E107" s="14">
+        <v>93</v>
+      </c>
+      <c r="K107" s="38">
+        <v>99</v>
+      </c>
+      <c r="L107" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="39">
+        <v>107</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="C108" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D108" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E108" s="14">
+        <v>94</v>
+      </c>
+      <c r="K108" s="38">
+        <v>100</v>
+      </c>
+      <c r="L108" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="39">
+        <v>108</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="C109" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D109" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E109" s="14">
+        <v>94</v>
+      </c>
+      <c r="K109" s="38">
+        <v>100</v>
+      </c>
+      <c r="L109" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="39">
+        <v>109</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="C110" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D110" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E110" s="14">
+        <v>94</v>
+      </c>
+      <c r="K110" s="38">
+        <v>100</v>
+      </c>
+      <c r="L110" s="38">
         <v>1</v>
       </c>
     </row>
@@ -8902,11 +9521,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10186,6 +10805,62 @@
         <v>148</v>
       </c>
       <c r="D91" s="38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D92" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D93" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D94" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="D95" s="38">
         <v>300</v>
       </c>
     </row>
@@ -10239,13 +10914,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E638"/>
+  <dimension ref="A1:E668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B591" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B612" sqref="B612:D617"/>
+      <selection pane="bottomRight" activeCell="A668" sqref="A668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19192,6 +19867,426 @@
         <v>2406</v>
       </c>
     </row>
+    <row r="639" spans="1:4">
+      <c r="A639" s="4">
+        <v>638</v>
+      </c>
+      <c r="B639" s="4">
+        <v>97</v>
+      </c>
+      <c r="C639" s="8">
+        <v>12115</v>
+      </c>
+      <c r="D639" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4">
+      <c r="A640" s="4">
+        <v>639</v>
+      </c>
+      <c r="B640" s="4">
+        <v>97</v>
+      </c>
+      <c r="C640" s="8">
+        <v>12116</v>
+      </c>
+      <c r="D640" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" s="4">
+        <v>640</v>
+      </c>
+      <c r="B641" s="4">
+        <v>97</v>
+      </c>
+      <c r="C641" s="8">
+        <v>12117</v>
+      </c>
+      <c r="D641" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" s="4">
+        <v>641</v>
+      </c>
+      <c r="B642" s="4">
+        <v>97</v>
+      </c>
+      <c r="C642" s="8">
+        <v>12118</v>
+      </c>
+      <c r="D642" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" s="4">
+        <v>642</v>
+      </c>
+      <c r="B643" s="4">
+        <v>97</v>
+      </c>
+      <c r="C643" s="8">
+        <v>12119</v>
+      </c>
+      <c r="D643" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" s="4">
+        <v>643</v>
+      </c>
+      <c r="B644" s="4">
+        <v>98</v>
+      </c>
+      <c r="C644" s="8">
+        <v>12120</v>
+      </c>
+      <c r="D644" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" s="4">
+        <v>644</v>
+      </c>
+      <c r="B645" s="4">
+        <v>98</v>
+      </c>
+      <c r="C645" s="8">
+        <v>12121</v>
+      </c>
+      <c r="D645" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" s="4">
+        <v>645</v>
+      </c>
+      <c r="B646" s="4">
+        <v>98</v>
+      </c>
+      <c r="C646" s="8">
+        <v>12122</v>
+      </c>
+      <c r="D646" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" s="4">
+        <v>646</v>
+      </c>
+      <c r="B647" s="4">
+        <v>98</v>
+      </c>
+      <c r="C647" s="8">
+        <v>12123</v>
+      </c>
+      <c r="D647" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" s="4">
+        <v>647</v>
+      </c>
+      <c r="B648" s="4">
+        <v>98</v>
+      </c>
+      <c r="C648" s="8">
+        <v>12124</v>
+      </c>
+      <c r="D648" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" s="4">
+        <v>648</v>
+      </c>
+      <c r="B649" s="4">
+        <v>99</v>
+      </c>
+      <c r="C649" s="8">
+        <v>12125</v>
+      </c>
+      <c r="D649" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" s="4">
+        <v>649</v>
+      </c>
+      <c r="B650" s="4">
+        <v>99</v>
+      </c>
+      <c r="C650" s="8">
+        <v>12126</v>
+      </c>
+      <c r="D650" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" s="4">
+        <v>650</v>
+      </c>
+      <c r="B651" s="4">
+        <v>99</v>
+      </c>
+      <c r="C651" s="8">
+        <v>12127</v>
+      </c>
+      <c r="D651" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" s="4">
+        <v>651</v>
+      </c>
+      <c r="B652" s="4">
+        <v>99</v>
+      </c>
+      <c r="C652" s="8">
+        <v>12128</v>
+      </c>
+      <c r="D652" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="4">
+        <v>652</v>
+      </c>
+      <c r="B653" s="4">
+        <v>99</v>
+      </c>
+      <c r="C653" s="8">
+        <v>12129</v>
+      </c>
+      <c r="D653" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="4">
+        <v>653</v>
+      </c>
+      <c r="B654" s="4">
+        <v>100</v>
+      </c>
+      <c r="C654" s="8">
+        <v>12130</v>
+      </c>
+      <c r="D654" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="4">
+        <v>654</v>
+      </c>
+      <c r="B655" s="4">
+        <v>100</v>
+      </c>
+      <c r="C655" s="8">
+        <v>12131</v>
+      </c>
+      <c r="D655" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" s="4">
+        <v>655</v>
+      </c>
+      <c r="B656" s="4">
+        <v>100</v>
+      </c>
+      <c r="C656" s="8">
+        <v>12132</v>
+      </c>
+      <c r="D656" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="4">
+        <v>656</v>
+      </c>
+      <c r="B657" s="4">
+        <v>100</v>
+      </c>
+      <c r="C657" s="8">
+        <v>12133</v>
+      </c>
+      <c r="D657" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="4">
+        <v>657</v>
+      </c>
+      <c r="B658" s="4">
+        <v>100</v>
+      </c>
+      <c r="C658" s="8">
+        <v>12134</v>
+      </c>
+      <c r="D658" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="4">
+        <v>658</v>
+      </c>
+      <c r="B659" s="4">
+        <v>100</v>
+      </c>
+      <c r="C659" s="8">
+        <v>12135</v>
+      </c>
+      <c r="D659" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="4">
+        <v>659</v>
+      </c>
+      <c r="B660" s="4">
+        <v>100</v>
+      </c>
+      <c r="C660" s="8">
+        <v>12136</v>
+      </c>
+      <c r="D660" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="4">
+        <v>660</v>
+      </c>
+      <c r="B661" s="4">
+        <v>100</v>
+      </c>
+      <c r="C661" s="8">
+        <v>12137</v>
+      </c>
+      <c r="D661" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="4">
+        <v>661</v>
+      </c>
+      <c r="B662" s="4">
+        <v>100</v>
+      </c>
+      <c r="C662" s="8">
+        <v>12138</v>
+      </c>
+      <c r="D662" s="4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="4">
+        <v>662</v>
+      </c>
+      <c r="B663" s="4">
+        <v>100</v>
+      </c>
+      <c r="C663" s="8">
+        <v>12139</v>
+      </c>
+      <c r="D663" s="4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" s="4">
+        <v>663</v>
+      </c>
+      <c r="B664" s="4">
+        <v>100</v>
+      </c>
+      <c r="C664" s="8">
+        <v>12140</v>
+      </c>
+      <c r="D664" s="4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" s="4">
+        <v>664</v>
+      </c>
+      <c r="B665" s="4">
+        <v>100</v>
+      </c>
+      <c r="C665" s="8">
+        <v>12141</v>
+      </c>
+      <c r="D665" s="4">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" s="4">
+        <v>665</v>
+      </c>
+      <c r="B666" s="4">
+        <v>100</v>
+      </c>
+      <c r="C666" s="8">
+        <v>12142</v>
+      </c>
+      <c r="D666" s="4">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="4">
+        <v>666</v>
+      </c>
+      <c r="B667" s="4">
+        <v>100</v>
+      </c>
+      <c r="C667" s="8">
+        <v>12143</v>
+      </c>
+      <c r="D667" s="4">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" s="4">
+        <v>667</v>
+      </c>
+      <c r="B668" s="4">
+        <v>100</v>
+      </c>
+      <c r="C668" s="8">
+        <v>12144</v>
+      </c>
+      <c r="D668" s="4">
+        <v>2406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19201,11 +20296,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F643"/>
+  <dimension ref="A1:F673"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C629" sqref="C629"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K653" sqref="K653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29121,10 +30216,430 @@
         <v>490</v>
       </c>
     </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="7">
+        <v>643</v>
+      </c>
+      <c r="B644" s="8">
+        <v>12115</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E644" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="7">
+        <v>644</v>
+      </c>
+      <c r="B645" s="8">
+        <v>12116</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E645" s="57" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="7">
+        <v>645</v>
+      </c>
+      <c r="B646" s="8">
+        <v>12117</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="E646" s="57" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="7">
+        <v>646</v>
+      </c>
+      <c r="B647" s="8">
+        <v>12118</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E647" s="57" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="7">
+        <v>647</v>
+      </c>
+      <c r="B648" s="8">
+        <v>12119</v>
+      </c>
+      <c r="D648" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E648" s="57" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="7">
+        <v>648</v>
+      </c>
+      <c r="B649" s="8">
+        <v>12120</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E649" s="57" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="7">
+        <v>649</v>
+      </c>
+      <c r="B650" s="8">
+        <v>12121</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E650" s="57" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="7">
+        <v>650</v>
+      </c>
+      <c r="B651" s="8">
+        <v>12122</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="E651" s="57" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="7">
+        <v>651</v>
+      </c>
+      <c r="B652" s="8">
+        <v>12123</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E652" s="57" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="7">
+        <v>652</v>
+      </c>
+      <c r="B653" s="8">
+        <v>12124</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E653" s="57" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="7">
+        <v>653</v>
+      </c>
+      <c r="B654" s="8">
+        <v>12125</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E654" s="57" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="7">
+        <v>654</v>
+      </c>
+      <c r="B655" s="8">
+        <v>12126</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E655" s="57" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="7">
+        <v>655</v>
+      </c>
+      <c r="B656" s="8">
+        <v>12127</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="E656" s="57" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="7">
+        <v>656</v>
+      </c>
+      <c r="B657" s="8">
+        <v>12128</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E657" s="57" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="7">
+        <v>657</v>
+      </c>
+      <c r="B658" s="8">
+        <v>12129</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E658" s="57" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="7">
+        <v>658</v>
+      </c>
+      <c r="B659" s="8">
+        <v>12130</v>
+      </c>
+      <c r="C659" s="56" t="s">
+        <v>790</v>
+      </c>
+      <c r="E659" s="57" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="7">
+        <v>659</v>
+      </c>
+      <c r="B660" s="8">
+        <v>12131</v>
+      </c>
+      <c r="C660" s="56" t="s">
+        <v>791</v>
+      </c>
+      <c r="E660" s="57" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="7">
+        <v>660</v>
+      </c>
+      <c r="B661" s="8">
+        <v>12132</v>
+      </c>
+      <c r="C661" s="56" t="s">
+        <v>792</v>
+      </c>
+      <c r="E661" s="57" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="7">
+        <v>661</v>
+      </c>
+      <c r="B662" s="8">
+        <v>12133</v>
+      </c>
+      <c r="C662" s="56" t="s">
+        <v>821</v>
+      </c>
+      <c r="E662" s="57" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="7">
+        <v>662</v>
+      </c>
+      <c r="B663" s="8">
+        <v>12134</v>
+      </c>
+      <c r="C663" s="56" t="s">
+        <v>793</v>
+      </c>
+      <c r="E663" s="57" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="7">
+        <v>663</v>
+      </c>
+      <c r="B664" s="8">
+        <v>12135</v>
+      </c>
+      <c r="D664" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="E664" s="57" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="7">
+        <v>664</v>
+      </c>
+      <c r="B665" s="8">
+        <v>12136</v>
+      </c>
+      <c r="D665" s="56" t="s">
+        <v>797</v>
+      </c>
+      <c r="E665" s="57" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="7">
+        <v>665</v>
+      </c>
+      <c r="B666" s="8">
+        <v>12137</v>
+      </c>
+      <c r="D666" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="E666" s="57" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="7">
+        <v>666</v>
+      </c>
+      <c r="B667" s="8">
+        <v>12138</v>
+      </c>
+      <c r="D667" s="56" t="s">
+        <v>800</v>
+      </c>
+      <c r="E667" s="57" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="7">
+        <v>667</v>
+      </c>
+      <c r="B668" s="8">
+        <v>12139</v>
+      </c>
+      <c r="D668" s="56" t="s">
+        <v>801</v>
+      </c>
+      <c r="E668" s="57" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="7">
+        <v>668</v>
+      </c>
+      <c r="B669" s="8">
+        <v>12140</v>
+      </c>
+      <c r="D669" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="E669" s="57" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="7">
+        <v>669</v>
+      </c>
+      <c r="B670" s="8">
+        <v>12141</v>
+      </c>
+      <c r="D670" s="56" t="s">
+        <v>807</v>
+      </c>
+      <c r="E670" s="57" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="7">
+        <v>670</v>
+      </c>
+      <c r="B671" s="8">
+        <v>12142</v>
+      </c>
+      <c r="D671" s="56" t="s">
+        <v>800</v>
+      </c>
+      <c r="E671" s="57" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="7">
+        <v>671</v>
+      </c>
+      <c r="B672" s="8">
+        <v>12143</v>
+      </c>
+      <c r="D672" s="56" t="s">
+        <v>808</v>
+      </c>
+      <c r="E672" s="57" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="7">
+        <v>672</v>
+      </c>
+      <c r="B673" s="8">
+        <v>12144</v>
+      </c>
+      <c r="D673" s="56" t="s">
+        <v>807</v>
+      </c>
+      <c r="E673" s="57" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30527,10 +32042,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30711,6 +32226,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="39">
+        <v>107</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>813</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="39">
+        <v>108</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="39">
+        <v>109</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>813</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30720,10 +32277,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30900,6 +32457,72 @@
       </c>
       <c r="C15">
         <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="59">
+        <v>104</v>
+      </c>
+      <c r="C16" s="59">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="58" t="s">
+        <v>787</v>
+      </c>
+      <c r="B17" s="59">
+        <v>105</v>
+      </c>
+      <c r="C17" s="59">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="58" t="s">
+        <v>788</v>
+      </c>
+      <c r="B18" s="59">
+        <v>106</v>
+      </c>
+      <c r="C18" s="59">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="58" t="s">
+        <v>814</v>
+      </c>
+      <c r="B19" s="59">
+        <v>107</v>
+      </c>
+      <c r="C19" s="59">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="58" t="s">
+        <v>815</v>
+      </c>
+      <c r="B20" s="59">
+        <v>108</v>
+      </c>
+      <c r="C20" s="59">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="58" t="s">
+        <v>816</v>
+      </c>
+      <c r="B21" s="59">
+        <v>109</v>
+      </c>
+      <c r="C21" s="59">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="830">
   <si>
     <t>id|</t>
   </si>
@@ -5784,6 +5784,38 @@
   </si>
   <si>
     <t>亲嘴烧30袋</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xyzp_flqbx</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3501,4000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5867,7 +5899,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5916,6 +5948,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5956,7 +5994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6121,6 +6159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6397,11 +6442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9511,6 +9556,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="111" spans="1:12" s="60" customFormat="1">
+      <c r="A111" s="60">
+        <v>110</v>
+      </c>
+      <c r="B111" s="60" t="s">
+        <v>822</v>
+      </c>
+      <c r="C111" s="60">
+        <v>1635206400</v>
+      </c>
+      <c r="D111" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="E111" s="61">
+        <v>95</v>
+      </c>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62"/>
+      <c r="K111" s="60">
+        <v>101</v>
+      </c>
+      <c r="L111" s="60">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9521,11 +9594,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10862,6 +10935,20 @@
       </c>
       <c r="D95" s="38">
         <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="D96" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10914,13 +11001,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E668"/>
+  <dimension ref="A1:E671"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A668" sqref="A668"/>
+      <selection pane="bottomRight" activeCell="F671" sqref="F671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -20287,6 +20374,48 @@
         <v>2406</v>
       </c>
     </row>
+    <row r="669" spans="1:4">
+      <c r="A669" s="4">
+        <v>668</v>
+      </c>
+      <c r="B669" s="4">
+        <v>101</v>
+      </c>
+      <c r="C669" s="8">
+        <v>12145</v>
+      </c>
+      <c r="D669" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="4">
+        <v>669</v>
+      </c>
+      <c r="B670" s="4">
+        <v>101</v>
+      </c>
+      <c r="C670" s="8">
+        <v>12146</v>
+      </c>
+      <c r="D670" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="4">
+        <v>670</v>
+      </c>
+      <c r="B671" s="4">
+        <v>101</v>
+      </c>
+      <c r="C671" s="8">
+        <v>12147</v>
+      </c>
+      <c r="D671" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20296,11 +20425,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F673"/>
+  <dimension ref="A1:F676"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K653" sqref="K653"/>
+      <selection pane="bottomLeft" activeCell="B674" sqref="B674:B676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30634,6 +30763,48 @@
       </c>
       <c r="E673" s="57" t="s">
         <v>811</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="7">
+        <v>673</v>
+      </c>
+      <c r="B674" s="8">
+        <v>12145</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="E674" s="9" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="7">
+        <v>674</v>
+      </c>
+      <c r="B675" s="8">
+        <v>12146</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E675" s="9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="7">
+        <v>675</v>
+      </c>
+      <c r="B676" s="8">
+        <v>12147</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="E676" s="9" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="830">
   <si>
     <t>id|</t>
   </si>
@@ -5311,10 +5311,6 @@
   <si>
     <t>Iphone12</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
@@ -5817,6 +5813,10 @@
   <si>
     <t>4001,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6444,9 +6444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9422,14 +9422,14 @@
       <c r="A105" s="39">
         <v>104</v>
       </c>
-      <c r="B105" s="38" t="s">
-        <v>765</v>
+      <c r="B105" s="55" t="s">
+        <v>829</v>
       </c>
       <c r="C105" s="38">
-        <v>1633996800</v>
+        <v>1636416000</v>
       </c>
       <c r="D105" s="38">
-        <v>1634572799</v>
+        <v>1637596799</v>
       </c>
       <c r="E105" s="14">
         <v>91</v>
@@ -9445,14 +9445,14 @@
       <c r="A106" s="39">
         <v>105</v>
       </c>
-      <c r="B106" s="38" t="s">
-        <v>765</v>
+      <c r="B106" s="55" t="s">
+        <v>829</v>
       </c>
       <c r="C106" s="38">
-        <v>1633996800</v>
+        <v>1636416000</v>
       </c>
       <c r="D106" s="38">
-        <v>1634572799</v>
+        <v>1637596799</v>
       </c>
       <c r="E106" s="14">
         <v>92</v>
@@ -9468,14 +9468,14 @@
       <c r="A107" s="39">
         <v>106</v>
       </c>
-      <c r="B107" s="38" t="s">
-        <v>765</v>
+      <c r="B107" s="55" t="s">
+        <v>829</v>
       </c>
       <c r="C107" s="38">
-        <v>1633996800</v>
+        <v>1636416000</v>
       </c>
       <c r="D107" s="38">
-        <v>1634572799</v>
+        <v>1637596799</v>
       </c>
       <c r="E107" s="14">
         <v>93</v>
@@ -9492,7 +9492,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C108" s="38">
         <v>1633996800</v>
@@ -9515,7 +9515,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C109" s="38">
         <v>1633996800</v>
@@ -9538,7 +9538,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C110" s="38">
         <v>1633996800</v>
@@ -9561,7 +9561,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C111" s="60">
         <v>1635206400</v>
@@ -9598,7 +9598,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10889,7 +10889,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10903,7 +10903,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -10945,7 +10945,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D96" s="38">
         <v>1</v>
@@ -11003,7 +11003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E671"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -30353,10 +30353,10 @@
         <v>12115</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E644" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -30367,10 +30367,10 @@
         <v>12116</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E645" s="57" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -30381,10 +30381,10 @@
         <v>12117</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E646" s="57" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -30395,10 +30395,10 @@
         <v>12118</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E647" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -30409,10 +30409,10 @@
         <v>12119</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E648" s="57" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -30423,10 +30423,10 @@
         <v>12120</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E649" s="57" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -30437,10 +30437,10 @@
         <v>12121</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E650" s="57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -30451,10 +30451,10 @@
         <v>12122</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E651" s="57" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -30465,10 +30465,10 @@
         <v>12123</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E652" s="57" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -30479,10 +30479,10 @@
         <v>12124</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E653" s="57" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -30493,10 +30493,10 @@
         <v>12125</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E654" s="57" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -30507,10 +30507,10 @@
         <v>12126</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E655" s="57" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -30521,10 +30521,10 @@
         <v>12127</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E656" s="57" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -30535,10 +30535,10 @@
         <v>12128</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E657" s="57" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -30549,10 +30549,10 @@
         <v>12129</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E658" s="57" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -30563,10 +30563,10 @@
         <v>12130</v>
       </c>
       <c r="C659" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E659" s="57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -30577,10 +30577,10 @@
         <v>12131</v>
       </c>
       <c r="C660" s="56" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E660" s="57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -30591,10 +30591,10 @@
         <v>12132</v>
       </c>
       <c r="C661" s="56" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E661" s="57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -30605,10 +30605,10 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E662" s="57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -30619,10 +30619,10 @@
         <v>12134</v>
       </c>
       <c r="C663" s="56" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E663" s="57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -30633,10 +30633,10 @@
         <v>12135</v>
       </c>
       <c r="D664" s="56" t="s">
+        <v>793</v>
+      </c>
+      <c r="E664" s="57" t="s">
         <v>794</v>
-      </c>
-      <c r="E664" s="57" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -30647,10 +30647,10 @@
         <v>12136</v>
       </c>
       <c r="D665" s="56" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E665" s="57" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -30661,10 +30661,10 @@
         <v>12137</v>
       </c>
       <c r="D666" s="56" t="s">
+        <v>797</v>
+      </c>
+      <c r="E666" s="57" t="s">
         <v>798</v>
-      </c>
-      <c r="E666" s="57" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -30675,10 +30675,10 @@
         <v>12138</v>
       </c>
       <c r="D667" s="56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E667" s="57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -30689,10 +30689,10 @@
         <v>12139</v>
       </c>
       <c r="D668" s="56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E668" s="57" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -30703,10 +30703,10 @@
         <v>12140</v>
       </c>
       <c r="D669" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="E669" s="57" t="s">
         <v>804</v>
-      </c>
-      <c r="E669" s="57" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -30717,10 +30717,10 @@
         <v>12141</v>
       </c>
       <c r="D670" s="56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E670" s="57" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -30731,10 +30731,10 @@
         <v>12142</v>
       </c>
       <c r="D671" s="56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E671" s="57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -30745,10 +30745,10 @@
         <v>12143</v>
       </c>
       <c r="D672" s="56" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E672" s="57" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -30759,10 +30759,10 @@
         <v>12144</v>
       </c>
       <c r="D673" s="56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E673" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -30773,10 +30773,10 @@
         <v>12145</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30787,10 +30787,10 @@
         <v>12146</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30801,10 +30801,10 @@
         <v>12147</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E676" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -32402,7 +32402,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>737</v>
@@ -32416,7 +32416,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>737</v>
@@ -32430,7 +32430,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>737</v>
@@ -32632,7 +32632,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="58" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B16" s="59">
         <v>104</v>
@@ -32643,7 +32643,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="58" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B17" s="59">
         <v>105</v>
@@ -32654,7 +32654,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="58" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B18" s="59">
         <v>106</v>
@@ -32665,7 +32665,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32676,7 +32676,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32687,7 +32687,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="831">
   <si>
     <t>id|</t>
   </si>
@@ -5803,20 +5803,24 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>3000,3500</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3501,4000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>狂欢礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3301,3500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>4001,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6444,8 +6448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
@@ -9423,7 +9427,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C105" s="38">
         <v>1636416000</v>
@@ -9446,7 +9450,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C106" s="38">
         <v>1636416000</v>
@@ -9469,7 +9473,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C107" s="38">
         <v>1636416000</v>
@@ -11001,13 +11005,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E671"/>
+  <dimension ref="A1:E672"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F671" sqref="F671"/>
+      <selection pane="bottomRight" activeCell="E673" sqref="E673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -20385,7 +20389,7 @@
         <v>12145</v>
       </c>
       <c r="D669" s="4">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -20399,7 +20403,7 @@
         <v>12146</v>
       </c>
       <c r="D670" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -20413,23 +20417,37 @@
         <v>12147</v>
       </c>
       <c r="D671" s="4">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="4">
+        <v>671</v>
+      </c>
+      <c r="B672" s="4">
+        <v>101</v>
+      </c>
+      <c r="C672" s="4">
+        <v>12148</v>
+      </c>
+      <c r="D672" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F676"/>
+  <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B674" sqref="B674:B676"/>
+      <selection pane="bottomLeft" activeCell="E681" sqref="E681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30776,7 +30794,7 @@
         <v>823</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30790,7 +30808,7 @@
         <v>824</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30804,7 +30822,21 @@
         <v>825</v>
       </c>
       <c r="E676" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="7">
+        <v>676</v>
+      </c>
+      <c r="B677" s="8">
+        <v>12148</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E677" s="9" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5807,10 +5807,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3000,3100</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5821,6 +5817,9 @@
   <si>
     <t>4001,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞礼包</t>
   </si>
 </sst>
 </file>
@@ -6448,9 +6447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9427,13 +9426,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C105" s="38">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="D105" s="38">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="E105" s="14">
         <v>91</v>
@@ -9450,13 +9449,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C106" s="38">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="D106" s="38">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="E106" s="14">
         <v>92</v>
@@ -9473,13 +9472,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C107" s="38">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="D107" s="38">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="E107" s="14">
         <v>93</v>
@@ -11007,7 +11006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E672"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -30794,7 +30793,7 @@
         <v>823</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30808,7 +30807,7 @@
         <v>824</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30836,7 +30835,7 @@
         <v>766</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="830">
   <si>
     <t>id|</t>
   </si>
@@ -5600,10 +5600,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>祈福赠礼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>苹果1</t>
     </r>
@@ -5748,10 +5744,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>lxjkh_024_jfphb_rank</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>cyqf_qfzl_1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5820,6 +5812,10 @@
   </si>
   <si>
     <t>圣诞礼包</t>
+  </si>
+  <si>
+    <t>元旦抽大奖</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6449,7 +6445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9426,7 +9422,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C105" s="38">
         <v>1640044800</v>
@@ -9449,7 +9445,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C106" s="38">
         <v>1640044800</v>
@@ -9472,7 +9468,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C107" s="38">
         <v>1640044800</v>
@@ -9495,13 +9491,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C108" s="38">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="D108" s="38">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="E108" s="14">
         <v>94</v>
@@ -9518,13 +9514,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C109" s="38">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="D109" s="38">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="E109" s="14">
         <v>94</v>
@@ -9541,13 +9537,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C110" s="38">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="D110" s="38">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="E110" s="14">
         <v>94</v>
@@ -9564,7 +9560,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C111" s="60">
         <v>1635206400</v>
@@ -9601,7 +9597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C94"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10892,7 +10888,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10906,7 +10902,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10920,7 +10916,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10934,7 +10930,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -10948,7 +10944,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D96" s="38">
         <v>1</v>
@@ -30580,10 +30576,10 @@
         <v>12130</v>
       </c>
       <c r="C659" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E659" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -30594,10 +30590,10 @@
         <v>12131</v>
       </c>
       <c r="C660" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E660" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -30608,10 +30604,10 @@
         <v>12132</v>
       </c>
       <c r="C661" s="56" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E661" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -30622,10 +30618,10 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E662" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -30636,10 +30632,10 @@
         <v>12134</v>
       </c>
       <c r="C663" s="56" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E663" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -30650,10 +30646,10 @@
         <v>12135</v>
       </c>
       <c r="D664" s="56" t="s">
+        <v>792</v>
+      </c>
+      <c r="E664" s="57" t="s">
         <v>793</v>
-      </c>
-      <c r="E664" s="57" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -30664,10 +30660,10 @@
         <v>12136</v>
       </c>
       <c r="D665" s="56" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E665" s="57" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -30678,10 +30674,10 @@
         <v>12137</v>
       </c>
       <c r="D666" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="E666" s="57" t="s">
         <v>797</v>
-      </c>
-      <c r="E666" s="57" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -30692,10 +30688,10 @@
         <v>12138</v>
       </c>
       <c r="D667" s="56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E667" s="57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -30706,10 +30702,10 @@
         <v>12139</v>
       </c>
       <c r="D668" s="56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E668" s="57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -30720,10 +30716,10 @@
         <v>12140</v>
       </c>
       <c r="D669" s="56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E669" s="57" t="s">
         <v>803</v>
-      </c>
-      <c r="E669" s="57" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -30734,10 +30730,10 @@
         <v>12141</v>
       </c>
       <c r="D670" s="56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E670" s="57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -30748,10 +30744,10 @@
         <v>12142</v>
       </c>
       <c r="D671" s="56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E671" s="57" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -30762,10 +30758,10 @@
         <v>12143</v>
       </c>
       <c r="D672" s="56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E672" s="57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -30776,10 +30772,10 @@
         <v>12144</v>
       </c>
       <c r="D673" s="56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E673" s="57" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -30790,10 +30786,10 @@
         <v>12145</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30804,10 +30800,10 @@
         <v>12146</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30818,10 +30814,10 @@
         <v>12147</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E676" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -30835,7 +30831,7 @@
         <v>766</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -32247,7 +32243,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32429,46 +32425,19 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39">
-        <v>107</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
+      <c r="A12" s="39"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39">
-        <v>108</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
+      <c r="A13" s="39"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39">
-        <v>109</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
+      <c r="A14" s="39"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -32696,7 +32665,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32707,7 +32676,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32718,7 +32687,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>

--- a/config_Release/box_exchange_server.xlsx
+++ b/config_Release/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="831">
   <si>
     <t>id|</t>
   </si>
@@ -4962,16 +4962,7 @@
     </r>
   </si>
   <si>
-    <t>prop_guess_apple_bet_2</t>
-  </si>
-  <si>
     <t>1500,1500</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_3</t>
-  </si>
-  <si>
-    <t>3,3</t>
   </si>
   <si>
     <t>obj_5_coupon</t>
@@ -5816,6 +5807,48 @@
   <si>
     <t>元旦抽大奖</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_tiny_game_coin</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000,1500000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5993,7 +6026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6165,6 +6198,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6443,9 +6482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9026,7 +9065,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C88" s="29">
         <v>1630972800</v>
@@ -9307,7 +9346,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C100" s="38">
         <v>1630972800</v>
@@ -9422,7 +9461,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C105" s="38">
         <v>1640044800</v>
@@ -9445,7 +9484,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C106" s="38">
         <v>1640044800</v>
@@ -9468,7 +9507,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C107" s="38">
         <v>1640044800</v>
@@ -9491,7 +9530,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C108" s="38">
         <v>1640649600</v>
@@ -9514,7 +9553,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C109" s="38">
         <v>1640649600</v>
@@ -9537,7 +9576,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C110" s="38">
         <v>1640649600</v>
@@ -9560,7 +9599,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C111" s="60">
         <v>1635206400</v>
@@ -10888,7 +10927,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10902,7 +10941,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10916,7 +10955,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10930,7 +10969,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -10944,7 +10983,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D96" s="38">
         <v>1</v>
@@ -20440,9 +20479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E681" sqref="E681"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K533" sqref="K533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28760,11 +28799,11 @@
         <v>12002</v>
       </c>
       <c r="C531" s="8"/>
-      <c r="D531" s="15" t="s">
-        <v>687</v>
+      <c r="D531" s="63" t="s">
+        <v>828</v>
       </c>
       <c r="E531" s="16" t="s">
-        <v>303</v>
+        <v>827</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -28779,7 +28818,7 @@
         <v>290</v>
       </c>
       <c r="E532" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -28790,11 +28829,11 @@
         <v>12003</v>
       </c>
       <c r="C533" s="8"/>
-      <c r="D533" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="E533" s="16" t="s">
-        <v>690</v>
+      <c r="D533" s="63" t="s">
+        <v>829</v>
+      </c>
+      <c r="E533" s="64" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -28806,7 +28845,7 @@
       </c>
       <c r="C534" s="8"/>
       <c r="D534" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E534" s="16" t="s">
         <v>685</v>
@@ -28824,7 +28863,7 @@
         <v>109</v>
       </c>
       <c r="E535" s="31" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -28895,7 +28934,7 @@
         <v>12011</v>
       </c>
       <c r="C540" s="32" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D540" s="32"/>
       <c r="E540" s="33" t="s">
@@ -28910,7 +28949,7 @@
         <v>12012</v>
       </c>
       <c r="C541" s="32" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D541" s="32"/>
       <c r="E541" s="33" t="s">
@@ -28925,7 +28964,7 @@
         <v>12013</v>
       </c>
       <c r="C542" s="32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D542" s="32"/>
       <c r="E542" s="34" t="s">
@@ -28940,7 +28979,7 @@
         <v>12014</v>
       </c>
       <c r="C543" s="32" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D543" s="32"/>
       <c r="E543" s="34" t="s">
@@ -28955,7 +28994,7 @@
         <v>12015</v>
       </c>
       <c r="C544" s="32" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D544" s="32"/>
       <c r="E544" s="34" t="s">
@@ -28989,7 +29028,7 @@
         <v>112</v>
       </c>
       <c r="E546" s="33" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -29004,7 +29043,7 @@
         <v>112</v>
       </c>
       <c r="E547" s="33" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -29034,7 +29073,7 @@
         <v>112</v>
       </c>
       <c r="E549" s="33" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -29064,7 +29103,7 @@
         <v>678</v>
       </c>
       <c r="E551" s="33" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -29109,7 +29148,7 @@
         <v>678</v>
       </c>
       <c r="E554" s="33" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -29123,7 +29162,7 @@
         <v>109</v>
       </c>
       <c r="E555" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -29190,7 +29229,7 @@
         <v>12031</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E560" s="9" t="s">
         <v>220</v>
@@ -29204,7 +29243,7 @@
         <v>12032</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E561" s="9" t="s">
         <v>220</v>
@@ -29218,7 +29257,7 @@
         <v>12033</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E562" s="9" t="s">
         <v>220</v>
@@ -29232,7 +29271,7 @@
         <v>12034</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E563" s="9" t="s">
         <v>220</v>
@@ -29246,7 +29285,7 @@
         <v>12035</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E564" s="9" t="s">
         <v>220</v>
@@ -29260,7 +29299,7 @@
         <v>12036</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E565" s="9" t="s">
         <v>220</v>
@@ -29417,7 +29456,7 @@
         <v>109</v>
       </c>
       <c r="E576" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -29498,7 +29537,7 @@
         <v>12053</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E582" s="9" t="s">
         <v>220</v>
@@ -29529,7 +29568,7 @@
         <v>109</v>
       </c>
       <c r="E584" s="9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -29543,7 +29582,7 @@
         <v>112</v>
       </c>
       <c r="E585" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -29613,7 +29652,7 @@
         <v>109</v>
       </c>
       <c r="E590" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -29638,7 +29677,7 @@
         <v>12063</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E592" s="9" t="s">
         <v>220</v>
@@ -29669,7 +29708,7 @@
         <v>109</v>
       </c>
       <c r="E594" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -29683,7 +29722,7 @@
         <v>112</v>
       </c>
       <c r="E595" s="9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -29711,7 +29750,7 @@
         <v>112</v>
       </c>
       <c r="E597" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -29725,7 +29764,7 @@
         <v>109</v>
       </c>
       <c r="E598" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -29792,7 +29831,7 @@
         <v>12074</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E603" s="9" t="s">
         <v>220</v>
@@ -29806,7 +29845,7 @@
         <v>12075</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E604" s="9" t="s">
         <v>220</v>
@@ -29820,7 +29859,7 @@
         <v>12076</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E605" s="9" t="s">
         <v>220</v>
@@ -29834,7 +29873,7 @@
         <v>12077</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E606" s="9" t="s">
         <v>220</v>
@@ -29991,7 +30030,7 @@
         <v>109</v>
       </c>
       <c r="E617" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -30058,7 +30097,7 @@
         <v>12093</v>
       </c>
       <c r="C622" s="56" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E622" s="9" t="s">
         <v>220</v>
@@ -30075,7 +30114,7 @@
         <v>109</v>
       </c>
       <c r="E623" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -30142,7 +30181,7 @@
         <v>12099</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E628" s="9" t="s">
         <v>220</v>
@@ -30156,7 +30195,7 @@
         <v>12100</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E629" s="9" t="s">
         <v>220</v>
@@ -30170,7 +30209,7 @@
         <v>12101</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E630" s="9" t="s">
         <v>220</v>
@@ -30184,7 +30223,7 @@
         <v>12102</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E631" s="9" t="s">
         <v>220</v>
@@ -30198,7 +30237,7 @@
         <v>12103</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E632" s="9" t="s">
         <v>220</v>
@@ -30212,7 +30251,7 @@
         <v>12104</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E633" s="9" t="s">
         <v>220</v>
@@ -30366,10 +30405,10 @@
         <v>12115</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E644" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -30380,10 +30419,10 @@
         <v>12116</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E645" s="57" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -30394,10 +30433,10 @@
         <v>12117</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E646" s="57" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -30408,10 +30447,10 @@
         <v>12118</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E647" s="57" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -30422,10 +30461,10 @@
         <v>12119</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E648" s="57" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -30436,10 +30475,10 @@
         <v>12120</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E649" s="57" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -30450,10 +30489,10 @@
         <v>12121</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E650" s="57" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -30464,10 +30503,10 @@
         <v>12122</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E651" s="57" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -30478,10 +30517,10 @@
         <v>12123</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E652" s="57" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -30492,10 +30531,10 @@
         <v>12124</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E653" s="57" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -30506,10 +30545,10 @@
         <v>12125</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E654" s="57" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -30520,10 +30559,10 @@
         <v>12126</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E655" s="57" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -30534,10 +30573,10 @@
         <v>12127</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E656" s="57" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -30548,10 +30587,10 @@
         <v>12128</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E657" s="57" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -30562,10 +30601,10 @@
         <v>12129</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E658" s="57" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -30576,10 +30615,10 @@
         <v>12130</v>
       </c>
       <c r="C659" s="56" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E659" s="57" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -30590,10 +30629,10 @@
         <v>12131</v>
       </c>
       <c r="C660" s="56" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E660" s="57" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -30604,10 +30643,10 @@
         <v>12132</v>
       </c>
       <c r="C661" s="56" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E661" s="57" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -30618,10 +30657,10 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E662" s="57" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -30632,10 +30671,10 @@
         <v>12134</v>
       </c>
       <c r="C663" s="56" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E663" s="57" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -30646,10 +30685,10 @@
         <v>12135</v>
       </c>
       <c r="D664" s="56" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E664" s="57" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -30660,10 +30699,10 @@
         <v>12136</v>
       </c>
       <c r="D665" s="56" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E665" s="57" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -30674,10 +30713,10 @@
         <v>12137</v>
       </c>
       <c r="D666" s="56" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E666" s="57" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -30688,10 +30727,10 @@
         <v>12138</v>
       </c>
       <c r="D667" s="56" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E667" s="57" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -30702,10 +30741,10 @@
         <v>12139</v>
       </c>
       <c r="D668" s="56" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E668" s="57" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -30716,10 +30755,10 @@
         <v>12140</v>
       </c>
       <c r="D669" s="56" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E669" s="57" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -30730,10 +30769,10 @@
         <v>12141</v>
       </c>
       <c r="D670" s="56" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E670" s="57" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -30744,10 +30783,10 @@
         <v>12142</v>
       </c>
       <c r="D671" s="56" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E671" s="57" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -30758,10 +30797,10 @@
         <v>12143</v>
       </c>
       <c r="D672" s="56" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E672" s="57" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -30772,10 +30811,10 @@
         <v>12144</v>
       </c>
       <c r="D673" s="56" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E673" s="57" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -30786,10 +30825,10 @@
         <v>12145</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30800,10 +30839,10 @@
         <v>12146</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30814,10 +30853,10 @@
         <v>12147</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E676" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -30828,10 +30867,10 @@
         <v>12148</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -30862,10 +30901,10 @@
         <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>168</v>
@@ -30879,7 +30918,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -30893,7 +30932,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -30907,7 +30946,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -30921,7 +30960,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -30935,7 +30974,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -30949,7 +30988,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -30963,7 +31002,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -30977,7 +31016,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -30991,7 +31030,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -31005,7 +31044,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D11">
         <v>3000</v>
@@ -31019,7 +31058,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D12">
         <v>4000</v>
@@ -31033,7 +31072,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D13">
         <v>6000</v>
@@ -31047,7 +31086,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -31061,7 +31100,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -31075,7 +31114,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D16">
         <v>12000</v>
@@ -31089,7 +31128,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D17">
         <v>12000</v>
@@ -31103,7 +31142,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -31117,7 +31156,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -31131,7 +31170,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -31145,7 +31184,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -31159,7 +31198,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -31173,7 +31212,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -31187,7 +31226,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -31201,7 +31240,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D25">
         <v>500</v>
@@ -31215,7 +31254,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D26">
         <v>500</v>
@@ -31229,7 +31268,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D27">
         <v>1000</v>
@@ -31243,7 +31282,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D28">
         <v>1000</v>
@@ -31257,7 +31296,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D29">
         <v>1000</v>
@@ -31271,7 +31310,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -31285,7 +31324,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D31">
         <v>3000</v>
@@ -31299,7 +31338,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D32">
         <v>3940</v>
@@ -31313,7 +31352,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D33">
         <v>6000</v>
@@ -31327,7 +31366,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D34">
         <v>10000</v>
@@ -31341,7 +31380,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D35">
         <v>10000</v>
@@ -31355,7 +31394,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D36">
         <v>12000</v>
@@ -31369,7 +31408,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D37">
         <v>10000</v>
@@ -31383,7 +31422,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D38">
         <v>10000</v>
@@ -31397,7 +31436,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D39">
         <v>10000</v>
@@ -31411,7 +31450,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D40">
         <v>10000</v>
@@ -31425,7 +31464,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D41">
         <v>10000</v>
@@ -31439,7 +31478,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -31453,7 +31492,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -31467,7 +31506,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D44">
         <v>50</v>
@@ -31481,7 +31520,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D45">
         <v>500</v>
@@ -31495,7 +31534,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D46">
         <v>500</v>
@@ -31509,7 +31548,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D47">
         <v>1000</v>
@@ -31523,7 +31562,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D48">
         <v>1000</v>
@@ -31537,7 +31576,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D49">
         <v>1000</v>
@@ -31551,7 +31590,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D50">
         <v>1000</v>
@@ -31565,7 +31604,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D51">
         <v>3000</v>
@@ -31579,7 +31618,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D52">
         <v>3939</v>
@@ -31593,7 +31632,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D53">
         <v>6000</v>
@@ -31607,7 +31646,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D54">
         <v>10000</v>
@@ -31621,7 +31660,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D55">
         <v>10000</v>
@@ -31635,7 +31674,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D56">
         <v>12000</v>
@@ -31649,7 +31688,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D57">
         <v>10000</v>
@@ -31663,7 +31702,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D58">
         <v>10000</v>
@@ -31677,7 +31716,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D59">
         <v>10000</v>
@@ -31691,7 +31730,7 @@
         <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D60">
         <v>10000</v>
@@ -31705,7 +31744,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D61">
         <v>10000</v>
@@ -31719,7 +31758,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -31733,7 +31772,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
@@ -31747,7 +31786,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
@@ -31761,7 +31800,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
@@ -31775,7 +31814,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -31789,7 +31828,7 @@
         <v>26</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D67" s="5">
         <v>16</v>
@@ -31803,7 +31842,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D68" s="5">
         <v>16</v>
@@ -31817,7 +31856,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D69" s="5">
         <v>160</v>
@@ -31831,7 +31870,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D70" s="5">
         <v>802</v>
@@ -31845,7 +31884,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D71" s="5">
         <v>802</v>
@@ -31859,7 +31898,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D72" s="5">
         <v>481</v>
@@ -31873,7 +31912,7 @@
         <v>32</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D73" s="5">
         <v>1283</v>
@@ -31887,7 +31926,7 @@
         <v>33</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D74" s="5">
         <v>1604</v>
@@ -31901,7 +31940,7 @@
         <v>34</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D75" s="5">
         <v>2406</v>
@@ -31915,7 +31954,7 @@
         <v>35</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D76" s="5">
         <v>2406</v>
@@ -31929,7 +31968,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
@@ -31943,7 +31982,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
@@ -31957,7 +31996,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D79" s="5">
         <v>2</v>
@@ -31971,7 +32010,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D80" s="5">
         <v>8</v>
@@ -31985,7 +32024,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D81" s="5">
         <v>13</v>
@@ -31999,7 +32038,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D82" s="5">
         <v>16</v>
@@ -32013,7 +32052,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D83" s="5">
         <v>16</v>
@@ -32027,7 +32066,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D84" s="5">
         <v>160</v>
@@ -32041,7 +32080,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D85" s="5">
         <v>802</v>
@@ -32055,7 +32094,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D86" s="5">
         <v>802</v>
@@ -32069,7 +32108,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D87" s="5">
         <v>481</v>
@@ -32083,7 +32122,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D88" s="5">
         <v>1283</v>
@@ -32097,7 +32136,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D89" s="5">
         <v>1604</v>
@@ -32111,7 +32150,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D90" s="5">
         <v>2406</v>
@@ -32125,7 +32164,7 @@
         <v>35</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D91" s="5">
         <v>2406</v>
@@ -32257,25 +32296,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -32283,10 +32322,10 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -32295,7 +32334,7 @@
         <v>1000479</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -32303,10 +32342,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -32317,10 +32356,10 @@
         <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -32331,10 +32370,10 @@
         <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -32345,10 +32384,10 @@
         <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -32359,10 +32398,10 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -32373,10 +32412,10 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -32387,10 +32426,10 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -32401,10 +32440,10 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -32415,10 +32454,10 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -32461,21 +32500,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27">
       <c r="A1" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B2">
         <v>88</v>
@@ -32484,12 +32523,12 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -32500,7 +32539,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -32511,7 +32550,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B5">
         <v>91</v>
@@ -32522,7 +32561,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -32533,7 +32572,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B7">
         <v>93</v>
@@ -32544,7 +32583,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B8">
         <v>96</v>
@@ -32555,7 +32594,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B9">
         <v>97</v>
@@ -32566,7 +32605,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B10">
         <v>98</v>
@@ -32577,7 +32616,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B11">
         <v>99</v>
@@ -32588,7 +32627,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -32599,7 +32638,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B13">
         <v>101</v>
@@ -32610,7 +32649,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B14">
         <v>102</v>
@@ -32621,7 +32660,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B15">
         <v>103</v>
@@ -32632,7 +32671,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="58" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B16" s="59">
         <v>104</v>
@@ -32643,7 +32682,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="58" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B17" s="59">
         <v>105</v>
@@ -32654,7 +32693,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="58" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B18" s="59">
         <v>106</v>
@@ -32665,7 +32704,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32676,7 +32715,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32687,7 +32726,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>
@@ -32718,10 +32757,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
